--- a/cleaned_ingredients.xlsx
+++ b/cleaned_ingredients.xlsx
@@ -694,14 +694,13 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>part skim milk, cheese culture, salt, enzyme, aged over 60 day</t>
+          <t>part skim milk, cheese culture, salt, enzymes. aged over 60 day</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>- part-skim milk  → part skim milk  (93%)
-- enzymes → enzyme (singular)
-- aged over 60 days → aged over 60 day (singular)</t>
+- enzymes. aged over 60 days → enzymes. aged over 60 day (singular)</t>
         </is>
       </c>
     </row>
@@ -737,7 +736,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>reduced fat cheddar cheese (pasteurized part skim milk, cheese culture, salt, enzyme, annatto color, vitamin a palmitate), reduced fat monterey jack cheese (pasteurized part skim milk, cheese culture, salt, enzyme, vitamin a palmitate), reduced fat asadero cheese (pasteurized part skim milk, cheese culture, salt, enzyme, vitamin a palmitate), reduced fat queso quesadilla cheese (pasteurized part skim milk, cheese culture, salt, enzyme, vitamin a palmitate), potato starch and powdered cellulose added to prevent caking, natamycin (a natural mold inhibitor)</t>
+          <t>reduced fat cheddar cheese (pasteurized part skim milk, cheese culture, salt, enzyme, annatto color, vitamin a palmitate), reduced fat monterey jack cheese (pasteurized part skim milk, cheese culture, salt, enzyme, vitamin a palmitate), reduced fat asadero cheese (pasteurized part skim milk, cheese culture, salt, enzyme, vitamin a palmitate), reduced fat queso quesadilla cheese (pasteurized part skim milk, cheese culture, salt, enzyme, vitamin a palmitate), potato starch and powdered cellulose added to prevent caking. natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -787,13 +786,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>wheat flour (enriched with niacin, reduced iron, thiamine mononitrate, riboflavin and folic acid), water, yeast, vegetable shortening (partially hydrogenated soybean oil, cottonseed and/or canola oil), dextrose, malt, salt, sugar, datem, wheat flour, ascorbic acid, enzyme, l cysteine, potassium iodate</t>
+          <t>wheat flour (enriched with niacin, reduced iron, thiamine mononitrate, riboflavin and folic acid), water, yeast, vegetable shortening (partially hydrogenated soybean, cottonseed and/or canola oil), dextrose, malt, salt, sugar, datem, wheat flour, ascorbic acid, enzyme, l cysteine, potassium iodate</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>(PAREN) - partially hydrogenated soybean  → partially hydrogenated soybean oil  (94%)
-- l-cysteine  → l cysteine  (90%)</t>
+          <t>- l-cysteine  → l cysteine  (90%)</t>
         </is>
       </c>
     </row>
@@ -1198,7 +1196,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>flour, (wheat flour bleached, malted barley flour,potassium bromate, folic acid), water, vegetable shortening (non hydrogenated palm oil shortening), salt, baking powder powder, (sodium acid pyrophosphate, sodium bicarbonate, starch, monocalcium phosphate), sodium propionate, fumaric acid added as preservative</t>
+          <t>flour, (wheat flour bleached, malted barley flour,potassium bromate, folic acid), water, vegetable shortening (non hydrogenated palm oil shortening), salt, baking powder, (sodium acid pyrophosphate, sodium bicarbonate, starch, monocalcium phosphate), sodium propionate, fumaric acid added as preservative</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1351,18 +1349,13 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>tuna salad, light tuna, ((yellowfin), water, vegetable broth (soybeans), salt), mayonnaise, soybean oil, vinegar, egg, water, salt, egg yolk, sugar, calcium disodium edta (to protect flavor), dried garlic, dried onions, natural flavor), celery, bread crumb, (enriched wheat flour, yeast, sugar, salt, soybean oil).wheat bread, pullman (enriched bleached flour ( bleached wheat flour, malted barley flour, niacin, reduced iron, ascorbic acid aded as a dough conditioner, thiamine mononitrate, riboflavin, folic acid), water, cracked wheat, high fructose corn syrup syrup, whole wheat flour, yeast, wheat gluten, rolled oat, partially hydrogenated cottonseed oil, less than 2% of each of the following, corn syrup, salt, wheat bran, oat bran, soy lecithin, caramel color, calcium propionate (preservative), azodicarbonamide, ascorbic acid added as a dough conditioner, carbamide, calcium peroxide, calcium phosphate)</t>
+          <t>tuna salad, light tuna, ((yellowfin), water, vegetable broth (soybeans), salt), mayonnaise, (soybean oil, vinegar, eggs, water, salt, egg yolks, sugar, calcium disodium edta (to protect flavor), dried garlic, dried onions, natural flavor), celery, bread crumb, (enriched wheat flour, yeast, sugar, salt, soybean oil).wheat bread, pullman (enriched bleached flour ( bleached wheat flour, malted barley flour, niacin, reduced iron, ascorbic acid aded as a dough conditioner, thiamine mononitrate, riboflavin, folic acid), water, cracked wheat, high fructose corn syrup, whole wheat flour, yeast, wheat gluten, rolled oats, partially hydrogenated soybean &amp; cottonseed oils, contain less than 2% of each of the following: corn syrup, salt, wheat bran, oat bran, soy lecithin, caramel color, calcium propionate (preservative), azodicarbonamide, ascorbic acid added as a dough conditioner, carbamide, calcium peroxide, calcium phosphate)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>- (soybean oil  → soybean oil  (96%)
-- eggs → egg (singular)
-- egg yolks → egg yolk (singular)
-- bread crumbs → bread crumb (singular)
-- rolled oats → rolled oat (singular)
-- partially hydrogenated soybean &amp; cottonseed oils → partially hydrogenated soybean &amp; cottonseed oil (singular)
-- partially hydrogenated soybean &amp; cottonseed oil  → partially hydrogenated cottonseed oil  (88%)</t>
+          <t>- bread crumbs → bread crumb (singular)
+- pullman (enriched bleached flour ( bleached wheat flour, malted barley flour, niacin, reduced iron, ascorbic acid aded as a dough conditioner, thiamine mononitrate, riboflavin, folic acid), water, cracked wheat, high fructose corn syrup, whole wheat flour, yeast, wheat gluten, rolled oats, partially hydrogenated soybean &amp; cottonseed oils, contains less than 2% of each of the following: corn syrup, salt, wheat bran, oat bran, soy lecithin, caramel color, calcium propionate (preservative), azodicarbonamide, ascorbic acid added as a dough conditioner, carbamide, calcium peroxide, calcium phosphate) → pullman (enriched bleached flour ( bleached wheat flour, malted barley flour, niacin, reduced iron, ascorbic acid aded as a dough conditioner, thiamine mononitrate, riboflavin, folic acid), water, cracked wheat, high fructose corn syrup, whole wheat flour, yeast, wheat gluten, rolled oats, partially hydrogenated soybean &amp; cottonseed oils, contain less than 2% of each of the following: corn syrup, salt, wheat bran, oat bran, soy lecithin, caramel color, calcium propionate (preservative), azodicarbonamide, ascorbic acid added as a dough conditioner, carbamide, calcium peroxide, calcium phosphate) (singular)</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1452,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>sugar, enriched bleached wheat flour (wheat flour, malted barley flour, niacin, reduced iron, thiamine mononitrate, riboflavin, folic acid), margarine (palm oil, water, soybean oil, salt, mono and diglycerides, soy lecithin, to preserve freshness (potassium sorbate), vitamin a palmitate), egg, less than 2% of the following, natural and artificial flavor, skim milk, corn starch, partially hydrogenated soybean and cottonseed oil, leavening (sodium acid pyrophosphate, baking soda, monocalcium phosphate), modified corn starch, polysorbate 60, salt colored with (vegetable juice) artificial color (blue 2 lake, red 40 lake, yellow 5 lake, red 3, blue 1, red 40), dextrin, soy lecithin, confectioners carnauba wax</t>
+          <t>sugar, enriched bleached wheat flour (wheat flour, malted barley flour, niacin, reduced iron, thiamine mononitrate, riboflavin, folic acid), margarine (palm oil, water, soybean oil, salt, mono and diglycerides, soy lecithin, to preserve freshness (potassium sorbate), vitamin a palmitate), egg, less than 2% of the following, natural and artificial flavor, skim milk, corn starch, partially hydrogenated soybean and cottonseed oil, leavening (sodium acid pyrophosphate, baking soda, monocalcium phosphate), modified corn starch, polysorbate 60, salt colored with (vegetable juice) artificial color (blue 2 lake, red 40 lake, yellow 5 lake, red 3, blue 1, red 40), dextrin, soy lecithin, confectioner's glaze carnauba wax</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1467,8 +1460,7 @@
           <t>- eggs → egg (singular)
 - cornstarch  → corn starch  (95%)
 - partially hydrogenated soybean and cottonseed oils → partially hydrogenated soybean and cottonseed oil (singular)
-- salt colored with (vegetable juice) artificial colors → salt colored with (vegetable juice) artificial color (singular)
-- confectioner's glaze carnauba wax  → confectioners carnauba wax  (88%)</t>
+- salt colored with (vegetable juice) artificial colors → salt colored with (vegetable juice) artificial color (singular)</t>
         </is>
       </c>
     </row>
@@ -1506,13 +1498,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>water, sugar, corn syrup, red wine vinegar, red bell peppers (red bell pepper, vinegar, salt, potassium sorbate and sodium benzoate (preservative), calcium chloride), high fructose corn syrup syrup, jalapeno peppers (jalapenos, water, salt, acetic acid, calcium chloride, potassium sorbate preservative, modified corn starch, less than 2% of spice, garlic, xanthan gum, salt</t>
+          <t>water, sugar, corn syrup, red wine vinegar, red bell pepper (red bell peppers, vinegar, salt, potassium sorbate and sodium benzoate (preservative), calcium chloride), high fructose corn syrup, jalapeno peppers (jalapenos, water, salt, acetic acid, calcium chloride, potassium sorbate (preservative)), modified corn starch, less than 2% of spice, garlic, xanthan gum, salt</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>- red bell peppers (red bell peppers → red bell peppers (red bell pepper (singular)
-- potassium sorbate (preservative))  → potassium sorbate preservative  (95%)</t>
+          <t>- red bell peppers (red bell peppers, vinegar, salt, potassium sorbate and sodium benzoate (preservative), calcium chloride) → red bell pepper (red bell peppers, vinegar, salt, potassium sorbate and sodium benzoate (preservative), calcium chloride) (singular)</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1540,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>corn syrup, water, high fructose corn syrup, sugar, soy sauce (water, wheat, soybeans, salt, sodium benzoate preservative)), molasses, cayenne pepper sauce (cayenne peppers, distilled vinegar, water, salt, garlic powder), onion puree, modified cornstarch, 2% or less of vinegar, corn oil, salt, natural &amp; artificial whiskey flavor, caramel color, spice, potassium sorbate (preservative), xanthan gum, natural flavors</t>
+          <t>corn syrup, water, high fructose corn syrup, sugar, soy sauce (water, wheat, soybeans, salt, sodium benzoate preservative)), molasses, cayenne pepper sauce (cayenne peppers, distilled vinegar, water, salt, garlic powder), onion puree, modified cornstarch, 2% or less of vinegar, corn oil, salt, natural &amp; artificial whiskey flavor, caramel color, spice,potassium sorbate (preservative), xanthan gum, natural flavors</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1569,7 +1560,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>corn syrup, water, high fructose corn syrup syrup, soy sauce (water, wheat, soybean, salt, less than 1% sodium benzoate as a preservative), white distilled vinegar, modified corn starch, 2% or less of garlic, toasted sesame oil, concentrated orange juice, spice, extractives of annatto, canola oil, xanthan gum, salt</t>
+          <t>corn syrup, water, high fructose corn syrup, soy sauce (water, wheat, soybean, salt, less than 1% sodium benzoate as a preservative), white distilled vinegar, modified corn starch, 2% or less of garlic, toasted sesame oil, concentrated orange juice, spice, extractives of annatto, canola oil, xanthan gum, salt</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1637,7 +1628,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>garlic herb tortilla (enriched bleached flour (wheat flour, niacin, ferrous sulfate, thiamin mononitrate, riboflavin, folic acid), water, palm oil, soybean oil, cultured wheat flour, salt, mono- and di-glycerides, sugar, citric acid, garlic powder, sodium bicarbonate, sodium acid pyrophosphate, wheat gluten, guar gum, enzymes, green onion, calcium sulfate), seasoned chicken (chicken breast with rib meat, chicken broth, contains 2% or less of: modified potato starch, garlic powder, canola oil, soybean oil, salt, sodium phosphate, chicken fat, flavor)), lettuce, caesar dressing (mayonnaise (water, soybean oil, egg, yolk, corn starch, distilled vinegar, less than 2% of, salt, egg white, xanthan gum, spice, lemon juice concentrate, dl-alpha-tocopheryl acetate (vitamin e), natural flavor), water, dijon mustard (grain vinegar, water, mustard seed, salt, spices), red wine vinegar, parmesan cheese (pasteurized cow's milk, cheese culture, salt, enzymes, powdered cellulose (anti-caking agent)), garlic puree, worcestershire sauce (distilled vinegar, molasses, water, sugar, sea salt, caramel color, garlic powder, allspice, nutmeg, clove, ginger, cayenne, pepper, black pepper, xanthan gum), canola oil, lemon juice concentrate black pepper, xanthan gum), parmesan cheese (pasteurized part-skim cow's milk, cheese, culture, salt, enzymes, powdered cellulose (anti-caking agent))</t>
+          <t>garlic herb tortilla (enriched bleached flour (wheat flour, niacin, ferrous sulfate, thiamin mononitrate, riboflavin, folic acid), water, palm oil, soybean oil, cultured wheat flour, salt, mono- and di-glycerides, sugar, citric acid, garlic powder, sodium bicarbonate, sodium acid pyrophosphate, wheat gluten, guar gum, enzymes, green onion, calcium sulfate), seasoned chicken (chicken breast with rib meat, chicken broth, contains 2% or less of: modified potato starch, garlic powder, canola oil, soybean oil, salt, sodium phosphate, chicken fat, flavor)), lettuce, caesar dressing (mayonnaise (water, soybean oil, egg, yolk, corn starch, distilled vinegar, contains less than 2% of: salt, egg white, xanthan gum, spice, lemon juice concentrate, dl-alpha-tocopheryl acetate (vitamin e), natural flavor), water, dijon mustard (grain vinegar, water, mustard seed, salt, spices), red wine vinegar, parmesan cheese (pasteurized cow's milk, cheese culture, salt, enzymes, powdered cellulose (anti-caking agent)), garlic puree, worcestershire sauce (distilled vinegar, molasses, water, sugar, sea salt, caramel color, garlic powder, allspice, nutmeg, clove, ginger, cayenne, pepper, black pepper, xanthan gum), canola oil, lemon juice concentrate black pepper, xanthan gum), parmesan cheese (pasteurized part-skim cow's milk, cheese, culture, salt, enzymes, powdered cellulose (anti-caking agent))</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1657,7 +1648,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>enriched flour (wheat flour, niacin, reduced iron, thiamin mononitrate, riboflavin, folic acid), water, sugar, soybean and/or cottonseed oil, high fructose corn syrup syrup, 2% or less of, brown sugar, dextrose, leavening (sodium bicarbonate, sodium aluminum phosphate), dried sweet whey solids, palm and palm kernel oil, corn flour, yeast, corn syrup, corn starch, salt, nonfat dry milk, egg, modified corn starch, dextrin, natural and artificial flavor, mono and diglycerides, guar gum, sodium stearoyl lactylate, agar, artificial color, citric acid, pectin, potassium sorbate (preservative), sodium hexametaphosphate, stearic acid, soy lecithin, cinnamon, ammonium sulfate, l cysteine, carrageenan, silicon dioxide, enzymatically modified wheat gluten, xanthan gum, locust bean gum</t>
+          <t>enriched flour (wheat flour, niacin, reduced iron, thiamin mononitrate, riboflavin, folic acid), water, sugar, soybean and/or cottonseed oil, high fructose corn syrup, 2% or less of, brown sugar, dextrose, leavening (sodium bicarbonate, sodium aluminum phosphate), dried sweet whey solids, palm and palm kernel oil, corn flour, yeast, corn syrup, corn starch, salt, nonfat dry milk, egg, modified corn starch, dextrin, natural and artificial flavor, mono and diglycerides, guar gum, sodium stearoyl lactylate, agar, artificial color, citric acid, pectin, potassium sorbate (preservative), sodium hexametaphosphate, stearic acid, soy lecithin, cinnamon, ammonium sulfate, l cysteine, carrageenan, silicon dioxide, enzymatically modified wheat gluten, xanthan gum, locust bean gum</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1701,7 +1692,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>water, tomato puree (water, tomato paste), enriched pasta (wheat flour, niacin, ferrous sulfate, thiamine mononitrate, riboflavin, folic acid), cooked groundbeef (beef, salt), high fructose corn syrup syrup, modified food starch, less than 2% of, canola oil, enzyme modified cheddar cheese (cheddar cheese (cultured milk, salt, enzymes, calcium chloride), water, disodium phosphate, enzymes), salt, yeast extract, flavoring, potassium chloride, hydrolyzed soy protein, enzyme modified butter, reconstituted skim milk, citric acid, paprika extract, disodium inosinate and disodium guanylate, mono and diglycerides, caramel color, vegetable juice concentrate (celery, carrot, onion, leek), onion extract</t>
+          <t>water, tomato puree (water, tomato paste), enriched pasta (wheat flour, niacin, ferrous sulfate, thiamine mononitrate, riboflavin, folic acid), cooked ground beef (beef, salt), high fructose corn syrup, modified food starch, less than 2% of, canola oil, enzyme modified cheddar cheese (cheddar cheese (cultured milk, salt, enzymes, calcium chloride), water, disodium phosphate, enzymes), salt, yeast extract, flavoring, potassium chloride, hydrolyzed soy protein, enzyme modified butter, reconstituted skim milk, citric acid, paprika extract, disodium inosinate and disodium guanylate, mono and diglycerides, caramel color, vegetable juice concentrate (celery, carrot, onion, leek), onion extract</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -1739,7 +1730,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>blackberry, high fructose corn syrup syrup, corn syrup, fruit pectin, citric acid</t>
+          <t>blackberry, high fructose corn syrup, corn syrup, fruit pectin, citric acid</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1759,7 +1750,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>high fructose corn syrup syrup, apple juice, corn syrup, cherry juice, grape juice, fruit pectin, citric acid</t>
+          <t>high fructose corn syrup, apple juice, corn syrup, cherry juice, grape juice, fruit pectin, citric acid</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -2108,14 +2099,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ice cream (cream, milk, buttermilk, whey, sugar, corn syrup, strawberry, skim milk, 1% or less of natural flavor, carob bean gum, cellulose gum, carrageenan, mono and diglycerides, beet juice for color), sugar cookie (enriched bleached wheat flour (wheat flour, niacin, reduced iron, thiamin mononitrate, riboflavin, folic acid), sugar, palm oil, water, invert sugar, potato starch, buttermilk, salt, egg, vanilla, baking powder (sodium bicarbonate, sodium aluminum sulfate, corn starch, calcium sulfate, monocalcium phosphate), baking soda)</t>
+          <t>ice cream (cream, milk, buttermilk, whey, sugar, corn syrup, strawberries, skim milk, contain 1% or less of natural flavors, carob bean gum, cellulose gum, carrageenan, mono and diglycerides, beet juice for color). sugar cookie (enriched bleached wheat flour (wheat flour, niacin, reduced iron, thiamin mononitrate, riboflavin, folic acid), sugar, palm oil, water, invert sugar, potato starch, buttermilk, salt, eggs, vanilla, baking powder (sodium bicarbonate, sodium aluminum sulfate, corn starch, calcium sulfate, monocalcium phosphate), baking soda)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>(PAREN) - strawberries → strawberry (singular)
-(PAREN) - 1% or less of natural flavors → 1% or less of natural flavor (singular)
-- eggs → egg (singular)</t>
+          <t>- ice cream (cream, milk, buttermilk, whey, sugar, corn syrup, strawberries, skim milk, contains 1% or less of natural flavors, carob bean gum, cellulose gum, carrageenan, mono and diglycerides, beet juice for color). sugar cookie (enriched bleached wheat flour (wheat flour, niacin, reduced iron, thiamin mononitrate, riboflavin, folic acid), sugar, palm oil, water, invert sugar, potato starch, buttermilk, salt, eggs, vanilla, baking powder (sodium bicarbonate, sodium aluminum sulfate, corn starch, calcium sulfate, monocalcium phosphate), baking soda) → ice cream (cream, milk, buttermilk, whey, sugar, corn syrup, strawberries, skim milk, contain 1% or less of natural flavors, carob bean gum, cellulose gum, carrageenan, mono and diglycerides, beet juice for color). sugar cookie (enriched bleached wheat flour (wheat flour, niacin, reduced iron, thiamin mononitrate, riboflavin, folic acid), sugar, palm oil, water, invert sugar, potato starch, buttermilk, salt, eggs, vanilla, baking powder (sodium bicarbonate, sodium aluminum sulfate, corn starch, calcium sulfate, monocalcium phosphate), baking soda) (singular)</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2119,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>dextrose, corn syrup, sugar, modified food starch, high fructose corn syrup syrup, citric acid, tapioca dextrin, artificial flavor, carnauba wax, color (fdc red 40), mineral oil</t>
+          <t>dextrose, corn syrup, sugar, modified food starch, high fructose corn syrup, citric acid, tapioca dextrin, artificial flavor, carnauba wax, color (fdc red 40), mineral oil</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2264,12 +2253,13 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>wheat flour, high fructose corn syrup syrup, semi sweet drops (sugar, chocolate liquor, anhydrous dextrose, cocoa butter and soy lecithin (an emulsifier)), palm oil, sugar, water, 2% or less of the following, food starch modified, glycerin, soy lecithin, molasses, sodium bicarbonate, salt, natural and artificial flavor, ammonium bicarbonate, yellow 6</t>
+          <t>wheat flour, high fructose corn syrup, semi sweet drop (sugar, chocolate liquor, anhydrous dextrose, cocoa butter and soy lecithin (an emulsifier)), palm oil, sugar, water, 2% or less of the following, food starch modified, glycerin, soy lecithin, molasses, sodium bicarbonate, salt, natural and artificial flavor, ammonium bicarbonate, yellow 6</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>- natural and artificial flavors → natural and artificial flavor (singular)</t>
+          <t>- semi sweet drops (sugar, chocolate liquor, anhydrous dextrose, cocoa butter and soy lecithin (an emulsifier)) → semi sweet drop (sugar, chocolate liquor, anhydrous dextrose, cocoa butter and soy lecithin (an emulsifier)) (singular)
+- natural and artificial flavors → natural and artificial flavor (singular)</t>
         </is>
       </c>
     </row>
@@ -2339,13 +2329,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>water, tomato (tomato puree, water), enriched pasta (durum wheat semolina, egg white, niacin, reduced iron, thiamine mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), cooked italian sausage pork, seasoning (spices, salt, corn syrup solids, paprika, garlic powder, caramel color, flavoring, disodium inosinate, disodium guanylate, citric acid), water, salt, sodium tripolyphosphate), diced tomato with juice, less than 2% of, sugar, salt, garlic powder, modified corn starch, sea salt, romano cheese paste (romano cheese from cow's milk (pasteurized milk, cultures, salt, enzymes), water, salt, sodium phosphate, flavorings, xanthan gum), carrot fiber, spice, dehydrated onion, citric acid, calcium chloride, soybean oil, sesame oil, coconut oil, flavoring</t>
+          <t>water, tomato (tomato puree, water), enriched pasta (durum wheat semolina, egg white, niacin, reduced iron,thiamine mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), cooked italian sausage (pork, seasoning (spices, salt, corn syrup solids, paprika, garlic powder, caramel color, flavoring, disodium inosinate, disodium guanylate, citric acid), water, salt, sodium tripolyphosphate), diced tomato with juice, less than 2% of, sugar, salt, garlic powder, modified corn starch, sea salt, romano cheese paste (romano cheese from cow's milk (pasteurized milk, cultures, salt, enzymes), water, salt, sodium phosphate, flavorings, xanthan gum), carrot fiber, spice, dehydrated onion, citric acid, calcium chloride, soybean oil, sesame oil, coconut oil, flavoring</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
           <t>- tomatoes → tomato (singular)
-- cooked italian sausage (pork  → italian sausage pork  (98%)
 - diced tomatoes with juice → diced tomato with juice (singular)
 - diced tomato with juice  → tomato with juice  (86%)
 - spices → spice (singular)
@@ -2384,7 +2373,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>sugar, vegetable fats (coconut (tree nut), palm kernel, palm), cocoa butter, whole milk powder, cocoa mass, low fat cocoa powder powder, whey powder, cereal (corn flour, rice flour, wheat flour, sugar, low fat cocoa powder powder, barley malt extract extract, salt), hazelnut, emulsifier, soya lecithin, skimmed milk powder, flavoring</t>
+          <t>sugar, vegetable fats (coconut (tree nut), palm kernel, palm), cocoa butter, whole milk powder, cocoa mass, low fat cocoa powder, whey powder, cereal (corn flour, rice flour, wheat flour, sugar, low fat cocoa powder, barley malt extract, salt), hazelnut, emulsifier, soya lecithin, skimmed milk powder, flavoring</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2408,7 +2397,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>sugar, vegetable oil (coconut (tree nut), palm kernel, palm), cocoa butter, whole milk powder, cocoa mass, skim milk powder, whey powder, lowfat cocoa powder powder, cereal (corn flour, rice flour, wheat flour, sugar, lowfat cocoa powder powder, barley malt extract extract, salt), lactose, hazelnut (tree nut), soy lecithin (emulsifier), artificial flavor</t>
+          <t>sugar, vegetable oil (coconut (tree nut), palm kernel, palm), cocoa butter, whole milk powder, cocoa mass, skim milk powder, whey powder, lowfat cocoa powder, cereal (corn flour, rice flour, wheat flour, sugar, lowfat cocoa powder, barley malt extract, salt), lactose, hazelnut (tree nut), soy lecithin (emulsifier), artificial flavor</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2644,14 +2633,13 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>water, milk protein concentrate, canola oil, less than 2% of, glycerin, fructose, corn maltodextrin, soy protein isolate, short chain fructooligosaccharide, corn oil, soluble corn fiber, potassium citrate, magnesium phosphate, natural and artificial flavor, cellulose gel, salt, choline chloride, ascorbic acid, calcium carbonate, soy lecithin, monoglyceride, cellulose gum, carrageenan, calcium phosphate, sodium citrate, potassium chloride, acesulfame potassium, d alpha tocopheryl acetate, ferrous sulfate, gellan gum, sucralose, zinc sulfate, niacinamide, calcium pantothenate, manganese sulfate, thiamine hydrochloride, pyridoxine hydrochloride, riboflavin, vitamin a palmitate, copper sulfate, folic acid, chromium chloride, potassium iodide, sodium selenate, phylloquinone, sodium molybdate, biotin, vitamin d3 and vitamin b12</t>
+          <t>water, milk protein concentrate, canola oil, less than 2% of, glycerin, fructose, corn maltodextrin, soy protein isolate, short chain fructooligosaccharide, corn oil, soluble corn fiber, potassium citrate, magnesium phosphate, natural and artificial flavor, cellulose gel, salt, choline chloride, ascorbic acid, calcium carbonate, soy lecithin, monoglyceride, cellulose gum, carrageenan, calcium phosphate, sodium citrate, potassium chloride, acesulfame potassium, di-alpha-tocopheryl acetate, ferrous sulfate, gellan gum, sucralose, zinc sulfate, niacinamide, calcium pantothenate, manganese sulfate, thiamine hydrochloride, pyridoxine hydrochloride, riboflavin, vitamin a palmitate, copper sulfate, folic acid, chromium chloride, potassium iodide, sodium selenate, phylloquinone, sodium molybdate, biotin, vitamin d3 and vitamin b12</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
           <t>- short-chain fructooligosaccharides  → short chain fructooligosaccharide  (96%)
-- monoglycerides  → monoglyceride  (96%)
-- di-alpha-tocopheryl acetate  → d alpha tocopheryl acetate  (91%)</t>
+- monoglycerides  → monoglyceride  (96%)</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3023,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>concord grape juice, (water, concord grape juice concentrate), corn syrup, high fructose corn syrup syrup, 2% or less of, fruit pectin, citric acid, sodium citrate</t>
+          <t>concord grape juice, (water, concord grape juice concentrate), corn syrup, high fructose corn syrup, 2% or less of, fruit pectin, citric acid, sodium citrate</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
@@ -3051,7 +3039,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>concord grape, high fructose corn syrup syrup, corn syrup, water, 2% or less of, fruit pectin, citric acid, sodium citrate</t>
+          <t>concord grape, high fructose corn syrup, corn syrup, water, 2% or less of, fruit pectin, citric acid, sodium citrate</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3071,7 +3059,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>concord grape juice (water, concord grape juice concentrate), corn syrup, high fructose corn syrup syrup, 2% or less of, fruit pectin, citric acid, sodium citrate</t>
+          <t>concord grape juice (water, concord grape juice concentrate), corn syrup, high fructose corn syrup, 2% or less of, fruit pectin, citric acid, sodium citrate</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -3087,7 +3075,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>concord grape juice, (water, concord grape juice concentrate), corn syrup, high fructose corn syrup syrup, 2% or less of, fruit pectin, citric acid, sodium citrate</t>
+          <t>concord grape juice, (water, concord grape juice concentrate), corn syrup, high fructose corn syrup, 2% or less of, fruit pectin, citric acid, sodium citrate</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
@@ -3103,7 +3091,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>blackberry, high fructose corn syrup syrup, corn syrup, 2% or less of, fruit pectin, citric acid, sodium citrate</t>
+          <t>blackberry, high fructose corn syrup, corn syrup, 2% or less of, fruit pectin, citric acid, sodium citrate</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3123,7 +3111,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>cherry, high fructose corn syrup syrup, corn syrup, sugar, 2% or less of, fruit pectin, citric acid, sodium citrate</t>
+          <t>cherry, high fructose corn syrup, corn syrup, sugar, 2% or less of, fruit pectin, citric acid, sodium citrate</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3143,7 +3131,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>apricot, high fructose corn syrup syrup, corn syrup, sugar, 2% or less of, fruit pectin, citric acid</t>
+          <t>apricot, high fructose corn syrup, corn syrup, sugar, 2% or less of, fruit pectin, citric acid</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3163,7 +3151,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>peach, high fructose corn syrup syrup, corn syrup, sugar, 2% or less of, fruit pectin, citric acid</t>
+          <t>peach, high fructose corn syrup, corn syrup, sugar, 2% or less of, fruit pectin, citric acid</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3183,7 +3171,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>high fructose corn syrup syrup, corn syrup, orange peel, 2% or less of, orange juice, fruit pectin, citric acid, natural orange flavor</t>
+          <t>high fructose corn syrup, corn syrup, orange peel, 2% or less of, orange juice, fruit pectin, citric acid, natural orange flavor</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -3199,7 +3187,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>red raspberry, high fructose corn syrup syrup, corn syrup, 2% or less of, fruit pectin, citric acid, sodium citrate</t>
+          <t>red raspberry, high fructose corn syrup, corn syrup, 2% or less of, fruit pectin, citric acid, sodium citrate</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3219,7 +3207,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>strawberry, high fructose corn syrup syrup, corn syrup, sugar, 2% or less of, fruit pectin, citric acid</t>
+          <t>strawberry, high fructose corn syrup, corn syrup, sugar, 2% or less of, fruit pectin, citric acid</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3239,7 +3227,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>strawberry, high fructose corn syrup syrup, corn syrup, sugar, 2% or less of, fruit pectin, citric acid</t>
+          <t>strawberry, high fructose corn syrup, corn syrup, sugar, 2% or less of, fruit pectin, citric acid</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3259,7 +3247,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>apple juice (water, apple juice concentrate), high fructose corn syrup syrup, corn syrup, 2% or less of, fruit pectin, citric acid, sodium citrate</t>
+          <t>apple juice (water, apple juice concentrate), high fructose corn syrup, corn syrup, 2% or less of, fruit pectin, citric acid, sodium citrate</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
@@ -3275,7 +3263,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), corn syrup, sugar, high fructose corn syrup syrup, palm oil, brown sugar, whey permeate, less than 2% of, modified corn starch, water, pregelatinized yellow corn, salt, cinnamon, leavening (sodium aluminum phosphate, baking soda), color added, citric acid, potassium sorbate (preservative), gelatin, soy lecithin, enzyme modified soy protein, vitamin a palmitate, reduced iron, niacinamide, pyridoxine hydrochloride, riboflavin, thiamine mononitrate</t>
+          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), corn syrup, sugar, high fructose corn syrup, palm oil, brown sugar, whey permeate, less than 2% of, modified corn starch, water, pregelatinized yellow corn, salt, cinnamon, leavening (sodium aluminum phosphate, baking soda), color added, citric acid, potassium sorbate (preservative), gelatin, soy lecithin, enzyme modified soy protein, vitamin a palmitate, reduced iron, niacinamide, pyridoxine hydrochloride, riboflavin, thiamine mononitrate</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3296,7 +3284,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), corn syrup, sugar, high fructose corn syrup syrup, palm oil, less than 2% of, whey permeate, glycerin, modified corn starch, water, white grape juice concentrate, salt, pregelatinized yellow corn, leavening (sodium aluminum phosphate, baking soda), color added, strawberry juice concentrate, citric acid, malic acid, natural and artificial flavor, potassium sorbate (preservative), gelatin, enzyme modified soy protein, flour, yellow corn flour, turmeric oleoresin color, red 40, blue 1, vitamin a palmitate, reduced iron, niacin, niacinamide, pyridoxine hydrochloride, thiamine mononitrate, riboflavin, folic acid</t>
+          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), corn syrup, sugar, high fructose corn syrup, palm oil, less than 2% of, whey permeate, glycerin, modified corn starch, water, white grape juice concentrate, salt, pregelatinized yellow corn, leavening (sodium aluminum phosphate, baking soda), color added, strawberry juice concentrate, citric acid, malic acid, natural and artificial flavor, potassium sorbate (preservative), gelatin, enzyme modified soy protein, flour, yellow corn flour, turmeric oleoresin color, red 40, blue 1, vitamin a palmitate, reduced iron, niacin, niacinamide, pyridoxine hydrochloride, thiamine mononitrate, riboflavin, folic acid</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3317,7 +3305,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), corn syrup, sugar, high fructose corn syrup syrup, palm oil, less than 2% of, whey permeate, glycerin, water, modified corn starch, white grape juice concentrate, blueberry juice concentrate, pregelatinized yellow corn, salt, leavening (sodium aluminum phosphate, baking soda), citric acid, red 40, color added, potassium sorbate (preservative), natural and artificial flavor, blue 1, gelatin, enzyme modified soy protein, flour, yellow corn flour, turmeric oleoresin color, vitamin a palmitate, reduced iron, niacin, niacinamide, pyridoxine hydrochloride, riboflavin, thiamine mononitrate, folic acid</t>
+          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), corn syrup, sugar, high fructose corn syrup, palm oil, less than 2% of, whey permeate, glycerin, water, modified corn starch, white grape juice concentrate, blueberry juice concentrate, pregelatinized yellow corn, salt, leavening (sodium aluminum phosphate, baking soda), citric acid, red 40, color added, potassium sorbate (preservative), natural and artificial flavor, blue 1, gelatin, enzyme modified soy protein, flour, yellow corn flour, turmeric oleoresin color, vitamin a palmitate, reduced iron, niacin, niacinamide, pyridoxine hydrochloride, riboflavin, thiamine mononitrate, folic acid</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3338,7 +3326,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), corn syrup, sugar, high fructose corn syrup syrup, palm oil, brown sugar, whey permeate, less than 2% of, modified corn starch, water, pregelatinized yellow corn, salt, cinnamon, leavening (sodium aluminum phosphate, baking soda), color added, citric acid, potassium sorbate (preservative), gelatin, soy lecithin, enzyme modified soy protein, vitamin a palmitate, reduced iron, niacinamide, pyridoxine hydrochloride, riboflavin, thiamine mononitrate</t>
+          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), corn syrup, sugar, high fructose corn syrup, palm oil, brown sugar, whey permeate, less than 2% of, modified corn starch, water, pregelatinized yellow corn, salt, cinnamon, leavening (sodium aluminum phosphate, baking soda), color added, citric acid, potassium sorbate (preservative), gelatin, soy lecithin, enzyme modified soy protein, vitamin a palmitate, reduced iron, niacinamide, pyridoxine hydrochloride, riboflavin, thiamine mononitrate</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3359,7 +3347,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), corn syrup, sugar, high fructose corn syrup syrup, palm oil, less than 2% of, whey permeate, glycerin, modified corn starch, water, white grape juice concentrate, salt, pregelatinized yellow corn, wheat flour, leavening (sodium aluminum phosphate, baking soda), citric acid, cherry juice concentrate, natural and artificial flavor, red 40, potassium sorbate (preservative), gelatin, enzyme modified soy protein, color added, yellow corn flour, vitamin a palmitate, reduced iron, niacin, niacinamide, pyridoxine hydrochloride, riboflavin, thiamine mononitrate, folic acid</t>
+          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), corn syrup, sugar, high fructose corn syrup, palm oil, less than 2% of, whey permeate, glycerin, modified corn starch, water, white grape juice concentrate, salt, pregelatinized yellow corn, wheat flour, leavening (sodium aluminum phosphate, baking soda), citric acid, cherry juice concentrate, natural and artificial flavor, red 40, potassium sorbate (preservative), gelatin, enzyme modified soy protein, color added, yellow corn flour, vitamin a palmitate, reduced iron, niacin, niacinamide, pyridoxine hydrochloride, riboflavin, thiamine mononitrate, folic acid</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3380,7 +3368,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), high fructose corn syrup syrup, sugar, corn syrup, palm oil, whey permeate, less than 2% of, cocoa processed with alkali, water, modified corn starch, salt, pregelatinized yellow corn, leavening (sodium aluminum phosphate, baking soda), color added, sorbitol, potassium sorbate (preservative), natural and artificial flavor, gelatin, enzyme modified soy protein, flour, yellow corn flour, vitamin a palmitate, reduced iron, niacin, niacinamide, pyridoxine hydrochloride, thiamine mononitrate, riboflavin, folic acid</t>
+          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), high fructose corn syrup, sugar, corn syrup, palm oil, whey permeate, less than 2% of, cocoa processed with alkali, water, modified corn starch, salt, pregelatinized yellow corn, leavening (sodium aluminum phosphate, baking soda), color added, sorbitol, potassium sorbate (preservative), natural and artificial flavor, gelatin, enzyme modified soy protein, flour, yellow corn flour, vitamin a palmitate, reduced iron, niacin, niacinamide, pyridoxine hydrochloride, thiamine mononitrate, riboflavin, folic acid</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3401,7 +3389,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), corn syrup, sugar, high fructose corn syrup syrup, palm oil, less than 2% of, whey permeate, glycerin, modified corn starch, water, white grape juice concentrate, salt, pregelatinized yellow corn, leavening (sodium aluminum phosphate, baking soda), color added, strawberry juice concentrate, citric acid, malic acid, natural and artificial flavor, potassium sorbate (preservative), gelatin, enzyme modified soy protein, flour, yellow corn flour, turmeric oleoresin color, red 40, blue 1, vitamin a palmitate, reduced iron, niacin, niacinamide, pyridoxine hydrochloride, thiamine mononitrate, riboflavin, folic acid</t>
+          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), corn syrup, sugar, high fructose corn syrup, palm oil, less than 2% of, whey permeate, glycerin, modified corn starch, water, white grape juice concentrate, salt, pregelatinized yellow corn, leavening (sodium aluminum phosphate, baking soda), color added, strawberry juice concentrate, citric acid, malic acid, natural and artificial flavor, potassium sorbate (preservative), gelatin, enzyme modified soy protein, flour, yellow corn flour, turmeric oleoresin color, red 40, blue 1, vitamin a palmitate, reduced iron, niacin, niacinamide, pyridoxine hydrochloride, thiamine mononitrate, riboflavin, folic acid</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3499,13 +3487,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>enriched unbleached flour (wheat flour, malted barley flour, reduced iron, thiamin mononitrate (vitamin a1), riboflavin (vitamin b2), niacin (vitamin b3), folic acid), water, high fructose corn syrup syrup, yeast, soybean oil, salt, wheat gluten, wheat protein isolate, monoglyceride, sweet dairy whey, calcium propionate (preservative), sodium stearoyl lactylate, vinegar, calcium sulfate, lactic acid, natural flavor, citric acid, ascorbic acid, soy lecithin</t>
+          <t>enriched unbleached flour (wheat flour, malted barley flour, reduced iron, thiamin mononitrate (vitamin 81), riboflavin (vitamin b2), niacin (vitamin b3), folic acid), water, high fructose corn syrup, yeast, soybean oil, salt, wheat gluten, wheat protein isolate, monoglyceride, sweet dairy whey, calcium propionate (preservative), sodium stearoyl lactylate, vinegar, calcium sulfate, lactic acid, natural flavor, citric acid, ascorbic acid, soy lecithin</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>(PAREN) - vitamin 81  → vitamin a1  (90%)
-- monoglycerides  → monoglyceride  (96%)
+          <t>- monoglycerides  → monoglyceride  (96%)
 (PAREN) - a preservative  → preservative  (92%)
 - natural flavors → natural flavor (singular)</t>
         </is>
@@ -3522,15 +3509,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>water, hydrogenated palm oil, corn syrup, sugar, sorbitol, less than 2% of, fructose, cellulose gel, sodium caseinate (milk derivative), lactic acid, corn starch, sorbitan monostearate, soy lecithin, disodium phosphate, salt, cellulose gum, polysorbate 60, datem, mono and diglycerides, polysorbate 80, sodium alginate, natural and artificial flavor, propellant, nitrous oxide</t>
+          <t>water, hydrogenated palm oil, corn syrup, sugar, sorbitol, less than 2% of, fructose, cellulose gel, sodium caseinate (milk derivative), lactic acid, corn starch, sorbitan monostearate, soy lecithin, disodium phosphate, salt, cellulose gum, polysorbate 60, datem, mono and diglycerides, polysorbate 80, sodium alginate, natural and artificial flavors. propellant, nitrous oxide</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
           <t>(PAREN) - a milk derivative  → milk derivative  (94%)
 - ellulose gum  → cellulose gum  (96%)
-- mono- and diglycerides  → mono and diglycerides  (98%)
-- natural and artificial flavors → natural and artificial flavor (singular)</t>
+- mono- and diglycerides  → mono and diglycerides  (98%)</t>
         </is>
       </c>
     </row>
@@ -3545,7 +3531,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>pasteurized grade a nonfat milk, fruit blend (water, pineapple, mango, fructose, passion fruit juice, sugar, modified corn starch, pectin, guar gum, potassium sorbate added to maintain freshness, vitamin a acetate, citric acid, vitamin d. malic acid, sodium citrate), 0.5% or less of, natural flavor, yogurt culture (l bulgaricus, s thermophilus), acesulfame potassium, sucralose</t>
+          <t>pasteurized grade a nonfat milk, fruit blend (water, pineapple, mango, fructose, passion fruit juice, sugar, modified corn starch, pectin, guar gum, potassium sorbate added to maintain freshness, vitamin a acetate, citric acid, vitamin d. malic acid, sodium citrate). contains 0.5% or less of, natural flavor, yogurt culture (l bulgaricus, s thermophilus), acesulfame potassium, sucralose</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3567,15 +3553,13 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>fat free yogurt (cultured pasteurized grade a nonfat milk, usp kosher gelatin, lactic acid esters of mono and diglycerides, citric acid, malic acid, yogurt cultures (l. bulgaricus, s. thermophilus), acesulfame potassium, natural flavor, sucralose), fruit blend (fructose, raspberry puree, water, modified corn starch, vegetable juice (for color), potassium sorbate added to maintain freshness, vitamin a acetate, vitamin d3), nitrogen, live active culture</t>
+          <t>fat free yogurt (cultured pasteurized grade a nonfat milk, kosher gelatin, lactic acid ester of mono and diglycerides, citric acid, malic acid, yogurt culture (l. bulgaricus, s. thermophilus), acesulfame potassium, natural flavor, sucralose), fruit blend (fructose, raspberry puree, water, modified corn starch, vegetable juice (for color), potassium sorbate added to maintain freshness, vitamin a acetate, vitamin d3), nitrogen. contain live and active culture</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>- kosher gelatin  → usp kosher gelatin  (88%)
-- lactic acid esters of mono and diglycerides → lactic acid ester of mono and diglycerides (singular)
-- live and active cultures → live and active culture (singular)
-- live and active culture  → live active culture  (90%)</t>
+          <t>- fat free yogurt (cultured pasteurized grade a nonfat milk, kosher gelatin, lactic acid esters of mono and diglycerides, citric acid, malic acid, yogurt cultures (l. bulgaricus, s. thermophilus), acesulfame potassium, natural flavor, sucralose) → fat free yogurt (cultured pasteurized grade a nonfat milk, kosher gelatin, lactic acid ester of mono and diglycerides, citric acid, malic acid, yogurt culture (l. bulgaricus, s. thermophilus), acesulfame potassium, natural flavor, sucralose) (singular)
+- nitrogen. contains live and active cultures → nitrogen. contain live and active culture (singular)</t>
         </is>
       </c>
     </row>
@@ -3590,7 +3574,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>flatbread (enriched wheat flour (wheat flour, malted barley flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, "00" flour, less than 2% of, yeast, olive oil, salt, canola oil, sugar, wheat gluten, calcium propionate (mold inhibitor), sodium stearoyl lactylate, vinegar), low moisture whole milk mozzarella and provolone cheeses (pasteurized milk, cheese cultures, salt, enzymes, powdered cellulose (prevent caking), potassium sorbate and natamycin (preservatives)), sauce (crushed tomatoes, salt, soybean oil, olive oil, romano cheese (whey powder and cows milk), spices, garlic powder, citric acid), pepperoni (pork, beef, water, textured vegetable protein product (soy protein concentrate, zinc oxide, niacinamide, ferrous sulfate, copper gluconate, vitamin a palmitate, calcium pantothenate, thiamine mononitrate (b1), pyridoxine hydrochloride (b6), riboflavin (b2), and cyanocobalamin (b12), salt, contains 2% or less of: spices, dextrose, lactic acid starter culture, oleoresin of paprika, flavoring, sodium nitrite, bha, bht, citric acid), spice blend (salt, spices, onion, garlic, natural flavors, parsley)</t>
+          <t>flatbread (enriched wheat flour (wheat flour, malted barley flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, "00" flour, contains less than 2% of: yeast, olive oil, salt, canola oil, sugar, wheat gluten, calcium propionate (mold inhibitor), sodium stearoyl lactylate, vinegar), low moisture whole milk mozzarella and provolone cheeses (pasteurized milk, cheese cultures, salt, enzymes, powdered cellulose (prevent caking), potassium sorbate and natamycin (preservatives)), sauce (crushed tomatoes, salt, soybean oil, olive oil, romano cheese (whey powder and cows milk), spices, garlic powder, citric acid), pepperoni (pork, beef, water, textured vegetable protein product (soy protein concentrate, zinc oxide, niacinamide, ferrous sulfate, copper gluconate, vitamin a palmitate, calcium pantothenate, thiamine mononitrate (b1),pyridoxine hydrochloride (b6), riboflavin (b2), and cyanocobalamin (b12), salt, contains 2% or less of: spices, dextrose, lactic acid starter culture, oleoresin of paprika, flavoring, sodium nitrite, bha, bht, citric acid), spice blend (salt, spices, onion, garlic, natural flavors, parsley)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3610,13 +3594,13 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>barbeque sauce, water, tomato paste, sugar, less than 2% of the following, salt, modified corn starch, spice, paprika, xanthan gum, onion and garlic powder powder, caramel color, spice extract, partially hydrogenated soybean oil, vinegar, pork and chicken rib shaped patty, pork, chicken, water, textured soy protein concentrate, less than 2% of the following, tomato powder, sugar, salt, sodium phosphate, vinegar powder (maltodextrin, modified food starch, vinegar solids), hydrolyzed soy protein, spice, onion powder, garlic powder, wheat flour, nonfat dry milk, natural hickory smoke flavor</t>
+          <t>barbeque sauce, water, tomato paste, sugar, less than 2% of the following, salt, modified corn starch, spice, paprika, xanthan gum, onion and garlic powder, caramel color, spice extract, partially hydrogenated soybean oil, vinegar. pork and chicken rib shaped patty, pork, chicken, water, textured soy protein concentrate, less than 2% of the following, tomato powder, sugar, salt, sodium phosphate, vinegar powder (maltodextrin, modified food starch, vinegar solids), hydrolyzed soy protein, spice, onion powder, garlic powder, wheat flour, nonfat dry milk, natural hickory smoke flavor</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
           <t>- spices → spice (singular)
-- pork and chicken rib shaped patties → pork and chicken rib shaped patty (singular)
+- vinegar. pork and chicken rib shaped patties → vinegar. pork and chicken rib shaped patty (singular)
 (PAREN) - vinegar solids → vinegar solid (singular)
 - spices → spice (singular)</t>
         </is>
@@ -3680,13 +3664,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>fully cooked chicken crumble, chicken, water, food starch, salt, natural flavoring, vegetable, water chestnut, onion, mushroom, green onion, stir fry sauce, water, soy sauce (water, wheat, soy bean, salt, lactic acid), oyster sauce (water, sugar, salt, oyster juice concentrate (oyster, water, salt), modified corn starch, alcohol, caramel color, fermented wheat protein, yeast extract, oyster extract), sesame oil, sugar, garlic puree (citric acid), ginger puree (ginger, water, citric acid), modified corn starch, caramel color, natural flavor, serving sauce, soy sauce (water, wheat, soybean, salt), sugar, rice vinegar, canola oil, cayenne pepper puree (cayenne pepper, salt, vinegar), sesame oil, sherry powder (maltodextrin, modified corn starch, sherry solids, corn syrup, malic acid, sorbic acid, sulfite, natural flavor), red chili pepper, xanthan gum, garlic powder, ginger powder</t>
+          <t>fully cooked chicken crumble, chicken, water, food starch, salt, natural flavoring. vegetable, water chestnut, onion, mushroom, green onion. stir fry sauce, water, soy sauce (water, wheat, soy bean, salt, lactic acid), oyster sauce (water, sugar, salt, oyster juice concentrate (oyster, water, salt), modified corn starch, alcohol, caramel color, fermented wheat protein, yeast extract, oyster extract), sesame oil, sugar, garlic puree (citric acid), ginger puree (ginger, water, citric acid), modified corn starch, caramel color, natural flavor. serving sauce, soy sauce (water, wheat, soybean, salt), sugar, rice vinegar, canola oil, cayenne pepper puree (cayenne pepper, salt, vinegar), sesame oil, sherry powder (maltodextrin, modified corn starch, sherry solids, corn syrup, malic acid, sorbic acid, sulfite, natural flavor), red chili pepper, xanthan gum, garlic powder, ginger powder</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
           <t>- fully cooked chicken crumbles → fully cooked chicken crumble (singular)
-- vegetables → vegetable (singular)
+- natural flavoring. vegetables → natural flavoring. vegetable (singular)
+- natural flavoring. vegetable  → flavoring. vegetable  (72%)
 - water chestnuts → water chestnut (singular)
 - onions → onion (singular)
 - mushrooms → mushroom (singular)
@@ -3812,14 +3797,13 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, modified corn starch, nonfat milk solids, usp kosher gelatin, concentrated orange juice, natural flavor, concentrated lemon juice, concentrated lime juice, tricalcium phosphate, concentrated vegetable juice (color), annatto, potassium sorbate (to maintain freshness), sodium benzoate (to maintain freshness), vitamin a palmitate, vitamin d3</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, modified corn starch, nonfat milk solids, kosher gelatin, concentrated orange juice, natural flavor, concentrated lemon juice, concentrated lime juice, tricalcium phosphate, concentrated vegetable juice (color), annatto, potassium sorbate (to maintain freshness), sodium benzoate (to maintain freshness), vitamin a palmitate, vitamin d3</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
           <t>- modified cornstarch  → modified corn starch  (97%)
-- nonfat milk solids → nonfat milk solid (singular)
-- kosher gelatin  → usp kosher gelatin  (88%)</t>
+- nonfat milk solids → nonfat milk solid (singular)</t>
         </is>
       </c>
     </row>
@@ -3834,13 +3818,14 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>peanut, raisin coated with less than 1% sunflower and/or canola oil, milk chocolate candies (milk chocolate (sugar, cocoa butter, chocolate liquor, whole milk powder, soy lecithin (an emulsifier), and vanilla), sugar, artificial color (blue 1, blue 1 lake, blue 2 lake, yellow 5, yellow 5 lake, yellow 6, yellow 6 lake, red 40, red 40 lake, sorbitol, titanium dioxide phosphoric acid, methyl and propyl parabens), corn syrup, wax and dextrin), almond, cashew, vegetable oil (peanut, cottonseed, soybean and/or sunflower seed), sea salt</t>
+          <t>peanut, raisin coated with less than 1% sunflower and/or canola oil, milk chocolate candy (milk chocolate (sugar, cocoa butter, chocolate liquor, whole milk powder, soy lecithin (an emulsifier), and vanilla), sugar, artificial color (blue 1, blue 1 lake, blue 2 lake, yellow 5, yellow 5 lake, yellow 6, yellow 6 lake, red 40, red 40 lake, sorbitol, titanium dioxide phosphoric acid, methyl and propyl parabens), corn syrup, wax and dextrin), almond, cashew, vegetable oil (peanut, cottonseed, soybean and/or sunflower seed), sea salt</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
           <t>- peanuts → peanut (singular)
 - raisins coated with less than 1% sunflower and/or canola oil → raisin coated with less than 1% sunflower and/or canola oil (singular)
+- milk chocolate candies (milk chocolate (sugar, cocoa butter, chocolate liquor, whole milk powder, soy lecithin (an emulsifier), and vanilla), sugar, artificial color (blue 1, blue 1 lake, blue 2 lake, yellow 5, yellow 5 lake, yellow 6, yellow 6 lake, red 40, red 40 lake, sorbitol, titanium dioxide phosphoric acid, methyl and propyl parabens), corn syrup, wax and dextrin) → milk chocolate candy (milk chocolate (sugar, cocoa butter, chocolate liquor, whole milk powder, soy lecithin (an emulsifier), and vanilla), sugar, artificial color (blue 1, blue 1 lake, blue 2 lake, yellow 5, yellow 5 lake, yellow 6, yellow 6 lake, red 40, red 40 lake, sorbitol, titanium dioxide phosphoric acid, methyl and propyl parabens), corn syrup, wax and dextrin) (singular)
 - almonds → almond (singular)
 - cashews → cashew (singular)
 - seasalt  → sea salt  (93%)</t>
@@ -3858,7 +3843,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>raisin coated with less than 1% sunflower and/or canola oil, sweetened banana chip (banana, expeller pressed coconut oil, sugar and natural flavor), peanut, dried sweetened pineapple sugar, pineapple, 2% or less of the following, citric acid, calcium chloride (improves texture), sodium metabisulfite preservative, mango flavored pineapple coin (sugar, pineapple, 2% or less of the following, citric acid, sodium metabisulfite (as preservative), artificial mango flavor, yellow 5, yellow 6), almond, dried sweetened strawberries (strawberries, sugar, rice flour, citric acid, red 40, sulfur dioxide (color retention)), dried sweetened cranberry (cranberry, sugar, sunflower oil), dried sweetened cherry (red tart pitted cherry, sugar and sunflower oil), vegetable oil (peanut, cottonseed, soybean and/or sunflower seed), sea salt</t>
+          <t>raisin coated with less than 1% sunflower and/or canola oil, sweetened banana chip (banana, expeller pressed coconut oil, sugar and natural flavor), peanut, dried sweetened pineapple (sugar, pineapple, contains 2% or less of the following: citric acid, calcium chloride (improves texture), sodium metabisulfite (as preservative)), mango flavored pineapple coin (sugar, pineapple, contains 2% or less of the following: citric acid, sodium metabisulfite (as preservative), artificial mango flavor, yellow 5, yellow 6), almond, dried sweetened strawberries (strawberries, sugar, rice flour, citric acid, red 40, sulfur dioxide (color retention)), dried sweetened cranberry (cranberry, sugar, sunflower oil), dried sweetened cherry (red tart pitted cherry, sugar and sunflower oil), vegetable oil (peanut, cottonseed, soybean and/or sunflower seed), sea salt</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -3867,8 +3852,6 @@
 (PAREN) - bananas → banana (singular)
 - sweetened banana chips → sweetened banana chip (singular)
 - peanuts → peanut (singular)
-- dried sweetened pineapple (sugar  → pineapple sugar  (97%)
-- sodium metabisulfite (as preservative))  → sodium metabisulfite preservative  (92%)
 - almonds → almond (singular)
 (PAREN) - cranberries → cranberry (singular)
 - dried sweetened cranberries → dried sweetened cranberry (singular)
@@ -3920,7 +3903,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, modified corn starch, nonfat milk solids, blueberry, strawberry, usp kosher gelatin, natural flavor, raspberry, blackberry, concentrated fruit and vegetable juice (color), citric acid, tricalcium phosphate, vitamin a palmitate, vitamin d3</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, modified corn starch, nonfat milk solids, blueberry, strawberry, kosher gelatin, natural flavor, raspberry, blackberry, concentrated fruit and vegetable juice (color), citric acid, tricalcium phosphate, vitamin a palmitate, vitamin d3</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -3929,7 +3912,6 @@
 - nonfat milk solids → nonfat milk solid (singular)
 - blueberries → blueberry (singular)
 - strawberries → strawberry (singular)
-- kosher gelatin  → usp kosher gelatin  (88%)
 - natural flavors → natural flavor (singular)
 - raspberries → raspberry (singular)
 - blackberries → blackberry (singular)</t>
@@ -3947,7 +3929,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>red raspberry, corn syrup, high fructose corn syrup syrup, pectin, sodium citrate, citric acid</t>
+          <t>red raspberry, corn syrup, high fructose corn syrup, pectin, sodium citrate, citric acid</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4103,7 +4085,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>enriched flour (wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, sunflower and/or canola oil, (contains ascorbic acid and rosemary extract for freshness), high fructose corn syrup syrup, salt, leavening (baking soda, ammonium bicarbonate), natural and artificial flavor, soy lecithin (emulsifier), sodium metabisulfite (dough conditioner)</t>
+          <t>enriched flour (wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, sunflower and/or canola oil, (contains ascorbic acid and rosemary extract for freshness), high fructose corn syrup, salt, leavening (baking soda, ammonium bicarbonate), natural and artificial flavor, soy lecithin (emulsifier), sodium metabisulfite (dough conditioner)</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -4139,7 +4121,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>enriched flour (bleached wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, vegetable oil (one or more of the following, palm, canola, soybean with tbhq for freshness), dextrose, high fructose corn syrup syrup, corn flour, two percent or less of, cocoa (processed with alkali), corn starch, salt, leavening (baking soda, calcium phosphate), soy lecithin (emulsifier), artificial color (yellow 5, yellow 6), natural and artificial flavor</t>
+          <t>enriched flour (bleached wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, vegetable oil (one or more of the following, palm, canola, soybean with tbhq for freshness), dextrose, high fructose corn syrup, corn flour, two percent or less of, cocoa (processed with alkali), corn starch, salt, leavening (baking soda, calcium phosphate), soy lecithin (emulsifier), artificial color (yellow 5, yellow 6), natural and artificial flavor</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -4160,7 +4142,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>enriched flour (bleached wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, vegetable oil (one or more of the following, palm, canola, soybean with tbhq for freshness), dextrose, high fructose corn syrup syrup, corn flour, two percent or less of, cocoa (processed with alkali), corn starch, salt, leavening (baking soda, calcium phosphate), soy lecithin (emulsifier), artificial color (yellow 5, yellow 6), natural and artificial flavor</t>
+          <t>enriched flour (bleached wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, vegetable oil (one or more of the following, palm, canola, soybean with tbhq for freshness), dextrose, high fructose corn syrup, corn flour, two percent or less of, cocoa (processed with alkali), corn starch, salt, leavening (baking soda, calcium phosphate), soy lecithin (emulsifier), artificial color (yellow 5, yellow 6), natural and artificial flavor</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4181,7 +4163,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>enriched flour (bleached wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, vegetable oil (one or more of the following, palm, canola, soybean with tbhq for freshness), high fructose corn syrup syrup, dextrose, two percent or less of, corn flour, salt, corn starch, leavening (baking soda, calcium phosphate), soy lecithin (emulsifier), artificial color (yellow 5, yellow 6), citric acid, natural and artificial flavor</t>
+          <t>enriched flour (bleached wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, vegetable oil (one or more of the following, palm, canola, soybean with tbhq for freshness), high fructose corn syrup, dextrose, two percent or less of, corn flour, salt, corn starch, leavening (baking soda, calcium phosphate), soy lecithin (emulsifier), artificial color (yellow 5, yellow 6), citric acid, natural and artificial flavor</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4202,12 +4184,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>enriched flour (bleached wheat flour, niacin, iron, thiamin mononitrate, riboflavin, folic acid), sugar, palm oil and/or canola oil and/or soybean oil and/or high oleic canola oil with citric acid and tbhq added to preserve freshness, high fructose corn syrup syrup, dextrose, peanut butter (peanuts, fully hydrogenated vegetable oil (rapeseed, cottonseed and soybean) to prevent separation), 2% or less of, salt, leavening (baking soda, calcium phosphate), corn starch, natural and artificial flavor, soy lecithin, yellow 5, yellow 6</t>
+          <t>enriched flour (bleached wheat flour, niacin, iron, thiamin mononitrate, riboflavin, folic acid), sugar, palm oil and/or canola oil and/or soybean oil and/or high oleic canola oil with citric acid and tbhq added to preserve freshness, high fructose corn syrup, dextrose, peanut butter (peanuts, fully hydrogenated vegetable oil (rapeseed, cottonseed and soybean) to prevent separation), 2% or less of, salt, leavening (baking soda, calcium phosphate), corn starch, natural and artificial flavor, soy lecithin, yellow 5, yellow 6</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>- fully hydrogenated vegetable oils (rapeseed, cottonseed and soybean) to prevent separation) → fully hydrogenated vegetable oil (rapeseed, cottonseed and soybean) to prevent separation) (singular)
+          <t>- peanut butter (peanuts, fully hydrogenated vegetable oils (rapeseed, cottonseed and soybean) to prevent separation) → peanut butter (peanuts, fully hydrogenated vegetable oil (rapeseed, cottonseed and soybean) to prevent separation) (singular)
 - cornstarch  → corn starch  (95%)</t>
         </is>
       </c>
@@ -4223,7 +4205,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>enriched flour (bleached wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, vegetable oil (one or more of the following, palm, canola, soybean with tbhq for freshness), high fructose corn syrup syrup, dextrose, two percent or less of, corn flour, corn starch, salt, soy lecithin (emulsifier), leavening (baking soda, calcium phosphate), artificial color (yellow 5, yellow 6), natural and artificial flavor</t>
+          <t>enriched flour (bleached wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, vegetable oil (one or more of the following, palm, canola, soybean with tbhq for freshness), high fructose corn syrup, dextrose, two percent or less of, corn flour, corn starch, salt, soy lecithin (emulsifier), leavening (baking soda, calcium phosphate), artificial color (yellow 5, yellow 6), natural and artificial flavor</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -4244,7 +4226,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>sugar, whey (milk), enriched bleached flour (wheat flour, niacin, reduced iron, thiamin mononitrate, riboflavin, folic acid), dextrose, high fructose corn syrup syrup, hydrogenated palm kernel oil, vegetable shortening (palm and soybean oil), corn syrup, egg white, cocoa (natural and processed with alkali), egg, 2% or less of each of the following, wheat protein isolate, wheat flour, caramel color, salt, leavening (sodium acid pyrophosphate, sodium bicarbonate, corn starch, monocalcium phosphate), malt extract, emulsifier (propylene glycol esters of fatty acids, monoglyceride, stearoyl lactylic acid), modified corn starch, egg yolk, guar gum, water, maltodextrin, natural and artificial flavor, polysorbate 60, cellulose gum, titanium dioxide (color), enzyme, soy lecithin, mono and diglycerides, phosphoric acid, preserved with sodium propionate, sorbic acid and potassium sorbate</t>
+          <t>sugar, whey (milk), enriched bleached flour (wheat flour, niacin, reduced iron, thiamin mononitrate, riboflavin, folic acid), dextrose, high fructose corn syrup, hydrogenated palm kernel oil, vegetable shortening (palm and soybean oil), corn syrup, egg white, cocoa (natural and processed with alkali), egg, 2% or less of each of the following, wheat protein isolate, wheat flour, caramel color, salt, leavening (sodium acid pyrophosphate, sodium bicarbonate, corn starch, monocalcium phosphate), malt extract, emulsifier (propylene glycol esters of fatty acids, monoglyceride, stearoyl lactylic acid), modified corn starch, egg yolk, guar gum, water, maltodextrin, natural and artificial flavor, polysorbate 60, cellulose gum, titanium dioxide (color), enzyme, soy lecithin, mono and diglycerides, phosphoric acid, preserved with sodium propionate, sorbic acid and potassium sorbate</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -4273,7 +4255,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>enriched flour (wheat flour, niacin, reduced iron, thiamine mononitrate, riboflavin, folic acid), high fructose corn syrup syrup, water, palm oil and fractionated palm oil, sugar, less than 2 % of each of the following, vegetable shortening (palm oil, mono and diglycerides, polysorbate 60), cocoa processed with alkali, food starch modified, salt, corn starch, vegetable shortening (interesterified soybean oil, hydrogenated cottonseed oil), preservative (sodium propionate, potassium sorbate, sodium benzoate), corn syrup, soybean oil, dextrose, wheat flour, malted barley flour, titanium dioxide color, glucono delta lactone, sodium stearoyl lactylate, chocolate liquor, xanthan gum, artificial flavor, calcium carbonate, sodium alginate, corn syrup solids, citric acid, agar, yellow 5, yellow 6, propylene glycol, maltodextrin, wheat starch, soy lecithin, mono and diglycerides, sorbitan monostearate, baking soda</t>
+          <t>enriched flour (wheat flour, niacin, reduced iron, thiamine mononitrate, riboflavin, folic acid), high fructose corn syrup, water, palm oil and fractionated palm oil, sugar, less than 2 % of each of the following, vegetable shortening (palm oil, mono and diglycerides, polysorbate 60), cocoa processed with alkali, food starch modified, salt, corn starch, vegetable shortening (interesterified soybean oil, hydrogenated cottonseed oil), preservative (sodium propionate, potassium sorbate, sodium benzoate), corn syrup, soybean oil, dextrose, wheat flour, malted barley flour, titanium dioxide color, glucono delta lactone, sodium stearoyl lactylate, chocolate liquor, xanthan gum, artificial flavor, calcium carbonate, sodium alginate, corn syrup solids, citric acid, agar, yellow 5, yellow 6, propylene glycol, maltodextrin, wheat starch, soy lecithin, mono and diglycerides, sorbitan monostearate, baking soda</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4299,7 +4281,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>wheat flour, sugar, high fructose corn syrup syrup, partially hydrogenated soybean oil, water, 2% or less of the following, cocoa powder (processed with alkali), egg, salt, sodium bicarbonate, natural and artificial flavor, soy lecithin</t>
+          <t>wheat flour, sugar, high fructose corn syrup, partially hydrogenated soybean oil, water, 2% or less of the following, cocoa powder (processed with alkali), egg, salt, sodium bicarbonate, natural and artificial flavor, soy lecithin</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -4630,7 +4612,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, corn syrup, dextrose, leavening (baking soda, sodium acid pyrophosphate), 2% or less of each of the following, beef tallow, salt, modified wheat starch, potassium chloride, artificial flavor, white corn flour, vegetable oil (soybean and/or cottonseed oil), potassium sorbate and tbhq and citric acid (preservative), soy flour</t>
+          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, corn syrup, dextrose, leavening (baking soda, sodium acid pyrophosphate). contains 2% or less of each of the following, beef tallow, salt, modified wheat starch, potassium chloride, artificial flavor, white corn flour, vegetable oil (soybean and/or cottonseed oil), potassium sorbate and tbhq and citric acid (preservative), soy flour</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -4673,7 +4655,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, vegetable oil (palm, soybean and/or cottonseed oil), sugar, leavening (baking soda, sodium acid pyrophosphate, sodium aluminum phosphate, aluminum sulfate), dextrose, 2% or less of each of the following, potassium chloride, salt, wheat gluten, sodium stearoyl lactylate, xanthan gum, propylene glycol alginate, artificial flavor, sodium alginate, potassium sorbate and tbhq (preservative), colored with (yellow 5, caramel color, yellow 6), soy flour</t>
+          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, vegetable oil (palm, soybean and/or cottonseed oil), sugar, leavening (baking soda, sodium acid pyrophosphate, sodium aluminum phosphate, aluminum sulfate), dextrose. contains 2% or less of each of the following, potassium chloride, salt, wheat gluten, sodium stearoyl lactylate, xanthan gum, propylene glycol alginate, artificial flavor, sodium alginate, potassium sorbate and tbhq (preservative), colored with (yellow 5, caramel color, yellow 6), soy flour</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -4695,7 +4677,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), wheat starch, lard and hydrogenated lard with bht added to protect flavor, water, sugar, 2% or less of each of the following, salt, xanthan gum, colored with (yellow 5, red 40), citric acid and sodium propionate and potassium sorbate added to retard spoilage, soy flour</t>
+          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), wheat starch, lard and hydrogenated lard with bht added to protect flavor, water, sugar. contains 2% or less of each of the following, salt, xanthan gum, colored with (yellow 5, red 40), citric acid and sodium propionate and potassium sorbate added to retard spoilage, soy flour</t>
         </is>
       </c>
       <c r="D215" t="inlineStr"/>
@@ -4733,13 +4715,12 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, water, vegetable oil (palm, soybean and/or cottonseed oil), 2% or less of each of the following, leavening (baking soda, sodium acid pyrophosphate, sodium aluminum phosphate), corn syrup, cinnamon, egg, salt, corn starch, modified wheat starch, mono and diglycerides, natural and artificial flavor, maltodextrin, gum (xanthan, guar, carob bean), polysorbate 60, sorbic acid citric acid (preservative), colored with (yellow 5, yellow 6), soy flour</t>
+          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, water, vegetable oil (palm, soybean and/or cottonseed oils). contains 2% or less of each of the following, leavening (baking soda, sodium acid pyrophosphate, sodium aluminum phosphate), corn syrup, cinnamon, egg, salt, corn starch, modified wheat starch, mono and diglycerides, natural and artificial flavor, maltodextrin, gum (xanthan, guar, carob bean), polysorbate 60, sorbic acid citric acid (preservative), colored with (yellow 5, yellow 6), soy flour</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>(PAREN) - soybean and/or cottonseed oils → soybean and/or cottonseed oil (singular)
-- eggs → egg (singular)
+          <t>- eggs → egg (singular)
 - mono- and diglycerides  → mono and diglycerides  (98%)
 - natural and artificial flavors → natural and artificial flavor (singular)
 - gums → gum (singular)
@@ -4758,7 +4739,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, sugar, vegetable oil (palm, soybean and/or cottonseed oils), leavening (sodium acid pyrophosphate, baking soda, sodium aluminum (phosphate), 2% or less of each of the following, corn syrup, dextrose, corn starch, cinnamon, salt, potassium chloride, wheat gluten, natural and artificial flavors, gums (xanthan, guar, carob bean), sodium stearoyl lactylate, polysorbate 60, autolyzed yeast, yeast, mono- and diglycerides, potassium sorbate and sorbic acid and citric acid (preservatives), colored with (yellow 5, yellow 6, caramel color), soy flour</t>
+          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, sugar, vegetable oil (palm, soybean and/or cottonseed oils), leavening (sodium acid pyrophosphate, baking soda, sodium aluminum (phosphate). contains 2% or less of each of the following: corn syrup, dextrose, corn starch, cinnamon, salt, potassium chloride, wheat gluten, natural and artificial flavors, gums (xanthan, guar, carob bean), sodium stearoyl lactylate, polysorbate 60, autolyzed yeast, yeast, mono- and diglycerides, potassium sorbate and sorbic acid and citric acid (preservatives), colored with (yellow 5, yellow 6, caramel color), soy flour</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -4778,7 +4759,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, vegetable oil (palm, soybean and/or cottonseed oil), buttermilk, dextrose, leavening (baking soda, sodium acid pyrophosphate, sodium aluminum phosphate, aluminum sulfate), 2% or less of each of the following, sugar, modified wheat starch, salt, potassium chloride, xanthan gum, natural and artificial flavor, potassium sorbate (preservative), soy flour</t>
+          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, vegetable oil (palm, soybean and/or cottonseed oil), buttermilk, dextrose, leavening (baking soda, sodium acid pyrophosphate, sodium aluminum phosphate, aluminum sulfate). contains 2% or less of each of the following, sugar, modified wheat starch, salt, potassium chloride, xanthan gum, natural and artificial flavor, potassium sorbate (preservative), soy flour</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -4961,7 +4942,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>tomato paste, water, fresh horseradish, high fructose corn syrup syrup, vinegar, salt, spice, natural flavoring</t>
+          <t>tomato paste, water, fresh horseradish, high fructose corn syrup, vinegar, salt, spice, natural flavoring</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -5144,7 +5125,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
+          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -5164,14 +5145,10 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzyme, potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>- enzymes → enzyme (singular)</t>
-        </is>
-      </c>
+          <t>pasteurized milk, cheese culture, salt, enzymes. potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -5184,15 +5161,12 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>monterey jack cheese (pasteurized milk, cheese culture, salt, enzyme), cheddar cheese (pasteurized milk, cheese culture, salt, enzyme, annatto color, asadero cheese (pasteurized milk, cheese culture, salt, enzymes) quesadilla cheese (pasteurized milk, cheese culture, salt, enzyme), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
+          <t>monterey jack cheese (pasteurized milk, cheese culture, salt, enzyme), cheddar cheese (pasteurized milk, cheese culture, salt, enzymes, annatto (color)), asadero cheese (pasteurized milk, cheese culture, salt, enzymes) quesadilla cheese (pasteurized milk, cheese culture, salt, enzymes). potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>(PAREN) - enzymes → enzyme (singular)
-- enzymes → enzyme (singular)
-- annatto (color))  → annatto color  (90%)
-(PAREN) - enzymes → enzyme (singular)</t>
+          <t>(PAREN) - enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -5207,7 +5181,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
+          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -5227,7 +5201,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
+          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color). potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -5268,16 +5242,14 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>low moisture part skim mozzarella cheese (pasteurized part skim milk, cheese culture, salt, enzyme), cheddar cheese (pasteurized milk, cheese culture, salt, enzyme, annatto color, potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
+          <t>low moisture part skim mozzarella cheese (pasteurized part skim milk, cheese culture, salt, enzyme), cheddar cheese (pasteurized milk, cheese culture, salt, enzymes, annatto (color)). potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
           <t>(PAREN) - pasteurized part-skim milk  → pasteurized part skim milk  (96%)
 (PAREN) - enzymes → enzyme (singular)
-- low-moisture part-skim mozzarella cheese (pasteurized part skim milk, cheese culture, salt, enzyme) → low moisture part skim mozzarella cheese (pasteurized part skim milk, cheese culture, salt, enzyme) (95%)
-- enzymes → enzyme (singular)
-- annatto (color))  → annatto color  (90%)</t>
+- low-moisture part-skim mozzarella cheese (pasteurized part skim milk, cheese culture, salt, enzyme) → low moisture part skim mozzarella cheese (pasteurized part skim milk, cheese culture, salt, enzyme) (95%)</t>
         </is>
       </c>
     </row>
@@ -5292,14 +5264,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>monterey jack cheese (pasteurized milk, cheese culture, salt, enzyme), cheddar cheese (pasteurized milk, cheese culture, salt, enzyme, annatto color, taco spice blend (maltodextrin, spice, torula yeast, salt, onion powder, paprika, garlic powder, citric acid, extractives of paprika, silicon dioxide), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
+          <t>monterey jack cheese (pasteurized milk, cheese culture, salt, enzyme), cheddar cheese (pasteurized milk, cheese culture, salt, enzymes, annatto (color)), taco spice blend (maltodextrin, spice, torula yeast, salt, onion powder, paprika, garlic powder, citric acid, extractives of paprika, silicon dioxide), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
           <t>(PAREN) - enzymes → enzyme (singular)
-- enzymes → enzyme (singular)
-- annatto (color))  → annatto color  (90%)
 (PAREN) - spices → spice (singular)
 (PAREN) - silicone dioxide  → silicon dioxide  (97%)</t>
         </is>
@@ -5396,14 +5366,10 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzyme, potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>- enzymes → enzyme (singular)</t>
-        </is>
-      </c>
+          <t>pasteurized milk, cheese culture, salt, enzymes. potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -5416,7 +5382,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzymes annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
+          <t>pasteurized milk, cheese culture, salt, enzymes annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D250" t="inlineStr"/>
@@ -5432,13 +5398,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>pasteurized part skim milk, cheese culture, salt, enzyme, potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
+          <t>pasteurized part skim milk, cheese culture, salt, enzymes. potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>- pasteurized part-skim milk  → pasteurized part skim milk  (96%)
-- enzymes → enzyme (singular)</t>
+          <t>- pasteurized part-skim milk  → pasteurized part skim milk  (96%)</t>
         </is>
       </c>
     </row>
@@ -5453,7 +5418,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
+          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -5473,13 +5438,12 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>pasteurized part skim milk, cheese culture, salt, enzyme, potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
+          <t>pasteurized part skim milk, cheese culture, salt, enzymes. potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>- pasteurized part-skim milk  → pasteurized part skim milk  (96%)
-- enzymes → enzyme (singular)</t>
+          <t>- pasteurized part-skim milk  → pasteurized part skim milk  (96%)</t>
         </is>
       </c>
     </row>
@@ -5515,13 +5479,12 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>pasteurized part skim milk, cheese culture, salt, enzyme, potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
+          <t>pasteurized part skim milk, cheese culture, salt, enzymes. potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>- pasteurized part-skim milk  → pasteurized part skim milk  (96%)
-- enzymes → enzyme (singular)</t>
+          <t>- pasteurized part-skim milk  → pasteurized part skim milk  (96%)</t>
         </is>
       </c>
     </row>
@@ -5536,14 +5499,10 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>reduced fat mozzarella cheese (pasteurized part-skim milk cheese culture, salt enzyme), potato starch, corn starch, calcium sulfate added to prevent caking natamycin (a natural mold inhibitor)</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>(PAREN) - salt enzymes → salt enzyme (singular)</t>
-        </is>
-      </c>
+          <t>reduced fat mozzarella cheese (pasteurized part-skim milk cheese culture, salt enzymes). potato starch, corn starch, calcium sulfate added to prevent caking natamycin (a natural mold inhibitor)</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -5556,14 +5515,10 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>reduced fat cheddar cheese (pasteurized part-skim milk, cheese culture, salt, enzyme, annatto (vegetable color), vitamin a palmitate), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>- enzymes → enzyme (singular)</t>
-        </is>
-      </c>
+          <t>reduced fat cheddar cheese (pasteurized part-skim milk, cheese culture, salt, enzymes, annatto (vegetable color), vitamin a palmitate). potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -5576,15 +5531,12 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>reduced fat monterey jack cheese (pasteurized part skim milk, cheese culture, salt, enzyme, vitamin a palmitate), reduced fat cheddar cheese (pasteurized part-skim milk, cheese culture, salt, enzyme, annatto (color), vitamin a palmitate), reduced fat asadero cheese (pasteurized part skim milk, cheese culture, salt, enzyme), reduced fat quesadilla cheese (pasteurized part skim milk, cheese culture, salt, enzyme), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
+          <t>reduced fat monterey jack cheese (pasteurized part skim milk, cheese culture, salt, enzyme, vitamin a palmitate), reduced fat cheddar cheese (pasteurized part-skim milk, cheese culture, salt, enzymes, annatto (color), vitamin a palmitate), reduced fat asadero cheese (pasteurized part skim milk, cheese culture, salt, enzyme), reduced fat quesadilla cheese (pasteurized part-skim milk, cheese culture, salt, enzymes). potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
           <t>(PAREN) - pasteurized part-skim milk  → pasteurized part skim milk  (96%)
-(PAREN) - enzymes → enzyme (singular)
-- enzymes → enzyme (singular)
-(PAREN) - pasteurized part-skim milk  → pasteurized part skim milk  (96%)
 (PAREN) - enzymes → enzyme (singular)
 (PAREN) - pasteurized part-skim milk  → pasteurized part skim milk  (96%)
 (PAREN) - enzymes → enzyme (singular)</t>
@@ -5602,7 +5554,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
+          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color). potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -5622,14 +5574,12 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>sharp cheddar cheese (pasteurized milk, cheese culture, salt, enzyme), mild cheddar cheese (pasteurized milk, cheese culture, salt, enzyme, annatto vegetable color, potato starch, corn starch and calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
+          <t>sharp cheddar cheese (pasteurized milk, cheese culture, salt, enzyme), mild cheddar cheese (pasteurized milk, cheese culture, salt, enzymes, annatto (vegetable color)). potato starch, corn starch and calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>(PAREN) - enzymes → enzyme (singular)
-- enzymes → enzyme (singular)
-- annatto (vegetable color))  → annatto vegetable color  (94%)</t>
+          <t>(PAREN) - enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -5644,7 +5594,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
+          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color). potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -5664,16 +5614,13 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>monterey jack cheese (pasteurized milk, cheese culture, salt, enzyme), cheddar cheese (pasteurized milk, cheese culture, salt, enzyme, annatto color, asadero cheese (pasteurized milk, cheese culture, salt, enzymes) queso quesadilla cheese (pasteurized milk, cheese culture salt, enzyme), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
+          <t>monterey jack cheese (pasteurized milk, cheese culture, salt, enzyme), cheddar cheese (pasteurized milk, cheese culture, salt, enzymes, annatto (color)), asadero cheese (pasteurized milk, cheese culture, salt, enzymes) queso quesadilla cheese (pasteurized milk, cheese culture salt, enzymes). potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
           <t>(PAREN) - enzymes → enzyme (singular)
-- monterrey jack cheese (pasteurized milk, cheese culture, salt, enzyme) → monterey jack cheese (pasteurized milk, cheese culture, salt, enzyme) (98%)
-- enzymes → enzyme (singular)
-- annatto (color))  → annatto color  (90%)
-(PAREN) - enzymes → enzyme (singular)</t>
+- monterrey jack cheese (pasteurized milk, cheese culture, salt, enzyme) → monterey jack cheese (pasteurized milk, cheese culture, salt, enzyme) (98%)</t>
         </is>
       </c>
     </row>
@@ -5688,15 +5635,10 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>colby and monterey jack cheese (pasteurized milk, cheese culture, salt, enzyme, annatto vegetable color</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>- enzymes → enzyme (singular)
-- annatto (vegetable color))  → annatto vegetable color  (94%)</t>
-        </is>
-      </c>
+          <t>colby and monterey jack cheese (pasteurized milk, cheese culture, salt, enzymes, annatto (vegetable color))</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -5729,7 +5671,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>filtered water, high fructose corn syrup syrup, concentrated pineapple juice, citric acid, concentrated orange juice, ascorbic acid (vitamin c), concentrated apple juice, concentrated cherry juice, concentrated grape juice, modified corn starch, red 40, natural &amp; artificial flavor, gum acacia, ester gum</t>
+          <t>filtered water, high fructose corn syrup, concentrated pineapple juice, citric acid, concentrated orange juice, ascorbic acid (vitamin c), concentrated apple juice, concentrated cherry juice, concentrated grape juice, modified corn starch, red 40, natural &amp; artificial flavor, gum acacia, ester gum</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -5887,13 +5829,13 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>pasteurized milk, cured green jalapeno pepper, cheese culture, salt, enzyme</t>
+          <t>pasteurized milk, red and green jalapeno pepper, cheese culture, salt, enzyme</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
           <t>- red and green jalapeno peppers → red and green jalapeno pepper (singular)
-- red and green jalapeno pepper  → cured green jalapeno pepper  (89%)
+- red and green jalapeno pepper  → cured green jalapeno pepper  (REJECTED) (89%)
 - cheese cultures → cheese culture (singular)
 - enzymes → enzyme (singular)</t>
         </is>
@@ -5910,7 +5852,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>monterey jack cheese (pasteurized milk, cheese culture, salt, enzymes), cheddar cheese (pasteurized milk, cheese culture, salt, enzymes, annatto (color)), asadero cheese (pasteurized), milk, cheese culture, salt, enzymes) queso quesadilla cheese (pasteurized) milk, cheese culture, salt, enzymes), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
+          <t>monterey jack cheese (pasteurized milk, cheese culture, salt, enzymes), cheddar cheese (pasteurized milk, cheese culture, salt, enzymes, annatto (color)), asadero cheese (pasteurized), milk, cheese culture, salt, enzymes) queso quesadilla cheese (pasteurized) milk, cheese culture, salt, enzymes), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -5970,7 +5912,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzyme, potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
+          <t>pasteurized milk, cheese culture, salt, enzyme, potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -6115,14 +6057,10 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzyme, potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>- enzymes → enzyme (singular)</t>
-        </is>
-      </c>
+          <t>pasteurized milk, cheese culture, salt, enzymes. potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -6280,13 +6218,13 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>pasteurized milk, cured green jalapeno pepper, cheese culture, salt, enzyme</t>
+          <t>pasteurized milk, red and green jalapeno pepper, cheese culture, salt, enzyme</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
           <t>- red and green jalapeno peppers → red and green jalapeno pepper (singular)
-- red and green jalapeno pepper  → cured green jalapeno pepper  (89%)
+- red and green jalapeno pepper  → cured green jalapeno pepper  (REJECTED) (89%)
 - enzymes → enzyme (singular)</t>
         </is>
       </c>
@@ -6463,7 +6401,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color), natamycin (a natural mold inhibitor)</t>
+          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color). natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -6505,15 +6443,10 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>muenster cheese (pasteurized milk, cheese culture, salt, enzyme, annatto vegetable color</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>- enzymes → enzyme (singular)
-- annatto (vegetable color))  → annatto vegetable color  (94%)</t>
-        </is>
-      </c>
+          <t>muenster cheese (pasteurized milk, cheese culture, salt, enzymes, annatto (vegetable color))</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -6690,13 +6623,13 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>pasteurized milk, cured green jalapeno pepper, cheese culture, salt, enzyme</t>
+          <t>pasteurized milk, red and green jalapeno pepper, cheese culture, salt, enzyme</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
           <t>- red and green jalapeno peppers → red and green jalapeno pepper (singular)
-- red and green jalapeno pepper  → cured green jalapeno pepper  (89%)
+- red and green jalapeno pepper  → cured green jalapeno pepper  (REJECTED) (89%)
 - cheese cultures → cheese culture (singular)
 - enzymes → enzyme (singular)</t>
         </is>
@@ -6855,16 +6788,12 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>monterey jack cheese (pasteurized milk, cheese culture, salt, enzyme), cheddar cheese (pasteurized milk, cheese culture, salt, enzyme, annatto color, taco spice blend (maltodextrin, spice, torula yeast, salt, onion powder, paprika, garlic powder, citric acid, extractives of paprika, silicon dioxide), potato starch, cornstarch and calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
+          <t>monterey jack cheese (pasteurized milk, cheese culture, salt, enzyme), cheddar cheese (pasteurized milk, cheese culture, salt, enzymes, annatto (color)), taco spice blend (maltodextrin, spices, torula yeast, salt, onion powder, paprika, garlic powder, citric acid, extractives of paprika, silicone dioxide). potato starch, cornstarch and calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>(PAREN) - enzymes → enzyme (singular)
-- enzymes → enzyme (singular)
-- annatto (color))  → annatto color  (90%)
-(PAREN) - spices → spice (singular)
-(PAREN) - silicone dioxide  → silicon dioxide  (97%)</t>
+          <t>(PAREN) - enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -6932,15 +6861,13 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>parmesan cheese, (pasteurized part-skim cow's milk, cheese cultures, salt, enzymes), reduced fat imitation parmesan cheese, food starch, water, milkfat, cellulose, maltodextrin, salt, natural flavor, caseinate, sodium phosphate, lactic acid, stabilizer (mono- and diglycerides, guar gum, carrageenan)), powdered cellulose added to prevent caking, potassium sorbate added to protect flavor</t>
+          <t>parmesan cheese, (pasteurized part-skim cow's milk, cheese cultures, salt, enzymes), reduced fat imitation parmesan cheese, (food starch, water, milk fat, cellulose, maltodextrin, salt, natural flavor, caseinate, sodium phosphate, lactic acid, stabilizer (mono- and diglycerides, guar gum, carrageenan)), powdered cellulose added to prevent caking, potassium sorbate added to protect flavor</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
           <t>(PAREN) - cheese cultures → cheese culture (singular)
-(PAREN) - enzymes → enzyme (singular)
-- (food starch  → food starch  (96%)
-- milk fat  → milkfat  (93%)</t>
+(PAREN) - enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -7153,13 +7080,12 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk and nonfat milk solid, active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei</t>
+          <t>cultured pasteurized grade a nonfat milk and nonfat milk solids. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>- cultured pasteurized grade a nonfat milk and nonfat milk solids → cultured pasteurized grade a nonfat milk and nonfat milk solid (singular)
-- active yogurt cultures with l. bulgaricus → active yogurt culture with l. bulgaricus (singular)
+          <t>- cultured pasteurized grade a nonfat milk and nonfat milk solids. contains active yogurt cultures with l. bulgaricus → cultured pasteurized grade a nonfat milk and nonfat milk solids. contain active yogurt culture with l. bulgaricus (singular)
 - s. thermophilus  → s thermophilus  (97%)
 - l. acidophilus  → l acidophilus  (96%)
 - l. casei  → l casei  (93%)</t>
@@ -7177,13 +7103,12 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk and nonfat milk solid, active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei</t>
+          <t>cultured pasteurized grade a lowfat milk and nonfat milk solids. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>- cultured pasteurized grade a lowfat milk and nonfat milk solids → cultured pasteurized grade a lowfat milk and nonfat milk solid (singular)
-- active yogurt cultures with l. bulgaricus → active yogurt culture with l. bulgaricus (singular)
+          <t>- cultured pasteurized grade a lowfat milk and nonfat milk solids. contains active yogurt cultures with l. bulgaricus → cultured pasteurized grade a lowfat milk and nonfat milk solids. contain active yogurt culture with l. bulgaricus (singular)
 - s. thermophilus  → s thermophilus  (97%)
 - l. acidophilus  → l acidophilus  (96%)
 - l. casei  → l casei  (93%)</t>
@@ -7201,13 +7126,13 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, sugar, nonfat milk solids, vanilla, active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a nonfat milk, sugar, nonfat milk solids, vanilla. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
           <t>- nonfat milk solids → nonfat milk solid (singular)
-- active yogurt cultures with l. bulgaricus → active yogurt culture with l. bulgaricus (singular)
+- vanilla. contains active yogurt cultures with l. bulgaricus → vanilla. contain active yogurt culture with l. bulgaricus (singular)
 - s. thermophilus  → s thermophilus  (97%)
 - l. acidophilus  → l acidophilus  (96%)
 - l. casei cultures → l. casei culture (singular)
@@ -7226,13 +7151,13 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, nonfat milk solids, vanilla, active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, nonfat milk solids, vanilla. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
           <t>- nonfat milk solids → nonfat milk solid (singular)
-- active yogurt cultures with l. bulgaricus → active yogurt culture with l. bulgaricus (singular)
+- vanilla. contains active yogurt cultures with l. bulgaricus → vanilla. contain active yogurt culture with l. bulgaricus (singular)
 - s. thermophilus  → s thermophilus  (97%)
 - l. acidophilus  → l acidophilus  (96%)
 - l. casei cultures → l. casei culture (singular)
@@ -7251,14 +7176,13 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, nonfat milk solids, modified corn starch, strawberry puree, fructose, usp kosher gelatin, natural flavor, potassium sorbate (to maintain freshness), citric acid, red 40, vitamin a palmitate, vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, nonfat milk solids, modified corn starch, strawberry puree, fructose, kosher gelatin, natural flavor, potassium sorbate (to maintain freshness), citric acid, red 40, vitamin a palmitate, vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
           <t>- nonfat milk solids → nonfat milk solid (singular)
 - modified cornstarch  → modified corn starch  (97%)
-- kosher gelatin  → usp kosher gelatin  (88%)
 - natural flavors → natural flavor (singular)
 - vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
 - s. thermophilus  → s thermophilus  (97%)
@@ -7280,14 +7204,13 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, nonfat milk solids, modified corn starch, fructose, usp kosher gelatin, blueberry juice concentrate, natural flavor, fruit and vegetable juice concentrate for color (blueberry, purple carrot, black carrot), elderberry juice concentrate, citric acid, potassium sorbate (to maintain freshness), vitamin a palmitate and vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, nonfat milk solids, modified corn starch, fructose, kosher gelatin, blueberry juice concentrate, natural flavor, fruit and vegetable juice concentrate for color (blueberry, purple carrot, black carrot), elderberry juice concentrate, citric acid, potassium sorbate (to maintain freshness), vitamin a palmitate and vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
           <t>- nonfat milk solids → nonfat milk solid (singular)
 - modified cornstarch  → modified corn starch  (97%)
-- kosher gelatin  → usp kosher gelatin  (88%)
 - natural flavors → natural flavor (singular)
 - vitamin a palmitate and vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin a palmitate and vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
 - s. thermophilus  → s thermophilus  (97%)
@@ -7309,7 +7232,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, sugar, strawberry, pectin, carob bean gum, natural flavor, citric acid, vegetable juice (for color), live active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
+          <t>cultured pasteurized grade a nonfat milk, sugar, strawberry, pectin, carob bean gum, natural flavor, citric acid, vegetable juice (for color). contain live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -7319,8 +7242,7 @@
 (PAREN) - l. bulgaricus  → l bulgaricus  (96%)
 (PAREN) - l. acidophilus  → l acidophilus  (96%)
 (PAREN) - l. casei  → l casei  (93%)
-- live and active cultures → live and active culture (singular)
-- live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei) → live active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei) (90%)</t>
+- vegetable juice (for color). contains live and active cultures → vegetable juice (for color). contain live and active culture (singular)</t>
         </is>
       </c>
     </row>
@@ -7335,7 +7257,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, sugar, peach, natural flavor, carob bean gum, pectin, lemon juice concentrate, live active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
+          <t>cultured pasteurized grade a nonfat milk, sugar, peach, natural flavor, carob bean gum, pectin, lemon juice concentrate. contain live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -7345,8 +7267,7 @@
 (PAREN) - l. bulgaricus  → l bulgaricus  (96%)
 (PAREN) - l.acidophilus  → l acidophilus  (92%)
 (PAREN) - l. casei  → l casei  (93%)
-- live and active cultures → live and active culture (singular)
-- live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei) → live active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei) (90%)</t>
+- lemon juice concentrate. contains live and active cultures → lemon juice concentrate. contain live and active culture (singular)</t>
         </is>
       </c>
     </row>
@@ -7361,7 +7282,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, sugar, blueberry, corn starch, pectin, vegetable juice (for color), natural flavor, carob bean gum, live active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
+          <t>cultured pasteurized grade a nonfat milk, sugar, blueberry, corn starch, pectin, vegetable juice (for color), natural flavor, carob bean gum. contain live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -7370,8 +7291,7 @@
 - natural flavors → natural flavor (singular)
 (PAREN) - s. thermophilus  → s thermophilus  (97%)
 (PAREN) - l. bulgaricus  → l bulgaricus  (96%)
-- live and active cultures → live and active culture (singular)
-- live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei) → live active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei) (90%)</t>
+- carob bean gum. contains live and active cultures → carob bean gum. contain live and active culture (singular)</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7306,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, sugar, raspberry, pectin, natural flavor, vegetable juice (for color), carob bean gum, raspberry seed, citric acid, live active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
+          <t>cultured pasteurized grade a nonfat milk, sugar, raspberry, pectin, natural flavor, vegetable juice (for color), carob bean gum, raspberry seed, citric acid. contain live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -7397,8 +7317,7 @@
 (PAREN) - l. bulgaricus  → l bulgaricus  (96%)
 (PAREN) - l. acidophilus  → l acidophilus  (96%)
 (PAREN) - l. casei  → l casei  (93%)
-- live and active cultures → live and active culture (singular)
-- live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei) → live active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei) (90%)</t>
+- citric acid. contains live and active cultures → citric acid. contain live and active culture (singular)</t>
         </is>
       </c>
     </row>
@@ -7413,7 +7332,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, sugar, fructose, corn starch, locust bean gum, natural flavor, malic acid, vanilla extract, live active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
+          <t>cultured pasteurized grade a nonfat milk, sugar, fructose, corn starch, locust bean gum, natural flavor, malic acid, vanilla extract. contain live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -7422,8 +7341,7 @@
 (PAREN) - s. thermophilus  → s thermophilus  (97%)
 (PAREN) - l. acidophilus  → l acidophilus  (96%)
 (PAREN) - l. casei  → l casei  (93%)
-- live and active cultures → live and active culture (singular)
-- live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei) → live active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei) (90%)</t>
+- vanilla extract. contains live and active cultures → vanilla extract. contain live and active culture (singular)</t>
         </is>
       </c>
     </row>
@@ -7438,7 +7356,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, sugar, cherry, cherry juice concentrate, pectin, natural flavor, carob bean gum, calcium chloride, citric acid, live active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
+          <t>cultured pasteurized grade a nonfat milk, sugar, cherry, cherry juice concentrate, pectin, natural flavor, carob bean gum, calcium chloride, citric acid. contain live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -7447,8 +7365,7 @@
 (PAREN) - s. thermophilus  → s thermophilus  (97%)
 (PAREN) - l. acidophilus  → l acidophilus  (96%)
 (PAREN) - l. casei  → l casei  (93%)
-- live and active cultures → live and active culture (singular)
-- live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei) → live active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei) (90%)</t>
+- citric acid. contains live and active cultures → citric acid. contain live and active culture (singular)</t>
         </is>
       </c>
     </row>
@@ -7463,7 +7380,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, live active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
+          <t>cultured pasteurized grade a nonfat milk. contain live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -7472,8 +7389,7 @@
 (PAREN) - l. bulgaricus  → l bulgaricus  (96%)
 (PAREN) - l. acidophilus  → l acidophilus  (96%)
 (PAREN) - l. casei  → l casei  (93%)
-- live and active cultures → live and active culture (singular)
-- live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei) → live active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei) (90%)</t>
+- cultured pasteurized grade a nonfat milk. contains live and active cultures → cultured pasteurized grade a nonfat milk. contain live and active culture (singular)</t>
         </is>
       </c>
     </row>
@@ -7488,7 +7404,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, sugar, fructose, corn starch, locust bean gum, natural flavor, malic acid, vanilla extract, live active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
+          <t>cultured pasteurized grade a nonfat milk, sugar, fructose, corn starch, locust bean gum, natural flavor, malic acid, vanilla extract. contain live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -7498,8 +7414,7 @@
 (PAREN) - l. bulgaricus  → l bulgaricus  (96%)
 (PAREN) - l. acidophilus  → l acidophilus  (96%)
 (PAREN) - l. casei  → l casei  (93%)
-- live and active cultures → live and active culture (singular)
-- live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei) → live active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei) (90%)</t>
+- vanilla extract. contains live and active cultures → vanilla extract. contain live and active culture (singular)</t>
         </is>
       </c>
     </row>
@@ -7514,7 +7429,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, sugar, pineapple juice concentrate, pectin, natural flavor, carob bean gum, turmeric (for color), live active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
+          <t>cultured pasteurized grade a nonfat milk, sugar, pineapple juice concentrate, pectin, natural flavor, carob bean gum, turmeric(for color). contain live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -7523,8 +7438,7 @@
 (PAREN) - l. bulgaricus  → l bulgaricus  (96%)
 (PAREN) - l. acidophilus  → l acidophilus  (96%)
 (PAREN) - l. casei  → l casei  (93%)
-- live and active cultures → live and active culture (singular)
-- live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei) → live active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei) (90%)</t>
+- turmeric(for color). contains live and active cultures → turmeric(for color). contain live and active culture (singular)</t>
         </is>
       </c>
     </row>
@@ -7539,7 +7453,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, sugar, strawberry, banana puree, corn starch, pectin, vegetable juice (for color), natural flavor, lemon juice concentrate turmeric - (for color), live active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
+          <t>cultured pasteurized grade a nonfat milk, sugar, strawberry, banana puree, corn starch, pectin, vegetable juice (for color), natural flavor, lemon juice concentrate turmeric - (for color). contain live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -7549,8 +7463,7 @@
 (PAREN) - s. thermophilus  → s thermophilus  (97%)
 (PAREN) - l. acidophilus  → l acidophilus  (96%)
 (PAREN) - l. casei  → l casei  (93%)
-- live and active cultures → live and active culture (singular)
-- live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei) → live active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei) (90%)</t>
+- lemon juice concentrate turmeric - (for color). contains live and active cultures → lemon juice concentrate turmeric - (for color). contain live and active culture (singular)</t>
         </is>
       </c>
     </row>
@@ -7565,14 +7478,13 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a milk, sugar, raspberry puree, modified corn starch, nonfat milk solids, usp kosher gelatin, natural flavor, concentrated fruit and vegetable juice (color), pectin, sodium citrate, citric acid, vitamin a palmitate, vitamin d3. contain active yogurt with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus and l. casei culture</t>
+          <t>cultured pasteurized grade a milk, sugar, raspberry puree, modified corn starch, nonfat milk solids, kosher gelatin, natural flavor, concentrated fruit and vegetable juice (color), pectin, sodium citrate, citric acid, vitamin a palmitate, vitamin d3. contain active yogurt with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus and l. casei culture</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
           <t>- modified cornstarch  → modified corn starch  (97%)
 - nonfat milk solids → nonfat milk solid (singular)
-- kosher gelatin  → usp kosher gelatin  (88%)
 - natural flavors → natural flavor (singular)
 - vitamin d3. contains active yogurt with l. bulgaricus → vitamin d3. contain active yogurt with l. bulgaricus (singular)
 - s. thermophilus  → s thermophilus  (97%)
@@ -7592,14 +7504,13 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a milk, sugar, modified corn starch, blueberry puree, nonfat milk solids, usp kosher gelatin, natural flavor, concentrated fruit and vegetable juice (color), pectin, citric acid, vitamin a palmitate, vitamin d3. contain active yogurt with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l. acidophilus and l. casei culture</t>
+          <t>cultured pasteurized grade a milk, sugar, modified corn starch, blueberry puree, nonfat milk solids, kosher gelatin, natural flavor, concentrated fruit and vegetable juice (color), pectin, citric acid, vitamin a palmitate, vitamin d3. contain active yogurt with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l. acidophilus and l. casei culture</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
           <t>- modified cornstarch  → modified corn starch  (97%)
 - nonfat milk solids → nonfat milk solid (singular)
-- kosher gelatin  → usp kosher gelatin  (88%)
 - natural flavors → natural flavor (singular)
 - vitamin d3. contains active yogurt with l. bulgaricus → vitamin d3. contain active yogurt with l. bulgaricus (singular)
 - s. thermophilus  → s thermophilus  (97%)
@@ -7619,14 +7530,13 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a milk, sugar, modified corn starch, nonfat milk solids, usp kosher gelatin, natural flavor, pectin, citric acid, vitamin a palmitate, vitamin d3. contain active yogurt with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l. acidophilus and l. casei culture</t>
+          <t>cultured pasteurized grade a milk, sugar, modified corn starch, nonfat milk solids, kosher gelatin, natural flavor, pectin, citric acid, vitamin a palmitate, vitamin d3. contain active yogurt with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l. acidophilus and l. casei culture</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
           <t>- modified cornstarch  → modified corn starch  (97%)
 - nonfat milk solids → nonfat milk solid (singular)
-- kosher gelatin  → usp kosher gelatin  (88%)
 - natural flavors → natural flavor (singular)
 - vitamin d3. contains active yogurt with l. bulgaricus → vitamin d3. contain active yogurt with l. bulgaricus (singular)
 - s. thermophilus  → s thermophilus  (97%)
@@ -7646,7 +7556,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, strawberry, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness), active yogurt culture with l. bulgaricus s. thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, strawberry, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus s. thermophilus, bifidus, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -7654,7 +7564,7 @@
           <t>- strawberries → strawberry (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- active yogurt cultures with l. bulgaricus s. thermophilus → active yogurt culture with l. bulgaricus s. thermophilus (singular)
+- potassium sorbate (to maintain freshness). contains active yogurt cultures with l. bulgaricus s. thermophilus → potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus s. thermophilus (singular)
 - l. acidophilus  → l acidophilus  (96%)
 - l. casei cultures → l. casei culture (singular)
 - l. casei culture  → l casei culture  (97%)</t>
@@ -7672,7 +7582,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, red raspberry, nonfat milk solids, natural flavor, pectin, citric acid, potassium sorbate (to maintain freshness), active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, red raspberry, nonfat milk solids, natural flavor, pectin, citric acid, potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -7680,7 +7590,7 @@
           <t>- red raspberries → red raspberry (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- active yogurt cultures with l. bulgaricus → active yogurt culture with l. bulgaricus (singular)
+- potassium sorbate (to maintain freshness). contains active yogurt cultures with l. bulgaricus → potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus (singular)
 - s. thermophilus  → s thermophilus  (97%)
 - l. acidophilus  → l acidophilus  (96%)
 - l. casei cultures → l. casei culture (singular)
@@ -7699,7 +7609,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, strawberry, blueberry, blackberry, red raspberry, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness), active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, strawberry, blueberry, blackberry, red raspberry, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -7710,7 +7620,7 @@
 - red raspberries → red raspberry (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- active yogurt cultures with l. bulgaricus → active yogurt culture with l. bulgaricus (singular)
+- potassium sorbate (to maintain freshness). contains active yogurt cultures with l. bulgaricus → potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus (singular)
 - s. thermophilus  → s thermophilus  (97%)
 - l. acidophilus  → l acidophilus  (96%)
 - l. casei cultures → l. casei culture (singular)
@@ -7729,7 +7639,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, peach, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness), active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, peach, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -7737,7 +7647,7 @@
           <t>- peaches → peach (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- active yogurt cultures with l. bulgaricus → active yogurt culture with l. bulgaricus (singular)
+- potassium sorbate (to maintain freshness). contains active yogurt cultures with l. bulgaricus → potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus (singular)
 - s. thermophilus  → s thermophilus  (97%)
 - l. acidophilus  → l acidophilus  (96%)
 - l. casei cultures → l. casei culture (singular)
@@ -7756,7 +7666,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, black sweet cherry, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness), active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, black sweet cherry, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -7764,7 +7674,7 @@
           <t>- black sweet cherries → black sweet cherry (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- active yogurt cultures with l. bulgaricus → active yogurt culture with l. bulgaricus (singular)
+- potassium sorbate (to maintain freshness). contains active yogurt cultures with l. bulgaricus → potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus (singular)
 - s. thermophilus  → s thermophilus  (97%)
 - l. acidophilus  → l acidophilus  (96%)
 - l. casei cultures → l. casei culture (singular)
@@ -7783,7 +7693,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, blueberry, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness), active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, blueberry, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -7791,7 +7701,7 @@
           <t>- blueberries → blueberry (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- active yogurt cultures with l. bulgaricus → active yogurt culture with l. bulgaricus (singular)
+- potassium sorbate (to maintain freshness). contains active yogurt cultures with l. bulgaricus → potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus (singular)
 - s. thermophilus  → s thermophilus  (97%)
 - l. acidophilus  → l acidophilus  (96%)
 - l. casei cultures → l. casei culture (singular)
@@ -7810,13 +7720,12 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, fructose, modified corn starch, usp kosher gelatin, natural flavor, nonfat milk solids, citric acid, potassium sorbate (to maintain freshness), sucralose, acesulfame potassium, turmeric (color), annatto (color), caramel color, vitamin a palmitate, vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei</t>
+          <t>cultured pasteurized grade a nonfat milk, fructose, modified corn starch, kosher gelatin, natural flavor, nonfat milk solids, citric acid, potassium sorbate (to maintain freshness), sucralose, acesulfame potassium, turmeric (color), annatto (color), caramel color, vitamin a palmitate, vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
           <t>- modified cornstarch  → modified corn starch  (97%)
-- kosher gelatin  → usp kosher gelatin  (88%)
 - natural flavors → natural flavor (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
@@ -7838,14 +7747,13 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, fructose, modified corn starch, blueberry, usp kosher gelatin, concentrated blueberry puree, nonfat milk solids, natural flavor, concentrated fruit &amp; vegetable juice (color), malic acid, potassium sorbate (to maintain freshness), acesulfame potassium, sucralose, vitamin a palmitate, vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei</t>
+          <t>cultured pasteurized grade a nonfat milk, fructose, modified corn starch, blueberry, kosher gelatin, concentrated blueberry puree, nonfat milk solids, natural flavor, concentrated fruit &amp; vegetable juice (color), malic acid, potassium sorbate (to maintain freshness), acesulfame potassium, sucralose, vitamin a palmitate, vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
           <t>- modified cornstarch  → modified corn starch  (97%)
 - blueberries → blueberry (singular)
-- kosher gelatin  → usp kosher gelatin  (88%)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
 - vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
@@ -7867,14 +7775,13 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, peach, fructose, modified corn starch, usp kosher gelatin, citric acid, nonfat milk solids, natural flavor, potassium sorbate (to maintain freshness), acesulfame potassium, sucralose, annatto, concentrated black carrot juice (color), vitamin a palmitate, vitamin d3, active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei</t>
+          <t>cultured pasteurized grade a nonfat milk, peach, fructose, modified corn starch, kosher gelatin, citric acid, nonfat milk solids, natural flavor, potassium sorbate (to maintain freshness), acesulfame potassium, sucralose, annatto, concentrated black carrot juice (color), vitamin a palmitate, vitamin d3, active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
           <t>- peaches → peach (singular)
 - modified cornstarch  → modified corn starch  (97%)
-- kosher gelatin  → usp kosher gelatin  (88%)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
 - active yogurt cultures with l. bulgaricus → active yogurt culture with l. bulgaricus (singular)
@@ -7895,14 +7802,13 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, raspberry, fructose, modified corn starch, usp kosher gelatin, natural flavor, nonfat milk solids, concentrated fruit and vegetable juice (color), potassium sorbate (to maintain freshness), acesulfame potassium, sucralose, vitamin a palmitate, vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a nonfat milk, raspberry, fructose, modified corn starch, kosher gelatin, natural flavor, nonfat milk solids, concentrated fruit and vegetable juice (color), potassium sorbate (to maintain freshness), acesulfame potassium, sucralose, vitamin a palmitate, vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
           <t>- raspberries → raspberry (singular)
 - modified cornstarch  → modified corn starch  (97%)
-- kosher gelatin  → usp kosher gelatin  (88%)
 - natural flavors → natural flavor (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
@@ -7925,14 +7831,13 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, strawberry, fructose, modified corn starch, usp kosher gelatin, nonfat milk solids, natural flavor, concentrated vegetable juice (color), malic acid, sucralose, acesulfame potassium, potassium sorbate (to maintain freshness), vitamin a palmitate, vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a nonfat milk, strawberry, fructose, modified corn starch, kosher gelatin, nonfat milk solids, natural flavor, concentrated vegetable juice (color), malic acid, sucralose, acesulfame potassium, potassium sorbate (to maintain freshness), vitamin a palmitate, vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
           <t>- strawberries → strawberry (singular)
 - modified cornstarch  → modified corn starch  (97%)
-- kosher gelatin  → usp kosher gelatin  (88%)
 - nonfat milk solics → nonfat milk solic (singular)
 - nonfat milk solic  → nonfat milk solids  (91%)
 - natural flavors → natural flavor (singular)
@@ -7956,7 +7861,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, strawberry, fructose, modified corn starch, banana, usp kosher gelatin, natural flavor, nonfat milk solids, citric acid, tricalcium phosphate, acesulfame potassium, vegetable juice and beta carotene (color), sucralose, potassium sorbate (to maintain freshness), sodium benzoate (to maintain freshness), vitamin a palmitate, vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a nonfat milk, strawberry, fructose, modified corn starch, banana, kosher gelatin, natural flavor, nonfat milk solids, citric acid, tricalcium phosphate, acesulfame potassium, vegetable juice and beta carotene (color), sucralose, potassium sorbate (to maintain freshness), sodium benzoate (to maintain freshness), vitamin a palmitate, vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -7964,7 +7869,6 @@
           <t>- strawberries → strawberry (singular)
 - modified cornstarch  → modified corn starch  (97%)
 - bananas → banana (singular)
-- kosher gelatin  → usp kosher gelatin  (88%)
 - natural flavors → natural flavor (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
@@ -7987,13 +7891,12 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, sugar, modified corn starch, fructose, usp kosher gelatin, natural flavor, nonfat milk solids, tricalcium phosphate, citric acid, sucralose, potassium sorbate (to maintain freshness), acesulfame potassium, annatto (color), sodium citrate, turmeric (color), vitamin a palmitate, and vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, and l casei</t>
+          <t>cultured pasteurized grade a nonfat milk, sugar, modified corn starch, fructose, kosher gelatin, natural flavor, nonfat milk solids, tricalcium phosphate, citric acid, sucralose, potassium sorbate (to maintain freshness), acesulfame potassium, annatto (color), sodium citrate, turmeric (color), vitamin a palmitate, and vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, and l casei</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
           <t>- modified cornstarch  → modified corn starch  (97%)
-- kosher gelatin  → usp kosher gelatin  (88%)
 - natural flavors → natural flavor (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - and vitamin d3. contains active yogurt cultures with l. bulgaricus → and vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
@@ -8015,14 +7918,13 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, blueberry, corn syrup, modified corn starch, usp kosher gelatin, natural flavor, potassium sorbate (to maintain freshness), citric acid, red 40, blue 1. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, blueberry, corn syrup, modified corn starch, kosher gelatin, natural flavor, potassium sorbate (to maintain freshness), citric acid, red 40, blue 1. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
           <t>- blueberries → blueberry (singular)
 - modified cornstarch  → modified corn starch  (97%)
-- kosher gelatin  → usp kosher gelatin  (88%)
 - natural flavors → natural flavor (singular)
 - blue 1. contains active yogurt cultures with l. bulgaricus → blue 1. contain active yogurt culture with l. bulgaricus (singular)
 - s. thermophilus  → s thermophilus  (97%)
@@ -8043,14 +7945,13 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, black cherry, corn syrup, modified corn starch, usp kosher gelatin, natural flavor, potassium sorbate (to maintain freshness), citric acid, red 40, blue 1. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, black cherry, corn syrup, modified corn starch, kosher gelatin, natural flavor, potassium sorbate (to maintain freshness), citric acid, red 40, blue 1. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
           <t>- black cherries → black cherry (singular)
 - modified cornstarch  → modified corn starch  (97%)
-- kosher gelatin  → usp kosher gelatin  (88%)
 - natural flavors → natural flavor (singular)
 - blue 1. contains active yogurt cultures with l. bulgaricus → blue 1. contain active yogurt culture with l. bulgaricus (singular)
 - s. thermophilus  → s thermophilus  (97%)
@@ -8071,14 +7972,13 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, raspberry, corn syrup, modified corn starch, usp kosher gelatin, natural flavor, potassium sorbate (to maintain freshness), red 40 and blue 1. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, raspberry, corn syrup, modified corn starch, kosher gelatin, natural flavor, potassium sorbate (to maintain freshness), red 40 and blue 1. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
           <t>- raspberries → raspberry (singular)
 - modified cornstarch  → modified corn starch  (97%)
-- kosher gelatin  → usp kosher gelatin  (88%)
 - natural flavors → natural flavor (singular)
 - red 40 and blue 1. contains active yogurt cultures with l. bulgaricus → red 40 and blue 1. contain active yogurt culture with l. bulgaricus (singular)
 - s. thermophilus  → s thermophilus  (97%)
@@ -8099,14 +7999,13 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, strawberry, corn syrup, banana puree concentrate, modified corn starch, usp kosher gelatin, natural flavor, citric acid, potassium sorbate (to maintain freshness), red 40. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, strawberry, corn syrup, banana puree concentrate, modified corn starch, kosher gelatin, natural flavor, citric acid, potassium sorbate (to maintain freshness), red 40. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
           <t>- strawberries → strawberry (singular)
 - modified cornstarch  → modified corn starch  (97%)
-- kosher gelatin  → usp kosher gelatin  (88%)
 - natural flavors → natural flavor (singular)
 - red 40. contains active yogurt cultures with l. bulgaricus → red 40. contain active yogurt culture with l. bulgaricus (singular)
 - s. thermophilus  → s thermophilus  (97%)
@@ -8127,14 +8026,13 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, strawberry, corn syrup, modified corn starch, usp kosher gelatin, natural flavor, citric acid, potassium sorbate (to maintain freshness), red 40. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, strawberry, corn syrup, modified corn starch, kosher gelatin, natural flavor, citric acid, potassium sorbate (to maintain freshness), red 40. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
           <t>- strawberries → strawberry (singular)
 - modified cornstarch  → modified corn starch  (97%)
-- kosher gelatin  → usp kosher gelatin  (88%)
 - natural flavors → natural flavor (singular)
 - red 40. contains active yogurt cultures with l. bulgaricus → red 40. contain active yogurt culture with l. bulgaricus (singular)
 - s.thermophilus  → s thermophilus  (93%)
@@ -8155,14 +8053,13 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk sugar, oranges modified cornstarch, natural flavors annatto (for color), citric acid, live active culture (l acidophilus, bifidus and l. casei)</t>
+          <t>cultured pasteurized grade a nonfat milk sugar, oranges modified cornstarch, natural flavors annatto (for color), citric acid. contain live and active culture (l acidophilus, bifidus and l. casei)</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
           <t>(PAREN) - l. acidophilus  → l acidophilus  (96%)
-- live and active cultures → live and active culture (singular)
-- live and active culture (l acidophilus, bifidus and l. casei) → live active culture (l acidophilus, bifidus and l. casei) (90%)</t>
+- citric acid. contains live and active cultures → citric acid. contain live and active culture (singular)</t>
         </is>
       </c>
     </row>
@@ -8177,14 +8074,13 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, apple, fructose, modified corn starch, usp kosher gelatin, nonfat milk solids, natural flavor, cinnamon, citric acid, sodium citrate, acesulfame potassium, potassium sorbate (to maintain freshness), sucralose, vitamin a palmitate, vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei</t>
+          <t>cultured pasteurized grade a nonfat milk, apple, fructose, modified corn starch, kosher gelatin, nonfat milk solids, natural flavor, cinnamon, citric acid, sodium citrate, acesulfame potassium, potassium sorbate (to maintain freshness), sucralose, vitamin a palmitate, vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
           <t>- apples → apple (singular)
 - modified cornstarch  → modified corn starch  (97%)
-- kosher gelatin  → usp kosher gelatin  (88%)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
 - vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
@@ -8206,13 +8102,12 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, sugar, fructose, modified corn starch, usp kosher gelatin, nonfat milk solids, natural flavor, citric acid, tricalcium phosphate, potassium sorbate (to maintain freshness), sodium citrate, sodium benzoate (to maintain freshness), caramel color, sucralose, acesulfame potassium, turmeric (color), vitamin a palmitate, vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei</t>
+          <t>cultured pasteurized grade a nonfat milk, sugar, fructose, modified corn starch, kosher gelatin, nonfat milk solids, natural flavor, citric acid, tricalcium phosphate, potassium sorbate (to maintain freshness), sodium citrate, sodium benzoate (to maintain freshness), caramel color, sucralose, acesulfame potassium, turmeric (color), vitamin a palmitate, vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
           <t>- modified cornstarch  → modified corn starch  (97%)
-- kosher gelatin  → usp kosher gelatin  (88%)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
 - tumeric (color) → turmeric (color) (93%)
@@ -8234,7 +8129,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, strawberry, banana, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness), active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, strawberry, banana, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -8243,7 +8138,7 @@
 - bananas → banana (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- active yogurt cultures with l. bulgaricus → active yogurt culture with l. bulgaricus (singular)
+- potassium sorbate (to maintain freshness). contains active yogurt cultures with l. bulgaricus → potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus (singular)
 - s. thermophilus  → s thermophilus  (97%)
 - l. acidophilus  → l acidophilus  (96%)
 - l. casei cultures → l. casei culture (singular)
@@ -8262,13 +8157,12 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk and nonfat milk solid, active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk and nonfat milk solids. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>- cultured pasteurized grade a lowfat milk and nonfat milk solids → cultured pasteurized grade a lowfat milk and nonfat milk solid (singular)
-- active yogurt cultures with l. bulgaricus → active yogurt culture with l. bulgaricus (singular)
+          <t>- cultured pasteurized grade a lowfat milk and nonfat milk solids. contains active yogurt cultures with l. bulgaricus → cultured pasteurized grade a lowfat milk and nonfat milk solids. contain active yogurt culture with l. bulgaricus (singular)
 - s. thermophilus  → s thermophilus  (97%)
 - l. acidophilus  → l acidophilus  (96%)
 - l. casei cultures → l. casei culture (singular)
@@ -8287,13 +8181,12 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, fructose, modified corn starch, usp kosher gelatin, nonfat milk solids, natural flavor, citric acid, potassium sorbate (to maintain freshness), acesulfame potassium, sucralose, turmeric (color), caramel color, vitamin a palmitate, vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei</t>
+          <t>cultured pasteurized grade a nonfat milk, fructose, modified corn starch, kosher gelatin, nonfat milk solids, natural flavor, citric acid, potassium sorbate (to maintain freshness), acesulfame potassium, sucralose, turmeric (color), caramel color, vitamin a palmitate, vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
           <t>- modified cornstarch  → modified corn starch  (97%)
-- kosher gelatin  → usp kosher gelatin  (88%)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
 - vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
@@ -8315,15 +8208,14 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, corn syrup, modified corn starch, usp kosher gelatin, natural flavor, citric acid, sodium citrate, potassium sorbate (to maintain freshness), annatto (color), active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, corn syrup, modified corn starch, kosher gelatin, natural flavor, citric acid, sodium citrate, potassium sorbate (to maintain freshness), annatto (color). contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
           <t>- modified cornstarch  → modified corn starch  (97%)
-- kosher gelatin  → usp kosher gelatin  (88%)
 - natural flavors → natural flavor (singular)
-- active yogurt cultures with l. bulgaricus → active yogurt culture with l. bulgaricus (singular)
+- annatto (color). contains active yogurt cultures with l. bulgaricus → annatto (color). contain active yogurt culture with l. bulgaricus (singular)
 - s. thermophilus  → s thermophilus  (97%)
 - l. acidophilus  → l acidophilus  (96%)
 - l. casei cultures → l. casei culture (singular)
@@ -8406,13 +8298,12 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a milk, nonfat milk solids, active yogurt cultures including l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei</t>
+          <t>cultured pasteurized grade a milk, nonfat milk solids. contains active yogurt cultures including l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>- nonfat milk solids → nonfat milk solid (singular)
-- s. thermophilus  → s thermophilus  (97%)
+          <t>- s. thermophilus  → s thermophilus  (97%)
 - l. acidophilus  → l acidophilus  (96%)
 - l. casei  → l casei  (93%)</t>
         </is>
@@ -8465,7 +8356,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>filtered water, high fructose corn syrup syrup, concentrated pear juice, citric acid, concentrated cranberry juice, ester gum, concentrated cherry juice, red 40, caramel color, concentrated pineapple juice, propylene, glycol, ascorbic acid (vitamin c), natural flavor, gum acacia</t>
+          <t>filtered water, high fructose corn syrup, concentrated pear juice, citric acid, concentrated cranberry juice, ester gum, concentrated cherry juice, red 40, caramel color, concentrated pineapple juice, propylene, glycol, ascorbic acid (vitamin c), natural flavor, gum acacia</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -8541,7 +8432,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>100% orange juice not from concentrate concentrate</t>
+          <t>100% orange juice not from concentrate</t>
         </is>
       </c>
       <c r="D390" t="inlineStr"/>
@@ -9787,7 +9678,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>water, corn syrup, high fructose corn syrup syrup, sugar, artificial flavor, citric acid, locust bean gum, guar gum, ascorbic acid (vitamin c), carrageenan, artificial color (may contain one or more of the following, annatto, turmeric, caramel, blue 1, red 3, red 40, yellow 5, yellow 6)</t>
+          <t>water, corn syrup, high fructose corn syrup, sugar, artificial flavor, citric acid, locust bean gum, guar gum, ascorbic acid (vitamin c), carrageenan, artificial color (may contain one or more of the following, annatto, turmeric, caramel, blue 1, red 3, red 40, yellow 5, yellow 6)</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -9808,7 +9699,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>water, corn syrup, high fructose corn syrup syrup, sugar, artificial flavor, citric acid, locust bean gum, guar gum, ascorbic acid (vitamin c), carrageenan polysorbate 80, artificial color (blue 1, red 3, red 40)</t>
+          <t>water, corn syrup, high fructose corn syrup, sugar, artificial flavor, citric acid, locust bean gum, guar gum, ascorbic acid (vitamin c), carrageenan polysorbate 80, artificial color (blue 1, red 3, red 40)</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -9829,16 +9720,15 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>ice cream ingredient, milkfat and nonfat milk, high fructose corn syrup syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan, topping ingredient, coating (coconut oil, sugar, cocoa and cocoa processed with alkali, chocolate liquor, partially hydrogenated soybean oil, soy lecithin, salt, vanillin), peanut, cone ingredient, bleached wheat flour, sugar, molasses, vegetable shortening (palm, cottonseed, partially hydrogenated soybean oil), soy lecithin, salt, caramel color, artificial flavor</t>
+          <t>ice cream ingredient, milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan. topping ingredient, coating (coconut oil, sugar, cocoa and cocoa processed with alkali, chocolate liquor, partially hydrogenated soybean oil, soy lecithin, salt, vanillin), peanuts. cone ingredient, bleached wheat flour, sugar, molasses, vegetable shortening (palm, cottonseed, partially hydrogenated soybean oil), soy lecithin, salt, caramel color, artificial flavor</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
           <t>- ice cream ingredients → ice cream ingredient (singular)
 - mono-and diglycerides  → mono and diglycerides  (95%)
-- topping ingredients → topping ingredient (singular)
-- peanuts → peanut (singular)
-- cone ingredients → cone ingredient (singular)
+- carrageenan. topping ingredients → carrageenan. topping ingredient (singular)
+- peanuts. cone ingredients → peanuts. cone ingredient (singular)
 (PAREN) - and/or partially hydrogenated soybean oil  → partially hydrogenated soybean oil  (91%)</t>
         </is>
       </c>
@@ -9854,14 +9744,14 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>ice cream ingredient, milkfat and nonfat milk, high fructose corn syrup syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan, coating ingredient, coconut oil, sugar, cocoa and cocoa processed with alkali, chocolate liquor, partially hydrogenated soybean oil, soy lecithin, salt, vanilla</t>
+          <t>ice cream ingredient, milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan. coating ingredient, coconut oil, sugar, cocoa and cocoa processed with alkali, chocolate liquor, partially hydrogenated soybean oil, soy lecithin, salt, vanilla</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
           <t>- ice cream ingredients → ice cream ingredient (singular)
 - mono- and diglycerides  → mono and diglycerides  (98%)
-- coating ingredients → coating ingredient (singular)</t>
+- carrageenan. coating ingredients → carrageenan. coating ingredient (singular)</t>
         </is>
       </c>
     </row>
@@ -9876,14 +9766,14 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>ice cream ingredient, milkfat and nonfat milk, high fructose corn syrup syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan, sherbet ingredient, water, corn syrup, high fructose corn syrup syrup, sugar, whey, milkfat, orange puree (concentrated orange juice, orange pulp, orange oil, natural flavor), citric acid, guar gum, mono and diglycerides, xanthan gum, polysorbate 80, locust bean gum, carrageenan, annatto, artificial color (red 40, yellow 5, yellow 6)</t>
+          <t>ice cream ingredient, milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan. sherbet ingredient, water, corn syrup, high fructose corn syrup, sugar, whey, milkfat, orange puree (concentrated orange juice, orange pulp, orange oil, natural flavor), citric acid, guar gum, mono and diglycerides, xanthan gum, polysorbate 80, locust bean gum, carrageenan, annatto, artificial color (red 40, yellow 5, yellow 6)</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
           <t>- ice cream ingredients → ice cream ingredient (singular)
 - mono- and diglycerides  → mono and diglycerides  (98%)
-- sherbet ingredients → sherbet ingredient (singular)
+- carrageenan. sherbet ingredients → carrageenan. sherbet ingredient (singular)
 (PAREN) - natural flavors → natural flavor (singular)
 - mono- and diglycerides  → mono and diglycerides  (98%)</t>
         </is>
@@ -9900,7 +9790,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>milkfat and nonfat milk, high fructose corn syrup syrup, corn syrup, buttermilk, sugar, whey, cocoa processed with alkali, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, wheat flour, locust bean gum, soy lecithin, carrageenan</t>
+          <t>milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, cocoa processed with alkali, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, wheat flour, locust bean gum, soy lecithin, carrageenan</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -9920,14 +9810,14 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>ice cream ingredient, milkfat and nonfat milk, high fructose corn syrup syrup, corn syrup, buttermilk, sugar, whey, artificial flavor, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, locust bean gum, carrageenan, wafers ingredient, bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose corn syrup syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
+          <t>ice cream ingredient, milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, artificial flavor, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, locust bean gum, carrageenan. wafers ingredient, bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose corn syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
           <t>- ice cream ingredients → ice cream ingredient (singular)
 - mono- and diglycerides  → mono and diglycerides  (98%)
-- wafers ingredients → wafers ingredient (singular)
+- carrageenan. wafers ingredients → carrageenan. wafers ingredient (singular)
 - mono- and diglycerides  → mono and diglycerides  (98%)</t>
         </is>
       </c>
@@ -9943,14 +9833,14 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>ice cream ingredient, milkfat and nonfat milk, high fructose corn syrup syrup, corn syrup, buttermilk, sugar, whey, artificial flavor, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, locust bean gum, carrageenan, wafer ingredient, bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose corn syrup syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
+          <t>ice cream ingredient, milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, artificial flavor, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, locust bean gum, carrageenan. wafer ingredient, bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose corn syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
           <t>- ice cream ingredients → ice cream ingredient (singular)
 - mono- and diglycerides  → mono and diglycerides  (98%)
-- wafer ingredients → wafer ingredient (singular)
+- carrageenan. wafer ingredients → carrageenan. wafer ingredient (singular)
 - mono- and diglycerides  → mono and diglycerides  (98%)</t>
         </is>
       </c>
@@ -9966,14 +9856,14 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>ice cream ingredient, milkfat and nonfat milk, high fructose corn syrup syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan, wafer ingredient, bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose corn syrup syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
+          <t>ice cream ingredient, milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan. wafer ingredient, bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose corn syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
           <t>- ice cream ingredients → ice cream ingredient (singular)
 - mono-and diglycerides  → mono and diglycerides  (95%)
-- wafer ingredients → wafer ingredient (singular)
+- carrageenan. wafer ingredients → carrageenan. wafer ingredient (singular)
 - mono-and diglycerides  → mono and diglycerides  (95%)</t>
         </is>
       </c>
@@ -10031,7 +9921,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>ice cream ingredient, milkfat and nonfat milk, chocolate chip (sugar, chocolate liquor, cocoa butter, soy lecithin, salt, vanilla), high fructose corn syrup syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, natural flavor, locust bean gum, carrageenan, artificial color (yellow 5, blue 1), wafers ingredient, bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose corn syrup syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
+          <t>ice cream ingredient, milkfat and nonfat milk, chocolate chip (sugar, chocolate liquor, cocoa butter, soy lecithin, salt, vanilla), high fructose corn syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, natural flavor, locust bean gum, carrageenan, artificial colors (yellow 5, blue 1). wafers ingredient, bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose corn syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -10040,8 +9930,7 @@
 - chocolate chips → chocolate chip (singular)
 - mono-and diglycerides  → mono and diglycerides  (95%)
 - natural flavors → natural flavor (singular)
-- artificial colors → artificial color (singular)
-- wafers ingredients → wafers ingredient (singular)
+- artificial colors (yellow 5, blue 1). wafers ingredients → artificial colors (yellow 5, blue 1). wafers ingredient (singular)
 - mono-and diglycerides  → mono and diglycerides  (95%)</t>
         </is>
       </c>
@@ -10057,14 +9946,14 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>ice cream ingredient, milkfat and nonfat milk, high fructose corn syrup syrup, corn syrup, cookie crunch (bleached wheat flour, sugar, caramel color, palm oil, cocoa, baking soda, salt, soy lecithin), buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan, wafers ingredient, bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose, corn syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
+          <t>ice cream ingredient, milkfat and nonfat milk, high fructose corn syrup, corn syrup, cookie crunch (bleached wheat flour, sugar, caramel color, palm oil, cocoa, baking soda, salt, soy lecithin), buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan. wafers ingredient, bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose, corn syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
           <t>- ice cream ingredients → ice cream ingredient (singular)
 - mono- and diglycerides  → mono and diglycerides  (98%)
-- wafers ingredients → wafers ingredient (singular)
+- carrageenan. wafers ingredients → carrageenan. wafers ingredient (singular)
 - mono- and diglycerides  → mono and diglycerides  (98%)</t>
         </is>
       </c>
@@ -10101,7 +9990,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>ice cream ingredient, milkfat and nonfat milk, sugar, fudge variegate (powdered sugar (sugar, corn starch), vegetable oil (peanut and/or cottonseed oil, and/or palm oil), cocoa processed with alkali, whey, salt, soy lecithin, natural flavor), chocolate flake (powdered sugar, coconut oil, partially hydrogenated coconut oil, cocoa processed with alkali, chocolate liquor, whey, soy lecithin, salt, natural flavor), corn syrup, cocoa processed with alkali, whey, mono and diglycerides, guar gum, locust bean gum, calcium sulfate, polysorbate 80, carrageenan, coating ingredient, coconut oil, sugar, chocolate liquor, cocoa processed with alkali soybean oil, whey, partially hydrogenated coconut oil, cocoa soy lecithin, salt, natural flavor</t>
+          <t>ice cream ingredient, milkfat and nonfat milk, sugar, fudge variegate (powdered sugar (sugar, corn starch), vegetable oil (peanut and/or cottonseed oil, and/or palm oil), cocoa processed with alkali, whey, salt, soy lecithin, natural flavor), chocolate flake (powdered sugar, coconut oil, partially hydrogenated coconut oil, cocoa processed with alkali, chocolate liquor, whey, soy lecithin, salt, natural flavor), corn syrup, cocoa processed with alkali, whey, mono and diglycerides, guar gum, locust bean gum, calcium sulfate, polysorbate 80, carrageenan. coating ingredient, coconut oil, sugar, chocolate liquor, cocoa processed with alkali soybean oil, whey, partially hydrogenated coconut oil, cocoa soy lecithin, salt, natural flavor</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -10109,7 +9998,7 @@
           <t>- ice cream ingredients → ice cream ingredient (singular)
 - chocolate flakes → chocolate flake (singular)
 - mono-and diglycerides  → mono and diglycerides  (95%)
-- coating ingredients → coating ingredient (singular)</t>
+- carrageenan. coating ingredients → carrageenan. coating ingredient (singular)</t>
         </is>
       </c>
     </row>
@@ -10124,13 +10013,12 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>ice cream, milkfat and nonfat milk, sugar, corn syrup, whey, natural and artificial flavor, mono and diglycerides, guar gum, locust bean gum, calcium sulfate, polysorbate 80, carrageenan, coating, coconut oil, sugar, whole milk powder, chocolate liquor, soybean oil, chocolate liquor processed with alkali, partially hydrogenated coconut oil, cocoa, soy lecithin, natural and artificial flavor, caramel variegate, high fructose corn syrup syrup, water, sweetened condensed skim milk (condensed skim milk, sugar), butter, modified food starch (waxy maize), salt, artificial flavor, potassium sorbate (preservative), disodium phosphate, carrageenan, milk chocolate flake, powdered sugar, partially hydrogenated coconut oil, coconut oil, whole milk powder, nonfat dry milk, chocolate liquor processed with alkali, cocoa, whey, soy lecithin, salt, natural and artificial flavor</t>
+          <t>ice cream, milkfat and nonfat milk, sugar, corn syrup, whey, natural and artificial flavor, mono and diglycerides, guar gum, locust bean gum, calcium sulfate, polysorbate 80, carrageenan. coating, coconut oil, sugar, whole milk powder, chocolate liquor, soybean oil, chocolate liquor processed with alkali, partially hydrogenated coconut oil, cocoa, soy lecithin, natural and artificial flavors. caramel variegate, high fructose corn syrup, water, sweetened condensed skim milk (condensed skim milk, sugar), butter, modified food starch (waxy maize), salt, artificial flavor, potassium sorbate (preservative), disodium phosphate, carrageenan. milk chocolate flake, powdered sugar, partially hydrogenated coconut oil, coconut oil, whole milk powder, nonfat dry milk, chocolate liquor processed with alkali, cocoa, whey, soy lecithin, salt, natural and artificial flavor</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
           <t>- mono- and diglycerides  → mono and diglycerides  (98%)
-- natural and artificial flavors → natural and artificial flavor (singular)
 - natural and artificial flavors → natural and artificial flavor (singular)</t>
         </is>
       </c>
@@ -10146,7 +10034,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>butternut squash, ricotta cheese (pasteurized milk, whey, cream, vinegar, salt, stabilizer (guar gum, locust bean gum, xanthan gum)), mozzarella cheese (pasteurized cows milk, cheese culture, salt, enzyme), breadcrumb (wheat flour, sugar, yeast, salt), parmesan cheese (pasteurized cows milk, cheese culture, salt, enzyme), honey, egg, canola oil, salt, parsley, black pepper, nutmeg, cinnamon, annatto oil, pasta, wheat flour, water, egg, beta carotene, annatto oil</t>
+          <t>butternut squash, ricotta cheese (pasteurized milk, whey, cream, vinegar, salt, stabilizer (guar gum, locust bean gum, xanthan gum)), mozzarella cheese (pasteurized cows milk, cheese culture, salt, enzyme), breadcrumb (wheat flour, sugar, yeast, salt), parmesan cheese (pasteurized cows milk, cheese culture, salt, enzyme), honey, egg, canola oil, salt, parsley, black pepper, nutmeg, cinnamon, annatto oil. pasta, wheat flour, water, egg, beta carotene, annatto oil</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -10197,7 +10085,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>ricotta cheese (pasteurized milk, whey, cream, vinegar, salt, stabilizer (guar gum, locust bean gum, xanthan gum)), cheese blend (parmesan cheese, asiago cheese, romano cheese, fontina cheese (pasteurized cows milk, cheese culture, salt, enzymes)), milk, mozzarella cheese (pasteurized cows milk, cheese culture, salt, enzyme), parmesan flavor (parmesan cheese (milk, culture, salt, enzymes), salt, yeast extract, unsalted butter, corn oil, olive oil, creme powder, sugar, natural flavoring), egg, parsley, nutmeg, black pepper, pasta, wheat flour, water, egg, beta carotene</t>
+          <t>ricotta cheese (pasteurized milk, whey, cream, vinegar, salt, stabilizer (guar gum, locust bean gum, xanthan gum)), cheese blend (parmesan cheese, asiago cheese, romano cheese, fontina cheese (pasteurized cows milk, cheese culture, salt, enzymes)), milk, mozzarella cheese (pasteurized cows milk, cheese culture, salt, enzyme), parmesan flavor (parmesan cheese (milk, culture, salt, enzymes), salt, yeast extract, unsalted butter, corn oil, olive oil, creme powder, sugar, natural flavoring), egg, parsley, nutmeg, black pepper. pasta, wheat flour, water, egg, beta carotene</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -10220,7 +10108,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>asiago cheese (pasteurized cows milk, cheese culture, salt, enzyme), ricotta cheese (whey, protein, salt, vinegar), mozzarella cheese (pasteurized whole milk, culture, salt, enzyme), breadcrumb (wheat flour), parmesan cheese (pasteurized cows milk, cheese culture, salt, enzyme), romano cheese (pasteurized cows milk, cheese culture, salt, enzyme), parmesan flavor (parmesan cheese (pasteurized milk, cultures, salt, enzymes), salt, yeast extract, unsalted butter, corn oil, olive oil, cream powder, sugar, natural flavorings), canola oil, parsley, salt, black pepper, pasta, wheat flour, water, egg, tomato paste, spinach powder, annatto oil, beta carotene</t>
+          <t>asiago cheese (pasteurized cows milk, cheese culture, salt, enzyme), ricotta cheese (whey, protein, salt, vinegar), mozzarella cheese (pasteurized whole milk, culture, salt, enzyme), breadcrumb (wheat flour), parmesan cheese (pasteurized cows milk, cheese culture, salt, enzyme), romano cheese (pasteurized cows milk, cheese culture, salt, enzyme), parmesan flavor (parmesan cheese (pasteurized milk, cultures, salt, enzymes), salt, yeast extract, unsalted butter, corn oil, olive oil, cream powder, sugar, natural flavorings), canola oil, parsley, salt, black pepper. pasta, wheat flour, water, egg, tomato paste, spinach powder, annatto oil, beta carotene</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -10247,7 +10135,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>portabella mushroom, ricotta cheese (pasteurized milk, whey, cream, vinegar, salt stabilizer (guar gum, locust bean gum, xanthan gum)), fontina cheese (pasteurized cows milk, cheese culture, salt, enzyme), white cheddar cheese (pasteurized milk, culture, salt, enzyme), breadcrumb (wheat flour, sugar, yeast, salt), mushroom flavor (cooked mushroom, potato flour, dry whey, yeast extract, unsalted butter (flavoring), salt, onion powder), butter (cream, natural flavoring), mozzarella cheese (pasteurized cows milk, cheese culture, salt, enzyme), egg, parmesan flavor (parmesan cheese (milk, culture, salt, enzymes), salt, yeast extract, unsalted butter, corn oil, olive oil, cream powder, sugar, natural flavorings), garlic, red wine, parsley, salt, black pepper, pasta, wheat flour, water, egg, caramel</t>
+          <t>portabella mushroom, ricotta cheese (pasteurized milk, whey, cream, vinegar, salt stabilizer (guar gum, locust bean gum, xanthan gum)), fontina cheese (pasteurized cows milk, cheese culture, salt, enzyme), white cheddar cheese (pasteurized milk, culture, salt, enzyme), breadcrumb (wheat flour, sugar, yeast, salt), mushroom flavor (cooked mushrooms, potato flour, dry whey, yeast extract, unsalted butter (flavoring), salt, onion powder), butter (cream, natural flavoring), mozzarella cheese (pasteurized cows milk, cheese culture, salt, enzyme), egg, parmesan flavor (parmesan cheese (milk, culture, salt, enzymes), salt, yeast extract, unsalted butter, corn oil, olive oil, cream powder, sugar, natural flavorings), garlic, red wine, parsley, salt, black pepper. pasta, wheat flour, water, egg, caramel</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -10256,7 +10144,6 @@
 (PAREN) - enzymes → enzyme (singular)
 (PAREN) - enzymes → enzyme (singular)
 - breadcrumbs → breadcrumb (singular)
-- mushroom flavor (cooked mushrooms → mushroom flavor (cooked mushroom (singular)
 (PAREN) - enzymes → enzyme (singular)
 - eggs → egg (singular)
 - eggs → egg (singular)</t>
@@ -10274,7 +10161,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>ricotta cheese (pasteurized milk, whey, cream, vinegar, salt, stabilizers (guar gum, locust bean gum, xanthan gum)), goat cheese (pasteurized goat milk, vegetable rennet, cheese culture, salt), white cheddar cheese (pasteurized milk, culture, salt, enzyme), tomato, mozzarella cheese (pasteurized cows milk, cheese culture, salt, enzyme), egg, breadcrumb (wheat flour, sugar, yeast, sea salt), parsley, garlic, salt, black pepper, water, pasta, wheat flour, water, egg, beta carotene</t>
+          <t>ricotta cheese (pasteurized milk, whey, cream, vinegar, salt, stabilizers (guar gum, locust bean gum, xanthan gum)), goat cheese (pasteurized goat milk, vegetable rennet, cheese culture, salt), white cheddar cheese (pasteurized milk, culture, salt, enzyme), tomato, mozzarella cheese (pasteurized cows milk, cheese culture, salt, enzyme), egg, breadcrumb (wheat flour, sugar, yeast, sea salt), parsley, garlic, salt, black pepper, water. pasta, wheat flour, water, egg, beta carotene</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -10385,12 +10272,13 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>enriched wheat flour (wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), whey, vegetable oil (canola and/or soybean oil), cinnamon flakes (sugar, vegetable oil (palm and palm kernel oils), cinnamon, soy lecithin), sugar, 2% or less of, leavening (sodium acid pyrophosphate, sodium bicarbonate), egg, soy lecithin (emulsifier), calcium carbonate, spice (includes cinnamon), natural and artificial flavor, salt, reduced iron, niacinamide, vitamin a palmitate, riboflavin (vitamin b2), pyridoxine hydrochloride (vitamin b6), thiamin mononitrate (vitamin b1), vitamin b12</t>
+          <t>enriched wheat flour (wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), whey, vegetable oil (canola and/or soybean oil), cinnamon flake (sugar, vegetable oil (palm and palm kernel oils), cinnamon, soy lecithin), sugar, 2% or less of, leavening (sodium acid pyrophosphate, sodium bicarbonate), egg, soy lecithin (emulsifier), calcium carbonate, spice (includes cinnamon), natural and artificial flavor, salt, reduced iron, niacinamide, vitamin a palmitate, riboflavin (vitamin b2), pyridoxine hydrochloride (vitamin b6), thiamin mononitrate (vitamin b1), vitamin b12</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>- eggs → egg (singular)
+          <t>- cinnamon flakes (sugar, vegetable oil (palm and palm kernel oils), cinnamon, soy lecithin) → cinnamon flake (sugar, vegetable oil (palm and palm kernel oils), cinnamon, soy lecithin) (singular)
+- eggs → egg (singular)
 - spices → spice (singular)
 - natural and artificial flavors → natural and artificial flavor (singular)</t>
         </is>
@@ -10453,17 +10341,10 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>wrapper, enriched, malted wheat flour (flour, malted barley flour, niacin, ferrous sulfate, thiamine mononitrate, riboflavin, folic acid), water, 2% or less of, salt, sugar, soybean oil, sweet whey, sauce (water, tomato paste, seasoning blend (cornstarch-modified, salt, sugar, 2% or less of, xanthan gum, spice, soybean oil, dehydrated garlic, dehydrated onion, paprika, citric acid, beet powder (color), guar gum, soy flour, parmesan cheese (cultured part-skim milk, salt, enzymes))), restricted melt cheese blend (mozzarella cheese (pasteurized milk, cheese culture, salt, enzyme), imitation cheese (water, palm shortening, modified food starch, whey powder, sodium aluminum phosphate, salt, gum blend (xanthan gum, locust bean gum, guar gum), citric acid, sorbic acid, disodium phosphate, sodium citrate, anti-caking blend (corn starch, calcium sulfate))), textured soy flour, 2% or less of, methylcellulose, fried in vegetable oil</t>
-        </is>
-      </c>
-      <c r="D483" t="inlineStr">
-        <is>
-          <t>- spices → spice (singular)
-(PAREN) - cheese cultures → cheese culture (singular)
-(PAREN) - enzymes → enzyme (singular)
-- restricted melt cheese blend (mozzarella cheese (pasteurized milk, cheese culture, salt, enzyme) → restricted melt cheese (mozzarella cheese (pasteurized milk, cheese culture, salt, enzyme) (80%)</t>
-        </is>
-      </c>
+          <t>wrapper, enriched, malted wheat flour (flour, malted barley flour, niacin, ferrous sulfate, thiamine mononitrate, riboflavin, folic acid), water, 2% or less of, salt, sugar, soybean oil, sweet whey. filling, sauce (water, tomato paste, seasoning blend (cornstarch-modified, salt, sugar, contains 2% or less of: xanthan gum, spices, soybean oil, dehydrated garlic, dehydrated onion, paprika, citric acid, beet powder (color), guar gum, soy flour, parmesan cheese (cultured part-skim milk, salt, enzymes))), restricted melt cheese blend (mozzarella cheese (pasteurized milk, cheese cultures, salt, enzymes), imitation cheese (water, palm shortening, modified food starch, whey powder, sodium aluminum phosphate, salt, gum blend (xanthan gum, locust bean gum, guar gum), citric acid, sorbic acid, disodium phosphate, sodium citrate, anti-caking blend (corn starch, calcium sulfate))), textured soy flour, 2% or less of, methylcellulose. fried in vegetable oil</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -10476,7 +10357,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>wrapper, enriched, malted wheat flour (flour, malted barley flour, niacin, ferrous sulfate, thiamine mononitrate, riboflavin, folic acid), water, 2% or less of, salt, sugar, soybean oil, sweet whey, sauce (water, tomato paste, seasoning blend (cornstarch-modified, salt, sugar, 2% or less of, xanthan gum, spices, soybean oil, dehydrated garlic, dehydrated onion, paprika, citric acid, beet powder (color), guar gum, soy flour, parmesan cheese (cultured part skim milk, salt, enzymes)), cooked pork &amp; chicken pizza topping (sausage made with (pork, mechanically separated chicken, water, seasoning (spices, corn syrup solids, salt, dry garlic, chili pepper, caramel color), caramel color, water, textured vegetable protein (soy protein concentrate, caramel color))), pepperoni (pork, beef, salt, contains 2% or less of: lactic acid starter culture, oleoresin of paprika, sodium nitrite, bha, bht, citric acid, may also contain 2% or less of: spices, spice extractives, dextrose, sugar, flavorings, sodium ascorbate, water, garlic powder), restricted melt cheese blend (mozzarella cheese (pasteurized milk, cheese cultures, salt, enzymes), imitation cheese (water, palm shortening, modified food starch, whey powder, sodium aluminum phosphate, salt, gum blend (xanthan gum, locust bean gum, guar gum), citric acid, sorbic acid, disodium phosphate, sodium citrate, anti-caking blend (corn starch, calcium sulfate))), 2% or less of, textured soy flour, methylcellulose, fried in vegetable oil</t>
+          <t>wrapper, enriched, malted wheat flour (flour, malted barley flour, niacin, ferrous sulfate, thiamine mononitrate, riboflavin, folic acid), water, 2% or less of, salt, sugar, soybean oil, sweet whey. filling, sauce (water, tomato paste, seasoning blend (cornstarch-modified, salt, sugar, contains 2% or less of: xanthan gum, spices, soybean oil, dehydrated garlic, dehydrated onion, paprika, citric acid, beet powder (color), guar gum, soy flour, parmesan cheese (cultured part skim milk, salt, enzymes)), cooked pork &amp; chicken pizza topping (sausage made with (pork, mechanically separated chicken, water, seasoning (spices, corn syrup solids, salt, dry garlic, chili pepper, caramel color), caramel color, water, textured vegetable protein (soy protein concentrate, caramel color))), pepperoni (pork, beef, salt, contains 2% or less of: lactic acid starter culture, oleoresin of paprika, sodium nitrite, bha, bht, citric acid. may also contain 2% or less of: spices, spice extractives, dextrose, sugar, flavorings, sodium ascorbate, water, garlic powder), restricted melt cheese blend (mozzarella cheese (pasteurized milk, cheese cultures, salt, enzymes), imitation cheese (water, palm shortening, modified food starch, whey powder, sodium aluminum phosphate, salt, gum blend (xanthan gum, locust bean gum, guar gum), citric acid, sorbic acid, disodium phosphate, sodium citrate, anti-caking blend (corn starch, calcium sulfate))), contains 2% or less of: textured soy flour, methylcellulose. fried in vegetable oil</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -10496,7 +10377,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>bread, enriched wheat flour (flour, niacin, iron, thiamine mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, soybean oil, yeast, sugar, salt, calcium propionate (preservative), microbial enzyme, ascorbic acid, spread, water, soybean oil, dehydrated garlic, palm oil, whey powder, salt, modified corn starch, distilled vegetable monoglyceride, dehydrated parsley, modified tapioca starch, xanthan gum citric acid, natural and artificial flavor, beta carotene (color), cheese, mozzarella, provolone and parmesan cheese (pasteurized milk, bacterial culture, salt, enzyme, natural smoke flavor), potato starch and powdered cellulose (to prevent caking)</t>
+          <t>bread, enriched wheat flour (flour, niacin, iron, thiamine mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, soybean oil, yeast, sugar, salt, calcium propionate (preservative), microbial enzyme, ascorbic acid. spread, water, soybean oil, dehydrated garlic, palm oil, whey powder, salt, modified corn starch, distilled vegetable monoglyceride, dehydrated parsley, modified tapioca starch, xanthan gum citric acid, natural and artificial flavor, beta carotene (color). cheese, mozzarella, provolone and parmesan cheese (pasteurized milk, bacterial culture, salt, enzyme, natural smoke flavor), potato starch and powdered cellulose (to prevent caking)</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -10517,14 +10398,10 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>bread, enriched wheat flour (flour, niacin, reduced iron, thiamine mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, soybean oil, sugar, yeast, salt, fermented wheat flour, calcium propionate (preservative), ascorbic acid, microbial enzyme, spread, water, soybean oil, dehydrated garlic, palm oil, whey powder, salt, modified corn starch, vegetable monoglyceride, dehydrated parsley, modified tapioca starch, xanthan gum, citric acid, natural and artificial flavor, beta carotene (color)</t>
-        </is>
-      </c>
-      <c r="D486" t="inlineStr">
-        <is>
-          <t>- microbial enzymes → microbial enzyme (singular)</t>
-        </is>
-      </c>
+          <t>bread, enriched wheat flour (flour, niacin, reduced iron, thiamine mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, soybean oil, sugar, yeast, salt, fermented wheat flour, calcium propionate (preservative), ascorbic acid, microbial enzymes. spread, water, soybean oil, dehydrated garlic, palm oil, whey powder, salt, modified corn starch, vegetable monoglyceride, dehydrated parsley, modified tapioca starch, xanthan gum, citric acid, natural and artificial flavor, beta carotene (color)</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -10537,7 +10414,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>bread, enriched wheat flour (flour, niacin, iron, thiamine mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid, water, yeast, sugar, soybean oil, salt, whey powder, mono and diglycerides, citric acid, yeast, calcium propionate (preservative), microbial enzymes, ascorbic acid, spread, soybean oil, water, parmesan cheese (pasteurized milk, salt, bacterial, culture, lipase, calcium chloride, mocrobial enzyme, corn starch and/or cellulose (as an anticaking agent)), dehydrated garlic, palm oil, whey powder, salt, modified corn starch, distilled vegetable monoglyceride, natural and artificial flavors, dehydrated parsley, citric acid, modified tapioca starch, xanthan gum, beta carotene (color)</t>
+          <t>bread, enriched wheat flour (flour, niacin, iron, thiamine mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid, water, yeast, sugar, soybean oil, salt, whey powder, mono and diglycerides, citric acid, yeast, calcium propionate (preservative), microbial enzymes, ascorbic acid. spread: soybean oil, water, parmesan cheese (pasteurized milk, salt, bacterial, culture, lipase, calcium chloride, mocrobial enzyme, corn starch and/or cellulose (as an anticaking agent)), dehydrated garlic, palm oil, whey powder, salt, modified corn starch, distilled vegetable monoglyceride,natural and artificial flavors, dehydrated parsley, citric acid, modified tapioca starch, xanthan gum, beta carotene (color)</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -10739,7 +10616,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>enriched wheat flour (wheat flour, niacin, iron, thiamin mononitrate, riboflavin, folic acid), lard and hydrogenated lard with bha and bht added to protect flavor, water, sugar, 2% or less of, salt, baking soda, sodium metabisulfite (preservative), yellow 5, yellow 6</t>
+          <t>enriched wheat flour (wheat flour, niacin, iron, thiamin mononitrate, riboflavin, folic acid), lard and hydrogenated lard with bha and bht added to protect flavor, water, sugar. contains 2% or less of, salt, baking soda, sodium metabisulfite (preservative), yellow 5, yellow 6</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
@@ -10819,7 +10696,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>water, corn syrup, high fructose corn syrup syrup, maltodextrin, vegetable oil (palm kernel oil), less than two percent of sodium caseinate (from milk), natural flavors food starch-modified, xanthan gum, guar gum, polysorbate 60, polysorbate 65, sorbitan monostearate, sodium polyphosphate, beta carotene (for color)</t>
+          <t>water, corn syrup, high fructose corn syrup, maltodextrin, vegetable oil (palm kernel oil), less than two percent of sodium caseinate (from milk), natural flavors food starch-modified, xanthan gum, guar gum, polysorbate 60, polysorbate 65, sorbitan monostearate, sodium polyphosphate, beta carotene (for color)</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>

--- a/cleaned_ingredients.xlsx
+++ b/cleaned_ingredients.xlsx
@@ -471,7 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>- pasteurized part-skim milk  → pasteurized part skim milk  (96%)
+          <t>- pasteurized part-skim milk → pasteurized part skim milk (96%)
 - cheese cultures → cheese culture (singular)
 - enzymes → enzyme (singular)</t>
         </is>
@@ -513,8 +513,8 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(PAREN) - enzymes → enzyme (singular)
-(PAREN) - enzymes → enzyme (singular)</t>
+          <t>- enzymes → enzyme (singular)
+- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       <c r="D8" t="inlineStr">
         <is>
           <t>- enzymes → enzyme (singular)
-(PAREN) - in colby cheese  → colby cheese  (89%)</t>
+- in colby cheese → colby cheese (89%)</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>- part-skim milk  → part skim milk  (93%)
+          <t>- part-skim milk → part skim milk (93%)
 - enzymes. aged over 60 days → enzymes. aged over 60 day (singular)</t>
         </is>
       </c>
@@ -721,7 +721,7 @@
       <c r="D14" t="inlineStr">
         <is>
           <t>- enzymes → enzyme (singular)
-(PAREN) - in colby cheese  → colby cheese  (89%)</t>
+- in colby cheese → colby cheese (89%)</t>
         </is>
       </c>
     </row>
@@ -741,14 +741,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>(PAREN) - pasteurized part-skim milk  → pasteurized part skim milk  (96%)
-(PAREN) - enzymes → enzyme (singular)
-(PAREN) - pasteurized part-skim milk  → pasteurized part skim milk  (96%)
-(PAREN) - enzymes → enzyme (singular)
-(PAREN) - pasteurized part-skim milk  → pasteurized part skim milk  (96%)
-(PAREN) - enzymes → enzyme (singular)
-(PAREN) - pasteurized part-skim milk  → pasteurized part skim milk  (96%)
-(PAREN) - enzymes → enzyme (singular)</t>
+          <t>- pasteurized part-skim milk → pasteurized part skim milk (96%)
+- enzymes → enzyme (singular)
+- pasteurized part-skim milk → pasteurized part skim milk (96%)
+- enzymes → enzyme (singular)
+- pasteurized part-skim milk → pasteurized part skim milk (96%)
+- enzymes → enzyme (singular)
+- pasteurized part-skim milk → pasteurized part skim milk (96%)
+- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -768,10 +768,10 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>(PAREN) - enzymes → enzyme (singular)
-(PAREN) - enzymes → enzyme (singular)
-(PAREN) - enzymes → enzyme (singular)
-(PAREN) - enzymes → enzyme (singular)</t>
+          <t>- enzymes → enzyme (singular)
+- enzymes → enzyme (singular)
+- enzymes → enzyme (singular)
+- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>- l-cysteine  → l cysteine  (90%)</t>
+          <t>- l-cysteine → l cysteine (90%)</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>sirloin tri tip, tenderized with aspergillus oryzae, containing up to 15% of a solution of water, seasoning (salt, spice, dehydrated garlic, dehydrated onion, dextrose, flavor (contains maltodextrin and salt)), citric acid, soybean oil, lemon oil, potato extract and mustard flour)</t>
+          <t>sirloin tri tip, tenderized with aspergillus oryzae, containing up to 15% of a solution of water, seasoning (salt, spice, dehydrated garlic, dehydrated onion, dextrose, flavor (maltodextrin and salt)), citric acid, soybean oil, lemon oil, potato extract and mustard flour)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1196,12 +1196,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>flour, (wheat flour bleached, malted barley flour,potassium bromate, folic acid), water, vegetable shortening (non hydrogenated palm oil shortening), salt, baking powder, (sodium acid pyrophosphate, sodium bicarbonate, starch, monocalcium phosphate), sodium propionate, fumaric acid added as preservative</t>
+          <t>flour (wheat flour bleached, malted barley flour, potassium bromate, folic acid), water, vegetable shortening (non hydrogenated palm oil shortening), salt, baking powder (sodium acid pyrophosphate, sodium bicarbonate, starch, monocalcium phosphate), sodium propionate, fumaric acid added as preservative</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>(PAREN) - non-hydrogenated palm oil shortening  → non hydrogenated palm oil shortening  (97%)
+          <t>- non-hydrogenated palm oil shortening → non hydrogenated palm oil shortening (97%)
 - fumaric acid added as preservatives → fumaric acid added as preservative (singular)</t>
         </is>
       </c>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>enriched cake flour (bleached wheat flour, niacin, reduced iron, thiamin mononitrate, riboflavin, and folic acid), baking powder powder (sodium bicarbonate, sodium acid pyrophosphate, and calcium phosphate), and salt</t>
+          <t>enriched cake flour (bleached wheat flour, niacin, reduced iron, thiamin mononitrate, riboflavin, and folic acid), baking powder (sodium bicarbonate, sodium acid pyrophosphate, and calcium phosphate), and salt</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -1349,13 +1349,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>tuna salad, light tuna, ((yellowfin), water, vegetable broth (soybeans), salt), mayonnaise, (soybean oil, vinegar, eggs, water, salt, egg yolks, sugar, calcium disodium edta (to protect flavor), dried garlic, dried onions, natural flavor), celery, bread crumb, (enriched wheat flour, yeast, sugar, salt, soybean oil).wheat bread, pullman (enriched bleached flour ( bleached wheat flour, malted barley flour, niacin, reduced iron, ascorbic acid aded as a dough conditioner, thiamine mononitrate, riboflavin, folic acid), water, cracked wheat, high fructose corn syrup, whole wheat flour, yeast, wheat gluten, rolled oats, partially hydrogenated soybean &amp; cottonseed oils, contain less than 2% of each of the following: corn syrup, salt, wheat bran, oat bran, soy lecithin, caramel color, calcium propionate (preservative), azodicarbonamide, ascorbic acid added as a dough conditioner, carbamide, calcium peroxide, calcium phosphate)</t>
+          <t>tuna salad, light tuna ( (yellowfin), water, vegetable broth (soybean), salt), mayonnaise (soybean oil, vinegar, egg, water, salt, egg yolk, sugar, calcium disodium edta (to protect flavor), dried garlic, dried onion, natural flavor), celery, bread crumb (enriched wheat flour, yeast, sugar, salt, soybean oil), .wheat bread, pullman (enriched bleached flour (bleached wheat flour, malted barley flour, niacin, reduced iron, ascorbic acid aded as a dough conditioner, thiamine mononitrate, riboflavin, folic acid), water, cracked wheat, high fructose corn syrup, whole wheat flour, yeast, wheat gluten, rolled oat, partially hydrogenated cottonseed oil, less than 2% of each of the following: corn syrup, salt, wheat bran, oat bran, soy lecithin, caramel color, calcium propionate (preservative), azodicarbonamide, ascorbic acid added as a dough conditioner, carbamide, calcium peroxide, calcium phosphate)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>- bread crumbs → bread crumb (singular)
-- pullman (enriched bleached flour ( bleached wheat flour, malted barley flour, niacin, reduced iron, ascorbic acid aded as a dough conditioner, thiamine mononitrate, riboflavin, folic acid), water, cracked wheat, high fructose corn syrup, whole wheat flour, yeast, wheat gluten, rolled oats, partially hydrogenated soybean &amp; cottonseed oils, contains less than 2% of each of the following: corn syrup, salt, wheat bran, oat bran, soy lecithin, caramel color, calcium propionate (preservative), azodicarbonamide, ascorbic acid added as a dough conditioner, carbamide, calcium peroxide, calcium phosphate) → pullman (enriched bleached flour ( bleached wheat flour, malted barley flour, niacin, reduced iron, ascorbic acid aded as a dough conditioner, thiamine mononitrate, riboflavin, folic acid), water, cracked wheat, high fructose corn syrup, whole wheat flour, yeast, wheat gluten, rolled oats, partially hydrogenated soybean &amp; cottonseed oils, contain less than 2% of each of the following: corn syrup, salt, wheat bran, oat bran, soy lecithin, caramel color, calcium propionate (preservative), azodicarbonamide, ascorbic acid added as a dough conditioner, carbamide, calcium peroxide, calcium phosphate) (singular)</t>
+          <t>- soybeans → soybean (singular)
+- eggs → egg (singular)
+- egg yolks → egg yolk (singular)
+- dried onions → dried onion (singular)
+- bread crumbs → bread crumb (singular)
+- rolled oats → rolled oat (singular)
+- partially hydrogenated soybean &amp; cottonseed oils → partially hydrogenated soybean &amp; cottonseed oil (singular)
+- partially hydrogenated soybean &amp; cottonseed oil → partially hydrogenated cottonseed oil (88%)</t>
         </is>
       </c>
     </row>
@@ -1386,14 +1392,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>(vegan, gluten-free, dairy-free, non-gmo, soy-free), filtered water, organic palm oil, modified food starch, canola oil, natural flavors (plant sources (contains autolyzed yeast)), vegetable glycerin, less than 2% of, lactic acid (vegetable source), calcium lactate (vegetable source), sea salt, sodium phosphate, carrageenan, bamboo fiber, nutritional yeast, calcium phosphate, organic chickpea miso (organic handmade rice koji, organic whole chickpea, sea salt, water, koji spore), sunflower lecithin, citric acid, annatto</t>
+          <t>(vegan, gluten-free, dairy-free, non-gmo, soy-free), filtered water, organic palm oil, modified food starch, canola oil, natural flavor (plant source (autolyzed yeast)), vegetable glycerin, less than 2% of: lactic acid (vegetable source), calcium lactate (vegetable source), sea salt, sodium phosphate, carrageenan, bamboo fiber, nutritional yeast, calcium phosphate, organic chickpea miso (organic handmade rice koji, organic whole chickpea, sea salt, water, koji spore), sunflower lecithin, citric acid, annatto</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>(PAREN) - organic whole chickpeas → organic whole chickpea (singular)
-(PAREN) - sea slat  → sea salt  (88%)
-(PAREN) - koji spores → koji spore (singular)</t>
+          <t>- : filtered water → filtered water (93%)
+- natural flavors → natural flavor (singular)
+- plant sources → plant source (singular)
+- organic whole chickpeas → organic whole chickpea (singular)
+- sea slat → sea salt (88%)
+- koji spores → koji spore (singular)</t>
         </is>
       </c>
     </row>
@@ -1452,15 +1461,15 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>sugar, enriched bleached wheat flour (wheat flour, malted barley flour, niacin, reduced iron, thiamine mononitrate, riboflavin, folic acid), margarine (palm oil, water, soybean oil, salt, mono and diglycerides, soy lecithin, to preserve freshness (potassium sorbate), vitamin a palmitate), egg, less than 2% of the following, natural and artificial flavor, skim milk, corn starch, partially hydrogenated soybean and cottonseed oil, leavening (sodium acid pyrophosphate, baking soda, monocalcium phosphate), modified corn starch, polysorbate 60, salt colored with (vegetable juice) artificial color (blue 2 lake, red 40 lake, yellow 5 lake, red 3, blue 1, red 40), dextrin, soy lecithin, confectioner's glaze carnauba wax</t>
+          <t>sugar, enriched bleached wheat flour (wheat flour, malted barley flour, niacin, reduced iron, thiamine mononitrate, riboflavin, folic acid), margarine (palm oil, water, soybean oil, salt, mono and diglycerides, soy lecithin, to preserve freshness (potassium sorbate), vitamin a palmitate), egg, less than 2% of the following: natural and artificial flavor, skim milk, corn starch, partially hydrogenated soybean and cottonseed oil, leavening (sodium acid pyrophosphate, baking soda, monocalcium phosphate), modified corn starch, polysorbate 60, salt colored with (vegetable juice), artificial color (blue 2 lake, red 40 lake, yellow 5 lake, red 3, blue 1, red 40), dextrin, soy lecithin, confectioner's glaze carnauba wax</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>- eggs → egg (singular)
-- cornstarch  → corn starch  (95%)
+- cornstarch → corn starch (95%)
 - partially hydrogenated soybean and cottonseed oils → partially hydrogenated soybean and cottonseed oil (singular)
-- salt colored with (vegetable juice) artificial colors → salt colored with (vegetable juice) artificial color (singular)</t>
+- artificial colors → artificial color (singular)</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1492,7 @@
           <t>- dairy product solids → dairy product solid (singular)
 - corn syrup solids → corn syrup solid (singular)
 - natural and artificial flavors → natural and artificial flavor (singular)
-- mono- and diglycerides  → mono and diglycerides  (98%)</t>
+- mono- and diglycerides → mono and diglycerides (98%)</t>
         </is>
       </c>
     </row>
@@ -1498,12 +1507,15 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>water, sugar, corn syrup, red wine vinegar, red bell pepper (red bell peppers, vinegar, salt, potassium sorbate and sodium benzoate (preservative), calcium chloride), high fructose corn syrup, jalapeno peppers (jalapenos, water, salt, acetic acid, calcium chloride, potassium sorbate (preservative)), modified corn starch, less than 2% of spice, garlic, xanthan gum, salt</t>
+          <t>: water, sugar, corn syrup, red wine vinegar, red bell pepper (red bell pepper, vinegar, salt, potassium sorbate and sodium benzoate (preservative), calcium chloride), high fructose corn syrup, jalapeno pepper (jalapeno, water, salt, acetic acid, calcium chloride, potassium sorbate (preservative)), modified corn starch, less than 2% of spice, garlic, xanthan gum, salt</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>- red bell peppers (red bell peppers, vinegar, salt, potassium sorbate and sodium benzoate (preservative), calcium chloride) → red bell pepper (red bell peppers, vinegar, salt, potassium sorbate and sodium benzoate (preservative), calcium chloride) (singular)</t>
+          <t>- red bell peppers → red bell pepper (singular)
+- red bell peppers → red bell pepper (singular)
+- jalapeno peppers → jalapeno pepper (singular)
+- jalapenos → jalapeno (singular)</t>
         </is>
       </c>
     </row>
@@ -1518,14 +1530,13 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>water, sugar, vegetable oil (high oleic soybean and/or high oleic canola), and less than 2% of micellar casein (milk derivative), mono and diglycerides, dipotassium phosphate, natural and artificial flavor, cellulose gel, cellulose gum, carrageenan</t>
+          <t>: water, sugar, vegetable oil (high oleic soybean and/or high oleic canola), and less than 2% of micellar casein (milk derivative), mono and diglycerides, dipotassium phosphate, natural and artificial flavor, cellulose gel, cellulose gum, carrageenan</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>(PAREN) - a milk derivative  → milk derivative  (94%)
-- and less than 2% of micellar casein (milk derivative) → less than 2% of micellar casein (milk derivative) (67%)
-- mono- and diglycerides  → mono and diglycerides  (98%)</t>
+          <t>- a milk derivative → milk derivative (94%)
+- mono- and diglycerides → mono and diglycerides (98%)</t>
         </is>
       </c>
     </row>
@@ -1540,7 +1551,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>corn syrup, water, high fructose corn syrup, sugar, soy sauce (water, wheat, soybeans, salt, sodium benzoate preservative)), molasses, cayenne pepper sauce (cayenne peppers, distilled vinegar, water, salt, garlic powder), onion puree, modified cornstarch, 2% or less of vinegar, corn oil, salt, natural &amp; artificial whiskey flavor, caramel color, spice,potassium sorbate (preservative), xanthan gum, natural flavors</t>
+          <t>: corn syrup, water, high fructose corn syrup, sugar, soy sauce (water, wheat, soybeans, salt, sodium benzoate preservative)), molasses, cayenne pepper sauce (cayenne peppers, distilled vinegar, water, salt, garlic powder), onion puree, modified cornstarch, 2% or less of vinegar, corn oil, salt, natural &amp; artificial whiskey flavor, caramel color, spice, potassium sorbate (preservative), xanthan gum, natural flavors</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1565,8 +1576,8 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>(PAREN) - soybeans → soybean (singular)
-- modified cornstarch  → modified corn starch  (97%)
+          <t>- soybeans → soybean (singular)
+- modified cornstarch → modified corn starch (97%)
 - spices → spice (singular)</t>
         </is>
       </c>
@@ -1582,7 +1593,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>water, glucose syrup, sugar, milk protein concentrate, vegetable oil (canola, high oleic sunflower, corn), and less than 2% of calcium and sodium caseinates, cocoa processed with alkali, soy protein isolate, vitamins and minerals, gum acacia, fructooligosaccharides (soluble fiber), inulin (soluble fiber from chicory), salt, cellulose gel and gum, soy lecithin, potassium carbonate, carrageenan, stevia leaf extract, natural flavor vitamins and minerals, potassium citrate, magnesium chloride, calcium phosphate, magnesium phosphate, sodium ascorbate (vitamin c), ascorbic acid vitamin c), potassium chloride, ferric pyrophosphate (iron), dl-alpha tocopheryl acetate (vitamin e), niacinamide, zinc sulfate, calcium pantothenate, manganese sulfate, pyridoxine hydrochloride (vitamin b6), riboflavin, thiamine hydrochloride, copper sulfate, vitamin a palmitate, folic acid, potassium iodide, vitamin k1, sodium molybdate, biotin, chromium chloride, vitamin d3, sodium selenite, vitamin b12</t>
+          <t>water, glucose syrup, sugar, milk protein concentrate, vegetable oil (canola, high oleic sunflower, corn), and less than 2% of calcium and sodium caseinates, cocoa processed with alkali, soy protein isolate, vitamins and minerals, gum acacia, fructooligosaccharides (soluble fiber), inulin (soluble fiber from chicory), salt, cellulose gel and gum, soy lecithin, potassium carbonate, carrageenan, stevia leaf extract, natural flavor vitamins and minerals: potassium citrate, magnesium chloride, calcium phosphate, magnesium phosphate, sodium ascorbate (vitamin c), ascorbic acid vitamin c), potassium chloride, ferric pyrophosphate (iron), dl-alpha tocopheryl acetate (vitamin e), niacinamide, zinc sulfate, calcium pantothenate, manganese sulfate, pyridoxine hydrochloride (vitamin b6), riboflavin, thiamine hydrochloride, copper sulfate, vitamin a palmitate, folic acid, potassium iodide, vitamin k1, sodium molybdate, biotin, chromium chloride, vitamin d3, sodium selenite, vitamin b12</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1607,12 +1618,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>(PAREN) - organic cranberries → organic cranberry (singular)
+          <t>- organic cranberries → organic cranberry (singular)
 - organic cranberries → organic cranberry (singular)
 - organic raisins → organic raisin (singular)
-(PAREN) - organic blueberries → organic blueberry (singular)
 - organic blueberries → organic blueberry (singular)
-(PAREN) - organic cherries → organic cherry (singular)
+- organic blueberries → organic blueberry (singular)
+- organic cherries → organic cherry (singular)
 - organic cherries → organic cherry (singular)</t>
         </is>
       </c>
@@ -1628,7 +1639,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>garlic herb tortilla (enriched bleached flour (wheat flour, niacin, ferrous sulfate, thiamin mononitrate, riboflavin, folic acid), water, palm oil, soybean oil, cultured wheat flour, salt, mono- and di-glycerides, sugar, citric acid, garlic powder, sodium bicarbonate, sodium acid pyrophosphate, wheat gluten, guar gum, enzymes, green onion, calcium sulfate), seasoned chicken (chicken breast with rib meat, chicken broth, contains 2% or less of: modified potato starch, garlic powder, canola oil, soybean oil, salt, sodium phosphate, chicken fat, flavor)), lettuce, caesar dressing (mayonnaise (water, soybean oil, egg, yolk, corn starch, distilled vinegar, contains less than 2% of: salt, egg white, xanthan gum, spice, lemon juice concentrate, dl-alpha-tocopheryl acetate (vitamin e), natural flavor), water, dijon mustard (grain vinegar, water, mustard seed, salt, spices), red wine vinegar, parmesan cheese (pasteurized cow's milk, cheese culture, salt, enzymes, powdered cellulose (anti-caking agent)), garlic puree, worcestershire sauce (distilled vinegar, molasses, water, sugar, sea salt, caramel color, garlic powder, allspice, nutmeg, clove, ginger, cayenne, pepper, black pepper, xanthan gum), canola oil, lemon juice concentrate black pepper, xanthan gum), parmesan cheese (pasteurized part-skim cow's milk, cheese, culture, salt, enzymes, powdered cellulose (anti-caking agent))</t>
+          <t>garlic herb tortilla (enriched bleached flour (wheat flour, niacin, ferrous sulfate, thiamin mononitrate, riboflavin, folic acid), water, palm oil, soybean oil, cultured wheat flour, salt, mono- and di-glycerides, sugar, citric acid, garlic powder, sodium bicarbonate, sodium acid pyrophosphate, wheat gluten, guar gum, enzymes, green onion, calcium sulfate), seasoned chicken (chicken breast with rib meat, chicken broth, 2% or less of: modified potato starch, garlic powder, canola oil, soybean oil, salt, sodium phosphate, chicken fat, flavor)), lettuce, caesar dressing (mayonnaise (water, soybean oil, egg, yolk, corn starch, distilled vinegar, less than 2% of: salt, egg white, xanthan gum, spice, lemon juice concentrate, dl-alpha-tocopheryl acetate (vitamin e), natural flavor), water, dijon mustard (grain vinegar, water, mustard seed, salt, spices), red wine vinegar, parmesan cheese (pasteurized cow's milk, cheese culture, salt, enzymes, powdered cellulose (anti-caking agent)), garlic puree, worcestershire sauce (distilled vinegar, molasses, water, sugar, sea salt, caramel color, garlic powder, allspice, nutmeg, clove, ginger, cayenne, pepper, black pepper, xanthan gum), canola oil, lemon juice concentrate black pepper, xanthan gum), parmesan cheese (pasteurized part-skim cow's milk, cheese, culture, salt, enzymes, powdered cellulose (anti-caking agent))</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1648,16 +1659,16 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>enriched flour (wheat flour, niacin, reduced iron, thiamin mononitrate, riboflavin, folic acid), water, sugar, soybean and/or cottonseed oil, high fructose corn syrup, 2% or less of, brown sugar, dextrose, leavening (sodium bicarbonate, sodium aluminum phosphate), dried sweet whey solids, palm and palm kernel oil, corn flour, yeast, corn syrup, corn starch, salt, nonfat dry milk, egg, modified corn starch, dextrin, natural and artificial flavor, mono and diglycerides, guar gum, sodium stearoyl lactylate, agar, artificial color, citric acid, pectin, potassium sorbate (preservative), sodium hexametaphosphate, stearic acid, soy lecithin, cinnamon, ammonium sulfate, l cysteine, carrageenan, silicon dioxide, enzymatically modified wheat gluten, xanthan gum, locust bean gum</t>
+          <t>enriched flour (wheat flour, niacin, reduced iron, thiamin mononitrate, riboflavin, folic acid), water, sugar, soybean and/or cottonseed oil, high fructose corn syrup, 2% or less of: brown sugar, dextrose, leavening (sodium bicarbonate, sodium aluminum phosphate), dried sweet whey solids, palm and palm kernel oil, corn flour, yeast, corn syrup, corn starch, salt, nonfat dry milk, egg, modified corn starch, dextrin, natural and artificial flavor, mono and diglycerides, guar gum, sodium stearoyl lactylate, agar, artificial color, citric acid, pectin, potassium sorbate (preservative), sodium hexametaphosphate, stearic acid, soy lecithin, cinnamon, ammonium sulfate, l cysteine, carrageenan, silicon dioxide, enzymatically modified wheat gluten, xanthan gum, locust bean gum</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
           <t>- dried sweet whey solids → dried sweet whey solid (singular)
-- non fat dry milk  → nonfat dry milk  (97%)
+- non fat dry milk → nonfat dry milk (97%)
 - eggs → egg (singular)
 - natural and artificial flavors → natural and artificial flavor (singular)
-- l-cysteine  → l cysteine  (90%)</t>
+- l-cysteine → l cysteine (90%)</t>
         </is>
       </c>
     </row>
@@ -1692,10 +1703,15 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>water, tomato puree (water, tomato paste), enriched pasta (wheat flour, niacin, ferrous sulfate, thiamine mononitrate, riboflavin, folic acid), cooked ground beef (beef, salt), high fructose corn syrup, modified food starch, less than 2% of, canola oil, enzyme modified cheddar cheese (cheddar cheese (cultured milk, salt, enzymes, calcium chloride), water, disodium phosphate, enzymes), salt, yeast extract, flavoring, potassium chloride, hydrolyzed soy protein, enzyme modified butter, reconstituted skim milk, citric acid, paprika extract, disodium inosinate and disodium guanylate, mono and diglycerides, caramel color, vegetable juice concentrate (celery, carrot, onion, leek), onion extract</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>water, tomato puree (water, tomato paste), enriched pasta (wheat flour, niacin, ferrous sulfate, thiamine mononitrate, riboflavin, folic acid), cooked ground beef (beef, salt), high fructose corn syrup, modified food starch, less than 2% of: canola oil, enzyme modified cheddar cheese (cheddar cheese (cultured milk, salt, enzyme, calcium chloride), water, disodium phosphate, enzyme), salt, yeast extract, flavoring, potassium chloride, hydrolyzed soy protein, enzyme modified butter, reconstituted skim milk, citric acid, paprika extract, disodium inosinate and disodium guanylate, mono and diglycerides, caramel color, vegetable juice concentrate (celery, carrot, onion, leek), onion extract</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>- enzymes → enzyme (singular)
+- enzymes → enzyme (singular)</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1715,7 +1731,7 @@
         <is>
           <t>- onions → onion (singular)
 - red peppers → red pepper (singular)
-- cornstarch  → corn starch  (95%)</t>
+- cornstarch → corn starch (95%)</t>
         </is>
       </c>
     </row>
@@ -1766,12 +1782,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>peanut butter spread (peanut, sugar, palm oil, 2% or less of, salt, molasses), honey</t>
+          <t>peanut butter spread (peanut, sugar, palm oil, 2% or less of: salt, molasses), honey</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>(PAREN) - peanuts → peanut (singular)</t>
+          <t>- peanuts → peanut (singular)</t>
         </is>
       </c>
     </row>
@@ -1802,7 +1818,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>salt, corn maltodextrin, onion, black pepper, autolyzed yeast extract, garlic, dextrose, natural flavor, spice, and bromelain</t>
+          <t>: salt, corn maltodextrin, onion, black pepper, autolyzed yeast extract, garlic, dextrose, natural flavor, spice, and bromelain</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -2083,8 +2099,8 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>(PAREN) - natural and artificial flavors → natural and artificial flavor (singular)
-- marshmallows → marshmallow (singular)</t>
+          <t>- marshmallows → marshmallow (singular)
+- natural and artificial flavors → natural and artificial flavor (singular)</t>
         </is>
       </c>
     </row>
@@ -2099,12 +2115,14 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ice cream (cream, milk, buttermilk, whey, sugar, corn syrup, strawberries, skim milk, contain 1% or less of natural flavors, carob bean gum, cellulose gum, carrageenan, mono and diglycerides, beet juice for color). sugar cookie (enriched bleached wheat flour (wheat flour, niacin, reduced iron, thiamin mononitrate, riboflavin, folic acid), sugar, palm oil, water, invert sugar, potato starch, buttermilk, salt, eggs, vanilla, baking powder (sodium bicarbonate, sodium aluminum sulfate, corn starch, calcium sulfate, monocalcium phosphate), baking soda)</t>
+          <t>ice cream (cream, milk, buttermilk, whey, sugar, corn syrup, strawberry, skim milk, 1% or less of natural flavor, carob bean gum, cellulose gum, carrageenan, mono and diglycerides, beet juice for color), . sugar cookie (enriched bleached wheat flour (wheat flour, niacin, reduced iron, thiamin mononitrate, riboflavin, folic acid), sugar, palm oil, water, invert sugar, potato starch, buttermilk, salt, egg, vanilla, baking powder (sodium bicarbonate, sodium aluminum sulfate, corn starch, calcium sulfate, monocalcium phosphate), baking soda)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>- ice cream (cream, milk, buttermilk, whey, sugar, corn syrup, strawberries, skim milk, contains 1% or less of natural flavors, carob bean gum, cellulose gum, carrageenan, mono and diglycerides, beet juice for color). sugar cookie (enriched bleached wheat flour (wheat flour, niacin, reduced iron, thiamin mononitrate, riboflavin, folic acid), sugar, palm oil, water, invert sugar, potato starch, buttermilk, salt, eggs, vanilla, baking powder (sodium bicarbonate, sodium aluminum sulfate, corn starch, calcium sulfate, monocalcium phosphate), baking soda) → ice cream (cream, milk, buttermilk, whey, sugar, corn syrup, strawberries, skim milk, contain 1% or less of natural flavors, carob bean gum, cellulose gum, carrageenan, mono and diglycerides, beet juice for color). sugar cookie (enriched bleached wheat flour (wheat flour, niacin, reduced iron, thiamin mononitrate, riboflavin, folic acid), sugar, palm oil, water, invert sugar, potato starch, buttermilk, salt, eggs, vanilla, baking powder (sodium bicarbonate, sodium aluminum sulfate, corn starch, calcium sulfate, monocalcium phosphate), baking soda) (singular)</t>
+          <t>- strawberries → strawberry (singular)
+- 1% or less of natural flavors → 1% or less of natural flavor (singular)
+- eggs → egg (singular)</t>
         </is>
       </c>
     </row>
@@ -2124,8 +2142,8 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>- modified foods starch  → modified food starch  (98%)
-(PAREN) - fd&amp;c red 40  → fdc red 40  (95%)</t>
+          <t>- modified foods starch → modified food starch (98%)
+- fd&amp;c red 40 → fdc red 40 (95%)</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2194,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>mechanically separated chicken, salt, 2% or less of, sugar, sodium phosphate, spice, sodium erythorbate, sodium nitrite</t>
+          <t>: mechanically separated chicken, salt, 2% or less of: sugar, sodium phosphate, spice, sodium erythorbate, sodium nitrite</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2217,12 +2235,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>enriched wheat flour (wheat flour, niacin, reduced iron, thiamine mononitrate, riboflavin, folic acid), sugar, water, palm oil shortening, palm kernel and palm oil, cocoa, soybean oil, soy flour, egg yolk, baking powder powder (baking soda, sodium acid pyrophosphate, sodium aluminum phosphate), cocoa (processed with alkali), whey (milk), natural and artificial flavor, nonfat milk, dextrose, salt, sodium propionate (preservative), mono and diglycerides, polysorbate 60, potassium sorbate (preservative), sorbic acid (preservative), guar gum, beta carotene (color), soy lecithin</t>
+          <t>enriched wheat flour (wheat flour, niacin, reduced iron, thiamine mononitrate, riboflavin, folic acid), sugar, water, palm oil shortening, palm kernel and palm oil, cocoa, soybean oil, soy flour, egg yolk, baking powder (baking soda, sodium acid pyrophosphate, sodium aluminum phosphate), cocoa (processed with alkali), whey (milk), natural and artificial flavor, nonfat milk, dextrose, salt, sodium propionate (preservative), mono and diglycerides, polysorbate 60, potassium sorbate (preservative), sorbic acid (preservative), guar gum, beta carotene (color), soy lecithin</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>- mono-and diglycerides  → mono and diglycerides  (95%)</t>
+          <t>- mono-and diglycerides → mono and diglycerides (95%)</t>
         </is>
       </c>
     </row>
@@ -2253,12 +2271,13 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>wheat flour, high fructose corn syrup, semi sweet drop (sugar, chocolate liquor, anhydrous dextrose, cocoa butter and soy lecithin (an emulsifier)), palm oil, sugar, water, 2% or less of the following, food starch modified, glycerin, soy lecithin, molasses, sodium bicarbonate, salt, natural and artificial flavor, ammonium bicarbonate, yellow 6</t>
+          <t>wheat flour, high fructose corn syrup, semi sweet drop (sugar, chocolate liquor, anhydrous dextrose, cocoa butter and soy lecithin (an emulsifier)), palm oil, sugar, water, 2% or less of the following: food starch modified, glycerin, soy lecithin, molasses, sodium bicarbonate, salt, natural and artificial flavor, ammonium bicarbonate, yellow 6</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>- semi sweet drops (sugar, chocolate liquor, anhydrous dextrose, cocoa butter and soy lecithin (an emulsifier)) → semi sweet drop (sugar, chocolate liquor, anhydrous dextrose, cocoa butter and soy lecithin (an emulsifier)) (singular)
+          <t>- semi sweet drops → semi sweet drop (singular)
+- semi sweet drop → drop (75%)
 - natural and artificial flavors → natural and artificial flavor (singular)</t>
         </is>
       </c>
@@ -2290,15 +2309,15 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>sugar, modified milk ingredient, modified palm oil, wheat flour, unsweetened chocolate, cocoa butter, modified vegetable oil, cocoa, glucose syrup, salt, ammonium phosphatide, polyglycerol polyricinoleate, soy lecithin, ammonium bicarbonate, baking soda, artificial flavor</t>
+          <t>: sugar, modified milk ingredient, modified palm oil, wheat flour, unsweetened chocolate, cocoa butter, modified vegetable oil, cocoa, glucose syrup, salt, ammonium phosphatide, polyglycerol polyricinoleate, soy lecithin, ammonium bicarbonate, baking soda, artificial flavor</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
           <t>- modified milk ingredients → modified milk ingredient (singular)
-- ammonium phosphatides  → ammonium phosphatide  (98%)
+- ammonium phosphatides → ammonium phosphatide (98%)
 - artificial flavours → artificial flavour (singular)
-- artificial flavour  → artificial flavor  (97%)</t>
+- artificial flavour → artificial flavor (97%)</t>
         </is>
       </c>
     </row>
@@ -2329,14 +2348,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>water, tomato (tomato puree, water), enriched pasta (durum wheat semolina, egg white, niacin, reduced iron,thiamine mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), cooked italian sausage (pork, seasoning (spices, salt, corn syrup solids, paprika, garlic powder, caramel color, flavoring, disodium inosinate, disodium guanylate, citric acid), water, salt, sodium tripolyphosphate), diced tomato with juice, less than 2% of, sugar, salt, garlic powder, modified corn starch, sea salt, romano cheese paste (romano cheese from cow's milk (pasteurized milk, cultures, salt, enzymes), water, salt, sodium phosphate, flavorings, xanthan gum), carrot fiber, spice, dehydrated onion, citric acid, calcium chloride, soybean oil, sesame oil, coconut oil, flavoring</t>
+          <t>water, tomato (tomato puree, water), enriched pasta (durum wheat semolina, egg white, niacin, reduced iron, thiamine mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), cooked italian sausage (pork, seasoning (spice, salt, corn syrup solids, paprika, garlic powder, caramel color, flavoring, disodium inosinate, disodium guanylate, citric acid), water, salt, sodium tripolyphosphate), diced tomato with juice, less than 2% of: sugar, salt, garlic powder, modified corn starch, sea salt, romano cheese paste (romano cheese from cow's milk (pasteurized milk, culture, salt, enzyme), water, salt, sodium phosphate, flavoring, xanthan gum), carrot fiber, spice, dehydrated onion, citric acid, calcium chloride, soybean oil, sesame oil, coconut oil, flavoring</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
           <t>- tomatoes → tomato (singular)
+- spices → spice (singular)
+- corn syrup solids → corn syrup solid (singular)
 - diced tomatoes with juice → diced tomato with juice (singular)
-- diced tomato with juice  → tomato with juice  (86%)
+- diced tomato with juice → tomato with juice (86%)
+- cultures → culture (singular)
+- enzymes → enzyme (singular)
+- flavorings → flavoring (singular)
 - spices → spice (singular)
 - flavorings → flavoring (singular)</t>
         </is>
@@ -2373,16 +2397,18 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>sugar, vegetable fats (coconut (tree nut), palm kernel, palm), cocoa butter, whole milk powder, cocoa mass, low fat cocoa powder, whey powder, cereal (corn flour, rice flour, wheat flour, sugar, low fat cocoa powder, barley malt extract, salt), hazelnut, emulsifier, soya lecithin, skimmed milk powder, flavoring</t>
+          <t>sugar, vegetable fat (coconut (tree nut), palm kernel, palm), cocoa butter, whole milk powder, cocoa mass, low fat cocoa powder, whey powder, cereal (corn flour, rice flour, wheat flour, sugar, low fat cocoa powder, barley malt extract, salt), hazelnut, emulsifier soy lecithin, skimmed milk powder, flavoring</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>(PAREN) - barley's malt extract  → barley malt extract  (95%)
+          <t>- vegetable fats → vegetable fat (singular)
 - cereals → cereal (singular)
+- barley's malt extract → barley malt extract (95%)
 - hazelnuts → hazelnut (singular)
+- emulsifier: soya lecithin → emulsifier soy lecithin (96%)
 - flavourings → flavouring (singular)
-- flavouring  → flavoring  (95%)</t>
+- flavouring → flavoring (95%)</t>
         </is>
       </c>
     </row>
@@ -2402,11 +2428,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>(PAREN) - barley's malt extract  → barley malt extract  (95%)
-- cereals → cereal (singular)
+          <t>- cereals → cereal (singular)
+- barley's malt extract → barley malt extract (95%)
 - hazelnuts → hazelnut (singular)
 - artificial flavourings → artificial flavouring (singular)
-- artificial flavouring  → artificial flavor  (89%)</t>
+- artificial flavouring → artificial flavor (89%)</t>
         </is>
       </c>
     </row>
@@ -2421,10 +2447,14 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>sugar, cocoa butter, whole milk powder, chocolate liquor, vegetable fat (oil palm), sweet whey powder, cocoa powder (low fat), lactose, emulsifier, soy lecithin, natural vanilla flavor</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
+          <t>sugar, cocoa butter, whole milk powder, chocolate liquor, vegetable fat (oil palm), sweet whey powder, cocoa powder (low fat), lactose, emulsifier soy lecithin, natural vanilla flavor</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>- emulsifier: soy lecithin → emulsifier soy lecithin (98%)</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2457,10 +2487,14 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>sugar, cocoa butter, whole milk powder, vegetable fat (oil palm), chocolate liquor, sweet whey powder, cocoa powder (low fat), lactose, emulsifier, soy lecithin, natural vanilla flavor</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
+          <t>sugar, cocoa butter, whole milk powder, vegetable fat (oil palm), chocolate liquor, sweet whey powder, cocoa powder (low fat), lactose, emulsifier soy lecithin, natural vanilla flavor</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>- emulsifier: soy lecithin → emulsifier soy lecithin (98%)</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2473,12 +2507,13 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>sugar, vegetable fat (oil palm), whole milk powder, cocoa butter chocolate liquor, sweet whey powder, cocoa powder (low fat), lactose, emulsifier, soy lecithin, natural vanilla flavor</t>
+          <t>sugar, vegetable fat (oil palm), whole milk powder, cocoa butter chocolate liquor, sweet whey powder, cocoa powder (low fat), lactose, emulsifier soy lecithin, natural vanilla flavor</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>- vegetable fats → vegetable fat (singular)</t>
+          <t>- vegetable fats → vegetable fat (singular)
+- emulsifier: soy lecithin → emulsifier soy lecithin (98%)</t>
         </is>
       </c>
     </row>
@@ -2509,10 +2544,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>sugar, cocoa butter, whole milk powder, chocolate liquor, emulsifier, soy lecithin</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
+          <t>sugar, cocoa butter, whole milk powder, chocolate liquor, emulsifier soy lecithin</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>- emulsifier: soy lecithin → emulsifier soy lecithin (98%)</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2530,8 +2569,9 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>- katural flavors → katural flavor (singular)
-- katural flavor  → natural flavor  (93%)</t>
+          <t>- : purified water → purified water (93%)
+- katural flavors → katural flavor (singular)
+- katural flavor → natural flavor (93%)</t>
         </is>
       </c>
     </row>
@@ -2546,15 +2586,15 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>unbleached wheat flour, sugar, vegetable shortening (palm oil, coconut oil), chocolate liquor, cocoa butter, nonfat dry milk, whey powder (from milk), hazelnut, low fat cocoa powder powder (processed with alkali), candied orange peel (orange peel, glucose fructose syrup (from wheat or maize), sugar), butterfat, rasped coconut, dry whole milk, dried whole egg, egg yolk powder, milk protein, wheat starch, lactose, dextrose, invert sugar syrup, glucose syrup (from wheat or maize), leavening (sodium bicarbonate, ammonium bicarbonate and sodium acid pyrophosphate), emulsifier (mono and diglycerides of free fatty acids, soy lecithin and rapeseed lecithin), salt, flavor vanilla extract</t>
+          <t>unbleached wheat flour, sugar, vegetable shortening (palm oil, coconut oil), chocolate liquor, cocoa butter, nonfat dry milk, whey powder (from milk), hazelnut, low fat cocoa powder (processed with alkali), candied orange peel (orange peel, glucose fructose syrup (from wheat or maize), sugar), butterfat, rasped coconut, dry whole milk, dried whole egg, egg yolk powder, milk protein, wheat starch, lactose, dextrose, invert sugar syrup, glucose syrup (from wheat or maize), leavening (sodium bicarbonate, ammonium bicarbonate and sodium acid pyrophosphate), emulsifier (mono and diglycerides of free fatty acids, soy lecithin and rapeseed lecithin), salt, flavor vanilla extract</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
           <t>- vegetable shortenings → vegetable shortening (singular)
 - hazelnuts → hazelnut (singular)
-(PAREN) - mono- and diglycerides of free fatty acids → mono- and diglycerides of free fatty acid (singular)
-(PAREN) - mono- and diglycerides of free fatty acid  → mono and diglycerides of free fatty acids  (98%)</t>
+- mono- and diglycerides of free fatty acids → mono- and diglycerides of free fatty acid (singular)
+- mono- and diglycerides of free fatty acid → mono and diglycerides of free fatty acids (98%)</t>
         </is>
       </c>
     </row>
@@ -2585,10 +2625,14 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>organic popcorn, organic sunflower oil, organic uncolored cheddar cheese powder (organic cheddar cheese, organic whey powder, lactic acid disodium phosphate, starter distillate, enzymes) organic sour cream powder (organic cream, organic whey powder, disodium phosphate, lactic acid, salt, silicon dioxide, starter flavor, mixed tocopherol), organic whey powder, sea salt</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+          <t>organic popcorn, organic sunflower oil, organic uncolored cheddar cheese powder (organic cheddar cheese, organic whey powder, lactic acid disodium phosphate, starter distillate, enzyme), organic sour cream powder (organic cream, organic whey powder, disodium phosphate, lactic acid, salt, silicon dioxide, starter flavor, mixed tocopherol), organic whey powder, sea salt</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>- enzymes → enzyme (singular)</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2633,13 +2677,13 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>water, milk protein concentrate, canola oil, less than 2% of, glycerin, fructose, corn maltodextrin, soy protein isolate, short chain fructooligosaccharide, corn oil, soluble corn fiber, potassium citrate, magnesium phosphate, natural and artificial flavor, cellulose gel, salt, choline chloride, ascorbic acid, calcium carbonate, soy lecithin, monoglyceride, cellulose gum, carrageenan, calcium phosphate, sodium citrate, potassium chloride, acesulfame potassium, di-alpha-tocopheryl acetate, ferrous sulfate, gellan gum, sucralose, zinc sulfate, niacinamide, calcium pantothenate, manganese sulfate, thiamine hydrochloride, pyridoxine hydrochloride, riboflavin, vitamin a palmitate, copper sulfate, folic acid, chromium chloride, potassium iodide, sodium selenate, phylloquinone, sodium molybdate, biotin, vitamin d3 and vitamin b12</t>
+          <t>water, milk protein concentrate, canola oil; less than 2% of: glycerin, fructose, corn maltodextrin, soy protein isolate, short chain fructooligosaccharide, corn oil, soluble corn fiber, potassium citrate, magnesium phosphate, natural and artificial flavor, cellulose gel, salt, choline chloride, ascorbic acid, calcium carbonate, soy lecithin, monoglyceride, cellulose gum, carrageenan, calcium phosphate, sodium citrate, potassium chloride, acesulfame potassium, di-alpha-tocopheryl acetate, ferrous sulfate, gellan gum, sucralose, zinc sulfate, niacinamide, calcium pantothenate, manganese sulfate, thiamine hydrochloride, pyridoxine hydrochloride, riboflavin, vitamin a palmitate, copper sulfate, folic acid, chromium chloride, potassium iodide, sodium selenate, phylloquinone, sodium molybdate, biotin, vitamin d3 and vitamin b12</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>- short-chain fructooligosaccharides  → short chain fructooligosaccharide  (96%)
-- monoglycerides  → monoglyceride  (96%)</t>
+          <t>- short-chain fructooligosaccharides → short chain fructooligosaccharide (96%)
+- monoglycerides → monoglyceride (96%)</t>
         </is>
       </c>
     </row>
@@ -2670,13 +2714,13 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>milk chocolate (sugar, milk, cocoa butter, cocoate, milkfat, soy lecithin- an emulsifier, vanillin artificial flavor), sugar, honey, almond, invert sugar, egg white</t>
+          <t>: milk chocolate (sugar, milk, cocoa butter, cocoate, milkfat, soy lecithin- an emulsifier, vanillin artificial flavor), sugar, honey, almond, invert sugar, egg white</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>(PAREN) - chocolate  → cocoate  (88%)
-(PAREN) - vanillin - an artificial flavor  → vanillin artificial flavor  (91%)
+          <t>- chocolate → cocoate (88%)
+- vanillin - an artificial flavor → vanillin artificial flavor (91%)
 - almonds → almond (singular)
 - egg whites → egg white (singular)</t>
         </is>
@@ -2745,14 +2789,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>enriched wheat flour (wheat flour, malted barley flour, niacin, reduced iron, thiamine mononitrate, riboflavin, &amp; folic acid), water, 2% or less, sugar, onion, yeast, vital wheat gluten, salt, preservative (calcium propionate &amp; potassium sorbate), monoglyceride, monocalcium phosphate, cellulose gum, enzyme, ascorbic acid, sorbic acid, corn starch, soybean oil</t>
+          <t>enriched wheat flour (wheat flour, malted barley flour, niacin, reduced iron, thiamine mononitrate, riboflavin, &amp; folic acid), water, 2% or less: sugar, onion, yeast, vital wheat gluten, salt, preservative (calcium propionate &amp; potassium sorbate), monoglyceride, monocalcium phosphate, cellulose gum, enzyme, ascorbic acid, sorbic acid, corn starch, soybean oil</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
           <t>- onions → onion (singular)
 - preservatives → preservative (singular)
-- monoglycerides  → monoglyceride  (96%)
+- monoglycerides → monoglyceride (96%)
 - enzymes → enzyme (singular)</t>
         </is>
       </c>
@@ -2768,16 +2812,16 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>enriched wheat flour (wheat flour, malted barley flour, niacin, reduced iron, thiamine mononitrate, riboflavin, &amp; folic acid), water, raisin, sugar, 2% or less, yeast, cinnamon, vital wheat gluten, salt, caramel color, preservative (calcium propionate &amp; potassium sorbate), monoglyceride, monocalcium phosphate, cellulose gum, enzyme, ascorbic acid, sorbic acid, wheat starch, corn starch, sorbitol, sodium chloride, sodium citrate, silica, magnesium stearate, maltodextrin, palm olein, soybean oil</t>
+          <t>enriched wheat flour (wheat flour, malted barley flour, niacin, reduced iron, thiamine mononitrate, riboflavin, &amp; folic acid), water, raisin, sugar, 2% or less: yeast, cinnamon, vital wheat gluten, salt, caramel color, preservative (calcium propionate &amp; potassium sorbate), monoglyceride, monocalcium phosphate, cellulose gum, enzyme, ascorbic acid, sorbic acid, wheat starch, corn starch, sorbitol, sodium chloride, sodium citrate, silica, magnesium stearate, maltodextrin, palm olein, soybean oil</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
           <t>- raisins → raisin (singular)
 - preservatives → preservative (singular)
-- monoglycerides  → monoglyceride  (96%)
+- monoglycerides → monoglyceride (96%)
 - enzymes → enzyme (singular)
-- maltodextrine  → maltodextrin  (96%)</t>
+- maltodextrine → maltodextrin (96%)</t>
         </is>
       </c>
     </row>
@@ -2792,13 +2836,13 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>enriched wheat flour (wheat flour, malted barley flour, niacin, reduced iron, thiamine mononitrate, riboflavin, &amp; folic acid), water, 2% or less, sugar, yeast, vital wheat gluten, salt, preservative (calcium propionate &amp; potassium sorbate), monoglyceride, monocalcium phosphate, cellulose gum, enzyme, ascorbic acid, sorbic acid, corn starch, soybean oil</t>
+          <t>enriched wheat flour (wheat flour, malted barley flour, niacin, reduced iron, thiamine mononitrate, riboflavin, &amp; folic acid), water, 2% or less: sugar, yeast, vital wheat gluten, salt, preservative (calcium propionate &amp; potassium sorbate), monoglyceride, monocalcium phosphate, cellulose gum, enzyme, ascorbic acid, sorbic acid, corn starch, soybean oil</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
           <t>- preservatives → preservative (singular)
-- monoglycerides  → monoglyceride  (96%)
+- monoglycerides → monoglyceride (96%)
 - enzymes → enzyme (singular)</t>
         </is>
       </c>
@@ -2814,16 +2858,16 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>enriched wheat flour (wheat flour, malted barley flour, niacin, reduced iron, thiamine mononitrate, riboflavin, &amp; folic acid), water, raisin, sugar, 2% or less, yeast, cinnamon, vital wheat gluten, salt, caramel color, preservative (calcium propionate &amp; potassium sorbate), monoglyceride, monocalcium phosphate, cellulose gum, enzyme, ascorbic acid, sorbic acid, wheat starch, corn starch, sorbitol, sodium chloride, sodium citrate, silica, magnesium stearate, maltodextrin, palm olein, soybean oil</t>
+          <t>enriched wheat flour (wheat flour, malted barley flour, niacin, reduced iron, thiamine mononitrate, riboflavin, &amp; folic acid), water, raisin, sugar, 2% or less: yeast, cinnamon, vital wheat gluten, salt, caramel color, preservative (calcium propionate &amp; potassium sorbate), monoglyceride, monocalcium phosphate, cellulose gum, enzyme, ascorbic acid, sorbic acid, wheat starch, corn starch, sorbitol, sodium chloride, sodium citrate, silica, magnesium stearate, maltodextrin, palm olein, soybean oil</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
           <t>- raisins → raisin (singular)
 - preservatives → preservative (singular)
-- monoglycerides  → monoglyceride  (96%)
+- monoglycerides → monoglyceride (96%)
 - enzymes → enzyme (singular)
-- maltodextrine  → maltodextrin  (96%)</t>
+- maltodextrine → maltodextrin (96%)</t>
         </is>
       </c>
     </row>
@@ -2838,20 +2882,20 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>enriched wheat flour (wheat flour, malted barley flour, niacin, reduced iron, thiamin mononitrate, riboflavin, &amp; folic acid), water, sugar, blueberry bit (sugar, yellow corn flour, canola oil, corn starch, natural and artificial flavor, corn syrup solids, blue 2 lake, red 40 lake), 2% or less, yeast, salt, vital wheat gluten, blueberry flavor (natural and artificial flavor, triglyceride), preservative (calcium propionate &amp; potassium sorbate), monoglyceride, monocalcium phosphate, cellulose gum, enzyme, ascorbic acid sorbic acid, wheat starch, corn starch, sorbitol, sodium chloride, sodium citrate, silica, magnesium stearate, maltodextrin, palm olein, soybean oil</t>
+          <t>enriched wheat flour (wheat flour, malted barley flour, niacin, reduced iron, thiamin mononitrate, riboflavin, &amp; folic acid), water, sugar, blueberry bit (sugar, yellow corn flour, canola oil, corn starch, natural and artificial flavor, corn syrup solids, blue 2 lake, red 40 lake), 2% or less: yeast, salt, vital wheat gluten, blueberry flavor (natural and artificial flavor, triglyceride), preservative (calcium propionate &amp; potassium sorbate), monoglyceride, monocalcium phosphate, cellulose gum, enzyme, ascorbic acid sorbic acid, wheat starch, corn starch, sorbitol, sodium chloride, sodium citrate, silica, magnesium stearate, maltodextrin, palm olein, soybean oil</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>(PAREN) - natural and artificial flavors → natural and artificial flavor (singular)
-(PAREN) - corn syrup solids → corn syrup solid (singular)
-- blueberry bits → blueberry bit (singular)
-(PAREN) - natural and artificial flavors → natural and artificial flavor (singular)
-(PAREN) - triglycerides  → triglyceride  (96%)
+          <t>- blueberry bits → blueberry bit (singular)
+- natural and artificial flavors → natural and artificial flavor (singular)
+- corn syrup solids → corn syrup solid (singular)
+- natural and artificial flavors → natural and artificial flavor (singular)
+- triglycerides → triglyceride (96%)
 - preservatives → preservative (singular)
-- monoglycerides  → monoglyceride  (96%)
+- monoglycerides → monoglyceride (96%)
 - enzymes → enzyme (singular)
-- maltodextrine  → maltodextrin  (96%)</t>
+- maltodextrine → maltodextrin (96%)</t>
         </is>
       </c>
     </row>
@@ -2866,17 +2910,17 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>enriched wheat flour (wheat flour, malted barley flour, niacin, reduced iron, thiamine mononitrate, riboflavin, &amp; folic acid), water, sugar, vital wheat gluten, 2% or less, yeast, salt, molasses, whole wheat flour, cinnamon, maple flavor (artificial flavor, water, propylene glycol &amp; corn syrup), caramel color, vanilla flavor (artificial flavor, water &amp; propylene glycol), preservative (calcium propionate &amp; potassium sorbate), monoglyceride, monocalcium phosphate, cellulose gum, enzyme, ascorbic acid, sorbic acid, wheat starch, sorbitol, sodium chloride, sodium citrate, corn starch, silica, magnesium stearate, maltodextrin, palm olein, soybean oil</t>
+          <t>enriched wheat flour (wheat flour, malted barley flour, niacin, reduced iron, thiamine mononitrate, riboflavin, &amp; folic acid), water, sugar, vital wheat gluten, 2% or less: yeast, salt, molasses, whole wheat flour, cinnamon, maple flavor (artificial flavor, water, propylene glycol &amp; corn syrup), caramel color, vanilla flavor (artificial flavor, water &amp; propylene glycol), preservative (calcium propionate &amp; potassium sorbate), monoglyceride, monocalcium phosphate, cellulose gum, enzyme, ascorbic acid, sorbic acid, wheat starch, sorbitol, sodium chloride, sodium citrate, corn starch, silica, magnesium stearate, maltodextrin, palm olein, soybean oil</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>(PAREN) - artificial flavors → artificial flavor (singular)
-(PAREN) - artificial flavors → artificial flavor (singular)
+          <t>- artificial flavors → artificial flavor (singular)
+- artificial flavors → artificial flavor (singular)
 - preservatives → preservative (singular)
-- monoglycerides  → monoglyceride  (96%)
+- monoglycerides → monoglyceride (96%)
 - enzymes → enzyme (singular)
-- maltodextrine  → maltodextrin  (96%)</t>
+- maltodextrine → maltodextrin (96%)</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2935,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>enriched wheat flour (wheat flour, malted barley flour, niacin, reduced iron, thiamin mononitrate, riboflavin, &amp; folic acid), water, 2% or less, sugar, yeast, poppy seed, vital wheat gluten, salt, sesame seed, preservative (calcium propionate &amp; potassium sorbate), monoglyceride, monocalcium phosphate, cellulose gum, onion, sunflower seed, garlic, enzyme, ascorbic acid, sorbic acid, corn starch, soybean oil</t>
+          <t>enriched wheat flour (wheat flour, malted barley flour, niacin, reduced iron, thiamin mononitrate, riboflavin, &amp; folic acid), water, 2% or less: sugar, yeast, poppy seed, vital wheat gluten, salt, sesame seed, preservative (calcium propionate &amp; potassium sorbate), monoglyceride, monocalcium phosphate, cellulose gum, onion, sunflower seed, garlic, enzyme, ascorbic acid, sorbic acid, corn starch, soybean oil</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -2899,7 +2943,7 @@
           <t>- poppy seeds → poppy seed (singular)
 - sesame seeds → sesame seed (singular)
 - preservatives → preservative (singular)
-- monoglycerides  → monoglyceride  (96%)
+- monoglycerides → monoglyceride (96%)
 - onions → onion (singular)
 - sunflower seeds → sunflower seed (singular)
 - enzymes → enzyme (singular)</t>
@@ -2917,7 +2961,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>diced pear, water, white grape juice concentrate, lemon juice concentrate, ascorbic acid (vitamin c) to protect color, natural flavor, citric acid</t>
+          <t>diced pear, water, white grape juice concentrate, lemon juice concentrate, ascorbic acid (vitamin c), to protect color, natural flavor, citric acid</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -2937,7 +2981,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>diced peach, diced pear, water, white grape juice concentrate, cherry artificially colored red with carmine, lemon juice concentrate, natural flavor, ascorbic acid (vitamin c) to protect color, citric acid</t>
+          <t>diced peach, diced pear, water, white grape juice concentrate, cherry artificially colored red with carmine, lemon juice concentrate, natural flavor, ascorbic acid (vitamin c), to protect color, citric acid</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3023,7 +3067,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>concord grape juice, (water, concord grape juice concentrate), corn syrup, high fructose corn syrup, 2% or less of, fruit pectin, citric acid, sodium citrate</t>
+          <t>concord grape juice (water, concord grape juice concentrate), corn syrup, high fructose corn syrup, 2% or less of: fruit pectin, citric acid, sodium citrate</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
@@ -3039,7 +3083,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>concord grape, high fructose corn syrup, corn syrup, water, 2% or less of, fruit pectin, citric acid, sodium citrate</t>
+          <t>concord grape, high fructose corn syrup, corn syrup, water, 2% or less of: fruit pectin, citric acid, sodium citrate</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3059,7 +3103,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>concord grape juice (water, concord grape juice concentrate), corn syrup, high fructose corn syrup, 2% or less of, fruit pectin, citric acid, sodium citrate</t>
+          <t>concord grape juice (water, concord grape juice concentrate), corn syrup, high fructose corn syrup, 2% or less of: fruit pectin, citric acid, sodium citrate</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -3075,7 +3119,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>concord grape juice, (water, concord grape juice concentrate), corn syrup, high fructose corn syrup, 2% or less of, fruit pectin, citric acid, sodium citrate</t>
+          <t>concord grape juice (water, concord grape juice concentrate), corn syrup, high fructose corn syrup, 2% or less of: fruit pectin, citric acid, sodium citrate</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
@@ -3091,7 +3135,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>blackberry, high fructose corn syrup, corn syrup, 2% or less of, fruit pectin, citric acid, sodium citrate</t>
+          <t>blackberry, high fructose corn syrup, corn syrup, 2% or less of: fruit pectin, citric acid, sodium citrate</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3111,7 +3155,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>cherry, high fructose corn syrup, corn syrup, sugar, 2% or less of, fruit pectin, citric acid, sodium citrate</t>
+          <t>cherry, high fructose corn syrup, corn syrup, sugar, 2% or less of: fruit pectin, citric acid, sodium citrate</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3131,7 +3175,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>apricot, high fructose corn syrup, corn syrup, sugar, 2% or less of, fruit pectin, citric acid</t>
+          <t>apricot, high fructose corn syrup, corn syrup, sugar, 2% or less of: fruit pectin, citric acid</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3151,7 +3195,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>peach, high fructose corn syrup, corn syrup, sugar, 2% or less of, fruit pectin, citric acid</t>
+          <t>peach, high fructose corn syrup, corn syrup, sugar, 2% or less of: fruit pectin, citric acid</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3171,7 +3215,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>high fructose corn syrup, corn syrup, orange peel, 2% or less of, orange juice, fruit pectin, citric acid, natural orange flavor</t>
+          <t>high fructose corn syrup, corn syrup, orange peel, 2% or less of: orange juice, fruit pectin, citric acid, natural orange flavor</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -3187,7 +3231,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>red raspberry, high fructose corn syrup, corn syrup, 2% or less of, fruit pectin, citric acid, sodium citrate</t>
+          <t>red raspberry, high fructose corn syrup, corn syrup, 2% or less of: fruit pectin, citric acid, sodium citrate</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3207,7 +3251,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>strawberry, high fructose corn syrup, corn syrup, sugar, 2% or less of, fruit pectin, citric acid</t>
+          <t>strawberry, high fructose corn syrup, corn syrup, sugar, 2% or less of: fruit pectin, citric acid</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3227,7 +3271,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>strawberry, high fructose corn syrup, corn syrup, sugar, 2% or less of, fruit pectin, citric acid</t>
+          <t>strawberry, high fructose corn syrup, corn syrup, sugar, 2% or less of: fruit pectin, citric acid</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3247,7 +3291,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>apple juice (water, apple juice concentrate), high fructose corn syrup, corn syrup, 2% or less of, fruit pectin, citric acid, sodium citrate</t>
+          <t>apple juice (water, apple juice concentrate), high fructose corn syrup, corn syrup, 2% or less of: fruit pectin, citric acid, sodium citrate</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
@@ -3263,13 +3307,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), corn syrup, sugar, high fructose corn syrup, palm oil, brown sugar, whey permeate, less than 2% of, modified corn starch, water, pregelatinized yellow corn, salt, cinnamon, leavening (sodium aluminum phosphate, baking soda), color added, citric acid, potassium sorbate (preservative), gelatin, soy lecithin, enzyme modified soy protein, vitamin a palmitate, reduced iron, niacinamide, pyridoxine hydrochloride, riboflavin, thiamine mononitrate</t>
+          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), corn syrup, sugar, high fructose corn syrup, palm oil, brown sugar, whey permeate, less than 2% of: modified cornstarch, water, pregelatinized yellow corn, salt, cinnamon, leavening (sodium aluminum phosphate, baking soda), color added, citric acid, potassium sorbate (preservative), gelatin, soy lecithin, enzyme modified soy protein, vitamin a palmitate, reduced iron, niacinamide, pyridoxine hydrochloride, riboflavin, thiamine mononitrate</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>- modified cornstarch  → modified corn starch  (97%)
-- pre-gelatinized yellow corn meal  → pregelatinized yellow corn  (90%)</t>
+          <t>- pre-gelatinized yellow corn meal → pregelatinized yellow corn (90%)</t>
         </is>
       </c>
     </row>
@@ -3284,13 +3327,13 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), corn syrup, sugar, high fructose corn syrup, palm oil, less than 2% of, whey permeate, glycerin, modified corn starch, water, white grape juice concentrate, salt, pregelatinized yellow corn, leavening (sodium aluminum phosphate, baking soda), color added, strawberry juice concentrate, citric acid, malic acid, natural and artificial flavor, potassium sorbate (preservative), gelatin, enzyme modified soy protein, flour, yellow corn flour, turmeric oleoresin color, red 40, blue 1, vitamin a palmitate, reduced iron, niacin, niacinamide, pyridoxine hydrochloride, thiamine mononitrate, riboflavin, folic acid</t>
+          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), corn syrup, sugar, high fructose corn syrup, palm oil, less than 2% of: whey permeate, glycerin, modified corn starch, water, white grape juice concentrate, salt, pregelatinized yellow corn, leavening (sodium aluminum phosphate, baking soda), color added, strawberry juice concentrate, citric acid, malic acid, natural and artificial flavor, potassium sorbate (preservative), gelatin, enzyme modified soy protein, flour, yellow corn flour, turmeric oleoresin color, red 40, blue 1, vitamin a palmitate, reduced iron, niacin, niacinamide, pyridoxine hydrochloride, thiamine mononitrate, riboflavin, folic acid</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>- modified cornstarch  → modified corn starch  (97%)
-- pre-gelatinized yellow corn meal  → pregelatinized yellow corn  (90%)</t>
+          <t>- modified cornstarch → modified corn starch (97%)
+- pre-gelatinized yellow corn meal → pregelatinized yellow corn (90%)</t>
         </is>
       </c>
     </row>
@@ -3305,13 +3348,13 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), corn syrup, sugar, high fructose corn syrup, palm oil, less than 2% of, whey permeate, glycerin, water, modified corn starch, white grape juice concentrate, blueberry juice concentrate, pregelatinized yellow corn, salt, leavening (sodium aluminum phosphate, baking soda), citric acid, red 40, color added, potassium sorbate (preservative), natural and artificial flavor, blue 1, gelatin, enzyme modified soy protein, flour, yellow corn flour, turmeric oleoresin color, vitamin a palmitate, reduced iron, niacin, niacinamide, pyridoxine hydrochloride, riboflavin, thiamine mononitrate, folic acid</t>
+          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), corn syrup, sugar, high fructose corn syrup, palm oil, less than 2% of: whey permeate, glycerin, water, modified corn starch, white grape juice concentrate, blueberry juice concentrate, pregelatinized yellow corn, salt, leavening (sodium aluminum phosphate, baking soda), citric acid, red 40, color added, potassium sorbate (preservative), natural and artificial flavor, blue 1, gelatin, enzyme modified soy protein, flour, yellow corn flour, turmeric oleoresin color, vitamin a palmitate, reduced iron, niacin, niacinamide, pyridoxine hydrochloride, riboflavin, thiamine mononitrate, folic acid</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>- modified cornstarch  → modified corn starch  (97%)
-- pre-gelatinized yellow corn meal  → pregelatinized yellow corn  (90%)</t>
+          <t>- modified cornstarch → modified corn starch (97%)
+- pre-gelatinized yellow corn meal → pregelatinized yellow corn (90%)</t>
         </is>
       </c>
     </row>
@@ -3326,13 +3369,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), corn syrup, sugar, high fructose corn syrup, palm oil, brown sugar, whey permeate, less than 2% of, modified corn starch, water, pregelatinized yellow corn, salt, cinnamon, leavening (sodium aluminum phosphate, baking soda), color added, citric acid, potassium sorbate (preservative), gelatin, soy lecithin, enzyme modified soy protein, vitamin a palmitate, reduced iron, niacinamide, pyridoxine hydrochloride, riboflavin, thiamine mononitrate</t>
+          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), corn syrup, sugar, high fructose corn syrup, palm oil, brown sugar, whey permeate, less than 2% of: modified cornstarch, water, pregelatinized yellow corn, salt, cinnamon, leavening (sodium aluminum phosphate, baking soda), color added, citric acid, potassium sorbate (preservative), gelatin, soy lecithin, enzyme modified soy protein, vitamin a palmitate, reduced iron, niacinamide, pyridoxine hydrochloride, riboflavin, thiamine mononitrate</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>- modified cornstarch  → modified corn starch  (97%)
-- pre-gelatinized yellow corn meal  → pregelatinized yellow corn  (90%)</t>
+          <t>- pre-gelatinized yellow corn meal → pregelatinized yellow corn (90%)</t>
         </is>
       </c>
     </row>
@@ -3347,13 +3389,13 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), corn syrup, sugar, high fructose corn syrup, palm oil, less than 2% of, whey permeate, glycerin, modified corn starch, water, white grape juice concentrate, salt, pregelatinized yellow corn, wheat flour, leavening (sodium aluminum phosphate, baking soda), citric acid, cherry juice concentrate, natural and artificial flavor, red 40, potassium sorbate (preservative), gelatin, enzyme modified soy protein, color added, yellow corn flour, vitamin a palmitate, reduced iron, niacin, niacinamide, pyridoxine hydrochloride, riboflavin, thiamine mononitrate, folic acid</t>
+          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), corn syrup, sugar, high fructose corn syrup, palm oil, less than 2% of: whey permeate, glycerin, modified corn starch, water, white grape juice concentrate, salt, pregelatinized yellow corn, wheat flour, leavening (sodium aluminum phosphate, baking soda), citric acid, cherry juice concentrate, natural and artificial flavor, red 40, potassium sorbate (preservative), gelatin, enzyme modified soy protein, color added, yellow corn flour, vitamin a palmitate, reduced iron, niacin, niacinamide, pyridoxine hydrochloride, riboflavin, thiamine mononitrate, folic acid</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>- modified cornstarch  → modified corn starch  (97%)
-- pre-gelatinized yellow corn meal  → pregelatinized yellow corn  (90%)</t>
+          <t>- modified cornstarch → modified corn starch (97%)
+- pre-gelatinized yellow corn meal → pregelatinized yellow corn (90%)</t>
         </is>
       </c>
     </row>
@@ -3368,13 +3410,13 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), high fructose corn syrup, sugar, corn syrup, palm oil, whey permeate, less than 2% of, cocoa processed with alkali, water, modified corn starch, salt, pregelatinized yellow corn, leavening (sodium aluminum phosphate, baking soda), color added, sorbitol, potassium sorbate (preservative), natural and artificial flavor, gelatin, enzyme modified soy protein, flour, yellow corn flour, vitamin a palmitate, reduced iron, niacin, niacinamide, pyridoxine hydrochloride, thiamine mononitrate, riboflavin, folic acid</t>
+          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), high fructose corn syrup, sugar, corn syrup, palm oil, whey permeate, less than 2% of: cocoa processed with alkali, water, modified corn starch, salt, pregelatinized yellow corn, leavening (sodium aluminum phosphate, baking soda), color added, sorbitol, potassium sorbate (preservative), natural and artificial flavor, gelatin, enzyme modified soy protein, flour, yellow corn flour, vitamin a palmitate, reduced iron, niacin, niacinamide, pyridoxine hydrochloride, thiamine mononitrate, riboflavin, folic acid</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>- modified cornstarch  → modified corn starch  (97%)
-- pre-gelatinized yellow corn meal  → pregelatinized yellow corn  (90%)</t>
+          <t>- modified cornstarch → modified corn starch (97%)
+- pre-gelatinized yellow corn meal → pregelatinized yellow corn (90%)</t>
         </is>
       </c>
     </row>
@@ -3389,13 +3431,13 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), corn syrup, sugar, high fructose corn syrup, palm oil, less than 2% of, whey permeate, glycerin, modified corn starch, water, white grape juice concentrate, salt, pregelatinized yellow corn, leavening (sodium aluminum phosphate, baking soda), color added, strawberry juice concentrate, citric acid, malic acid, natural and artificial flavor, potassium sorbate (preservative), gelatin, enzyme modified soy protein, flour, yellow corn flour, turmeric oleoresin color, red 40, blue 1, vitamin a palmitate, reduced iron, niacin, niacinamide, pyridoxine hydrochloride, thiamine mononitrate, riboflavin, folic acid</t>
+          <t>enriched wheat flour (flour, niacin, reduced iron, thiamine hydrochloride, riboflavin, folic acid), corn syrup, sugar, high fructose corn syrup, palm oil, less than 2% of: whey permeate, glycerin, modified corn starch, water, white grape juice concentrate, salt, pregelatinized yellow corn, leavening (sodium aluminum phosphate, baking soda), color added, strawberry juice concentrate, citric acid, malic acid, natural and artificial flavor, potassium sorbate (preservative), gelatin, enzyme modified soy protein, flour, yellow corn flour, turmeric oleoresin color, red 40, blue 1, vitamin a palmitate, reduced iron, niacin, niacinamide, pyridoxine hydrochloride, thiamine mononitrate, riboflavin, folic acid</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>- modified cornstarch  → modified corn starch  (97%)
-- pre-gelatinized yellow corn meal  → pregelatinized yellow corn  (90%)</t>
+          <t>- modified cornstarch → modified corn starch (97%)
+- pre-gelatinized yellow corn meal → pregelatinized yellow corn (90%)</t>
         </is>
       </c>
     </row>
@@ -3471,10 +3513,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>enriched macaroni product (durum flour, niacin, iron (ferrous sulfate), thiamine mononitrate, riboflavin, folic acid), maltodextrin, corn starch, hydrolyzed soy protein, 2% or less of each of the following, dehydrated onion, salt, hydrolyzed corn and soy protein, potassium chloride, monosodium glutamate, soy sauce powder (dehydrated soy sauce (soybeans, wheat, salt), maltodextrin, salt), caramel (color), dehydrated garlic, spice, yeast extract, disodium guanylate, disodium inosinate, yellow 5, yellow 6</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr"/>
+          <t>enriched macaroni product (durum flour, niacin, iron (ferrous sulfate), thiamine mononitrate, riboflavin, folic acid), maltodextrin, corn starch, hydrolyzed soy protein, 2% or less of each of the following: dehydrated onion, salt, hydrolyzed corn and soy protein, potassium chloride, monosodium glutamate, soy sauce powder (dehydrated soy sauce (soybean, wheat, salt), maltodextrin, salt), caramel (color), dehydrated garlic, spice, yeast extract, disodium guanylate, disodium inosinate, yellow 5, yellow 6</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>- soybeans → soybean (singular)</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3487,13 +3533,14 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>enriched unbleached flour (wheat flour, malted barley flour, reduced iron, thiamin mononitrate (vitamin 81), riboflavin (vitamin b2), niacin (vitamin b3), folic acid), water, high fructose corn syrup, yeast, soybean oil, salt, wheat gluten, wheat protein isolate, monoglyceride, sweet dairy whey, calcium propionate (preservative), sodium stearoyl lactylate, vinegar, calcium sulfate, lactic acid, natural flavor, citric acid, ascorbic acid, soy lecithin</t>
+          <t>enriched unbleached flour (wheat flour, malted barley flour, reduced iron, thiamin mononitrate (vitamin a1), riboflavin (vitamin b2), niacin (vitamin b3), folic acid), water, high fructose corn syrup, yeast, soybean oil, salt, wheat gluten, wheat protein isolate, monoglyceride, sweet dairy whey, calcium propionate (preservative), sodium stearoyl lactylate, vinegar, calcium sulfate, lactic acid, natural flavor, citric acid, ascorbic acid, soy lecithin</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>- monoglycerides  → monoglyceride  (96%)
-(PAREN) - a preservative  → preservative  (92%)
+          <t>- vitamin 81 → vitamin a1 (90%)
+- monoglycerides → monoglyceride (96%)
+- a preservative → preservative (92%)
 - natural flavors → natural flavor (singular)</t>
         </is>
       </c>
@@ -3509,14 +3556,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>water, hydrogenated palm oil, corn syrup, sugar, sorbitol, less than 2% of, fructose, cellulose gel, sodium caseinate (milk derivative), lactic acid, corn starch, sorbitan monostearate, soy lecithin, disodium phosphate, salt, cellulose gum, polysorbate 60, datem, mono and diglycerides, polysorbate 80, sodium alginate, natural and artificial flavors. propellant, nitrous oxide</t>
+          <t>water, hydrogenated palm oil, corn syrup, sugar, sorbitol, less than 2% of: fructose, cellulose gel, sodium caseinate (milk derivative), lactic acid, corn starch, sorbitan monostearate, soy lecithin, disodium phosphate, salt, cellulose gum, polysorbate 60, datem, mono and diglycerides, polysorbate 80, sodium alginate, natural and artificial flavors. propellant: nitrous oxide</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>(PAREN) - a milk derivative  → milk derivative  (94%)
-- ellulose gum  → cellulose gum  (96%)
-- mono- and diglycerides  → mono and diglycerides  (98%)</t>
+          <t>- a milk derivative → milk derivative (94%)
+- ellulose gum → cellulose gum (96%)
+- mono- and diglycerides → mono and diglycerides (98%)</t>
         </is>
       </c>
     </row>
@@ -3531,14 +3578,14 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>pasteurized grade a nonfat milk, fruit blend (water, pineapple, mango, fructose, passion fruit juice, sugar, modified corn starch, pectin, guar gum, potassium sorbate added to maintain freshness, vitamin a acetate, citric acid, vitamin d. malic acid, sodium citrate). contains 0.5% or less of, natural flavor, yogurt culture (l bulgaricus, s thermophilus), acesulfame potassium, sucralose</t>
+          <t>pasteurized grade a nonfat milk, fruit blend (water, pineapple, mango, fructose, passion fruit juice, sugar, modified corn starch, pectin, guar gum, potassium sorbate added to maintain freshness, vitamin a acetate, citric acid, vitamin d, malic acid, sodium citrate), . contains 0.5% or less of: natural flavor, yogurt culture (l bulgaricus, s thermophilus), acesulfame potassium, sucralose</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>(PAREN) - l. bulgaricus  → l bulgaricus  (96%)
-(PAREN) - s.thermophilus  → s thermophilus  (93%)
-- yogurt cultures → yogurt culture (singular)</t>
+          <t>- yogurt cultures → yogurt culture (singular)
+- l. bulgaricus → l bulgaricus (96%)
+- s.thermophilus → s thermophilus (93%)</t>
         </is>
       </c>
     </row>
@@ -3553,12 +3600,15 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>fat free yogurt (cultured pasteurized grade a nonfat milk, kosher gelatin, lactic acid ester of mono and diglycerides, citric acid, malic acid, yogurt culture (l. bulgaricus, s. thermophilus), acesulfame potassium, natural flavor, sucralose), fruit blend (fructose, raspberry puree, water, modified corn starch, vegetable juice (for color), potassium sorbate added to maintain freshness, vitamin a acetate, vitamin d3), nitrogen. contain live and active culture</t>
+          <t>fat free yogurt (cultured pasteurized grade a nonfat milk, kosher gelatin, lactic acid esters of mono and diglycerides, citric acid, malic acid, yogurt culture (l bulgaricus, s thermophilus), acesulfame potassium, natural flavor, sucralose), fruit blend (fructose, raspberry puree, water, modified corn starch, vegetable juice (for color), potassium sorbate added to maintain freshness, vitamin a acetate, vitamin d3), nitrogen. contain live and active culture</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>- fat free yogurt (cultured pasteurized grade a nonfat milk, kosher gelatin, lactic acid esters of mono and diglycerides, citric acid, malic acid, yogurt cultures (l. bulgaricus, s. thermophilus), acesulfame potassium, natural flavor, sucralose) → fat free yogurt (cultured pasteurized grade a nonfat milk, kosher gelatin, lactic acid ester of mono and diglycerides, citric acid, malic acid, yogurt culture (l. bulgaricus, s. thermophilus), acesulfame potassium, natural flavor, sucralose) (singular)
+          <t>- lactic acid esters of mono and diglycerides → lactic acid ester of mono and diglycerides (singular)
+- yogurt cultures → yogurt culture (singular)
+- l. bulgaricus → l bulgaricus (96%)
+- s. thermophilus → s thermophilus (97%)
 - nitrogen. contains live and active cultures → nitrogen. contain live and active culture (singular)</t>
         </is>
       </c>
@@ -3574,7 +3624,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>flatbread (enriched wheat flour (wheat flour, malted barley flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, "00" flour, contains less than 2% of: yeast, olive oil, salt, canola oil, sugar, wheat gluten, calcium propionate (mold inhibitor), sodium stearoyl lactylate, vinegar), low moisture whole milk mozzarella and provolone cheeses (pasteurized milk, cheese cultures, salt, enzymes, powdered cellulose (prevent caking), potassium sorbate and natamycin (preservatives)), sauce (crushed tomatoes, salt, soybean oil, olive oil, romano cheese (whey powder and cows milk), spices, garlic powder, citric acid), pepperoni (pork, beef, water, textured vegetable protein product (soy protein concentrate, zinc oxide, niacinamide, ferrous sulfate, copper gluconate, vitamin a palmitate, calcium pantothenate, thiamine mononitrate (b1),pyridoxine hydrochloride (b6), riboflavin (b2), and cyanocobalamin (b12), salt, contains 2% or less of: spices, dextrose, lactic acid starter culture, oleoresin of paprika, flavoring, sodium nitrite, bha, bht, citric acid), spice blend (salt, spices, onion, garlic, natural flavors, parsley)</t>
+          <t>flatbread (enriched wheat flour (wheat flour, malted barley flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, "00" flour, less than 2% of: yeast, olive oil, salt, canola oil, sugar, wheat gluten, calcium propionate (mold inhibitor), sodium stearoyl lactylate, vinegar), low moisture whole milk mozzarella and provolone cheeses (pasteurized milk, cheese cultures, salt, enzymes, powdered cellulose (prevent caking), potassium sorbate and natamycin (preservatives)), sauce (crushed tomatoes, salt, soybean oil, olive oil, romano cheese (whey powder and cows milk), spices, garlic powder, citric acid), pepperoni (pork, beef, water, textured vegetable protein product (soy protein concentrate, zinc oxide, niacinamide, ferrous sulfate, copper gluconate, vitamin a palmitate, calcium pantothenate, thiamine mononitrate (b1), pyridoxine hydrochloride (b6), riboflavin (b2), and cyanocobalamin (b12), salt, 2% or less of: spices, dextrose, lactic acid starter culture, oleoresin of paprika, flavoring, sodium nitrite, bha, bht, citric acid), spice blend (salt, spices, onion, garlic, natural flavors, parsley)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3594,14 +3644,13 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>barbeque sauce, water, tomato paste, sugar, less than 2% of the following, salt, modified corn starch, spice, paprika, xanthan gum, onion and garlic powder, caramel color, spice extract, partially hydrogenated soybean oil, vinegar. pork and chicken rib shaped patty, pork, chicken, water, textured soy protein concentrate, less than 2% of the following, tomato powder, sugar, salt, sodium phosphate, vinegar powder (maltodextrin, modified food starch, vinegar solids), hydrolyzed soy protein, spice, onion powder, garlic powder, wheat flour, nonfat dry milk, natural hickory smoke flavor</t>
+          <t>barbeque sauce: water, tomato paste, sugar, less than 2% of the following: salt, modified corn starch, spice, paprika, xanthan gum, onion and garlic powder, caramel color, spice extract, partially hydrogenated soybean oil, vinegar. pork and chicken rib shaped patties: pork, chicken, water, textured soy protein concentrate, less than 2% of the following: tomato powder, sugar, salt, sodium phosphate, vinegar powder (maltodextrin, modified food starch, vinegar solids), hydrolyzed soy protein, spice, onion powder, garlic powder, wheat flour, nonfat dry milk, natural hickory smoke flavor</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
           <t>- spices → spice (singular)
-- vinegar. pork and chicken rib shaped patties → vinegar. pork and chicken rib shaped patty (singular)
-(PAREN) - vinegar solids → vinegar solid (singular)
+- vinegar solids → vinegar solid (singular)
 - spices → spice (singular)</t>
         </is>
       </c>
@@ -3617,7 +3666,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>water, green bean, kidney bean, wax bean, sugar, distilled vinegar, less than 2% of the following, dehydrated onion, red bell pepper, salt, soybean oil, turmeric, ascorbic acid</t>
+          <t>water, green bean, kidney bean, wax bean, sugar, distilled vinegar, less than 2% of the following: dehydrated onion, red bell pepper, salt, soybean oil, turmeric, ascorbic acid</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3625,7 +3674,7 @@
           <t>- green beans → green bean (singular)
 - kidney beans → kidney bean (singular)
 - wax beans → wax bean (singular)
-- dehydrated onions → dehydrated onion (singular)
+- less than 2% of the following: dehydrated onions → less than 2% of the following: dehydrated onion (singular)
 - red bell peppers → red bell pepper (singular)</t>
         </is>
       </c>
@@ -3646,10 +3695,10 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>(PAREN) - spices → spice (singular)
-(PAREN) - natural flavors → natural flavor (singular)
+          <t>- spices → spice (singular)
+- natural flavors → natural flavor (singular)
 - spices → spice (singular)
-- chipotle pepper  → chile pepper  (89%)</t>
+- chipotle pepper → chile pepper (89%)</t>
         </is>
       </c>
     </row>
@@ -3664,21 +3713,19 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>fully cooked chicken crumble, chicken, water, food starch, salt, natural flavoring. vegetable, water chestnut, onion, mushroom, green onion. stir fry sauce, water, soy sauce (water, wheat, soy bean, salt, lactic acid), oyster sauce (water, sugar, salt, oyster juice concentrate (oyster, water, salt), modified corn starch, alcohol, caramel color, fermented wheat protein, yeast extract, oyster extract), sesame oil, sugar, garlic puree (citric acid), ginger puree (ginger, water, citric acid), modified corn starch, caramel color, natural flavor. serving sauce, soy sauce (water, wheat, soybean, salt), sugar, rice vinegar, canola oil, cayenne pepper puree (cayenne pepper, salt, vinegar), sesame oil, sherry powder (maltodextrin, modified corn starch, sherry solids, corn syrup, malic acid, sorbic acid, sulfite, natural flavor), red chili pepper, xanthan gum, garlic powder, ginger powder</t>
+          <t>fully cooked chicken crumbles: chicken, water, food starch, salt, natural flavoring. vegetables: water chestnut, onion, mushroom, green onion. stir fry sauce: water, soy sauce (water, wheat, soy bean, salt, lactic acid), oyster sauce (water, sugar, salt, oyster juice concentrate (oyster, water, salt), modified corn starch, alcohol, caramel color, fermented wheat protein, yeast extract, oyster extract), sesame oil, sugar, garlic puree (citric acid), ginger puree (ginger, water, citric acid), modified corn starch, caramel color, natural flavor. serving sauce: soy sauce (water, wheat, soybean, salt), sugar, rice vinegar, canola oil, cayenne pepper puree (cayenne pepper, salt, vinegar), sesame oil, sherry powder (maltodextrin, modified corn starch, sherry solids, corn syrup, malic acid, sorbic acid, sulfite, natural flavor), red chili pepper, xanthan gum, garlic powder, ginger powder</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>- fully cooked chicken crumbles → fully cooked chicken crumble (singular)
-- natural flavoring. vegetables → natural flavoring. vegetable (singular)
-- natural flavoring. vegetable  → flavoring. vegetable  (72%)
-- water chestnuts → water chestnut (singular)
+          <t>- natural flavoring. vegetables: water chestnuts → natural flavoring. vegetables: water chestnut (singular)
+- natural flavoring. vegetables: water chestnut → flavoring. vegetables: water chestnut (64%)
 - onions → onion (singular)
 - mushrooms → mushroom (singular)
-(PAREN) - soy beans → soy bean (singular)
-(PAREN) - soybeans → soybean (singular)
-(PAREN) - sherry solids → sherry solid (singular)
-(PAREN) - sulfites → sulfite (singular)</t>
+- soy beans → soy bean (singular)
+- soybeans → soybean (singular)
+- sherry solids → sherry solid (singular)
+- sulfites → sulfite (singular)</t>
         </is>
       </c>
     </row>
@@ -3802,7 +3849,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>- modified cornstarch  → modified corn starch  (97%)
+          <t>- modified cornstarch → modified corn starch (97%)
 - nonfat milk solids → nonfat milk solid (singular)</t>
         </is>
       </c>
@@ -3818,17 +3865,18 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>peanut, raisin coated with less than 1% sunflower and/or canola oil, milk chocolate candy (milk chocolate (sugar, cocoa butter, chocolate liquor, whole milk powder, soy lecithin (an emulsifier), and vanilla), sugar, artificial color (blue 1, blue 1 lake, blue 2 lake, yellow 5, yellow 5 lake, yellow 6, yellow 6 lake, red 40, red 40 lake, sorbitol, titanium dioxide phosphoric acid, methyl and propyl parabens), corn syrup, wax and dextrin), almond, cashew, vegetable oil (peanut, cottonseed, soybean and/or sunflower seed), sea salt</t>
+          <t>peanut, raisin coated with less than 1% sunflower and/or canola oil, milk chocolate candy (milk chocolate (sugar, cocoa butter, chocolate liquor, whole milk powder, soy lecithin (an emulsifier), and vanilla), sugar, artificial color (blue 1, blue 1 lake, blue 2 lake, yellow 5, yellow 5 lake, yellow 6, yellow 6 lake, red 40, red 40 lake, sorbitol, titanium dioxide phosphoric acid, methyl and propyl paraben), corn syrup, wax and dextrin), almond, cashew, vegetable oil (peanut, cottonseed, soybean and/or sunflower seed), sea salt</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
           <t>- peanuts → peanut (singular)
 - raisins coated with less than 1% sunflower and/or canola oil → raisin coated with less than 1% sunflower and/or canola oil (singular)
-- milk chocolate candies (milk chocolate (sugar, cocoa butter, chocolate liquor, whole milk powder, soy lecithin (an emulsifier), and vanilla), sugar, artificial color (blue 1, blue 1 lake, blue 2 lake, yellow 5, yellow 5 lake, yellow 6, yellow 6 lake, red 40, red 40 lake, sorbitol, titanium dioxide phosphoric acid, methyl and propyl parabens), corn syrup, wax and dextrin) → milk chocolate candy (milk chocolate (sugar, cocoa butter, chocolate liquor, whole milk powder, soy lecithin (an emulsifier), and vanilla), sugar, artificial color (blue 1, blue 1 lake, blue 2 lake, yellow 5, yellow 5 lake, yellow 6, yellow 6 lake, red 40, red 40 lake, sorbitol, titanium dioxide phosphoric acid, methyl and propyl parabens), corn syrup, wax and dextrin) (singular)
+- milk chocolate candies → milk chocolate candy (singular)
+- methyl and propyl parabens → methyl and propyl paraben (singular)
 - almonds → almond (singular)
 - cashews → cashew (singular)
-- seasalt  → sea salt  (93%)</t>
+- seasalt → sea salt (93%)</t>
         </is>
       </c>
     </row>
@@ -3843,20 +3891,24 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>raisin coated with less than 1% sunflower and/or canola oil, sweetened banana chip (banana, expeller pressed coconut oil, sugar and natural flavor), peanut, dried sweetened pineapple (sugar, pineapple, contains 2% or less of the following: citric acid, calcium chloride (improves texture), sodium metabisulfite (as preservative)), mango flavored pineapple coin (sugar, pineapple, contains 2% or less of the following: citric acid, sodium metabisulfite (as preservative), artificial mango flavor, yellow 5, yellow 6), almond, dried sweetened strawberries (strawberries, sugar, rice flour, citric acid, red 40, sulfur dioxide (color retention)), dried sweetened cranberry (cranberry, sugar, sunflower oil), dried sweetened cherry (red tart pitted cherry, sugar and sunflower oil), vegetable oil (peanut, cottonseed, soybean and/or sunflower seed), sea salt</t>
+          <t>raisin coated with less than 1% sunflower and/or canola oil, sweetened banana chip (banana, expeller pressed coconut oil, sugar and natural flavor), peanut, dried sweetened pineapple (sugar, pineapple, 2% or less of the following: citric acid, calcium chloride (improves texture), sodium metabisulfite (preservative)), mango flavored pineapple coin (sugar, pineapple, 2% or less of the following: citric acid, sodium metabisulfite (preservative), artificial mango flavor, yellow 5, yellow 6), almond, dried sweetened strawberry (strawberry, sugar, rice flour, citric acid, red 40, sulfur dioxide (color retention)), dried sweetened cranberry (cranberry, sugar, sunflower oil), dried sweetened cherry (red tart pitted cherry, sugar and sunflower oil), vegetable oil (peanut, cottonseed, soybean and/or sunflower seed), sea salt</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
           <t>- raisins coated with less than 1% sunflower and/or canola oil → raisin coated with less than 1% sunflower and/or canola oil (singular)
-(PAREN) - bananas → banana (singular)
 - sweetened banana chips → sweetened banana chip (singular)
+- bananas → banana (singular)
 - peanuts → peanut (singular)
+- as preservative → preservative (89%)
+- as preservative → preservative (89%)
 - almonds → almond (singular)
-(PAREN) - cranberries → cranberry (singular)
+- dried sweetened strawberries → dried sweetened strawberry (singular)
+- strawberries → strawberry (singular)
 - dried sweetened cranberries → dried sweetened cranberry (singular)
-(PAREN) - red tart pitted cherries → red tart pitted cherry (singular)
-- dried sweetened cherries → dried sweetened cherry (singular)</t>
+- cranberries → cranberry (singular)
+- dried sweetened cherries → dried sweetened cherry (singular)
+- red tart pitted cherries → red tart pitted cherry (singular)</t>
         </is>
       </c>
     </row>
@@ -3908,7 +3960,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>- modified cornstarch  → modified corn starch  (97%)
+          <t>- modified cornstarch → modified corn starch (97%)
 - nonfat milk solids → nonfat milk solid (singular)
 - blueberries → blueberry (singular)
 - strawberries → strawberry (singular)
@@ -4085,7 +4137,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>enriched flour (wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, sunflower and/or canola oil, (contains ascorbic acid and rosemary extract for freshness), high fructose corn syrup, salt, leavening (baking soda, ammonium bicarbonate), natural and artificial flavor, soy lecithin (emulsifier), sodium metabisulfite (dough conditioner)</t>
+          <t>enriched flour (wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, sunflower and/or canola oil (ascorbic acid and rosemary extract for freshness), high fructose corn syrup, salt, leavening (baking soda, ammonium bicarbonate), natural and artificial flavor, soy lecithin (emulsifier), sodium metabisulfite (dough conditioner)</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -4121,12 +4173,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>enriched flour (bleached wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, vegetable oil (one or more of the following, palm, canola, soybean with tbhq for freshness), dextrose, high fructose corn syrup, corn flour, two percent or less of, cocoa (processed with alkali), corn starch, salt, leavening (baking soda, calcium phosphate), soy lecithin (emulsifier), artificial color (yellow 5, yellow 6), natural and artificial flavor</t>
+          <t>enriched flour (bleached wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, vegetable oil (one or more of the following: palm, canola, soybean with tbhq for freshness), dextrose, high fructose corn syrup, corn flour, two percent or less of: cocoa (processed with alkali), corn starch, salt, leavening (baking soda, calcium phosphate), soy lecithin (emulsifier), artificial color (yellow 5, yellow 6), natural and artificial flavor</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>- cornstarch  → corn starch  (95%)
+          <t>- cornstarch → corn starch (95%)
 - natural and artificial flavors → natural and artificial flavor (singular)</t>
         </is>
       </c>
@@ -4142,12 +4194,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>enriched flour (bleached wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, vegetable oil (one or more of the following, palm, canola, soybean with tbhq for freshness), dextrose, high fructose corn syrup, corn flour, two percent or less of, cocoa (processed with alkali), corn starch, salt, leavening (baking soda, calcium phosphate), soy lecithin (emulsifier), artificial color (yellow 5, yellow 6), natural and artificial flavor</t>
+          <t>enriched flour (bleached wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, vegetable oil (one or more of the following: palm, canola, soybean with tbhq for freshness), dextrose, high fructose corn syrup, corn flour, two percent or less of: cocoa (processed with alkali), corn starch, salt, leavening (baking soda, calcium phosphate), soy lecithin (emulsifier), artificial color (yellow 5, yellow 6), natural and artificial flavor</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>- cornstarch  → corn starch  (95%)
+          <t>- cornstarch → corn starch (95%)
 - natural and artificial flavors → natural and artificial flavor (singular)</t>
         </is>
       </c>
@@ -4163,12 +4215,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>enriched flour (bleached wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, vegetable oil (one or more of the following, palm, canola, soybean with tbhq for freshness), high fructose corn syrup, dextrose, two percent or less of, corn flour, salt, corn starch, leavening (baking soda, calcium phosphate), soy lecithin (emulsifier), artificial color (yellow 5, yellow 6), citric acid, natural and artificial flavor</t>
+          <t>enriched flour (bleached wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, vegetable oil (one or more of the following: palm, canola, soybean with tbhq for freshness), high fructose corn syrup, dextrose, two percent or less of: corn flour, salt, corn starch, leavening (baking soda, calcium phosphate), soy lecithin (emulsifier), artificial color (yellow 5, yellow 6), citric acid, natural and artificial flavor</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>- cornstarch  → corn starch  (95%)
+          <t>- cornstarch → corn starch (95%)
 - natural and artificial flavors → natural and artificial flavor (singular)</t>
         </is>
       </c>
@@ -4184,13 +4236,15 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>enriched flour (bleached wheat flour, niacin, iron, thiamin mononitrate, riboflavin, folic acid), sugar, palm oil and/or canola oil and/or soybean oil and/or high oleic canola oil with citric acid and tbhq added to preserve freshness, high fructose corn syrup, dextrose, peanut butter (peanuts, fully hydrogenated vegetable oil (rapeseed, cottonseed and soybean) to prevent separation), 2% or less of, salt, leavening (baking soda, calcium phosphate), corn starch, natural and artificial flavor, soy lecithin, yellow 5, yellow 6</t>
+          <t>enriched flour (bleached wheat flour, niacin, iron, thiamin mononitrate, riboflavin, folic acid), sugar, palm oil and/or canola oil and/or soybean oil and/or high oleic canola oil with citric acid and tbhq added to preserve freshness, high fructose corn syrup, dextrose, peanut butter (peanut, hydrogenated vegetable oil (rapeseed, cottonseed and soybean), to prevent separation), 2% or less of: salt, leavening (baking soda, calcium phosphate), corn starch, natural and artificial flavor, soy lecithin, yellow 5, yellow 6</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>- peanut butter (peanuts, fully hydrogenated vegetable oils (rapeseed, cottonseed and soybean) to prevent separation) → peanut butter (peanuts, fully hydrogenated vegetable oil (rapeseed, cottonseed and soybean) to prevent separation) (singular)
-- cornstarch  → corn starch  (95%)</t>
+          <t>- peanuts → peanut (singular)
+- fully hydrogenated vegetable oils → fully hydrogenated vegetable oil (singular)
+- fully hydrogenated vegetable oil → hydrogenated vegetable oil (90%)
+- cornstarch → corn starch (95%)</t>
         </is>
       </c>
     </row>
@@ -4205,12 +4259,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>enriched flour (bleached wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, vegetable oil (one or more of the following, palm, canola, soybean with tbhq for freshness), high fructose corn syrup, dextrose, two percent or less of, corn flour, corn starch, salt, soy lecithin (emulsifier), leavening (baking soda, calcium phosphate), artificial color (yellow 5, yellow 6), natural and artificial flavor</t>
+          <t>enriched flour (bleached wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, vegetable oil (one or more of the following: palm, canola, soybean with tbhq for freshness), high fructose corn syrup, dextrose, two percent or less of: corn flour, corn starch, salt, soy lecithin (emulsifier), leavening (baking soda, calcium phosphate), artificial color (yellow 5, yellow 6), natural and artificial flavor</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>- cornstarch  → corn starch  (95%)
+          <t>- cornstarch → corn starch (95%)
 - natural and artificial flavors → natural and artificial flavor (singular)</t>
         </is>
       </c>
@@ -4226,21 +4280,21 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>sugar, whey (milk), enriched bleached flour (wheat flour, niacin, reduced iron, thiamin mononitrate, riboflavin, folic acid), dextrose, high fructose corn syrup, hydrogenated palm kernel oil, vegetable shortening (palm and soybean oil), corn syrup, egg white, cocoa (natural and processed with alkali), egg, 2% or less of each of the following, wheat protein isolate, wheat flour, caramel color, salt, leavening (sodium acid pyrophosphate, sodium bicarbonate, corn starch, monocalcium phosphate), malt extract, emulsifier (propylene glycol esters of fatty acids, monoglyceride, stearoyl lactylic acid), modified corn starch, egg yolk, guar gum, water, maltodextrin, natural and artificial flavor, polysorbate 60, cellulose gum, titanium dioxide (color), enzyme, soy lecithin, mono and diglycerides, phosphoric acid, preserved with sodium propionate, sorbic acid and potassium sorbate</t>
+          <t>sugar, whey (milk), enriched bleached flour (wheat flour, niacin, reduced iron, thiamin mononitrate, riboflavin, folic acid), dextrose, high fructose corn syrup, hydrogenated palm kernel oil, vegetable shortening (palm and soybean oil), corn syrup, egg white, cocoa (natural and processed with alkali), egg, 2% or less of each of the following: wheat protein isolate, wheat flour, caramel color, salt, leavening (sodium acid pyrophosphate, sodium bicarbonate, corn starch, monocalcium phosphate), malt extract, emulsifier (propylene glycol esters of fatty acids, monoglyceride, stearoyl lactylic acid), modified corn starch, egg yolk, guar gum, water, maltodextrin, natural and artificial flavor, polysorbate 60, cellulose gum, titanium dioxide (color), enzyme, soy lecithin, mono and diglycerides, phosphoric acid, preserved with sodium propionate, sorbic acid and potassium sorbate</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
           <t>- egg whites → egg white (singular)
 - eggs → egg (singular)
-(PAREN) - cornstarch  → corn starch  (95%)
-(PAREN) - propylene glycol esters of fatty acids → propylene glycol esters of fatty acid (singular)
-(PAREN) - monoglycerides  → monoglyceride  (96%)
+- cornstarch → corn starch (95%)
 - emulsifiers → emulsifier (singular)
+- propylene glycol esters of fatty acids → propylene glycol esters of fatty acid (singular)
+- monoglycerides → monoglyceride (96%)
 - egg yolks → egg yolk (singular)
 - natural and artificial flavors → natural and artificial flavor (singular)
 - enzymes → enzyme (singular)
-- mono- and diglycerides  → mono and diglycerides  (98%)</t>
+- mono- and diglycerides → mono and diglycerides (98%)</t>
         </is>
       </c>
     </row>
@@ -4255,18 +4309,18 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>enriched flour (wheat flour, niacin, reduced iron, thiamine mononitrate, riboflavin, folic acid), high fructose corn syrup, water, palm oil and fractionated palm oil, sugar, less than 2 % of each of the following, vegetable shortening (palm oil, mono and diglycerides, polysorbate 60), cocoa processed with alkali, food starch modified, salt, corn starch, vegetable shortening (interesterified soybean oil, hydrogenated cottonseed oil), preservative (sodium propionate, potassium sorbate, sodium benzoate), corn syrup, soybean oil, dextrose, wheat flour, malted barley flour, titanium dioxide color, glucono delta lactone, sodium stearoyl lactylate, chocolate liquor, xanthan gum, artificial flavor, calcium carbonate, sodium alginate, corn syrup solids, citric acid, agar, yellow 5, yellow 6, propylene glycol, maltodextrin, wheat starch, soy lecithin, mono and diglycerides, sorbitan monostearate, baking soda</t>
+          <t>enriched flour (wheat flour, niacin, reduced iron, thiamine mononitrate, riboflavin, folic acid), high fructose corn syrup, water, palm oil and fractionated palm oil, sugar, less than 2 % of each of the following: vegetable shortening (palm oil, mono and diglycerides, polysorbate 60), cocoa processed with alkali, food starch modified, salt, corn starch, vegetable shortening (interesterified soybean oil, hydrogenated cottonseed oil), preservative (sodium propionate, potassium sorbate, sodium benzoate), corn syrup, soybean oil, dextrose, wheat flour, malted barley flour, titanium dioxide color, glucono delta lactone, sodium stearoyl lactylate, chocolate liquor, xanthan gum, artificial flavor, calcium carbonate, sodium alginate, corn syrup solids, citric acid, agar, yellow 5, yellow 6, propylene glycol, maltodextrin, wheat starch, soy lecithin, mono and diglycerides, sorbitan monostearate, baking soda</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>(PAREN) - mono- and diglycerides  → mono and diglycerides  (98%)
-- food starch-modified  → food starch modified  (95%)
-(PAREN) - interesterfied soybean oil  → interesterified soybean oil  (98%)
+          <t>- mono- and diglycerides → mono and diglycerides (98%)
+- food starch-modified → food starch modified (95%)
+- interesterfied soybean oil → interesterified soybean oil (98%)
 - preservatives → preservative (singular)
 - artificial flavors → artificial flavor (singular)
 - corn syrup solids → corn syrup solid (singular)
-- mono- and diglycerides  → mono and diglycerides  (98%)</t>
+- mono- and diglycerides → mono and diglycerides (98%)</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4335,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>wheat flour, sugar, high fructose corn syrup, partially hydrogenated soybean oil, water, 2% or less of the following, cocoa powder (processed with alkali), egg, salt, sodium bicarbonate, natural and artificial flavor, soy lecithin</t>
+          <t>wheat flour, sugar, high fructose corn syrup, partially hydrogenated soybean oil, water, 2% or less of the following: cocoa powder (processed with alkali), egg, salt, sodium bicarbonate, natural and artificial flavor, soy lecithin</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -4302,7 +4356,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>enriched flour (wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, vegetable oil (one or more of the following, canola, palm, soybean with tbhq for freshness), 2% or less of, whey (from milk), egg (caret), natural and artificial flavor, salt, baking soda, soy lecithin (emulsifier)</t>
+          <t>enriched flour (wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, vegetable oil (one or more of the following: canola, palm, soybean with tbhq for freshness), 2% or less of: whey (from milk), egg (caret), natural and artificial flavor, salt, baking soda, soy lecithin (emulsifier)</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -4547,13 +4601,13 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>water, sugar, vegetable oil (high oleic soybean and/or high oleic canola), less than 2% of, sodium caseinate (milk derivative), mono and diglycerides, corn syrup solids, dipotassium phosphate, sodium stearoyl lactylate, carrageenan, natural and artificial flavor, polysorbate 60</t>
+          <t>water, sugar, vegetable oil (high oleic soybean and/or high oleic canola), less than 2% of: sodium caseinate (milk derivative), mono and diglycerides, corn syrup solids, dipotassium phosphate, sodium stearoyl lactylate, carrageenan, natural and artificial flavor, polysorbate 60</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>(PAREN) - a milk derivative  → milk derivative  (94%)
-- mono- and diglycerides  → mono and diglycerides  (98%)
+          <t>- a milk derivative → milk derivative (94%)
+- mono- and diglycerides → mono and diglycerides (98%)
 - corn syrup solids → corn syrup solid (singular)</t>
         </is>
       </c>
@@ -4569,13 +4623,13 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>water, sugar, vegetable oil (high oleic soybean and/or high oleic canola), less than 2% of, sodium caseinate (milk derivative), mono and diglycerides, corn syrup solids, dipotassium phosphate, sodium stearoyl lactylate, carrageenan, natural and artificial flavor, polysorbate 60</t>
+          <t>water, sugar, vegetable oil (high oleic soybean and/or high oleic canola), less than 2% of: sodium caseinate (milk derivative), mono and diglycerides, corn syrup solids, dipotassium phosphate, sodium stearoyl lactylate, carrageenan, natural and artificial flavor, polysorbate 60</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>(PAREN) - a milk derivative  → milk derivative  (94%)
-- mono- and diglycerides  → mono and diglycerides  (98%)
+          <t>- a milk derivative → milk derivative (94%)
+- mono- and diglycerides → mono and diglycerides (98%)
 - corn syrup solids → corn syrup solid (singular)</t>
         </is>
       </c>
@@ -4591,13 +4645,13 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>water, sugar, vegetable oil (high oleic canola oil and/or high oleic soybean oil), less than 2% of, sodium caseinate (milk derivative), artificial color, sodium citrate, potassium phosphate, mono and diglycerides, carrageenan, natural and artificial flavor, polysorbate 60</t>
+          <t>water, sugar, vegetable oil (high oleic canola oil and/or high oleic soybean oil), less than 2% of: sodium caseinate (milk derivative), artificial color, sodium citrate, potassium phosphate, mono and diglycerides, carrageenan, natural and artificial flavor, polysorbate 60</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>(PAREN) - a milk derivative  → milk derivative  (94%)
-- mono- and diglycerides  → mono and diglycerides  (98%)</t>
+          <t>- a milk derivative → milk derivative (94%)
+- mono- and diglycerides → mono and diglycerides (98%)</t>
         </is>
       </c>
     </row>
@@ -4612,13 +4666,13 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, corn syrup, dextrose, leavening (baking soda, sodium acid pyrophosphate). contains 2% or less of each of the following, beef tallow, salt, modified wheat starch, potassium chloride, artificial flavor, white corn flour, vegetable oil (soybean and/or cottonseed oil), potassium sorbate and tbhq and citric acid (preservative), soy flour</t>
+          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, corn syrup, dextrose, leavening (baking soda, sodium acid pyrophosphate), . contains 2% or less of each of the following: beef tallow, salt, modified wheat starch, potassium chloride, artificial flavor, white corn flour, vegetable oil (soybean and/or cottonseed oil), potassium sorbate and tbhq and citric acid (preservative), soy flour</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>(PAREN) - soybean and/or cottonseed oils → soybean and/or cottonseed oil (singular)
-(PAREN) - preservatives → preservative (singular)</t>
+          <t>- soybean and/or cottonseed oils → soybean and/or cottonseed oil (singular)
+- preservatives → preservative (singular)</t>
         </is>
       </c>
     </row>
@@ -4633,14 +4687,14 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, vegetable oil (palm, soybean and/or cottonseed oil), dextrose, sugar, leavening (sodium acid pyrophosphate, baking soda, sodium aluminum phosphate), 2% or less of each of the following, modified wheat starch, salt, xanthan gum, potassium chloride, artificial flavor, potassium sorbate and citric acid (preservative)</t>
+          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, vegetable oil (palm, soybean and/or cottonseed oil), dextrose, sugar, leavening (sodium acid pyrophosphate, baking soda, sodium aluminum phosphate), 2% or less of each of the following: modified wheat starch, salt, xanthan gum, potassium chloride, artificial flavor, potassium sorbate and citric acid (preservative)</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>(PAREN) - soybean and/or cottonseed oils → soybean and/or cottonseed oil (singular)
+          <t>- soybean and/or cottonseed oils → soybean and/or cottonseed oil (singular)
 - artificial flavors → artificial flavor (singular)
-(PAREN) - preservatives → preservative (singular)</t>
+- preservatives → preservative (singular)</t>
         </is>
       </c>
     </row>
@@ -4655,14 +4709,14 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, vegetable oil (palm, soybean and/or cottonseed oil), sugar, leavening (baking soda, sodium acid pyrophosphate, sodium aluminum phosphate, aluminum sulfate), dextrose. contains 2% or less of each of the following, potassium chloride, salt, wheat gluten, sodium stearoyl lactylate, xanthan gum, propylene glycol alginate, artificial flavor, sodium alginate, potassium sorbate and tbhq (preservative), colored with (yellow 5, caramel color, yellow 6), soy flour</t>
+          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, vegetable oil (palm, soybean and/or cottonseed oil), sugar, leavening (baking soda, sodium acid pyrophosphate, sodium aluminum phosphate, aluminum sulfate), dextrose. contains 2% or less of each of the following: potassium chloride, salt, wheat gluten, sodium stearoyl lactylate, xanthan gum, propylene glycol alginate, artificial flavor, sodium alginate, potassium sorbate and tbhq (preservative), colored with (yellow 5, caramel color, yellow 6), soy flour</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>(PAREN) - soybean and/or cottonseed oils → soybean and/or cottonseed oil (singular)
-(PAREN) - backing soda  → baking soda  (96%)
-(PAREN) - preservatives → preservative (singular)</t>
+          <t>- soybean and/or cottonseed oils → soybean and/or cottonseed oil (singular)
+- backing soda → baking soda (96%)
+- preservatives → preservative (singular)</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4731,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), wheat starch, lard and hydrogenated lard with bht added to protect flavor, water, sugar. contains 2% or less of each of the following, salt, xanthan gum, colored with (yellow 5, red 40), citric acid and sodium propionate and potassium sorbate added to retard spoilage, soy flour</t>
+          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), wheat starch, lard and hydrogenated lard with bht added to protect flavor, water, sugar. contains 2% or less of each of the following: salt, xanthan gum, colored with (yellow 5, red 40), citric acid and sodium propionate and potassium sorbate added to retard spoilage, soy flour</t>
         </is>
       </c>
       <c r="D215" t="inlineStr"/>
@@ -4693,14 +4747,14 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, sugar, shortening (palm oil, canola oil, mono &amp; diglycerides, polysorbate 60), soybean oil, 2% or less of, leavening (sodium acid pyrophosphate, baking soda, sodium aluminum phosphate), cinnamon, dextrose, molasses, salt, corn starch, potassium chloride, natural &amp; artificial flavor, wheat gluten, gum (xanthan, carob bean, and guar), sodium stearoyl lactylate, polysorbate 60, sorbic acid and potassium sorbate (preservative)</t>
+          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, sugar, shortening (palm oil, canola oil, mono &amp; diglycerides, polysorbate 60), soybean oil, 2% or less of: leavening (sodium acid pyrophosphate, baking soda, sodium aluminum phosphate), cinnamon, dextrose, molasses, salt, corn starch, potassium chloride, natural &amp; artificial flavor, wheat gluten, gum (xanthan, carob bean, and guar), sodium stearoyl lactylate, polysorbate 60, sorbic acid and potassium sorbate (preservative)</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
           <t>- natural &amp; artificial flavors → natural &amp; artificial flavor (singular)
 - gums → gum (singular)
-(PAREN) - preservatives → preservative (singular)</t>
+- preservatives → preservative (singular)</t>
         </is>
       </c>
     </row>
@@ -4715,16 +4769,17 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, water, vegetable oil (palm, soybean and/or cottonseed oils). contains 2% or less of each of the following, leavening (baking soda, sodium acid pyrophosphate, sodium aluminum phosphate), corn syrup, cinnamon, egg, salt, corn starch, modified wheat starch, mono and diglycerides, natural and artificial flavor, maltodextrin, gum (xanthan, guar, carob bean), polysorbate 60, sorbic acid citric acid (preservative), colored with (yellow 5, yellow 6), soy flour</t>
+          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, water, vegetable oil (palm, soybean and/or cottonseed oil), . contains 2% or less of each of the following: leavening (baking soda, sodium acid pyrophosphate, sodium aluminum phosphate), corn syrup, cinnamon, egg, salt, corn starch, modified wheat starch, mono and diglycerides, natural and artificial flavor, maltodextrin, gum (xanthan, guar, carob bean), polysorbate 60, sorbic acid citric acid (preservative), colored with (yellow 5, yellow 6), soy flour</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>- eggs → egg (singular)
-- mono- and diglycerides  → mono and diglycerides  (98%)
+          <t>- soybean and/or cottonseed oils → soybean and/or cottonseed oil (singular)
+- eggs → egg (singular)
+- mono- and diglycerides → mono and diglycerides (98%)
 - natural and artificial flavors → natural and artificial flavor (singular)
 - gums → gum (singular)
-(PAREN) - preservatives → preservative (singular)</t>
+- preservatives → preservative (singular)</t>
         </is>
       </c>
     </row>
@@ -4739,7 +4794,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, sugar, vegetable oil (palm, soybean and/or cottonseed oils), leavening (sodium acid pyrophosphate, baking soda, sodium aluminum (phosphate). contains 2% or less of each of the following: corn syrup, dextrose, corn starch, cinnamon, salt, potassium chloride, wheat gluten, natural and artificial flavors, gums (xanthan, guar, carob bean), sodium stearoyl lactylate, polysorbate 60, autolyzed yeast, yeast, mono- and diglycerides, potassium sorbate and sorbic acid and citric acid (preservatives), colored with (yellow 5, yellow 6, caramel color), soy flour</t>
+          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, sugar, vegetable oil (palm, soybean and/or cottonseed oils), leavening (sodium acid pyrophosphate, baking soda, sodium aluminum (phosphate), . contains 2% or less of each of the following: corn syrup, dextrose, corn starch, cinnamon, salt, potassium chloride, wheat gluten, natural and artificial flavors, gums (xanthan, guar, carob bean), sodium stearoyl lactylate, polysorbate 60, autolyzed yeast, yeast, mono- and diglycerides, potassium sorbate and sorbic acid and citric acid (preservatives), colored with (yellow 5, yellow 6, caramel color), soy flour</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -4759,12 +4814,12 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, vegetable oil (palm, soybean and/or cottonseed oil), buttermilk, dextrose, leavening (baking soda, sodium acid pyrophosphate, sodium aluminum phosphate, aluminum sulfate). contains 2% or less of each of the following, sugar, modified wheat starch, salt, potassium chloride, xanthan gum, natural and artificial flavor, potassium sorbate (preservative), soy flour</t>
+          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, vegetable oil (palm, soybean and/or cottonseed oil), buttermilk, dextrose, leavening (baking soda, sodium acid pyrophosphate, sodium aluminum phosphate, aluminum sulfate), . contains 2% or less of each of the following: sugar, modified wheat starch, salt, potassium chloride, xanthan gum, natural and artificial flavor, potassium sorbate (preservative), soy flour</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>(PAREN) - soybean and/or cottonseed oils → soybean and/or cottonseed oil (singular)</t>
+          <t>- soybean and/or cottonseed oils → soybean and/or cottonseed oil (singular)</t>
         </is>
       </c>
     </row>
@@ -4779,12 +4834,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>unbleached enriched flour (wheat flour, malted barley flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2) folic acid), water, palm oil, salt, mono and diglycerides, wheat flour, sodium bicarbonate, calcium propionate, sodium aluminum sulfate, dextrose, fumaric acid, sodium aluminum phosphate, potassium sorbate, corn starch, monocalcium phosphate, calcium sulfate, less than 2% of the following, cellulose, cmc gum, sodium metabisulfite, wheat starch, soybean oil, hydrogenated soybean oil, monocalcium phosphate, xanthan gum, enzyme</t>
+          <t>unbleached enriched flour (wheat flour, malted barley flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, palm oil, salt, mono and diglycerides, wheat flour, sodium bicarbonate, calcium propionate, sodium aluminum sulfate, dextrose, fumaric acid, sodium aluminum phosphate, potassium sorbate, corn starch, monocalcium phosphate, calcium sulfate, less than 2% of the following: cellulose, cmc gum, sodium metabisulfite, wheat starch, soybean oil, hydrogenated soybean oil, monocalcium phosphate, xanthan gum, enzyme</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>- mono- and diglycerides  → mono and diglycerides  (98%)
+          <t>- mono- and diglycerides → mono and diglycerides (98%)
 - enzymes → enzyme (singular)</t>
         </is>
       </c>
@@ -4800,12 +4855,12 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>unbleached enriched flour (wheat flour, malted barley flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2) folic acid), water, palm oil, salt, mono and diglycerides, wheat flour, sodium bicarbonate, calcium propionate, sodium aluminum sulfate, dextrose, fumaric acid, sodium aluminum phosphate, potassium sorbate, corn starch, monocalcium phosphate, calcium sulfate, less than 2% of the following, cellulose, cmc gum, sodium metabisulfite, wheat starch, soybean oil, hydrogenated soybean oil, monocalcium phosphate, xanthan gum, enzyme</t>
+          <t>unbleached enriched flour (wheat flour, malted barley flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, palm oil, salt, mono and diglycerides, wheat flour, sodium bicarbonate, calcium propionate, sodium aluminum sulfate, dextrose, fumaric acid, sodium aluminum phosphate, potassium sorbate, corn starch, monocalcium phosphate, calcium sulfate, less than 2% of the following: cellulose, cmc gum, sodium metabisulfite, wheat starch, soybean oil, hydrogenated soybean oil, monocalcium phosphate, xanthan gum, enzyme</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>- mono- and diglycerides  → mono and diglycerides  (98%)
+          <t>- mono- and diglycerides → mono and diglycerides (98%)
 - enzymes → enzyme (singular)</t>
         </is>
       </c>
@@ -4821,12 +4876,12 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>unbleached enriched flour (wheat flour, malted barley flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, palm oil, salt, mono and diglycerides, wheat flour, sodium bicarbonate, calcium propionate, sodium aluminum sulfate, dextrose, fumaric acid, sodium aluminum phosphate, potassium sorbate, corn starch, monocalcium phosphate, calcium sulfate, less than 2% of the following, cellulose, cmc gum, sodium metabisulfite, wheat starch, soybean oil, hydrogenated soybean oil, monocalcium phosphate, xanthan gum, enzyme</t>
+          <t>unbleached enriched flour (wheat flour, malted barley flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, palm oil, salt, mono and diglycerides, wheat flour, sodium bicarbonate, calcium propionate, sodium aluminum sulfate, dextrose, fumaric acid, sodium aluminum phosphate, potassium sorbate, corn starch, monocalcium phosphate, calcium sulfate, less than 2% of the following: cellulose, cmc gum, sodium metabisulfite, wheat starch, soybean oil, hydrogenated soybean oil, monocalcium phosphate, xanthan gum, enzyme</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>- mono- and diglycerides  → mono and diglycerides  (98%)
+          <t>- mono- and diglycerides → mono and diglycerides (98%)
 - enzymes → enzyme (singular)</t>
         </is>
       </c>
@@ -4842,13 +4897,13 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>whole wheat flour, water, palm oil, salt, mono and diglycerides, wheat flour, sodium bicarbonate calcium propionate, sodium aluminum sulfate, dextrose, fumaric acid, sodium aluminum phosphate, potassium sorbate, corn starch, monocalcium phosphate, wheat flour, calcium sulfate, less than 2% of the following, cellulose, cmc gum, sodium metabisulfite, wheat starch, soybean oil, hydrogenated soybean oil, monocalcium phosphate, xanthan gum, enzyme</t>
+          <t>whole wheat flour, water, palm oil, salt, mono and diglycerides, wheat flour, sodium bicarbonate calcium propionate, sodium aluminum sulfate, dextrose, fumaric acid, sodium aluminum phosphate, potassium sorbate, corn starch, monocalcium phosphate, wheat flour, calcium sulfate, less than 2% of the following: cellulose, cmc gum, sodium metabisulfite, wheat starch, soybean oil, hydrogenated soybean oil, monocalcium phosphate, xanthan gum, enzyme</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>- mono- and diglycerides  → mono and diglycerides  (98%)
-- wheatstarch  → wheat starch  (96%)
+          <t>- mono- and diglycerides → mono and diglycerides (98%)
+- wheatstarch → wheat starch (96%)
 - enzymes → enzyme (singular)</t>
         </is>
       </c>
@@ -4864,12 +4919,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>unbleached enriched flour (wheat flour, malted barley flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2)folic acid), water, palm oil, salt, mono and diglycerides, wheat flour, sodium bicarbonate, calcium propionate, sodium aluminum sulfate, dextrose, fumaric acid, sodium aluminum phosphate, potassium sorbate, corn starch, monocalcium phosphate, calcium sulfate, less than 2% of the following, cellulose, cmc gum, sodium metabisulfite, wheat starch, soybean oil, hydrogenated soybean oil, monocalcium phosphate, xanthan gum, enzyme</t>
+          <t>unbleached enriched flour (wheat flour, malted barley flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, palm oil, salt, mono and diglycerides, wheat flour, sodium bicarbonate, calcium propionate, sodium aluminum sulfate, dextrose, fumaric acid, sodium aluminum phosphate, potassium sorbate, corn starch, monocalcium phosphate, calcium sulfate, less than 2% of the following: cellulose, cmc gum, sodium metabisulfite, wheat starch, soybean oil, hydrogenated soybean oil, monocalcium phosphate, xanthan gum, enzyme</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>- mono- and diglycerides  → mono and diglycerides  (98%)
+          <t>- mono- and diglycerides → mono and diglycerides (98%)
 - enzymes → enzyme (singular)</t>
         </is>
       </c>
@@ -4885,12 +4940,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>whole wheat flour, water, canola oil, wheat gluten, oat fiber, defatted soy flour, corn starch, whole wheat flour, soybean oil, soy protein isolate, calcium sulfate, salt, sesame seed flour, sodium acid pyrophosphate, less than 2% of the following, sodium bicarbonate, calcium propionate, potassium sorbate, fumaric acid, hydrogenated soybean oil, mono and diglycerides, sucralose, sodium metabisulfite</t>
+          <t>whole wheat flour, water, canola oil, wheat gluten, oat fiber, defatted soy flour, corn starch, whole wheat flour, soybean oil, soy protein isolate, calcium sulfate, salt, sesame seed flour, sodium acid pyrophosphate, less than 2% of the following: sodium bicarbonate, calcium propionate, potassium sorbate, fumaric acid, hydrogenated soybean oil, mono and diglycerides, sucralose, sodium metabisulfite</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>- mono- and diglycerides  → mono and diglycerides  (98%)</t>
+          <t>- mono- and diglycerides → mono and diglycerides (98%)</t>
         </is>
       </c>
     </row>
@@ -4921,12 +4976,12 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>unbleached enriched flour (wheat flour, malted barley flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2) folic acid), water, palm oil, salt, mono and diglycerides, wheat flour, sodium bicarbonate, calcium propionate, sodium aluminum sulfate, dextrose, fumaric acid, sodium aluminum phosphate, potassium sorbate, corn starch, monocalcium phosphate, calcium sulfate, less than 2% of the following, cellulose, cmc gum, sodium metabisulfite, wheat starch, soybean oil, hydrogenated soybean oil, monocalcium phosphate, xanthan gum, enzyme</t>
+          <t>unbleached enriched flour (wheat flour, malted barley flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, palm oil, salt, mono and diglycerides, wheat flour, sodium bicarbonate, calcium propionate, sodium aluminum sulfate, dextrose, fumaric acid, sodium aluminum phosphate, potassium sorbate, corn starch, monocalcium phosphate, calcium sulfate, less than 2% of the following: cellulose, cmc gum, sodium metabisulfite, wheat starch, soybean oil, hydrogenated soybean oil, monocalcium phosphate, xanthan gum, enzyme</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>- mono - and diglycerides  → mono and diglycerides  (95%)
+          <t>- mono - and diglycerides → mono and diglycerides (95%)
 - enzymes → enzyme (singular)</t>
         </is>
       </c>
@@ -4967,7 +5022,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>(PAREN) - enzymes → enzyme (singular)</t>
+          <t>- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -4987,7 +5042,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>(PAREN) - enzymes → enzyme (singular)</t>
+          <t>- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -5007,9 +5062,9 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>(PAREN) - cheese cultures → cheese culture (singular)
-(PAREN) - enzymes → enzyme (singular)
-(PAREN) - enzymes → enzyme (singular)</t>
+          <t>- cheese cultures → cheese culture (singular)
+- enzymes → enzyme (singular)
+- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -5029,7 +5084,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>(PAREN) - enzymes → enzyme (singular)</t>
+          <t>- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5104,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>(PAREN) - enzymes → enzyme (singular)</t>
+          <t>- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -5069,7 +5124,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>(PAREN) - enzymes → enzyme (singular)
+          <t>- enzymes → enzyme (singular)
 - annatto and oleores in paprika color → annatto and oleore in paprika color (singular)</t>
         </is>
       </c>
@@ -5090,7 +5145,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>(PAREN) - enzymes → enzyme (singular)</t>
+          <t>- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -5110,7 +5165,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>(PAREN) - enzymes → enzyme (singular)</t>
+          <t>- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -5161,12 +5216,16 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>monterey jack cheese (pasteurized milk, cheese culture, salt, enzyme), cheddar cheese (pasteurized milk, cheese culture, salt, enzymes, annatto (color)), asadero cheese (pasteurized milk, cheese culture, salt, enzymes) quesadilla cheese (pasteurized milk, cheese culture, salt, enzymes). potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>monterey jack cheese (pasteurized milk, cheese culture, salt, enzyme), cheddar cheese (pasteurized milk, cheese culture, salt, enzyme, annatto (color)), asadero cheese (pasteurized milk, cheese culture, salt, enzyme), quesadilla cheese (pasteurized milk, cheese culture, salt, enzyme), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>(PAREN) - enzymes → enzyme (singular)</t>
+          <t>- enzymes → enzyme (singular)
+- enzymes → enzyme (singular)
+- enzymes → enzyme (singular)
+- enzymes → enzyme (singular)
+- . potato starch → potato starch (93%)</t>
         </is>
       </c>
     </row>
@@ -5201,12 +5260,13 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color). potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>- enzymes → enzyme (singular)</t>
+          <t>- enzymes → enzyme (singular)
+- . potato starch → potato starch (93%)</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5286,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>- pasteurized part-skim milk  → pasteurized part skim milk  (96%)
+          <t>- pasteurized part-skim milk → pasteurized part skim milk (96%)
 - enzymes → enzyme (singular)</t>
         </is>
       </c>
@@ -5242,14 +5302,16 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>low moisture part skim mozzarella cheese (pasteurized part skim milk, cheese culture, salt, enzyme), cheddar cheese (pasteurized milk, cheese culture, salt, enzymes, annatto (color)). potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>low moisture part skim mozzarella cheese (pasteurized part skim milk, cheese culture, salt, enzyme), cheddar cheese (pasteurized milk, cheese culture, salt, enzyme, annatto (color)), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>(PAREN) - pasteurized part-skim milk  → pasteurized part skim milk  (96%)
-(PAREN) - enzymes → enzyme (singular)
-- low-moisture part-skim mozzarella cheese (pasteurized part skim milk, cheese culture, salt, enzyme) → low moisture part skim mozzarella cheese (pasteurized part skim milk, cheese culture, salt, enzyme) (95%)</t>
+          <t>- low-moisture part-skim mozzarella cheese → low moisture part skim mozzarella cheese (95%)
+- pasteurized part-skim milk → pasteurized part skim milk (96%)
+- enzymes → enzyme (singular)
+- enzymes → enzyme (singular)
+- . potato starch → potato starch (93%)</t>
         </is>
       </c>
     </row>
@@ -5264,14 +5326,15 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>monterey jack cheese (pasteurized milk, cheese culture, salt, enzyme), cheddar cheese (pasteurized milk, cheese culture, salt, enzymes, annatto (color)), taco spice blend (maltodextrin, spice, torula yeast, salt, onion powder, paprika, garlic powder, citric acid, extractives of paprika, silicon dioxide), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
+          <t>monterey jack cheese (pasteurized milk, cheese culture, salt, enzyme), cheddar cheese (pasteurized milk, cheese culture, salt, enzyme, annatto (color)), taco spice blend (maltodextrin, spice, torula yeast, salt, onion powder, paprika, garlic powder, citric acid, extractives of paprika, silicon dioxide), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>(PAREN) - enzymes → enzyme (singular)
-(PAREN) - spices → spice (singular)
-(PAREN) - silicone dioxide  → silicon dioxide  (97%)</t>
+          <t>- enzymes → enzyme (singular)
+- enzymes → enzyme (singular)
+- spices → spice (singular)
+- silicone dioxide → silicon dioxide (97%)</t>
         </is>
       </c>
     </row>
@@ -5403,7 +5466,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>- pasteurized part-skim milk  → pasteurized part skim milk  (96%)</t>
+          <t>- pasteurized part-skim milk → pasteurized part skim milk (96%)</t>
         </is>
       </c>
     </row>
@@ -5443,7 +5506,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>- pasteurized part-skim milk  → pasteurized part skim milk  (96%)</t>
+          <t>- pasteurized part-skim milk → pasteurized part skim milk (96%)</t>
         </is>
       </c>
     </row>
@@ -5484,7 +5547,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>- pasteurized part-skim milk  → pasteurized part skim milk  (96%)</t>
+          <t>- pasteurized part-skim milk → pasteurized part skim milk (96%)</t>
         </is>
       </c>
     </row>
@@ -5499,10 +5562,15 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>reduced fat mozzarella cheese (pasteurized part-skim milk cheese culture, salt enzymes). potato starch, corn starch, calcium sulfate added to prevent caking natamycin (a natural mold inhibitor)</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr"/>
+          <t>reduced fat mozzarella cheese (pasteurized part-skim milk cheese culture, salt enzyme), potato starch, corn starch, calcium sulfate added to prevent caking natamycin (a natural mold inhibitor)</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>- salt enzymes → salt enzyme (singular)
+- . potato starch → potato starch (93%)</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -5515,10 +5583,16 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>reduced fat cheddar cheese (pasteurized part-skim milk, cheese culture, salt, enzymes, annatto (vegetable color), vitamin a palmitate). potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr"/>
+          <t>reduced fat cheddar cheese (pasteurized part skim milk, cheese culture, salt, enzyme, annatto (vegetable color), vitamin a palmitate), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>- pasteurized part-skim milk → pasteurized part skim milk (96%)
+- enzymes → enzyme (singular)
+- . potato starch → potato starch (93%)</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -5531,15 +5605,20 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>reduced fat monterey jack cheese (pasteurized part skim milk, cheese culture, salt, enzyme, vitamin a palmitate), reduced fat cheddar cheese (pasteurized part-skim milk, cheese culture, salt, enzymes, annatto (color), vitamin a palmitate), reduced fat asadero cheese (pasteurized part skim milk, cheese culture, salt, enzyme), reduced fat quesadilla cheese (pasteurized part-skim milk, cheese culture, salt, enzymes). potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>reduced fat monterey jack cheese (pasteurized part skim milk, cheese culture, salt, enzyme, vitamin a palmitate), reduced fat cheddar cheese (pasteurized part skim milk, cheese culture, salt, enzyme, annatto (color), vitamin a palmitate), reduced fat asadero cheese (pasteurized part skim milk, cheese culture, salt, enzyme), reduced fat quesadilla cheese (pasteurized part skim milk, cheese culture, salt, enzyme), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>(PAREN) - pasteurized part-skim milk  → pasteurized part skim milk  (96%)
-(PAREN) - enzymes → enzyme (singular)
-(PAREN) - pasteurized part-skim milk  → pasteurized part skim milk  (96%)
-(PAREN) - enzymes → enzyme (singular)</t>
+          <t>- pasteurized part-skim milk → pasteurized part skim milk (96%)
+- enzymes → enzyme (singular)
+- pasteurized part-skim milk → pasteurized part skim milk (96%)
+- enzymes → enzyme (singular)
+- pasteurized part-skim milk → pasteurized part skim milk (96%)
+- enzymes → enzyme (singular)
+- pasteurized part-skim milk → pasteurized part skim milk (96%)
+- enzymes → enzyme (singular)
+- . potato starch → potato starch (93%)</t>
         </is>
       </c>
     </row>
@@ -5554,12 +5633,13 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color). potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>- enzymes → enzyme (singular)</t>
+          <t>- enzymes → enzyme (singular)
+- . potato starch → potato starch (93%)</t>
         </is>
       </c>
     </row>
@@ -5574,12 +5654,14 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>sharp cheddar cheese (pasteurized milk, cheese culture, salt, enzyme), mild cheddar cheese (pasteurized milk, cheese culture, salt, enzymes, annatto (vegetable color)). potato starch, corn starch and calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>sharp cheddar cheese (pasteurized milk, cheese culture, salt, enzyme), mild cheddar cheese (pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color)), potato starch, corn starch and calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>(PAREN) - enzymes → enzyme (singular)</t>
+          <t>- enzymes → enzyme (singular)
+- enzymes → enzyme (singular)
+- . potato starch → potato starch (93%)</t>
         </is>
       </c>
     </row>
@@ -5594,12 +5676,13 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color). potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>- enzymes → enzyme (singular)</t>
+          <t>- enzymes → enzyme (singular)
+- . potato starch → potato starch (93%)</t>
         </is>
       </c>
     </row>
@@ -5614,13 +5697,17 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>monterey jack cheese (pasteurized milk, cheese culture, salt, enzyme), cheddar cheese (pasteurized milk, cheese culture, salt, enzymes, annatto (color)), asadero cheese (pasteurized milk, cheese culture, salt, enzymes) queso quesadilla cheese (pasteurized milk, cheese culture salt, enzymes). potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>monterey jack cheese (pasteurized milk, cheese culture, salt, enzyme), cheddar cheese (pasteurized milk, cheese culture, salt, enzyme, annatto (color)), asadero cheese (pasteurized milk, cheese culture, salt, enzyme), queso quesadilla cheese (pasteurized milk, cheese culture salt, enzyme), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>(PAREN) - enzymes → enzyme (singular)
-- monterrey jack cheese (pasteurized milk, cheese culture, salt, enzyme) → monterey jack cheese (pasteurized milk, cheese culture, salt, enzyme) (98%)</t>
+          <t>- monterrey jack cheese → monterey jack cheese (98%)
+- enzymes → enzyme (singular)
+- enzymes → enzyme (singular)
+- enzymes → enzyme (singular)
+- enzymes → enzyme (singular)
+- . potato starch → potato starch (93%)</t>
         </is>
       </c>
     </row>
@@ -5635,10 +5722,14 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>colby and monterey jack cheese (pasteurized milk, cheese culture, salt, enzymes, annatto (vegetable color))</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr"/>
+          <t>colby and monterey jack cheese (pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color))</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>- enzymes → enzyme (singular)</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -5691,7 +5782,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>100% fruit juice from concentrate concentrate (filtered water, concentrated pineapple juice, concentrate apple juice, concentrated orange juice), ascorbic acid (vitamin c), citric acid</t>
+          <t>100% fruit juice from concentrate (filtered water, concentrated pineapple juice, concentrate apple juice, concentrated orange juice), ascorbic acid (vitamin c), citric acid</t>
         </is>
       </c>
       <c r="D266" t="inlineStr"/>
@@ -5707,7 +5798,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>100% fruit juice from concentrate concentrate (filtered water, concentrated orange juice, concentrated apple juice, concentrated white grape juice, mango puree, peach puree, concentrated lemon juice), natural flavor, ascorbic acid (vitamin c)</t>
+          <t>100% fruit juice from concentrate (filtered water, concentrated orange juice, concentrated apple juice, concentrated white grape juice, mango puree, peach puree, concentrated lemon juice), natural flavor, ascorbic acid (vitamin c)</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -5835,7 +5926,7 @@
       <c r="D273" t="inlineStr">
         <is>
           <t>- red and green jalapeno peppers → red and green jalapeno pepper (singular)
-- red and green jalapeno pepper  → cured green jalapeno pepper  (REJECTED) (89%)
+- red and green jalapeno pepper → cured green jalapeno pepper (REJECTED) (89%)
 - cheese cultures → cheese culture (singular)
 - enzymes → enzyme (singular)</t>
         </is>
@@ -5852,7 +5943,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>monterey jack cheese (pasteurized milk, cheese culture, salt, enzymes), cheddar cheese (pasteurized milk, cheese culture, salt, enzymes, annatto (color)), asadero cheese (pasteurized), milk, cheese culture, salt, enzymes) queso quesadilla cheese (pasteurized) milk, cheese culture, salt, enzymes), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>monterey jack cheese (pasteurized milk, cheese culture, salt, enzymes), cheddar cheese (pasteurized milk, cheese culture, salt, enzymes, annatto (color)), asadero cheese (pasteurized), milk, cheese culture, salt, enzymes), queso quesadilla cheese (pasteurized), milk, cheese culture, salt, enzymes), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -5897,7 +5988,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>(PAREN) - enzymes → enzyme (singular)</t>
+          <t>- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -5957,7 +6048,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>- pasteurized part-skim milk  → pasteurized part skim milk  (96%)
+          <t>- pasteurized part-skim milk → pasteurized part skim milk (96%)
 - enzymes → enzyme (singular)</t>
         </is>
       </c>
@@ -5978,7 +6069,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>- pasteurized part-skim milk  → pasteurized part skim milk  (96%)
+          <t>- pasteurized part-skim milk → pasteurized part skim milk (96%)
 - enzymes → enzyme (singular)</t>
         </is>
       </c>
@@ -5999,7 +6090,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>- pasteurized part-skim milk  → pasteurized part skim milk  (96%)
+          <t>- pasteurized part-skim milk → pasteurized part skim milk (96%)
 - enzymes → enzyme (singular)</t>
         </is>
       </c>
@@ -6040,9 +6131,9 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>(PAREN) - pasteurized part-skim milk  → pasteurized part skim milk  (96%)
-(PAREN) - enzymes → enzyme (singular)
-(PAREN) - enzymes → enzyme (singular)</t>
+          <t>- pasteurized part-skim milk → pasteurized part skim milk (96%)
+- enzymes → enzyme (singular)
+- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6232,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>- pasteurized part-skim milk  → pasteurized part skim milk  (96%)
+          <t>- pasteurized part-skim milk → pasteurized part skim milk (96%)
 - cheese cultures → cheese culture (singular)
 - enzymes → enzyme (singular)</t>
         </is>
@@ -6224,7 +6315,7 @@
       <c r="D292" t="inlineStr">
         <is>
           <t>- red and green jalapeno peppers → red and green jalapeno pepper (singular)
-- red and green jalapeno pepper  → cured green jalapeno pepper  (REJECTED) (89%)
+- red and green jalapeno pepper → cured green jalapeno pepper (REJECTED) (89%)
 - enzymes → enzyme (singular)</t>
         </is>
       </c>
@@ -6245,7 +6336,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>- pasteurized part-skim milk  → pasteurized part skim milk  (96%)
+          <t>- pasteurized part-skim milk → pasteurized part skim milk (96%)
 - enzymes → enzyme (singular)</t>
         </is>
       </c>
@@ -6401,12 +6492,13 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color). natamycin (a natural mold inhibitor)</t>
+          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color), natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>- enzymes → enzyme (singular)</t>
+          <t>- enzymes → enzyme (singular)
+- . natamycin → natamycin (90%)</t>
         </is>
       </c>
     </row>
@@ -6426,9 +6518,9 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>(PAREN) - pasteurized part-skim milk  → pasteurized part skim milk  (96%)
-(PAREN) - enzymes → enzyme (singular)
-- low-moisture part-skim mozzarella cheese (pasteurized part skim milk, cheese culture, salt, enzyme) → low moisture part skim mozzarella cheese (pasteurized part skim milk, cheese culture, salt, enzyme) (95%)</t>
+          <t>- low-moisture part-skim mozzarella cheese → low moisture part skim mozzarella cheese (95%)
+- pasteurized part-skim milk → pasteurized part skim milk (96%)
+- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -6443,10 +6535,14 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>muenster cheese (pasteurized milk, cheese culture, salt, enzymes, annatto (vegetable color))</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr"/>
+          <t>muenster cheese (pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color))</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>- enzymes → enzyme (singular)</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -6464,10 +6560,10 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>(PAREN) - red green jalapeno peppers → red green jalapeno pepper (singular)
-(PAREN) - red green jalapeno pepper  → cured green jalapeno pepper  (96%)
-(PAREN) - enzymes → enzyme (singular)
-- monterey jack cheese with jalapeno peppers → monterey jack cheese with jalapeno pepper (singular)</t>
+          <t>- monterey jack cheese with jalapeno peppers → monterey jack cheese with jalapeno pepper (singular)
+- red green jalapeno peppers → red green jalapeno pepper (singular)
+- red green jalapeno pepper → cured green jalapeno pepper (96%)
+- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -6487,7 +6583,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>(PAREN) - enzymes → enzyme (singular)</t>
+          <t>- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -6507,8 +6603,8 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>(PAREN) - pasteurized part-skim milk  → pasteurized part skim milk  (96%)
-(PAREN) - enzymes → enzyme (singular)</t>
+          <t>- pasteurized part-skim milk → pasteurized part skim milk (96%)
+- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -6629,7 +6725,7 @@
       <c r="D312" t="inlineStr">
         <is>
           <t>- red and green jalapeno peppers → red and green jalapeno pepper (singular)
-- red and green jalapeno pepper  → cured green jalapeno pepper  (REJECTED) (89%)
+- red and green jalapeno pepper → cured green jalapeno pepper (REJECTED) (89%)
 - cheese cultures → cheese culture (singular)
 - enzymes → enzyme (singular)</t>
         </is>
@@ -6651,7 +6747,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>- pasteurized part-skim milk  → pasteurized part skim milk  (96%)
+          <t>- pasteurized part-skim milk → pasteurized part skim milk (96%)
 - enzymes → enzyme (singular)</t>
         </is>
       </c>
@@ -6788,12 +6884,16 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>monterey jack cheese (pasteurized milk, cheese culture, salt, enzyme), cheddar cheese (pasteurized milk, cheese culture, salt, enzymes, annatto (color)), taco spice blend (maltodextrin, spices, torula yeast, salt, onion powder, paprika, garlic powder, citric acid, extractives of paprika, silicone dioxide). potato starch, cornstarch and calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
+          <t>monterey jack cheese (pasteurized milk, cheese culture, salt, enzyme), cheddar cheese (pasteurized milk, cheese culture, salt, enzyme, annatto (color)), taco spice blend (maltodextrin, spice, torula yeast, salt, onion powder, paprika, garlic powder, citric acid, extractives of paprika, silicon dioxide), potato starch, cornstarch and calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>(PAREN) - enzymes → enzyme (singular)</t>
+          <t>- enzymes → enzyme (singular)
+- enzymes → enzyme (singular)
+- spices → spice (singular)
+- silicone dioxide → silicon dioxide (97%)
+- . potato starch → potato starch (93%)</t>
         </is>
       </c>
     </row>
@@ -6813,7 +6913,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>(PAREN) - enzymes → enzyme (singular)
+          <t>- enzymes → enzyme (singular)
 - sodium phosphates → sodium phosphate (singular)</t>
         </is>
       </c>
@@ -6861,13 +6961,16 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>parmesan cheese, (pasteurized part-skim cow's milk, cheese cultures, salt, enzymes), reduced fat imitation parmesan cheese, (food starch, water, milk fat, cellulose, maltodextrin, salt, natural flavor, caseinate, sodium phosphate, lactic acid, stabilizer (mono- and diglycerides, guar gum, carrageenan)), powdered cellulose added to prevent caking, potassium sorbate added to protect flavor</t>
+          <t>parmesan cheese (pasteurized part-skim cow's milk, cheese culture, salt, enzyme), reduced fat imitation parmesan cheese: (food starch, water, milkfat, cellulose, maltodextrin, salt, natural flavor, caseinate, sodium phosphate, lactic acid, stabilizer (mono and diglycerides, guar gum, carrageenan)), powdered cellulose added to prevent caking, potassium sorbate added to protect flavor</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>(PAREN) - cheese cultures → cheese culture (singular)
-(PAREN) - enzymes → enzyme (singular)</t>
+          <t>- parmesan cheese: → parmesan cheese (97%)
+- cheese cultures → cheese culture (singular)
+- enzymes → enzyme (singular)
+- milk fat → milkfat (93%)
+- mono- and diglycerides → mono and diglycerides (98%)</t>
         </is>
       </c>
     </row>
@@ -6887,8 +6990,8 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>(PAREN) - cheese cultures → cheese culture (singular)
-(PAREN) - enzymes → enzyme (singular)</t>
+          <t>- cheese cultures → cheese culture (singular)
+- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -6908,8 +7011,8 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>(PAREN) - cheese cultures → cheese culture (singular)
-(PAREN) - enzymes → enzyme (singular)</t>
+          <t>- cheese cultures → cheese culture (singular)
+- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -6929,9 +7032,9 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>(PAREN) - cheese cultures → cheese culture (singular)
-(PAREN) - enzymes → enzyme (singular)
-- parmesan and romano cheese made from cow's milk → parmesan and romano cheese made from cow' milk (singular)</t>
+          <t>- parmesan and romano cheese made from cow's milk → parmesan and romano cheese made from cow' milk (singular)
+- cheese cultures → cheese culture (singular)
+- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -6951,8 +7054,8 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>(PAREN) - cheese cultures → cheese culture (singular)
-(PAREN) - enzymes → enzyme (singular)</t>
+          <t>- cheese cultures → cheese culture (singular)
+- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -7045,7 +7148,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>- modified cornstarch  → modified corn starch  (97%)</t>
+          <t>- modified cornstarch → modified corn starch (97%)</t>
         </is>
       </c>
     </row>
@@ -7065,7 +7168,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>- modified cornstarch  → modified corn starch  (97%)</t>
+          <t>- modified cornstarch → modified corn starch (97%)</t>
         </is>
       </c>
     </row>
@@ -7086,9 +7189,9 @@
       <c r="D335" t="inlineStr">
         <is>
           <t>- cultured pasteurized grade a nonfat milk and nonfat milk solids. contains active yogurt cultures with l. bulgaricus → cultured pasteurized grade a nonfat milk and nonfat milk solids. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- l. acidophilus  → l acidophilus  (96%)
-- l. casei  → l casei  (93%)</t>
+- s. thermophilus → s thermophilus (97%)
+- l. acidophilus → l acidophilus (96%)
+- l. casei → l casei (93%)</t>
         </is>
       </c>
     </row>
@@ -7109,9 +7212,9 @@
       <c r="D336" t="inlineStr">
         <is>
           <t>- cultured pasteurized grade a lowfat milk and nonfat milk solids. contains active yogurt cultures with l. bulgaricus → cultured pasteurized grade a lowfat milk and nonfat milk solids. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- l. acidophilus  → l acidophilus  (96%)
-- l. casei  → l casei  (93%)</t>
+- s. thermophilus → s thermophilus (97%)
+- l. acidophilus → l acidophilus (96%)
+- l. casei → l casei (93%)</t>
         </is>
       </c>
     </row>
@@ -7133,10 +7236,10 @@
         <is>
           <t>- nonfat milk solids → nonfat milk solid (singular)
 - vanilla. contains active yogurt cultures with l. bulgaricus → vanilla. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- l. acidophilus  → l acidophilus  (96%)
+- s. thermophilus → s thermophilus (97%)
+- l. acidophilus → l acidophilus (96%)
 - l. casei cultures → l. casei culture (singular)
-- l. casei culture  → l casei culture  (97%)</t>
+- l. casei culture → l casei culture (97%)</t>
         </is>
       </c>
     </row>
@@ -7158,10 +7261,10 @@
         <is>
           <t>- nonfat milk solids → nonfat milk solid (singular)
 - vanilla. contains active yogurt cultures with l. bulgaricus → vanilla. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- l. acidophilus  → l acidophilus  (96%)
+- s. thermophilus → s thermophilus (97%)
+- l. acidophilus → l acidophilus (96%)
 - l. casei cultures → l. casei culture (singular)
-- l. casei culture  → l casei culture  (97%)</t>
+- l. casei culture → l casei culture (97%)</t>
         </is>
       </c>
     </row>
@@ -7182,14 +7285,14 @@
       <c r="D339" t="inlineStr">
         <is>
           <t>- nonfat milk solids → nonfat milk solid (singular)
-- modified cornstarch  → modified corn starch  (97%)
+- modified cornstarch → modified corn starch (97%)
 - natural flavors → natural flavor (singular)
 - vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- bifidobacterium bb-12  → bifidobacterium bb 12  (95%)
-- l. acidophilus  → l acidophilus  (96%)
+- s. thermophilus → s thermophilus (97%)
+- bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
+- l. acidophilus → l acidophilus (96%)
 - l. casei cultures → l. casei culture (singular)
-- l. casei culture  → l casei culture  (97%)</t>
+- l. casei culture → l casei culture (97%)</t>
         </is>
       </c>
     </row>
@@ -7210,14 +7313,14 @@
       <c r="D340" t="inlineStr">
         <is>
           <t>- nonfat milk solids → nonfat milk solid (singular)
-- modified cornstarch  → modified corn starch  (97%)
+- modified cornstarch → modified corn starch (97%)
 - natural flavors → natural flavor (singular)
 - vitamin a palmitate and vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin a palmitate and vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- bifidobacterium bb-12  → bifidobacterium bb 12  (95%)
-- l. acidophilus  → l acidophilus  (96%)
+- s. thermophilus → s thermophilus (97%)
+- bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
+- l. acidophilus → l acidophilus (96%)
 - l. casei cultures → l. casei culture (singular)
-- l. casei culture  → l casei culture  (97%)</t>
+- l. casei culture → l casei culture (97%)</t>
         </is>
       </c>
     </row>
@@ -7232,17 +7335,17 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, sugar, strawberry, pectin, carob bean gum, natural flavor, citric acid, vegetable juice (for color). contain live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
+          <t>cultured pasteurized grade a nonfat milk, sugar, strawberry, pectin, carob bean gum, natural flavor, citric acid, vegetable juice (for color), . contain live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
           <t>- strawberries → strawberry (singular)
-(PAREN) - s. thermophilus  → s thermophilus  (97%)
-(PAREN) - l. bulgaricus  → l bulgaricus  (96%)
-(PAREN) - l. acidophilus  → l acidophilus  (96%)
-(PAREN) - l. casei  → l casei  (93%)
-- vegetable juice (for color). contains live and active cultures → vegetable juice (for color). contain live and active culture (singular)</t>
+- . contains live and active cultures → . contain live and active culture (singular)
+- s. thermophilus → s thermophilus (97%)
+- l. bulgaricus → l bulgaricus (96%)
+- l. acidophilus → l acidophilus (96%)
+- l. casei → l casei (93%)</t>
         </is>
       </c>
     </row>
@@ -7263,11 +7366,11 @@
       <c r="D342" t="inlineStr">
         <is>
           <t>- peaches → peach (singular)
-(PAREN) - s. thermophilus  → s thermophilus  (97%)
-(PAREN) - l. bulgaricus  → l bulgaricus  (96%)
-(PAREN) - l.acidophilus  → l acidophilus  (92%)
-(PAREN) - l. casei  → l casei  (93%)
-- lemon juice concentrate. contains live and active cultures → lemon juice concentrate. contain live and active culture (singular)</t>
+- lemon juice concentrate. contains live and active cultures → lemon juice concentrate. contain live and active culture (singular)
+- s. thermophilus → s thermophilus (97%)
+- l. bulgaricus → l bulgaricus (96%)
+- l.acidophilus → l acidophilus (92%)
+- l. casei → l casei (93%)</t>
         </is>
       </c>
     </row>
@@ -7289,9 +7392,9 @@
         <is>
           <t>- blueberries → blueberry (singular)
 - natural flavors → natural flavor (singular)
-(PAREN) - s. thermophilus  → s thermophilus  (97%)
-(PAREN) - l. bulgaricus  → l bulgaricus  (96%)
-- carob bean gum. contains live and active cultures → carob bean gum. contain live and active culture (singular)</t>
+- carob bean gum. contains live and active cultures → carob bean gum. contain live and active culture (singular)
+- s. thermophilus → s thermophilus (97%)
+- l. bulgaricus → l bulgaricus (96%)</t>
         </is>
       </c>
     </row>
@@ -7313,11 +7416,11 @@
         <is>
           <t>- raspberries → raspberry (singular)
 - raspberry seeds → raspberry seed (singular)
-(PAREN) - s.thermophilus  → s thermophilus  (93%)
-(PAREN) - l. bulgaricus  → l bulgaricus  (96%)
-(PAREN) - l. acidophilus  → l acidophilus  (96%)
-(PAREN) - l. casei  → l casei  (93%)
-- citric acid. contains live and active cultures → citric acid. contain live and active culture (singular)</t>
+- citric acid. contains live and active cultures → citric acid. contain live and active culture (singular)
+- s.thermophilus → s thermophilus (93%)
+- l. bulgaricus → l bulgaricus (96%)
+- l. acidophilus → l acidophilus (96%)
+- l. casei → l casei (93%)</t>
         </is>
       </c>
     </row>
@@ -7337,11 +7440,11 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>- cornstarch  → corn starch  (95%)
-(PAREN) - s. thermophilus  → s thermophilus  (97%)
-(PAREN) - l. acidophilus  → l acidophilus  (96%)
-(PAREN) - l. casei  → l casei  (93%)
-- vanilla extract. contains live and active cultures → vanilla extract. contain live and active culture (singular)</t>
+          <t>- cornstarch → corn starch (95%)
+- vanilla extract. contains live and active cultures → vanilla extract. contain live and active culture (singular)
+- s. thermophilus → s thermophilus (97%)
+- l. acidophilus → l acidophilus (96%)
+- l. casei → l casei (93%)</t>
         </is>
       </c>
     </row>
@@ -7362,10 +7465,10 @@
       <c r="D346" t="inlineStr">
         <is>
           <t>- cherries → cherry (singular)
-(PAREN) - s. thermophilus  → s thermophilus  (97%)
-(PAREN) - l. acidophilus  → l acidophilus  (96%)
-(PAREN) - l. casei  → l casei  (93%)
-- citric acid. contains live and active cultures → citric acid. contain live and active culture (singular)</t>
+- citric acid. contains live and active cultures → citric acid. contain live and active culture (singular)
+- s. thermophilus → s thermophilus (97%)
+- l. acidophilus → l acidophilus (96%)
+- l. casei → l casei (93%)</t>
         </is>
       </c>
     </row>
@@ -7385,11 +7488,11 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>(PAREN) - s. thermophilus  → s thermophilus  (97%)
-(PAREN) - l. bulgaricus  → l bulgaricus  (96%)
-(PAREN) - l. acidophilus  → l acidophilus  (96%)
-(PAREN) - l. casei  → l casei  (93%)
-- cultured pasteurized grade a nonfat milk. contains live and active cultures → cultured pasteurized grade a nonfat milk. contain live and active culture (singular)</t>
+          <t>- cultured pasteurized grade a nonfat milk. contains live and active cultures → cultured pasteurized grade a nonfat milk. contain live and active culture (singular)
+- s. thermophilus → s thermophilus (97%)
+- l. bulgaricus → l bulgaricus (96%)
+- l. acidophilus → l acidophilus (96%)
+- l. casei → l casei (93%)</t>
         </is>
       </c>
     </row>
@@ -7409,12 +7512,12 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>- cornstarch  → corn starch  (95%)
-(PAREN) - s. thermophilus  → s thermophilus  (97%)
-(PAREN) - l. bulgaricus  → l bulgaricus  (96%)
-(PAREN) - l. acidophilus  → l acidophilus  (96%)
-(PAREN) - l. casei  → l casei  (93%)
-- vanilla extract. contains live and active cultures → vanilla extract. contain live and active culture (singular)</t>
+          <t>- cornstarch → corn starch (95%)
+- vanilla extract. contains live and active cultures → vanilla extract. contain live and active culture (singular)
+- s. thermophilus → s thermophilus (97%)
+- l. bulgaricus → l bulgaricus (96%)
+- l. acidophilus → l acidophilus (96%)
+- l. casei → l casei (93%)</t>
         </is>
       </c>
     </row>
@@ -7429,16 +7532,16 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, sugar, pineapple juice concentrate, pectin, natural flavor, carob bean gum, turmeric(for color). contain live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
+          <t>cultured pasteurized grade a nonfat milk, sugar, pineapple juice concentrate, pectin, natural flavor, carob bean gum, turmeric (for color), . contain live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>(PAREN) - s. thermophilus  → s thermophilus  (97%)
-(PAREN) - l. bulgaricus  → l bulgaricus  (96%)
-(PAREN) - l. acidophilus  → l acidophilus  (96%)
-(PAREN) - l. casei  → l casei  (93%)
-- turmeric(for color). contains live and active cultures → turmeric(for color). contain live and active culture (singular)</t>
+          <t>- . contains live and active cultures → . contain live and active culture (singular)
+- s. thermophilus → s thermophilus (97%)
+- l. bulgaricus → l bulgaricus (96%)
+- l. acidophilus → l acidophilus (96%)
+- l. casei → l casei (93%)</t>
         </is>
       </c>
     </row>
@@ -7453,17 +7556,17 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, sugar, strawberry, banana puree, corn starch, pectin, vegetable juice (for color), natural flavor, lemon juice concentrate turmeric - (for color). contain live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
+          <t>cultured pasteurized grade a nonfat milk, sugar, strawberry, banana puree, corn starch, pectin, vegetable juice (for color), natural flavor, lemon juice concentrate turmeric - (for color), . contain live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
           <t>- strawberries → strawberry (singular)
-- cornstarch  → corn starch  (95%)
-(PAREN) - s. thermophilus  → s thermophilus  (97%)
-(PAREN) - l. acidophilus  → l acidophilus  (96%)
-(PAREN) - l. casei  → l casei  (93%)
-- lemon juice concentrate turmeric - (for color). contains live and active cultures → lemon juice concentrate turmeric - (for color). contain live and active culture (singular)</t>
+- cornstarch → corn starch (95%)
+- . contains live and active cultures → . contain live and active culture (singular)
+- s. thermophilus → s thermophilus (97%)
+- l. acidophilus → l acidophilus (96%)
+- l. casei → l casei (93%)</t>
         </is>
       </c>
     </row>
@@ -7483,12 +7586,12 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>- modified cornstarch  → modified corn starch  (97%)
+          <t>- modified cornstarch → modified corn starch (97%)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
 - vitamin d3. contains active yogurt with l. bulgaricus → vitamin d3. contain active yogurt with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- bifidobacterium bb-12  → bifidobacterium bb 12  (95%)
+- s. thermophilus → s thermophilus (97%)
+- bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
 - l acidophilus and l. casei cultures → l acidophilus and l. casei culture (singular)</t>
         </is>
       </c>
@@ -7509,12 +7612,12 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>- modified cornstarch  → modified corn starch  (97%)
+          <t>- modified cornstarch → modified corn starch (97%)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
 - vitamin d3. contains active yogurt with l. bulgaricus → vitamin d3. contain active yogurt with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- bifidobacterium bb-12  → bifidobacterium bb 12  (95%)
+- s. thermophilus → s thermophilus (97%)
+- bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
 - l. acidophilus and l. casei cultures → l. acidophilus and l. casei culture (singular)</t>
         </is>
       </c>
@@ -7535,12 +7638,12 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>- modified cornstarch  → modified corn starch  (97%)
+          <t>- modified cornstarch → modified corn starch (97%)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
 - vitamin d3. contains active yogurt with l. bulgaricus → vitamin d3. contain active yogurt with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- bifidobacterium bb-12  → bifidobacterium bb 12  (95%)
+- s. thermophilus → s thermophilus (97%)
+- bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
 - l. acidophilus and l. casei cultures → l. acidophilus and l. casei culture (singular)</t>
         </is>
       </c>
@@ -7556,7 +7659,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, strawberry, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus s. thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, strawberry, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness), . contain active yogurt culture with l. bulgaricus s. thermophilus, bifidus, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -7564,10 +7667,10 @@
           <t>- strawberries → strawberry (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- potassium sorbate (to maintain freshness). contains active yogurt cultures with l. bulgaricus s. thermophilus → potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus s. thermophilus (singular)
-- l. acidophilus  → l acidophilus  (96%)
+- . contains active yogurt cultures with l. bulgaricus s. thermophilus → . contain active yogurt culture with l. bulgaricus s. thermophilus (singular)
+- l. acidophilus → l acidophilus (96%)
 - l. casei cultures → l. casei culture (singular)
-- l. casei culture  → l casei culture  (97%)</t>
+- l. casei culture → l casei culture (97%)</t>
         </is>
       </c>
     </row>
@@ -7582,7 +7685,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, red raspberry, nonfat milk solids, natural flavor, pectin, citric acid, potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, red raspberry, nonfat milk solids, natural flavor, pectin, citric acid, potassium sorbate (to maintain freshness), . contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -7590,11 +7693,11 @@
           <t>- red raspberries → red raspberry (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- potassium sorbate (to maintain freshness). contains active yogurt cultures with l. bulgaricus → potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- l. acidophilus  → l acidophilus  (96%)
+- . contains active yogurt cultures with l. bulgaricus → . contain active yogurt culture with l. bulgaricus (singular)
+- s. thermophilus → s thermophilus (97%)
+- l. acidophilus → l acidophilus (96%)
 - l. casei cultures → l. casei culture (singular)
-- l. casei culture  → l casei culture  (97%)</t>
+- l. casei culture → l casei culture (97%)</t>
         </is>
       </c>
     </row>
@@ -7609,7 +7712,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, strawberry, blueberry, blackberry, red raspberry, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, strawberry, blueberry, blackberry, red raspberry, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness), . contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -7620,11 +7723,11 @@
 - red raspberries → red raspberry (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- potassium sorbate (to maintain freshness). contains active yogurt cultures with l. bulgaricus → potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- l. acidophilus  → l acidophilus  (96%)
+- . contains active yogurt cultures with l. bulgaricus → . contain active yogurt culture with l. bulgaricus (singular)
+- s. thermophilus → s thermophilus (97%)
+- l. acidophilus → l acidophilus (96%)
 - l. casei cultures → l. casei culture (singular)
-- l. casei culture  → l casei culture  (97%)</t>
+- l. casei culture → l casei culture (97%)</t>
         </is>
       </c>
     </row>
@@ -7639,7 +7742,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, peach, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, peach, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness), . contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -7647,11 +7750,11 @@
           <t>- peaches → peach (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- potassium sorbate (to maintain freshness). contains active yogurt cultures with l. bulgaricus → potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- l. acidophilus  → l acidophilus  (96%)
+- . contains active yogurt cultures with l. bulgaricus → . contain active yogurt culture with l. bulgaricus (singular)
+- s. thermophilus → s thermophilus (97%)
+- l. acidophilus → l acidophilus (96%)
 - l. casei cultures → l. casei culture (singular)
-- l. casei culture  → l casei culture  (97%)</t>
+- l. casei culture → l casei culture (97%)</t>
         </is>
       </c>
     </row>
@@ -7666,7 +7769,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, black sweet cherry, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, black sweet cherry, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness), . contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -7674,11 +7777,11 @@
           <t>- black sweet cherries → black sweet cherry (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- potassium sorbate (to maintain freshness). contains active yogurt cultures with l. bulgaricus → potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- l. acidophilus  → l acidophilus  (96%)
+- . contains active yogurt cultures with l. bulgaricus → . contain active yogurt culture with l. bulgaricus (singular)
+- s. thermophilus → s thermophilus (97%)
+- l. acidophilus → l acidophilus (96%)
 - l. casei cultures → l. casei culture (singular)
-- l. casei culture  → l casei culture  (97%)</t>
+- l. casei culture → l casei culture (97%)</t>
         </is>
       </c>
     </row>
@@ -7693,7 +7796,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, blueberry, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, blueberry, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness), . contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -7701,11 +7804,11 @@
           <t>- blueberries → blueberry (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- potassium sorbate (to maintain freshness). contains active yogurt cultures with l. bulgaricus → potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- l. acidophilus  → l acidophilus  (96%)
+- . contains active yogurt cultures with l. bulgaricus → . contain active yogurt culture with l. bulgaricus (singular)
+- s. thermophilus → s thermophilus (97%)
+- l. acidophilus → l acidophilus (96%)
 - l. casei cultures → l. casei culture (singular)
-- l. casei culture  → l casei culture  (97%)</t>
+- l. casei culture → l casei culture (97%)</t>
         </is>
       </c>
     </row>
@@ -7725,14 +7828,14 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>- modified cornstarch  → modified corn starch  (97%)
+          <t>- modified cornstarch → modified corn starch (97%)
 - natural flavors → natural flavor (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- bifidobacterium bb-12  → bifidobacterium bb 12  (95%)
-- l. acidophilus  → l acidophilus  (96%)
-- l. casei  → l casei  (93%)</t>
+- s. thermophilus → s thermophilus (97%)
+- bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
+- l. acidophilus → l acidophilus (96%)
+- l. casei → l casei (93%)</t>
         </is>
       </c>
     </row>
@@ -7752,15 +7855,15 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>- modified cornstarch  → modified corn starch  (97%)
+          <t>- modified cornstarch → modified corn starch (97%)
 - blueberries → blueberry (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
 - vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- bifidobacterium bb-12  → bifidobacterium bb 12  (95%)
-- l. acidophilus  → l acidophilus  (96%)
-- l. casei  → l casei  (93%)</t>
+- s. thermophilus → s thermophilus (97%)
+- bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
+- l. acidophilus → l acidophilus (96%)
+- l. casei → l casei (93%)</t>
         </is>
       </c>
     </row>
@@ -7781,13 +7884,13 @@
       <c r="D362" t="inlineStr">
         <is>
           <t>- peaches → peach (singular)
-- modified cornstarch  → modified corn starch  (97%)
+- modified cornstarch → modified corn starch (97%)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
 - active yogurt cultures with l. bulgaricus → active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- bifidobacterium bb-12  → bifidobacterium bb 12  (95%)
-- l. acidophilus  → l acidophilus  (96%)</t>
+- s. thermophilus → s thermophilus (97%)
+- bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
+- l. acidophilus → l acidophilus (96%)</t>
         </is>
       </c>
     </row>
@@ -7808,15 +7911,15 @@
       <c r="D363" t="inlineStr">
         <is>
           <t>- raspberries → raspberry (singular)
-- modified cornstarch  → modified corn starch  (97%)
+- modified cornstarch → modified corn starch (97%)
 - natural flavors → natural flavor (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- bifidobacterium bb-12  → bifidobacterium bb 12  (95%)
-- l. acidophilus  → l acidophilus  (96%)
+- s. thermophilus → s thermophilus (97%)
+- bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
+- l. acidophilus → l acidophilus (96%)
 - l. casei cultures → l. casei culture (singular)
-- l. casei culture  → l casei culture  (97%)</t>
+- l. casei culture → l casei culture (97%)</t>
         </is>
       </c>
     </row>
@@ -7837,16 +7940,16 @@
       <c r="D364" t="inlineStr">
         <is>
           <t>- strawberries → strawberry (singular)
-- modified cornstarch  → modified corn starch  (97%)
+- modified cornstarch → modified corn starch (97%)
 - nonfat milk solics → nonfat milk solic (singular)
-- nonfat milk solic  → nonfat milk solids  (91%)
+- nonfat milk solic → nonfat milk solids (91%)
 - natural flavors → natural flavor (singular)
 - vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- bifidobacterium bb-12  → bifidobacterium bb 12  (95%)
-- l. acidophilus  → l acidophilus  (96%)
+- s. thermophilus → s thermophilus (97%)
+- bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
+- l. acidophilus → l acidophilus (96%)
 - l. casei cultures → l. casei culture (singular)
-- l. casei culture  → l casei culture  (97%)</t>
+- l. casei culture → l casei culture (97%)</t>
         </is>
       </c>
     </row>
@@ -7867,16 +7970,16 @@
       <c r="D365" t="inlineStr">
         <is>
           <t>- strawberries → strawberry (singular)
-- modified cornstarch  → modified corn starch  (97%)
+- modified cornstarch → modified corn starch (97%)
 - bananas → banana (singular)
 - natural flavors → natural flavor (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- bifidobacterium bb-12  → bifidobacterium bb 12  (95%)
-- l. acidophilus  → l acidophilus  (96%)
+- s. thermophilus → s thermophilus (97%)
+- bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
+- l. acidophilus → l acidophilus (96%)
 - l. casei cultures → l. casei culture (singular)
-- l. casei culture  → l casei culture  (97%)</t>
+- l. casei culture → l casei culture (97%)</t>
         </is>
       </c>
     </row>
@@ -7896,14 +7999,14 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>- modified cornstarch  → modified corn starch  (97%)
+          <t>- modified cornstarch → modified corn starch (97%)
 - natural flavors → natural flavor (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - and vitamin d3. contains active yogurt cultures with l. bulgaricus → and vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
-- and vitamin d3. contain active yogurt culture with l. bulgaricus  → vitamin d3. contain active yogurt culture with l. bulgaricus  (58%)
-- s. thermophilus  → s thermophilus  (97%)
-- l. acidophilus  → l acidophilus  (96%)
-- and l. casei  → l casei  (93%)</t>
+- and vitamin d3. contain active yogurt culture with l. bulgaricus → vitamin d3. contain active yogurt culture with l. bulgaricus (58%)
+- s. thermophilus → s thermophilus (97%)
+- l. acidophilus → l acidophilus (96%)
+- and l. casei → l casei (93%)</t>
         </is>
       </c>
     </row>
@@ -7924,13 +8027,13 @@
       <c r="D367" t="inlineStr">
         <is>
           <t>- blueberries → blueberry (singular)
-- modified cornstarch  → modified corn starch  (97%)
+- modified cornstarch → modified corn starch (97%)
 - natural flavors → natural flavor (singular)
 - blue 1. contains active yogurt cultures with l. bulgaricus → blue 1. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- l. acidophilus  → l acidophilus  (96%)
+- s. thermophilus → s thermophilus (97%)
+- l. acidophilus → l acidophilus (96%)
 - l. casei cultures → l. casei culture (singular)
-- l. casei culture  → l casei culture  (97%)</t>
+- l. casei culture → l casei culture (97%)</t>
         </is>
       </c>
     </row>
@@ -7951,13 +8054,13 @@
       <c r="D368" t="inlineStr">
         <is>
           <t>- black cherries → black cherry (singular)
-- modified cornstarch  → modified corn starch  (97%)
+- modified cornstarch → modified corn starch (97%)
 - natural flavors → natural flavor (singular)
 - blue 1. contains active yogurt cultures with l. bulgaricus → blue 1. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- l. acidophilus  → l acidophilus  (96%)
+- s. thermophilus → s thermophilus (97%)
+- l. acidophilus → l acidophilus (96%)
 - l. casei cultures → l. casei culture (singular)
-- l. casei culture  → l casei culture  (97%)</t>
+- l. casei culture → l casei culture (97%)</t>
         </is>
       </c>
     </row>
@@ -7978,13 +8081,13 @@
       <c r="D369" t="inlineStr">
         <is>
           <t>- raspberries → raspberry (singular)
-- modified cornstarch  → modified corn starch  (97%)
+- modified cornstarch → modified corn starch (97%)
 - natural flavors → natural flavor (singular)
 - red 40 and blue 1. contains active yogurt cultures with l. bulgaricus → red 40 and blue 1. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- l. acidophilus  → l acidophilus  (96%)
+- s. thermophilus → s thermophilus (97%)
+- l. acidophilus → l acidophilus (96%)
 - l. casei cultures → l. casei culture (singular)
-- l. casei culture  → l casei culture  (97%)</t>
+- l. casei culture → l casei culture (97%)</t>
         </is>
       </c>
     </row>
@@ -8005,13 +8108,13 @@
       <c r="D370" t="inlineStr">
         <is>
           <t>- strawberries → strawberry (singular)
-- modified cornstarch  → modified corn starch  (97%)
+- modified cornstarch → modified corn starch (97%)
 - natural flavors → natural flavor (singular)
 - red 40. contains active yogurt cultures with l. bulgaricus → red 40. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- l. acidophilus  → l acidophilus  (96%)
+- s. thermophilus → s thermophilus (97%)
+- l. acidophilus → l acidophilus (96%)
 - l. casei cultures → l. casei culture (singular)
-- l. casei culture  → l casei culture  (97%)</t>
+- l. casei culture → l casei culture (97%)</t>
         </is>
       </c>
     </row>
@@ -8032,13 +8135,13 @@
       <c r="D371" t="inlineStr">
         <is>
           <t>- strawberries → strawberry (singular)
-- modified cornstarch  → modified corn starch  (97%)
+- modified cornstarch → modified corn starch (97%)
 - natural flavors → natural flavor (singular)
 - red 40. contains active yogurt cultures with l. bulgaricus → red 40. contain active yogurt culture with l. bulgaricus (singular)
-- s.thermophilus  → s thermophilus  (93%)
-- l. acidophilus  → l acidophilus  (96%)
+- s.thermophilus → s thermophilus (93%)
+- l. acidophilus → l acidophilus (96%)
 - l. casei cultures → l. casei culture (singular)
-- l. casei culture  → l casei culture  (97%)</t>
+- l. casei culture → l casei culture (97%)</t>
         </is>
       </c>
     </row>
@@ -8058,8 +8161,8 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>(PAREN) - l. acidophilus  → l acidophilus  (96%)
-- citric acid. contains live and active cultures → citric acid. contain live and active culture (singular)</t>
+          <t>- citric acid. contains live and active cultures → citric acid. contain live and active culture (singular)
+- l. acidophilus → l acidophilus (96%)</t>
         </is>
       </c>
     </row>
@@ -8080,14 +8183,14 @@
       <c r="D373" t="inlineStr">
         <is>
           <t>- apples → apple (singular)
-- modified cornstarch  → modified corn starch  (97%)
+- modified cornstarch → modified corn starch (97%)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
 - vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- bifidobacterium bb-12  → bifidobacterium bb 12  (95%)
-- l. acidophilus  → l acidophilus  (96%)
-- l.casei  → l casei  (86%)</t>
+- s. thermophilus → s thermophilus (97%)
+- bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
+- l. acidophilus → l acidophilus (96%)
+- l.casei → l casei (86%)</t>
         </is>
       </c>
     </row>
@@ -8107,14 +8210,14 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>- modified cornstarch  → modified corn starch  (97%)
+          <t>- modified cornstarch → modified corn starch (97%)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- tumeric (color) → turmeric (color) (93%)
+- tumeric → turmeric (93%)
 - vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- bifidobacterium bb-12  → bifidobacterium bb 12  (95%)
-- l. acidophilus  → l acidophilus  (96%)</t>
+- s. thermophilus → s thermophilus (97%)
+- bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
+- l. acidophilus → l acidophilus (96%)</t>
         </is>
       </c>
     </row>
@@ -8129,7 +8232,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, strawberry, banana, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, strawberry, banana, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness), . contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -8138,11 +8241,11 @@
 - bananas → banana (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- potassium sorbate (to maintain freshness). contains active yogurt cultures with l. bulgaricus → potassium sorbate (to maintain freshness). contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- l. acidophilus  → l acidophilus  (96%)
+- . contains active yogurt cultures with l. bulgaricus → . contain active yogurt culture with l. bulgaricus (singular)
+- s. thermophilus → s thermophilus (97%)
+- l. acidophilus → l acidophilus (96%)
 - l. casei cultures → l. casei culture (singular)
-- l. casei culture  → l casei culture  (97%)</t>
+- l. casei culture → l casei culture (97%)</t>
         </is>
       </c>
     </row>
@@ -8163,10 +8266,10 @@
       <c r="D376" t="inlineStr">
         <is>
           <t>- cultured pasteurized grade a lowfat milk and nonfat milk solids. contains active yogurt cultures with l. bulgaricus → cultured pasteurized grade a lowfat milk and nonfat milk solids. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- l. acidophilus  → l acidophilus  (96%)
+- s. thermophilus → s thermophilus (97%)
+- l. acidophilus → l acidophilus (96%)
 - l. casei cultures → l. casei culture (singular)
-- l. casei culture  → l casei culture  (97%)</t>
+- l. casei culture → l casei culture (97%)</t>
         </is>
       </c>
     </row>
@@ -8186,14 +8289,14 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>- modified cornstarch  → modified corn starch  (97%)
+          <t>- modified cornstarch → modified corn starch (97%)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
 - vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- bifidobacterium bb-12  → bifidobacterium bb 12  (95%)
-- l. acidophilus  → l acidophilus  (96%)
-- l. casei  → l casei  (93%)</t>
+- s. thermophilus → s thermophilus (97%)
+- bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
+- l. acidophilus → l acidophilus (96%)
+- l. casei → l casei (93%)</t>
         </is>
       </c>
     </row>
@@ -8208,18 +8311,18 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, corn syrup, modified corn starch, kosher gelatin, natural flavor, citric acid, sodium citrate, potassium sorbate (to maintain freshness), annatto (color). contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, corn syrup, modified corn starch, kosher gelatin, natural flavor, citric acid, sodium citrate, potassium sorbate (to maintain freshness), annatto (color), . contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>- modified cornstarch  → modified corn starch  (97%)
+          <t>- modified cornstarch → modified corn starch (97%)
 - natural flavors → natural flavor (singular)
-- annatto (color). contains active yogurt cultures with l. bulgaricus → annatto (color). contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus  → s thermophilus  (97%)
-- l. acidophilus  → l acidophilus  (96%)
+- . contains active yogurt cultures with l. bulgaricus → . contain active yogurt culture with l. bulgaricus (singular)
+- s. thermophilus → s thermophilus (97%)
+- l. acidophilus → l acidophilus (96%)
 - l. casei cultures → l. casei culture (singular)
-- l. casei culture  → l casei culture  (97%)</t>
+- l. casei culture → l casei culture (97%)</t>
         </is>
       </c>
     </row>
@@ -8303,9 +8406,9 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>- s. thermophilus  → s thermophilus  (97%)
-- l. acidophilus  → l acidophilus  (96%)
-- l. casei  → l casei  (93%)</t>
+          <t>- s. thermophilus → s thermophilus (97%)
+- l. acidophilus → l acidophilus (96%)
+- l. casei → l casei (93%)</t>
         </is>
       </c>
     </row>
@@ -8320,7 +8423,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>100% fruit juice from concentrate concentrate (filtered water, concentrated orange juice, concentrated apple juice, concentrated white grape juice, concentrated pineapple juice, banana puree), natural flavor, concentrated strawberry juice, ascorbic acid (vitamin c)</t>
+          <t>100% fruit juice from concentrate (filtered water, concentrated orange juice, concentrated apple juice, concentrated white grape juice, concentrated pineapple juice, banana puree), natural flavor, concentrated strawberry juice, ascorbic acid (vitamin c)</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -8397,7 +8500,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>- tri calcium phosphate  → tricalcium phosphate  (98%)</t>
+          <t>- tri calcium phosphate → tricalcium phosphate (98%)</t>
         </is>
       </c>
     </row>
@@ -8417,7 +8520,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>- tri-calcium phosphate  → tricalcium phosphate  (98%)</t>
+          <t>- tri-calcium phosphate → tricalcium phosphate (98%)</t>
         </is>
       </c>
     </row>
@@ -8501,8 +8604,8 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>- mono-and diglycerides  → mono and diglycerides  (95%)
-- natural and artificial vanilla flavoring  → artificial vanilla flavor  (94%)</t>
+          <t>- mono-and diglycerides → mono and diglycerides (95%)
+- natural and artificial vanilla flavoring → artificial vanilla flavor (94%)</t>
         </is>
       </c>
     </row>
@@ -8522,8 +8625,8 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>- mono-and diglycerides  → mono and diglycerides  (95%)
-- natural and artificial vanilla flavoring  → artificial vanilla flavor  (94%)</t>
+          <t>- mono-and diglycerides → mono and diglycerides (95%)
+- natural and artificial vanilla flavoring → artificial vanilla flavor (94%)</t>
         </is>
       </c>
     </row>
@@ -8558,7 +8661,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>skim milk, corn syrup, cream, less than 0.5% of, artificial color, sodium citrate, potassium phosphate, mono-diglycerides, carrageenan and vitamin a palmitate</t>
+          <t>skim milk, corn syrup, cream, less than 0.5% of: artificial color, sodium citrate, potassium phosphate, mono-diglycerides, carrageenan and vitamin a palmitate</t>
         </is>
       </c>
       <c r="D397" t="inlineStr"/>
@@ -8574,12 +8677,12 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>milk, cream, less than 0.5% of the following, carrageenan, sodium citrate, disodium phosphate (mineral salts to prevent cream separation in hot liquid)</t>
+          <t>milk, cream, less than 0.5% of the following: carrageenan, sodium citrate, disodium phosphate (mineral salts to prevent cream separation in hot liquid)</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>(PAREN) - mineral salts to prevent cream separation in hot liquids → mineral salts to prevent cream separation in hot liquid (singular)</t>
+          <t>- mineral salts to prevent cream separation in hot liquids → mineral salts to prevent cream separation in hot liquid (singular)</t>
         </is>
       </c>
     </row>
@@ -8594,7 +8697,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>cream, less than 0.5% of, carrageenan, mono-diglycerides, cellulose gum, polysorbate 80</t>
+          <t>cream, less than 0.5% of: carrageenan, mono-diglycerides, cellulose gum, polysorbate 80</t>
         </is>
       </c>
       <c r="D399" t="inlineStr"/>
@@ -8610,7 +8713,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>cream, less than 0.5% of, carrageenan, mono-diglycerides, cellulose gum, polysorbate 80</t>
+          <t>cream, less than 0.5% of: carrageenan, mono-diglycerides, cellulose gum, polysorbate 80</t>
         </is>
       </c>
       <c r="D400" t="inlineStr"/>
@@ -8626,7 +8729,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>cream, less than 0.5% of, carrageenan, mono-diglycerides, cellulose gum, polysorbate 80</t>
+          <t>cream, less than 0.5% of: carrageenan, mono-diglycerides, cellulose gum, polysorbate 80</t>
         </is>
       </c>
       <c r="D401" t="inlineStr"/>
@@ -8642,12 +8745,12 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>milk, cream, less than 0.5% of, carrageenan, sodium citrate, disodium phosphate (mineral salts added to prevent cream separation in hot liquid)</t>
+          <t>milk, cream, less than 0.5% of: carrageenan, sodium citrate, disodium phosphate (mineral salts added to prevent cream separation in hot liquid)</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>(PAREN) - mineral salts added to prevent cream separation in hot liquids → mineral salts added to prevent cream separation in hot liquid (singular)</t>
+          <t>- mineral salts added to prevent cream separation in hot liquids → mineral salts added to prevent cream separation in hot liquid (singular)</t>
         </is>
       </c>
     </row>
@@ -8662,13 +8765,13 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>water, corn syrup, vegetable oil (high oleic soybean and/or high oleic canola), less than 2% of, sodium caseinate (milk derivative), mono and diglycerides, corn syrup solids, dipotassium phosphate, sodium stearoyl lactylate, carrageenan, polysorbate 60</t>
+          <t>water, corn syrup, vegetable oil (high oleic soybean and/or high oleic canola), less than 2% of: sodium caseinate (milk derivative), mono and diglycerides, corn syrup solids, dipotassium phosphate, sodium stearoyl lactylate, carrageenan, polysorbate 60</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>(PAREN) - a milk derivative  → milk derivative  (94%)
-- mono- and diglycerides  → mono and diglycerides  (98%)
+          <t>- a milk derivative → milk derivative (94%)
+- mono- and diglycerides → mono and diglycerides (98%)
 - corn syrup solids → corn syrup solid (singular)</t>
         </is>
       </c>
@@ -8749,11 +8852,11 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>- mono- and diglycerides  → mono and diglycerides  (98%)
-- fd&amp;c blue 1  → fdc blue 1  (95%)
-- fd&amp;c red 40  → fdc red 40  (95%)
+          <t>- mono- and diglycerides → mono and diglycerides (98%)
+- fd&amp;c blue 1 → fdc blue 1 (95%)
+- fd&amp;c red 40 → fdc red 40 (95%)
 - spices → spice (singular)
-- natural romano cheese type flavor  → romano cheese flavor  (89%)
+- natural romano cheese type flavor → romano cheese flavor (89%)
 - enzymes → enzyme (singular)</t>
         </is>
       </c>
@@ -8794,7 +8897,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>- mono- and diglycerides  → mono and diglycerides  (98%)
+          <t>- mono- and diglycerides → mono and diglycerides (98%)
 - enzymes → enzyme (singular)</t>
         </is>
       </c>
@@ -9579,7 +9682,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>whole eggs, sugar, bittersweet chocolate (chocolate liquor, sugar, cocoa butter, soy lecithin (emulsifier), vanilla extract), milk chocolate (sugar, cocoa butter, chocolate liquor, whole milk powder, soy lecithin (emulsifier), vanilla extract), margarine (canola oil, water, palm and kernel oils, soy lecithin, soy protein, natural flavor, citric acid, vitamin a palmitate alpha-tocopherol acetate (vitamin e), vitamin d3, (beta-carotene (color)), enriched unbleached and untreated wheat flour (wheat flour, niacin, reduced iron, thiamine mononitrate, riboflavin, folic acid), fructose, glycerin, cocoa processed with alkali</t>
+          <t>whole eggs, sugar, bittersweet chocolate (chocolate liquor, sugar, cocoa butter, soy lecithin (emulsifier), vanilla extract), milk chocolate (sugar, cocoa butter, chocolate liquor, whole milk powder, soy lecithin (emulsifier), vanilla extract), margarine (canola oil, water, palm and kernel oils, soy lecithin, soy protein, natural flavor, citric acid, vitamin a palmitate alpha-tocopherol acetate (vitamin e), vitamin d3 (beta-carotene (color)), enriched unbleached and untreated wheat flour (wheat flour, niacin, reduced iron, thiamine mononitrate, riboflavin, folic acid), fructose, glycerin, cocoa processed with alkali</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -9605,7 +9708,7 @@
       <c r="D450" t="inlineStr">
         <is>
           <t>- green soy beans → green soy bean (singular)
-- green soy bean  → green soybean  (96%)
+- green soy bean → green soybean (96%)
 - pea pods → pea pod (singular)
 - water chestnuts → water chestnut (singular)</t>
         </is>
@@ -9678,7 +9781,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>water, corn syrup, high fructose corn syrup, sugar, artificial flavor, citric acid, locust bean gum, guar gum, ascorbic acid (vitamin c), carrageenan, artificial color (may contain one or more of the following, annatto, turmeric, caramel, blue 1, red 3, red 40, yellow 5, yellow 6)</t>
+          <t>water, corn syrup, high fructose corn syrup, sugar, artificial flavor, citric acid, locust bean gum, guar gum, ascorbic acid (vitamin c), carrageenan, artificial color (may contain one or more of the following: annatto, turmeric, caramel, blue 1, red 3, red 40, yellow 5, yellow 6)</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -9720,16 +9823,13 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>ice cream ingredient, milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan. topping ingredient, coating (coconut oil, sugar, cocoa and cocoa processed with alkali, chocolate liquor, partially hydrogenated soybean oil, soy lecithin, salt, vanillin), peanuts. cone ingredient, bleached wheat flour, sugar, molasses, vegetable shortening (palm, cottonseed, partially hydrogenated soybean oil), soy lecithin, salt, caramel color, artificial flavor</t>
+          <t>ice cream ingredients: milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan. topping ingredients: coating (coconut oil, sugar, cocoa and cocoa processed with alkali, chocolate liquor, partially hydrogenated soybean oil, soy lecithin, salt, vanillin), peanuts. cone ingredients: bleached wheat flour, sugar, molasses, vegetable shortening (palm, cottonseed, partially hydrogenated soybean oil), soy lecithin, salt, caramel color, artificial flavor</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>- ice cream ingredients → ice cream ingredient (singular)
-- mono-and diglycerides  → mono and diglycerides  (95%)
-- carrageenan. topping ingredients → carrageenan. topping ingredient (singular)
-- peanuts. cone ingredients → peanuts. cone ingredient (singular)
-(PAREN) - and/or partially hydrogenated soybean oil  → partially hydrogenated soybean oil  (91%)</t>
+          <t>- mono-and diglycerides → mono and diglycerides (95%)
+- and/or partially hydrogenated soybean oil → partially hydrogenated soybean oil (91%)</t>
         </is>
       </c>
     </row>
@@ -9744,14 +9844,12 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>ice cream ingredient, milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan. coating ingredient, coconut oil, sugar, cocoa and cocoa processed with alkali, chocolate liquor, partially hydrogenated soybean oil, soy lecithin, salt, vanilla</t>
+          <t>ice cream ingredients: milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan. coating ingredients: coconut oil, sugar, cocoa and cocoa processed with alkali, chocolate liquor, partially hydrogenated soybean oil, soy lecithin, salt, vanilla</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>- ice cream ingredients → ice cream ingredient (singular)
-- mono- and diglycerides  → mono and diglycerides  (98%)
-- carrageenan. coating ingredients → carrageenan. coating ingredient (singular)</t>
+          <t>- mono- and diglycerides → mono and diglycerides (98%)</t>
         </is>
       </c>
     </row>
@@ -9766,16 +9864,14 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>ice cream ingredient, milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan. sherbet ingredient, water, corn syrup, high fructose corn syrup, sugar, whey, milkfat, orange puree (concentrated orange juice, orange pulp, orange oil, natural flavor), citric acid, guar gum, mono and diglycerides, xanthan gum, polysorbate 80, locust bean gum, carrageenan, annatto, artificial color (red 40, yellow 5, yellow 6)</t>
+          <t>ice cream ingredients: milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan. sherbet ingredients: water, corn syrup, high fructose corn syrup, sugar, whey, milkfat, orange puree (concentrated orange juice, orange pulp, orange oil, natural flavor), citric acid, guar gum, mono and diglycerides, xanthan gum, polysorbate 80, locust bean gum, carrageenan, annatto, artificial color (red 40, yellow 5, yellow 6)</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>- ice cream ingredients → ice cream ingredient (singular)
-- mono- and diglycerides  → mono and diglycerides  (98%)
-- carrageenan. sherbet ingredients → carrageenan. sherbet ingredient (singular)
-(PAREN) - natural flavors → natural flavor (singular)
-- mono- and diglycerides  → mono and diglycerides  (98%)</t>
+          <t>- mono- and diglycerides → mono and diglycerides (98%)
+- natural flavors → natural flavor (singular)
+- mono- and diglycerides → mono and diglycerides (98%)</t>
         </is>
       </c>
     </row>
@@ -9795,7 +9891,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>- mono- and diglycerides  → mono and diglycerides  (98%)</t>
+          <t>- mono- and diglycerides → mono and diglycerides (98%)</t>
         </is>
       </c>
     </row>
@@ -9810,15 +9906,13 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>ice cream ingredient, milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, artificial flavor, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, locust bean gum, carrageenan. wafers ingredient, bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose corn syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
+          <t>ice cream ingredients: milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, artificial flavor, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, locust bean gum, carrageenan. wafers ingredients: bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose corn syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>- ice cream ingredients → ice cream ingredient (singular)
-- mono- and diglycerides  → mono and diglycerides  (98%)
-- carrageenan. wafers ingredients → carrageenan. wafers ingredient (singular)
-- mono- and diglycerides  → mono and diglycerides  (98%)</t>
+          <t>- mono- and diglycerides → mono and diglycerides (98%)
+- mono- and diglycerides → mono and diglycerides (98%)</t>
         </is>
       </c>
     </row>
@@ -9833,15 +9927,13 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>ice cream ingredient, milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, artificial flavor, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, locust bean gum, carrageenan. wafer ingredient, bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose corn syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
+          <t>ice cream ingredients: milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, artificial flavor, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, locust bean gum, carrageenan. wafer ingredients: bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose corn syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>- ice cream ingredients → ice cream ingredient (singular)
-- mono- and diglycerides  → mono and diglycerides  (98%)
-- carrageenan. wafer ingredients → carrageenan. wafer ingredient (singular)
-- mono- and diglycerides  → mono and diglycerides  (98%)</t>
+          <t>- mono- and diglycerides → mono and diglycerides (98%)
+- mono- and diglycerides → mono and diglycerides (98%)</t>
         </is>
       </c>
     </row>
@@ -9856,15 +9948,13 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>ice cream ingredient, milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan. wafer ingredient, bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose corn syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
+          <t>ice cream ingredients: milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan. wafer ingredients: bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose corn syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>- ice cream ingredients → ice cream ingredient (singular)
-- mono-and diglycerides  → mono and diglycerides  (95%)
-- carrageenan. wafer ingredients → carrageenan. wafer ingredient (singular)
-- mono-and diglycerides  → mono and diglycerides  (95%)</t>
+          <t>- mono-and diglycerides → mono and diglycerides (95%)
+- mono-and diglycerides → mono and diglycerides (95%)</t>
         </is>
       </c>
     </row>
@@ -9921,17 +10011,16 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>ice cream ingredient, milkfat and nonfat milk, chocolate chip (sugar, chocolate liquor, cocoa butter, soy lecithin, salt, vanilla), high fructose corn syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, natural flavor, locust bean gum, carrageenan, artificial colors (yellow 5, blue 1). wafers ingredient, bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose corn syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
+          <t>ice cream ingredients: milkfat and nonfat milk, chocolate chip (sugar, chocolate liquor, cocoa butter, soy lecithin, salt, vanilla), high fructose corn syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, natural flavor, locust bean gum, carrageenan, artificial color (yellow 5, blue 1), . wafers ingredients: bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose corn syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>- ice cream ingredients → ice cream ingredient (singular)
-- chocolate chips → chocolate chip (singular)
-- mono-and diglycerides  → mono and diglycerides  (95%)
+          <t>- chocolate chips → chocolate chip (singular)
+- mono-and diglycerides → mono and diglycerides (95%)
 - natural flavors → natural flavor (singular)
-- artificial colors (yellow 5, blue 1). wafers ingredients → artificial colors (yellow 5, blue 1). wafers ingredient (singular)
-- mono-and diglycerides  → mono and diglycerides  (95%)</t>
+- artificial colors → artificial color (singular)
+- mono-and diglycerides → mono and diglycerides (95%)</t>
         </is>
       </c>
     </row>
@@ -9946,15 +10035,13 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>ice cream ingredient, milkfat and nonfat milk, high fructose corn syrup, corn syrup, cookie crunch (bleached wheat flour, sugar, caramel color, palm oil, cocoa, baking soda, salt, soy lecithin), buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan. wafers ingredient, bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose, corn syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
+          <t>ice cream ingredients: milkfat and nonfat milk, high fructose corn syrup, corn syrup, cookie crunch (bleached wheat flour, sugar, caramel color, palm oil, cocoa, baking soda, salt, soy lecithin), buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan. wafers ingredients: bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose, corn syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>- ice cream ingredients → ice cream ingredient (singular)
-- mono- and diglycerides  → mono and diglycerides  (98%)
-- carrageenan. wafers ingredients → carrageenan. wafers ingredient (singular)
-- mono- and diglycerides  → mono and diglycerides  (98%)</t>
+          <t>- mono- and diglycerides → mono and diglycerides (98%)
+- mono- and diglycerides → mono and diglycerides (98%)</t>
         </is>
       </c>
     </row>
@@ -9974,8 +10061,8 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>(PAREN) - peanuts → peanut (singular)
-- mono-and diglycerides  → mono and diglycerides  (95%)</t>
+          <t>- peanuts → peanut (singular)
+- mono-and diglycerides → mono and diglycerides (95%)</t>
         </is>
       </c>
     </row>
@@ -9990,15 +10077,13 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>ice cream ingredient, milkfat and nonfat milk, sugar, fudge variegate (powdered sugar (sugar, corn starch), vegetable oil (peanut and/or cottonseed oil, and/or palm oil), cocoa processed with alkali, whey, salt, soy lecithin, natural flavor), chocolate flake (powdered sugar, coconut oil, partially hydrogenated coconut oil, cocoa processed with alkali, chocolate liquor, whey, soy lecithin, salt, natural flavor), corn syrup, cocoa processed with alkali, whey, mono and diglycerides, guar gum, locust bean gum, calcium sulfate, polysorbate 80, carrageenan. coating ingredient, coconut oil, sugar, chocolate liquor, cocoa processed with alkali soybean oil, whey, partially hydrogenated coconut oil, cocoa soy lecithin, salt, natural flavor</t>
+          <t>ice cream ingredients: milkfat and nonfat milk, sugar, fudge variegate (powdered sugar (sugar, corn starch), vegetable oil (peanut and/or cottonseed oil, and/or palm oil), cocoa processed with alkali, whey, salt, soy lecithin, natural flavor), chocolate flake (powdered sugar, coconut oil, partially hydrogenated coconut oil, cocoa processed with alkali, chocolate liquor, whey, soy lecithin, salt, natural flavor), corn syrup, cocoa processed with alkali, whey, mono and diglycerides, guar gum, locust bean gum, calcium sulfate, polysorbate 80, carrageenan. coating ingredients: coconut oil, sugar, chocolate liquor, cocoa processed with alkali soybean oil, whey, partially hydrogenated coconut oil, cocoa soy lecithin, salt, natural flavor</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>- ice cream ingredients → ice cream ingredient (singular)
-- chocolate flakes → chocolate flake (singular)
-- mono-and diglycerides  → mono and diglycerides  (95%)
-- carrageenan. coating ingredients → carrageenan. coating ingredient (singular)</t>
+          <t>- chocolate flakes → chocolate flake (singular)
+- mono-and diglycerides → mono and diglycerides (95%)</t>
         </is>
       </c>
     </row>
@@ -10013,12 +10098,12 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>ice cream, milkfat and nonfat milk, sugar, corn syrup, whey, natural and artificial flavor, mono and diglycerides, guar gum, locust bean gum, calcium sulfate, polysorbate 80, carrageenan. coating, coconut oil, sugar, whole milk powder, chocolate liquor, soybean oil, chocolate liquor processed with alkali, partially hydrogenated coconut oil, cocoa, soy lecithin, natural and artificial flavors. caramel variegate, high fructose corn syrup, water, sweetened condensed skim milk (condensed skim milk, sugar), butter, modified food starch (waxy maize), salt, artificial flavor, potassium sorbate (preservative), disodium phosphate, carrageenan. milk chocolate flake, powdered sugar, partially hydrogenated coconut oil, coconut oil, whole milk powder, nonfat dry milk, chocolate liquor processed with alkali, cocoa, whey, soy lecithin, salt, natural and artificial flavor</t>
+          <t>ice cream: milkfat and nonfat milk, sugar, corn syrup, whey, natural and artificial flavor, mono and diglycerides, guar gum, locust bean gum, calcium sulfate, polysorbate 80, carrageenan. coating: coconut oil, sugar, whole milk powder, chocolate liquor, soybean oil, chocolate liquor processed with alkali, partially hydrogenated coconut oil, cocoa, soy lecithin, natural and artificial flavors. caramel variegate: high fructose corn syrup, water, sweetened condensed skim milk (condensed skim milk, sugar), butter, modified food starch (waxy maize), salt, artificial flavor, potassium sorbate (preservative), disodium phosphate, carrageenan. milk chocolate flake: powdered sugar, partially hydrogenated coconut oil, coconut oil, whole milk powder, nonfat dry milk, chocolate liquor processed with alkali, cocoa, whey, soy lecithin, salt, natural and artificial flavor</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>- mono- and diglycerides  → mono and diglycerides  (98%)
+          <t>- mono- and diglycerides → mono and diglycerides (98%)
 - natural and artificial flavors → natural and artificial flavor (singular)</t>
         </is>
       </c>
@@ -10034,17 +10119,18 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>butternut squash, ricotta cheese (pasteurized milk, whey, cream, vinegar, salt, stabilizer (guar gum, locust bean gum, xanthan gum)), mozzarella cheese (pasteurized cows milk, cheese culture, salt, enzyme), breadcrumb (wheat flour, sugar, yeast, salt), parmesan cheese (pasteurized cows milk, cheese culture, salt, enzyme), honey, egg, canola oil, salt, parsley, black pepper, nutmeg, cinnamon, annatto oil. pasta, wheat flour, water, egg, beta carotene, annatto oil</t>
+          <t>butternut squash, ricotta cheese (pasteurized milk, whey, cream, vinegar, salt, stabilizer (guar gum, locust bean gum, xanthan gum)), mozzarella cheese (pasteurized cows milk, cheese culture, salt, enzyme), breadcrumb (wheat flour, sugar, yeast, salt), parmesan cheese (pasteurized cows milk, cheese culture, salt, enzyme), honey, egg, canola oil, salt, parsley, black pepper, nutmeg, cinnamon, annatto oil. pasta: wheat flour, water, egg, beta carotene, annatto oil</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>(PAREN) - enzymes → enzyme (singular)
+          <t>- : butternut squash → butternut squash (94%)
+- enzymes → enzyme (singular)
 - breadcrumbs → breadcrumb (singular)
-(PAREN) - enzymes → enzyme (singular)
+- enzymes → enzyme (singular)
 - eggs → egg (singular)
 - eggs → egg (singular)
-- beta-carotene  → beta carotene  (92%)</t>
+- beta-carotene → beta carotene (92%)</t>
         </is>
       </c>
     </row>
@@ -10059,121 +10145,138 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>ricotta cheese (pasteurized milk, whey, cream, vinegar, salt, stabilizers (guar gum, locust bean gum, xanthan gum)), spinach, asiago cheese (pasteurized cows milk, cheese culture, salt, enzyme), mozzarella cheese (pasteurized cows milk, cheese culture, salt, enzyme), romano cheese (pasteurized cows milk, cheese culture, salt, enzyme), garlic flavor (roasted garlic, salt, maltodextrin (from corn), natural flavoring, corn starch, canola oil, sesame oil), egg, butter, garlic, parmesan cheese flavor (parmesan cheese (milk, culture, salt, enzymes), salt, yeast extract, unsalted butter, corn oil, olive oil, creme powder, sugar, natural flavoring), romano cheese flavor (romano cheese (milk, culture, salt, enzymes), salt, yeast extract, butter, corn oil, creme powder, nonfat dry milk, olive oil, onion powder, garlic powder), breadcrumb (wheat flour, sugar, yeast, salt), black pepper, salt, nutmeg, sage powder, pasta, wheat flour, water, egg, spinach powder, beta carotene</t>
+          <t>ricotta cheese (pasteurized milk, whey, cream, vinegar, salt, stabilizer (guar gum, locust bean gum, xanthan gum)), spinach, asiago cheese (pasteurized cows milk, cheese culture, salt, enzyme), mozzarella cheese (pasteurized cows milk, cheese culture, salt, enzyme), romano cheese (pasteurized cows milk, cheese culture, salt, enzyme), garlic flavor (roasted garlic, salt, maltodextrin (from corn), natural flavoring, corn starch, canola oil, sesame oil), egg, butter, garlic, parmesan cheese flavor (parmesan cheese (milk, culture, salt, enzyme), salt, yeast extract, unsalted butter, corn oil, olive oil, creme powder, sugar, natural flavoring), romano cheese flavor (romano cheese (milk, culture, salt, enzyme), salt, yeast extract, butter, corn oil, creme powder, nonfat dry milk, olive oil, onion powder, garlic powder), breadcrumb (wheat flour, sugar, yeast, salt), black pepper, salt, nutmeg, sage powder, pasta: wheat flour, water, egg, spinach powder, beta carotene</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>(PAREN) - enzymes → enzyme (singular)
-(PAREN) - enzymes → enzyme (singular)
-(PAREN) - enzymes → enzyme (singular)
+          <t>- : ricotta cheese → ricotta cheese (93%)
+- stabilizers → stabilizer (singular)
+- enzymes → enzyme (singular)
+- enzymes → enzyme (singular)
+- enzymes → enzyme (singular)
+- eggs → egg (singular)
+- enzymes → enzyme (singular)
+- enzymes → enzyme (singular)
+- breadcrumbs → breadcrumb (singular)
+- eggs → egg (singular)
+- beta-carotene → beta carotene (92%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>6472</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Filling: Ricotta Cheese (Pasteurized Milk, Whey, Cream, Vinegar, Salt, Stabilizer [Guar Gum, Locust Bean Gum, Xanthan Gum]), Cheese Blend (Parmesan Cheese, Asiago Cheese, Romano Cheese, Fontina Cheese [Pasteurized Cows Milk, Cheese Culture, Salt, Enzymes]), Milk, Mozzarella Cheese (Pasteurized Cows Milk, Cheese Culture, Salt, Enzymes), Parmesan Flavor (Parmesan Cheese [Milk, Culture, Salt, Enzymes], Salt, Yeast Extract, Unsalted Butter, Corn Oil, Olive Oil, Creme Powder, Sugar, Natural Flavoring), Eggs, Parsley, Nutmeg, Black Pepper. Pasta: Wheat Flour, Water, Eggs, Beta-Carotene</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>ricotta cheese (pasteurized milk, whey, cream, vinegar, salt, stabilizer (guar gum, locust bean gum, xanthan gum)), cheese blend (parmesan cheese, asiago cheese, romano cheese, fontina cheese (pasteurized cows milk, cheese culture, salt, enzyme)), milk, mozzarella cheese (pasteurized cows milk, cheese culture, salt, enzyme), parmesan flavor (parmesan cheese (milk, culture, salt, enzyme), salt, yeast extract, unsalted butter, corn oil, olive oil, creme powder, sugar, natural flavoring), egg, parsley, nutmeg, black pepper. pasta: wheat flour, water, egg, beta carotene</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>- : ricotta cheese → ricotta cheese (93%)
+- enzymes → enzyme (singular)
+- enzymes → enzyme (singular)
+- enzymes → enzyme (singular)
+- eggs → egg (singular)
+- eggs → egg (singular)
+- beta-carotene → beta carotene (92%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>6473</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Filling: Asiago Cheese (Pasteurized Cows Milk, Cheese Cultures, Salt, Enzymes), Ricotta Cheese (Whey, Protein, Salt, Vinegar), Mozzarella Cheese (Pasteurized Whole Milk, Culture, Salt, Enzymes), Breadcrumbs (Wheat Flour), Parmesan Cheese (Pasteurized Cows Milk, Cheese Culture, Salt, Enzymes), Romano Cheese (Pasteurized Cows Milk, Cheese Culture, Salt, Enzymes), Parmesan Flavor (Parmesan Cheese [Pasteurized Milk, Cultures, Salt, Enzymes], Salt, Yeast Extract, Unsalted Butter, Corn Oil, Olive Oil, Cream Powder, Sugar, Natural Flavorings), Canola Oil, Parsley, Salt, Black Pepper. Pasta: Wheat Flour, Water, Eggs, Tomato Paste, Spinach Powder, Annatto Oil, Beta-Carotene</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>asiago cheese (pasteurized cows milk, cheese culture, salt, enzyme), ricotta cheese (whey, protein, salt, vinegar), mozzarella cheese (pasteurized whole milk, culture, salt, enzyme), breadcrumb (wheat flour), parmesan cheese (pasteurized cows milk, cheese culture, salt, enzyme), romano cheese (pasteurized cows milk, cheese culture, salt, enzyme), parmesan flavor (parmesan cheese (pasteurized milk, culture, salt, enzyme), salt, yeast extract, unsalted butter, corn oil, olive oil, cream powder, sugar, natural flavoring), canola oil, parsley, salt, black pepper. pasta: wheat flour, water, egg, tomato paste, spinach powder, annatto oil, beta carotene</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>- : asiago cheese → asiago cheese (93%)
+- cheese cultures → cheese culture (singular)
+- enzymes → enzyme (singular)
+- enzymes → enzyme (singular)
+- breadcrumbs → breadcrumb (singular)
+- enzymes → enzyme (singular)
+- enzymes → enzyme (singular)
+- cultures → culture (singular)
+- enzymes → enzyme (singular)
+- natural flavorings → natural flavoring (singular)
+- eggs → egg (singular)
+- beta-carotene → beta carotene (92%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>6474</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Filling: Portabella Mushrooms, Ricotta Cheese (Pasteurized Milk, Whey, Cream, Vinegar, Salt Stabilizer [Guar Gum, Locust Bean Gum, Xanthan Gum]), Fontina Cheese (Pasteurized Cows Milk, Cheese Culture, Salt, Enzymes), White Cheddar Cheese (Pasteurized Milk, Culture, Salt, Enzymes), Breadcrumbs (Wheat Flour, Sugar, Yeast, Salt), Mushroom Flavor (Cooked Mushrooms, Potato Flour, Dry Whey, Yeast Extract, Unsalted Butter [Flavoring], Salt, Onion Powder), Butter (Cream, Natural Flavoring), Mozzarella Cheese (Pasteurized Cows Milk, Cheese Culture, Salt, Enzymes), Eggs, Parmesan Flavor (Parmesan Cheese [Milk, Culture, Salt, Enzymes], Salt, Yeast Extract, Unsalted Butter, Corn Oil, Olive Oil, Cream Powder, Sugar, Natural Flavorings), Garlic, Red Wine, Parsley, Salt, Black Pepper. Pasta: Wheat Flour, Water, Eggs, Caramel</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>portabella mushroom, ricotta cheese (pasteurized milk, whey, cream, vinegar, salt stabilizer (guar gum, locust bean gum, xanthan gum)), fontina cheese (pasteurized cows milk, cheese culture, salt, enzyme), white cheddar cheese (pasteurized milk, culture, salt, enzyme), breadcrumb (wheat flour, sugar, yeast, salt), mushroom flavor (cooked mushroom, potato flour, dry whey, yeast extract, unsalted butter (flavoring), salt, onion powder), butter (cream, natural flavoring), mozzarella cheese (pasteurized cows milk, cheese culture, salt, enzyme), egg, parmesan flavor (parmesan cheese (milk, culture, salt, enzyme), salt, yeast extract, unsalted butter, corn oil, olive oil, cream powder, sugar, natural flavoring), garlic, red wine, parsley, salt, black pepper. pasta: wheat flour, water, egg, caramel</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>- : portabella mushrooms → : portabella mushroom (singular)
+- : portabella mushroom → portabella mushroom (95%)
+- enzymes → enzyme (singular)
+- enzymes → enzyme (singular)
+- breadcrumbs → breadcrumb (singular)
+- cooked mushrooms → cooked mushroom (singular)
+- enzymes → enzyme (singular)
+- eggs → egg (singular)
+- enzymes → enzyme (singular)
+- natural flavorings → natural flavoring (singular)
+- eggs → egg (singular)</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>6475</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Filling: Ricotta Cheese (Pasteurized Milk, Whey, Cream, Vinegar, Salt, Stabilizers [Guar Gum, Locust Bean Gum, Xanthan Gum]), Goat Cheese (Pasteurized Goat Milk, Vegetal Rennet, Cheese Culture, Salt), White Cheddar Cheese (Pasteurized Milk, Culture, Salt, Enzymes), Tomatoes, Mozzarella Cheese (Pasteurized Cows Milk, Cheese Culture, Salt, Enzymes), Eggs, Breadcrumbs (Wheat Flour, Sugar, Yeast, Sea Salt), Parsley, Garlic, Salt, Black Pepper, Water. Pasta: Wheat Flour, Water, Eggs, Beta-Carotene</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>ricotta cheese (pasteurized milk, whey, cream, vinegar, salt, stabilizer (guar gum, locust bean gum, xanthan gum)), goat cheese (pasteurized goat milk, vegetable rennet, cheese culture, salt), white cheddar cheese (pasteurized milk, culture, salt, enzyme), tomato, mozzarella cheese (pasteurized cows milk, cheese culture, salt, enzyme), egg, breadcrumb (wheat flour, sugar, yeast, sea salt), parsley, garlic, salt, black pepper, water. pasta: wheat flour, water, egg, beta carotene</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>- : ricotta cheese → ricotta cheese (93%)
+- stabilizers → stabilizer (singular)
+- vegetal rennet → vegetable rennet (93%)
+- enzymes → enzyme (singular)
+- tomatoes → tomato (singular)
+- enzymes → enzyme (singular)
 - eggs → egg (singular)
 - breadcrumbs → breadcrumb (singular)
 - eggs → egg (singular)
-- beta-carotene  → beta carotene  (92%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="n">
-        <v>6472</v>
-      </c>
-      <c r="B472" t="inlineStr">
-        <is>
-          <t>Filling: Ricotta Cheese (Pasteurized Milk, Whey, Cream, Vinegar, Salt, Stabilizer [Guar Gum, Locust Bean Gum, Xanthan Gum]), Cheese Blend (Parmesan Cheese, Asiago Cheese, Romano Cheese, Fontina Cheese [Pasteurized Cows Milk, Cheese Culture, Salt, Enzymes]), Milk, Mozzarella Cheese (Pasteurized Cows Milk, Cheese Culture, Salt, Enzymes), Parmesan Flavor (Parmesan Cheese [Milk, Culture, Salt, Enzymes], Salt, Yeast Extract, Unsalted Butter, Corn Oil, Olive Oil, Creme Powder, Sugar, Natural Flavoring), Eggs, Parsley, Nutmeg, Black Pepper. Pasta: Wheat Flour, Water, Eggs, Beta-Carotene</t>
-        </is>
-      </c>
-      <c r="C472" t="inlineStr">
-        <is>
-          <t>ricotta cheese (pasteurized milk, whey, cream, vinegar, salt, stabilizer (guar gum, locust bean gum, xanthan gum)), cheese blend (parmesan cheese, asiago cheese, romano cheese, fontina cheese (pasteurized cows milk, cheese culture, salt, enzymes)), milk, mozzarella cheese (pasteurized cows milk, cheese culture, salt, enzyme), parmesan flavor (parmesan cheese (milk, culture, salt, enzymes), salt, yeast extract, unsalted butter, corn oil, olive oil, creme powder, sugar, natural flavoring), egg, parsley, nutmeg, black pepper. pasta, wheat flour, water, egg, beta carotene</t>
-        </is>
-      </c>
-      <c r="D472" t="inlineStr">
-        <is>
-          <t>(PAREN) - enzymes → enzyme (singular)
-- eggs → egg (singular)
-- eggs → egg (singular)
-- beta-carotene  → beta carotene  (92%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="n">
-        <v>6473</v>
-      </c>
-      <c r="B473" t="inlineStr">
-        <is>
-          <t>Filling: Asiago Cheese (Pasteurized Cows Milk, Cheese Cultures, Salt, Enzymes), Ricotta Cheese (Whey, Protein, Salt, Vinegar), Mozzarella Cheese (Pasteurized Whole Milk, Culture, Salt, Enzymes), Breadcrumbs (Wheat Flour), Parmesan Cheese (Pasteurized Cows Milk, Cheese Culture, Salt, Enzymes), Romano Cheese (Pasteurized Cows Milk, Cheese Culture, Salt, Enzymes), Parmesan Flavor (Parmesan Cheese [Pasteurized Milk, Cultures, Salt, Enzymes], Salt, Yeast Extract, Unsalted Butter, Corn Oil, Olive Oil, Cream Powder, Sugar, Natural Flavorings), Canola Oil, Parsley, Salt, Black Pepper. Pasta: Wheat Flour, Water, Eggs, Tomato Paste, Spinach Powder, Annatto Oil, Beta-Carotene</t>
-        </is>
-      </c>
-      <c r="C473" t="inlineStr">
-        <is>
-          <t>asiago cheese (pasteurized cows milk, cheese culture, salt, enzyme), ricotta cheese (whey, protein, salt, vinegar), mozzarella cheese (pasteurized whole milk, culture, salt, enzyme), breadcrumb (wheat flour), parmesan cheese (pasteurized cows milk, cheese culture, salt, enzyme), romano cheese (pasteurized cows milk, cheese culture, salt, enzyme), parmesan flavor (parmesan cheese (pasteurized milk, cultures, salt, enzymes), salt, yeast extract, unsalted butter, corn oil, olive oil, cream powder, sugar, natural flavorings), canola oil, parsley, salt, black pepper. pasta, wheat flour, water, egg, tomato paste, spinach powder, annatto oil, beta carotene</t>
-        </is>
-      </c>
-      <c r="D473" t="inlineStr">
-        <is>
-          <t>(PAREN) - cheese cultures → cheese culture (singular)
-(PAREN) - enzymes → enzyme (singular)
-(PAREN) - enzymes → enzyme (singular)
-- breadcrumbs → breadcrumb (singular)
-(PAREN) - enzymes → enzyme (singular)
-(PAREN) - enzymes → enzyme (singular)
-- eggs → egg (singular)
-- beta-carotene  → beta carotene  (92%)</t>
-        </is>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="n">
-        <v>6474</v>
-      </c>
-      <c r="B474" t="inlineStr">
-        <is>
-          <t>Filling: Portabella Mushrooms, Ricotta Cheese (Pasteurized Milk, Whey, Cream, Vinegar, Salt Stabilizer [Guar Gum, Locust Bean Gum, Xanthan Gum]), Fontina Cheese (Pasteurized Cows Milk, Cheese Culture, Salt, Enzymes), White Cheddar Cheese (Pasteurized Milk, Culture, Salt, Enzymes), Breadcrumbs (Wheat Flour, Sugar, Yeast, Salt), Mushroom Flavor (Cooked Mushrooms, Potato Flour, Dry Whey, Yeast Extract, Unsalted Butter [Flavoring], Salt, Onion Powder), Butter (Cream, Natural Flavoring), Mozzarella Cheese (Pasteurized Cows Milk, Cheese Culture, Salt, Enzymes), Eggs, Parmesan Flavor (Parmesan Cheese [Milk, Culture, Salt, Enzymes], Salt, Yeast Extract, Unsalted Butter, Corn Oil, Olive Oil, Cream Powder, Sugar, Natural Flavorings), Garlic, Red Wine, Parsley, Salt, Black Pepper. Pasta: Wheat Flour, Water, Eggs, Caramel</t>
-        </is>
-      </c>
-      <c r="C474" t="inlineStr">
-        <is>
-          <t>portabella mushroom, ricotta cheese (pasteurized milk, whey, cream, vinegar, salt stabilizer (guar gum, locust bean gum, xanthan gum)), fontina cheese (pasteurized cows milk, cheese culture, salt, enzyme), white cheddar cheese (pasteurized milk, culture, salt, enzyme), breadcrumb (wheat flour, sugar, yeast, salt), mushroom flavor (cooked mushrooms, potato flour, dry whey, yeast extract, unsalted butter (flavoring), salt, onion powder), butter (cream, natural flavoring), mozzarella cheese (pasteurized cows milk, cheese culture, salt, enzyme), egg, parmesan flavor (parmesan cheese (milk, culture, salt, enzymes), salt, yeast extract, unsalted butter, corn oil, olive oil, cream powder, sugar, natural flavorings), garlic, red wine, parsley, salt, black pepper. pasta, wheat flour, water, egg, caramel</t>
-        </is>
-      </c>
-      <c r="D474" t="inlineStr">
-        <is>
-          <t>- portabella mushrooms → portabella mushroom (singular)
-(PAREN) - enzymes → enzyme (singular)
-(PAREN) - enzymes → enzyme (singular)
-- breadcrumbs → breadcrumb (singular)
-(PAREN) - enzymes → enzyme (singular)
-- eggs → egg (singular)
-- eggs → egg (singular)</t>
-        </is>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="n">
-        <v>6475</v>
-      </c>
-      <c r="B475" t="inlineStr">
-        <is>
-          <t>Filling: Ricotta Cheese (Pasteurized Milk, Whey, Cream, Vinegar, Salt, Stabilizers [Guar Gum, Locust Bean Gum, Xanthan Gum]), Goat Cheese (Pasteurized Goat Milk, Vegetal Rennet, Cheese Culture, Salt), White Cheddar Cheese (Pasteurized Milk, Culture, Salt, Enzymes), Tomatoes, Mozzarella Cheese (Pasteurized Cows Milk, Cheese Culture, Salt, Enzymes), Eggs, Breadcrumbs (Wheat Flour, Sugar, Yeast, Sea Salt), Parsley, Garlic, Salt, Black Pepper, Water. Pasta: Wheat Flour, Water, Eggs, Beta-Carotene</t>
-        </is>
-      </c>
-      <c r="C475" t="inlineStr">
-        <is>
-          <t>ricotta cheese (pasteurized milk, whey, cream, vinegar, salt, stabilizers (guar gum, locust bean gum, xanthan gum)), goat cheese (pasteurized goat milk, vegetable rennet, cheese culture, salt), white cheddar cheese (pasteurized milk, culture, salt, enzyme), tomato, mozzarella cheese (pasteurized cows milk, cheese culture, salt, enzyme), egg, breadcrumb (wheat flour, sugar, yeast, sea salt), parsley, garlic, salt, black pepper, water. pasta, wheat flour, water, egg, beta carotene</t>
-        </is>
-      </c>
-      <c r="D475" t="inlineStr">
-        <is>
-          <t>(PAREN) - vegetal rennet  → vegetable rennet  (93%)
-(PAREN) - enzymes → enzyme (singular)
-- tomatoes → tomato (singular)
-(PAREN) - enzymes → enzyme (singular)
-- eggs → egg (singular)
-- breadcrumbs → breadcrumb (singular)
-- eggs → egg (singular)
-- beta-carotene  → beta carotene  (92%)</t>
+- beta-carotene → beta carotene (92%)</t>
         </is>
       </c>
     </row>
@@ -10188,15 +10291,15 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>enriched wheat flour (wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), whey, blueberry flavored nugget (dextrose, sugar, wheat flour, modified corn starch, soybean oil, natural flavor, dried blueberry, cellulose gum, citric acid, maltodextrin, blue 2 lake, red 40 lake), vegetable oil (canola and/or soybean oil), sugar, 2% or less of, leavening (sodium acid pyrophosphate, sodium bicarbonate), soy lecithin (emulsifier), egg, calcium carbonate, salt, natural and artificial flavor, reduced iron, niacinamide, vitamin a palmitate, riboflavin (vitamin b2), pyridoxine hydrochloride (vitamin b6), thiamin mononitrate (vitamin b1), vitamin b12</t>
+          <t>enriched wheat flour (wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), whey, blueberry flavored nugget (dextrose, sugar, wheat flour, modified corn starch, soybean oil, natural flavor, dried blueberry, cellulose gum, citric acid, maltodextrin, blue 2 lake, red 40 lake), vegetable oil (canola and/or soybean oil), sugar, 2% or less of: leavening (sodium acid pyrophosphate, sodium bicarbonate), soy lecithin (emulsifier), egg, calcium carbonate, salt, natural and artificial flavor, reduced iron, niacinamide, vitamin a palmitate, riboflavin (vitamin b2), pyridoxine hydrochloride (vitamin b6), thiamin mononitrate (vitamin b1), vitamin b12</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>(PAREN) - modified cornstarch  → modified corn starch  (97%)
-(PAREN) - natural flavors → natural flavor (singular)
-(PAREN) - dried blueberries → dried blueberry (singular)
-- blueberry flavored nuggets → blueberry flavored nugget (singular)
+          <t>- blueberry flavored nuggets → blueberry flavored nugget (singular)
+- modified cornstarch → modified corn starch (97%)
+- natural flavors → natural flavor (singular)
+- dried blueberries → dried blueberry (singular)
 - eggs → egg (singular)</t>
         </is>
       </c>
@@ -10212,7 +10315,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>enriched wheat flour (wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), whey, vegetable oil, (canola and/or soybean oil), buttermilk, 2% or less of, leavening (sodium acid pyrophosphate, sodium bicarbonate), egg, soy lecithin (emulsifier), sugar, calcium carbonate, salt, reduced iron, niacinamide, vitamin a palmitate, riboflavin (vitamin b2), pyridoxine hydrochloride (vitamin b6), thiamin mononitrate (vitamin b1), vitamin b12</t>
+          <t>enriched wheat flour (wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), whey, vegetable oil (canola and/or soybean oil), buttermilk, 2% or less of: leavening (sodium acid pyrophosphate, sodium bicarbonate), egg, soy lecithin (emulsifier), sugar, calcium carbonate, salt, reduced iron, niacinamide, vitamin a palmitate, riboflavin (vitamin b2), pyridoxine hydrochloride (vitamin b6), thiamin mononitrate (vitamin b1), vitamin b12</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -10232,7 +10335,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>enriched wheat flour (wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), whey, vegetable oil (canola and/or soybean oil), wheat bran, whole wheat flour, water, oat flour, corn flour, 2% or less of, sugar, leavening (sodium acid pyrophosphate, sodium bicarbonate), soy lecithin (emulsifier), calcium carbonate, egg white, salt, reduced iron, niacinamide, vitamin a palmitate, riboflavin (vitamin b2), pyridoxine hydrochloride (vitamin b6), thiamin mononitrate (vitamin b1), vitamin b12</t>
+          <t>enriched wheat flour (wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), whey, vegetable oil (canola and/or soybean oil), wheat bran, whole wheat flour, water, oat flour, corn flour, 2% or less of: sugar, leavening (sodium acid pyrophosphate, sodium bicarbonate), soy lecithin (emulsifier), calcium carbonate, egg white, salt, reduced iron, niacinamide, vitamin a palmitate, riboflavin (vitamin b2), pyridoxine hydrochloride (vitamin b6), thiamin mononitrate (vitamin b1), vitamin b12</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -10252,7 +10355,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>enriched wheat flour (wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), whey, vegetable oil, (canola and/or soybean oil), buttermilk, 2% or less of, leavening (sodium acid pyrophosphate, sodium bicarbonate), egg, soy lecithin (emulsifier), sugar, calcium carbonate, salt, reduced iron, niacinamide, vitamin a palmitate, riboflavin (vitamin b2), pyridoxine hydrochloride (vitamin b6), thiamin mononitrate (vitamin b1), vitamin b12</t>
+          <t>enriched wheat flour (wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), whey, vegetable oil (canola and/or soybean oil), buttermilk, 2% or less of: leavening (sodium acid pyrophosphate, sodium bicarbonate), egg, soy lecithin (emulsifier), sugar, calcium carbonate, salt, reduced iron, niacinamide, vitamin a palmitate, riboflavin (vitamin b2), pyridoxine hydrochloride (vitamin b6), thiamin mononitrate (vitamin b1), vitamin b12</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -10272,12 +10375,13 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>enriched wheat flour (wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), whey, vegetable oil (canola and/or soybean oil), cinnamon flake (sugar, vegetable oil (palm and palm kernel oils), cinnamon, soy lecithin), sugar, 2% or less of, leavening (sodium acid pyrophosphate, sodium bicarbonate), egg, soy lecithin (emulsifier), calcium carbonate, spice (includes cinnamon), natural and artificial flavor, salt, reduced iron, niacinamide, vitamin a palmitate, riboflavin (vitamin b2), pyridoxine hydrochloride (vitamin b6), thiamin mononitrate (vitamin b1), vitamin b12</t>
+          <t>enriched wheat flour (wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), whey, vegetable oil (canola and/or soybean oil), cinnamon flake (sugar, vegetable oil (palm and palm kernel oil), cinnamon, soy lecithin), sugar, 2% or less of: leavening (sodium acid pyrophosphate, sodium bicarbonate), egg, soy lecithin (emulsifier), calcium carbonate, spice (includes cinnamon), natural and artificial flavor, salt, reduced iron, niacinamide, vitamin a palmitate, riboflavin (vitamin b2), pyridoxine hydrochloride (vitamin b6), thiamin mononitrate (vitamin b1), vitamin b12</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>- cinnamon flakes (sugar, vegetable oil (palm and palm kernel oils), cinnamon, soy lecithin) → cinnamon flake (sugar, vegetable oil (palm and palm kernel oils), cinnamon, soy lecithin) (singular)
+          <t>- cinnamon flakes → cinnamon flake (singular)
+- palm and palm kernel oils → palm and palm kernel oil (singular)
 - eggs → egg (singular)
 - spices → spice (singular)
 - natural and artificial flavors → natural and artificial flavor (singular)</t>
@@ -10295,18 +10399,18 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>enriched wheat flour (wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, whey, sugar, natural and artificial blueberry flavor (sugar, hydrogenated palm oil, corn flour, corn starch, natural and artificial flavor, dried blueberry, blue 2 lake, red 40 lake), vegetable oil (canola and/or soybean oil), egg, 2% or less of, leavening (sodium acid pyrophosphate, sodium bicarbonate, monocalcium phosphate), cornmeal, salt, natural flavor</t>
+          <t>enriched wheat flour (wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, whey, sugar, natural and artificial blueberry flavor (sugar, hydrogenated palm oil, corn flour, corn starch, natural and artificial flavor, dried blueberry, blue 2 lake, red 40 lake), vegetable oil (canola and/or soybean oil), egg, 2% or less of: leavening (sodium acid pyrophosphate, sodium bicarbonate, monocalcium phosphate), cornmeal, salt, natural flavor</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>(PAREN) - cornstarch  → corn starch  (95%)
-(PAREN) - dried blueberries → dried blueberry (singular)
-- natural and artificial blueberry flavored bits → natural and artificial blueberry flavored bit (singular)
-- natural and artificial blueberry flavored bit (sugar, hydrogenated palm oil, corn flour, corn starch, natural and artificial flavor, dried blueberry, blue 2 lake, red 40 lake) → artificial blueberry flavor (sugar, hydrogenated palm oil, corn flour, corn starch, natural and artificial flavor, dried blueberry, blue 2 lake, red 40 lake) (90%)
+          <t>- natural and artificial blueberry flavored bits → natural and artificial blueberry flavored bit (singular)
+- natural and artificial blueberry flavored bit → artificial blueberry flavor (90%)
+- cornstarch → corn starch (95%)
+- dried blueberries → dried blueberry (singular)
 - eggs → egg (singular)
-(PAREN) - mono calcium phosphate  → monocalcium phosphate  (98%)
-- corn meal  → cornmeal  (94%)</t>
+- mono calcium phosphate → monocalcium phosphate (98%)
+- corn meal → cornmeal (94%)</t>
         </is>
       </c>
     </row>
@@ -10321,7 +10425,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>whey, enriched wheat flour (wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, corn flour, vegetable oil (canola and/or soybean oil), egg, 2% or less of, salt, leavening (sodium bicarbonate, sodium aluminum phosphate, monocalcium phosphate, aluminum sulfate), reduced iron, niacinamide, vitamin a palmitate, riboflavin (vitamin b2), pyridoxine hydrochloride (vitamin b6), thiamin mononitrate (vitamin b1), vitamin b12</t>
+          <t>whey, enriched wheat flour (wheat flour, niacin, reduced iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, corn flour, vegetable oil (canola and/or soybean oil), egg, 2% or less of: salt, leavening (sodium bicarbonate, sodium aluminum phosphate, monocalcium phosphate, aluminum sulfate), reduced iron, niacinamide, vitamin a palmitate, riboflavin (vitamin b2), pyridoxine hydrochloride (vitamin b6), thiamin mononitrate (vitamin b1), vitamin b12</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -10341,10 +10445,20 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>wrapper, enriched, malted wheat flour (flour, malted barley flour, niacin, ferrous sulfate, thiamine mononitrate, riboflavin, folic acid), water, 2% or less of, salt, sugar, soybean oil, sweet whey. filling, sauce (water, tomato paste, seasoning blend (cornstarch-modified, salt, sugar, contains 2% or less of: xanthan gum, spices, soybean oil, dehydrated garlic, dehydrated onion, paprika, citric acid, beet powder (color), guar gum, soy flour, parmesan cheese (cultured part-skim milk, salt, enzymes))), restricted melt cheese blend (mozzarella cheese (pasteurized milk, cheese cultures, salt, enzymes), imitation cheese (water, palm shortening, modified food starch, whey powder, sodium aluminum phosphate, salt, gum blend (xanthan gum, locust bean gum, guar gum), citric acid, sorbic acid, disodium phosphate, sodium citrate, anti-caking blend (corn starch, calcium sulfate))), textured soy flour, 2% or less of, methylcellulose. fried in vegetable oil</t>
-        </is>
-      </c>
-      <c r="D483" t="inlineStr"/>
+          <t>wrapper: enriched, malted wheat flour (flour, malted barley flour, niacin, ferrous sulfate, thiamine mononitrate, riboflavin, folic acid), water, 2% or less of: salt, sugar, soybean oil, sweet whey. filling: sauce (water, tomato paste, seasoning blend (corn starch modified, salt, sugar, 2% or less of: xanthan gum, spice, soybean oil, dehydrated garlic, dehydrated onion, paprika, citric acid, beet powder (color), guar gum, soy flour, parmesan cheese (cultured part skim milk, salt, enzyme))), restricted melt cheese blend (mozzarella cheese (pasteurized milk, cheese culture, salt, enzyme), imitation cheese (water, palm shortening, modified food starch, whey powder, sodium aluminum phosphate, salt, gum blend (xanthan gum, locust bean gum, guar gum), citric acid, sorbic acid, disodium phosphate, sodium citrate, anti caking blend (corn starch, calcium sulfate))), textured soy flour, 2% or less of: methylcellulose. fried in vegetable oil</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>- cornstarch-modified → corn starch modified (92%)
+- spices → spice (singular)
+- cultured part-skim milk → cultured part skim milk (96%)
+- enzymes → enzyme (singular)
+- cheese cultures → cheese culture (singular)
+- enzymes → enzyme (singular)
+- anti-caking blend → anti caking (91%)</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -10357,7 +10471,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>wrapper, enriched, malted wheat flour (flour, malted barley flour, niacin, ferrous sulfate, thiamine mononitrate, riboflavin, folic acid), water, 2% or less of, salt, sugar, soybean oil, sweet whey. filling, sauce (water, tomato paste, seasoning blend (cornstarch-modified, salt, sugar, contains 2% or less of: xanthan gum, spices, soybean oil, dehydrated garlic, dehydrated onion, paprika, citric acid, beet powder (color), guar gum, soy flour, parmesan cheese (cultured part skim milk, salt, enzymes)), cooked pork &amp; chicken pizza topping (sausage made with (pork, mechanically separated chicken, water, seasoning (spices, corn syrup solids, salt, dry garlic, chili pepper, caramel color), caramel color, water, textured vegetable protein (soy protein concentrate, caramel color))), pepperoni (pork, beef, salt, contains 2% or less of: lactic acid starter culture, oleoresin of paprika, sodium nitrite, bha, bht, citric acid. may also contain 2% or less of: spices, spice extractives, dextrose, sugar, flavorings, sodium ascorbate, water, garlic powder), restricted melt cheese blend (mozzarella cheese (pasteurized milk, cheese cultures, salt, enzymes), imitation cheese (water, palm shortening, modified food starch, whey powder, sodium aluminum phosphate, salt, gum blend (xanthan gum, locust bean gum, guar gum), citric acid, sorbic acid, disodium phosphate, sodium citrate, anti-caking blend (corn starch, calcium sulfate))), contains 2% or less of: textured soy flour, methylcellulose. fried in vegetable oil</t>
+          <t>wrapper: enriched, malted wheat flour (flour, malted barley flour, niacin, ferrous sulfate, thiamine mononitrate, riboflavin, folic acid), water, 2% or less of: salt, sugar, soybean oil, sweet whey. filling: sauce (water, tomato paste, seasoning blend (cornstarch-modified, salt, sugar, 2% or less of: xanthan gum, spices, soybean oil, dehydrated garlic, dehydrated onion, paprika, citric acid, beet powder (color), guar gum, soy flour, parmesan cheese (cultured part skim milk, salt, enzymes)), cooked pork &amp; chicken pizza topping (sausage made with (pork, mechanically separated chicken, water, seasoning (spices, corn syrup solids, salt, dry garlic, chili pepper, caramel color), caramel color, water, textured vegetable protein (soy protein concentrate, caramel color))), pepperoni (pork, beef, salt, 2% or less of: lactic acid starter culture, oleoresin of paprika, sodium nitrite, bha, bht, citric acid. may also contain 2% or less of: spices, spice extractives, dextrose, sugar, flavorings, sodium ascorbate, water, garlic powder), restricted melt cheese blend (mozzarella cheese (pasteurized milk, cheese cultures, salt, enzymes), imitation cheese (water, palm shortening, modified food starch, whey powder, sodium aluminum phosphate, salt, gum blend (xanthan gum, locust bean gum, guar gum), citric acid, sorbic acid, disodium phosphate, sodium citrate, anti-caking blend (corn starch, calcium sulfate))), 2% or less of: textured soy flour, methylcellulose. fried in vegetable oil</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -10377,13 +10491,13 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>bread, enriched wheat flour (flour, niacin, iron, thiamine mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, soybean oil, yeast, sugar, salt, calcium propionate (preservative), microbial enzyme, ascorbic acid. spread, water, soybean oil, dehydrated garlic, palm oil, whey powder, salt, modified corn starch, distilled vegetable monoglyceride, dehydrated parsley, modified tapioca starch, xanthan gum citric acid, natural and artificial flavor, beta carotene (color). cheese, mozzarella, provolone and parmesan cheese (pasteurized milk, bacterial culture, salt, enzyme, natural smoke flavor), potato starch and powdered cellulose (to prevent caking)</t>
+          <t>bread: enriched wheat flour (flour, niacin, iron, thiamine mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, soybean oil, yeast, sugar, salt, calcium propionate (preservative), microbial enzyme, ascorbic acid. spread: water, soybean oil, dehydrated garlic, palm oil, whey powder, salt, modified corn starch, distilled vegetable monoglyceride, dehydrated parsley, modified tapioca starch, xanthan gum citric acid, natural and artificial flavor, beta carotene (color), . cheese: mozzarella, provolone and parmesan cheese (pasteurized milk, bacterial culture, salt, enzyme, natural smoke flavor), potato starch and powdered cellulose (to prevent caking)</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
           <t>- microbial enzymes → microbial enzyme (singular)
-(PAREN) - enzymes → enzyme (singular)</t>
+- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -10398,7 +10512,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>bread, enriched wheat flour (flour, niacin, reduced iron, thiamine mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, soybean oil, sugar, yeast, salt, fermented wheat flour, calcium propionate (preservative), ascorbic acid, microbial enzymes. spread, water, soybean oil, dehydrated garlic, palm oil, whey powder, salt, modified corn starch, vegetable monoglyceride, dehydrated parsley, modified tapioca starch, xanthan gum, citric acid, natural and artificial flavor, beta carotene (color)</t>
+          <t>bread: enriched wheat flour (flour, niacin, reduced iron, thiamine mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, soybean oil, sugar, yeast, salt, fermented wheat flour, calcium propionate (preservative), ascorbic acid, microbial enzymes. spread: water, soybean oil, dehydrated garlic, palm oil, whey powder, salt, modified corn starch, vegetable monoglyceride, dehydrated parsley, modified tapioca starch, xanthan gum, citric acid, natural and artificial flavor, beta carotene (color)</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
@@ -10414,7 +10528,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>bread, enriched wheat flour (flour, niacin, iron, thiamine mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid, water, yeast, sugar, soybean oil, salt, whey powder, mono and diglycerides, citric acid, yeast, calcium propionate (preservative), microbial enzymes, ascorbic acid. spread: soybean oil, water, parmesan cheese (pasteurized milk, salt, bacterial, culture, lipase, calcium chloride, mocrobial enzyme, corn starch and/or cellulose (as an anticaking agent)), dehydrated garlic, palm oil, whey powder, salt, modified corn starch, distilled vegetable monoglyceride,natural and artificial flavors, dehydrated parsley, citric acid, modified tapioca starch, xanthan gum, beta carotene (color)</t>
+          <t>bread: enriched wheat flour (flour, niacin, iron, thiamine mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid, water, yeast, sugar, soybean oil, salt, whey powder, mono and diglycerides, citric acid, yeast, calcium propionate (preservative), microbial enzymes, ascorbic acid. spread: soybean oil, water, parmesan cheese (pasteurized milk, salt, bacterial, culture, lipase, calcium chloride, mocrobial enzyme, corn starch and/or cellulose (as an anticaking agent)), dehydrated garlic, palm oil, whey powder, salt, modified corn starch, distilled vegetable monoglyceride, natural and artificial flavors, dehydrated parsley, citric acid, modified tapioca starch, xanthan gum, beta carotene (color)</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -10460,10 +10574,10 @@
       <c r="D489" t="inlineStr">
         <is>
           <t>- blueberries → blueberry (singular)
-- degerminated yellow corn meal  → degerminated yellow corn cereal  (93%)
+- degerminated yellow corn meal → degerminated yellow corn cereal (93%)
 - natural and artificial flavors → natural and artificial flavor (singular)
-(PAREN) - blueberries → blueberry (singular)
-- dried blueberries → dried blueberry (singular)</t>
+- dried blueberries → dried blueberry (singular)
+- blueberries → blueberry (singular)</t>
         </is>
       </c>
     </row>
@@ -10478,12 +10592,12 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>enriched flour (wheat flour, malted barley flour, niacin, reduced iron, thiamine mononitrate, riboflavin, folic acid), water, sugar, less than 2% of each of the following, dried toasted sliced onion, dehydrated onion, salt, yeast, wheat gluten, degerminated yellow corn cereal, ascorbic acid added as a dough conditioner, microcrystalline cellulose, corn starch</t>
+          <t>enriched flour (wheat flour, malted barley flour, niacin, reduced iron, thiamine mononitrate, riboflavin, folic acid), water, sugar, less than 2% of each of the following: dried toasted sliced onion, dehydrated onion, salt, yeast, wheat gluten, degerminated yellow corn cereal, ascorbic acid added as a dough conditioner, microcrystalline cellulose, corn starch</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>- degerminated yellow corn meal  → degerminated yellow corn cereal  (93%)</t>
+          <t>- degerminated yellow corn meal → degerminated yellow corn cereal (93%)</t>
         </is>
       </c>
     </row>
@@ -10498,13 +10612,13 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>enriched flour (wheat flour, malted barley flour, niacin, reduced iron, thiamine mononitrate, riboflavin, folic acid), water, raisin, sugar, honey, less than 2% of each of the following, yeast, salt, wheat gluten, cinnamon, sodium stearoyl lactylate, degerminated yellow corn cereal, ascorbic acid added as a dough conditioner, microcrystalline cellulose, corn starch</t>
+          <t>enriched flour (wheat flour, malted barley flour, niacin, reduced iron, thiamine mononitrate, riboflavin, folic acid), water, raisin, sugar, honey, less than 2% of each of the following: yeast, salt, wheat gluten, cinnamon, sodium stearoyl lactylate, degerminated yellow corn cereal, ascorbic acid added as a dough conditioner, microcrystalline cellulose, corn starch</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
           <t>- raisins → raisin (singular)
-- degerminated yellow corn meal  → degerminated yellow corn cereal  (93%)</t>
+- degerminated yellow corn meal → degerminated yellow corn cereal (93%)</t>
         </is>
       </c>
     </row>
@@ -10535,13 +10649,14 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>cooked egg noodle (water, durum wheat semolina, egg, salt), rehydrated skim milk (water, powder skim milk), hard grating cheese (milk, salt, enzymes (contains egg)), butter, sunflower oil, wheat flour, salt, spice</t>
+          <t>cooked egg noodle (water, durum wheat semolina, egg, salt), rehydrated skim milk (water, powder skim milk), hard grating cheese (milk, salt, enzyme (egg)), butter, sunflower oil, wheat flour, salt, spice</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
         <is>
           <t>- cooked egg noodles → cooked egg noodle (singular)
-- cooked egg noodle (water, durum wheat semolina, egg, salt) → egg noodle (water, durum wheat semolina, egg, salt) (76%)
+- cooked egg noodle → egg noodle (76%)
+- enzymes → enzyme (singular)
 - spices → spice (singular)</t>
         </is>
       </c>
@@ -10562,10 +10677,9 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>(PAREN) - potatoes → potato (singular)
-- cooked potato gnocchi (potato, durum wheat semolina, water, salt) → potato gnocchi (potato, durum wheat semolina, water, salt) (80%)
+          <t>- potatoes → potato (singular)
 - tomatoes → tomato (singular)
-(PAREN) - enzymes → enzyme (singular)</t>
+- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -10596,12 +10710,12 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>enriched flour (wheat flour, malted barley flour, niacin, reduced iron, thiamine mononitrate, riboflavin, folic acid), water, sugar, less than 2% of each of the following, yeast, dried toasted sliced onion, dehydrated onion, salt, wheat gluten, degerminated yellow corn cereal, ascorbic acid added as a dough conditioner, microcrystalline cellulose, corn starch</t>
+          <t>enriched flour (wheat flour, malted barley flour, niacin, reduced iron, thiamine mononitrate, riboflavin, folic acid), water, sugar, less than 2% of each of the following: yeast, dried toasted sliced onion, dehydrated onion, salt, wheat gluten, degerminated yellow corn cereal, ascorbic acid added as a dough conditioner, microcrystalline cellulose, corn starch</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>- degerminated yellow corn meal  → degerminated yellow corn cereal  (93%)</t>
+          <t>- degerminated yellow corn meal → degerminated yellow corn cereal (93%)</t>
         </is>
       </c>
     </row>
@@ -10616,7 +10730,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>enriched wheat flour (wheat flour, niacin, iron, thiamin mononitrate, riboflavin, folic acid), lard and hydrogenated lard with bha and bht added to protect flavor, water, sugar. contains 2% or less of, salt, baking soda, sodium metabisulfite (preservative), yellow 5, yellow 6</t>
+          <t>enriched wheat flour (wheat flour, niacin, iron, thiamin mononitrate, riboflavin, folic acid), lard and hydrogenated lard with bha and bht added to protect flavor, water, sugar. contains 2% or less of: salt, baking soda, sodium metabisulfite (preservative), yellow 5, yellow 6</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
@@ -10657,9 +10771,9 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>(PAREN) - potatoes → potato (singular)
-(PAREN) - mono- and diglycerides  → mono and diglycerides  (98%)
-- potato flakes → potato flake (singular)
+          <t>- potato flakes → potato flake (singular)
+- potatoes → potato (singular)
+- mono- and diglycerides → mono and diglycerides (98%)
 - onions → onion (singular)
 - eggs → egg (singular)</t>
         </is>

--- a/cleaned_ingredients.xlsx
+++ b/cleaned_ingredients.xlsx
@@ -694,13 +694,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>part skim milk, cheese culture, salt, enzymes. aged over 60 day</t>
+          <t>part skim milk, cheese culture, salt, enzyme, aged over 60 day</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>- part-skim milk → part skim milk (93%)
-- enzymes. aged over 60 days → enzymes. aged over 60 day (singular)</t>
+- enzymes → enzyme (singular)
+- aged over 60 days → aged over 60 day (singular)</t>
         </is>
       </c>
     </row>
@@ -736,7 +737,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>reduced fat cheddar cheese (pasteurized part skim milk, cheese culture, salt, enzyme, annatto color, vitamin a palmitate), reduced fat monterey jack cheese (pasteurized part skim milk, cheese culture, salt, enzyme, vitamin a palmitate), reduced fat asadero cheese (pasteurized part skim milk, cheese culture, salt, enzyme, vitamin a palmitate), reduced fat queso quesadilla cheese (pasteurized part skim milk, cheese culture, salt, enzyme, vitamin a palmitate), potato starch and powdered cellulose added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>reduced fat cheddar cheese (pasteurized part skim milk, cheese culture, salt, enzyme, annatto color, vitamin a palmitate), reduced fat monterey jack cheese (pasteurized part skim milk, cheese culture, salt, enzyme, vitamin a palmitate), reduced fat asadero cheese (pasteurized part skim milk, cheese culture, salt, enzyme, vitamin a palmitate), reduced fat queso quesadilla cheese (pasteurized part skim milk, cheese culture, salt, enzyme, vitamin a palmitate), potato starch and powdered cellulose added to prevent caking, natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1349,7 +1350,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>tuna salad, light tuna ( (yellowfin), water, vegetable broth (soybean), salt), mayonnaise (soybean oil, vinegar, egg, water, salt, egg yolk, sugar, calcium disodium edta (to protect flavor), dried garlic, dried onion, natural flavor), celery, bread crumb (enriched wheat flour, yeast, sugar, salt, soybean oil), .wheat bread, pullman (enriched bleached flour (bleached wheat flour, malted barley flour, niacin, reduced iron, ascorbic acid aded as a dough conditioner, thiamine mononitrate, riboflavin, folic acid), water, cracked wheat, high fructose corn syrup, whole wheat flour, yeast, wheat gluten, rolled oat, partially hydrogenated cottonseed oil, less than 2% of each of the following: corn syrup, salt, wheat bran, oat bran, soy lecithin, caramel color, calcium propionate (preservative), azodicarbonamide, ascorbic acid added as a dough conditioner, carbamide, calcium peroxide, calcium phosphate)</t>
+          <t>tuna salad, light tuna ((yellowfin), water, vegetable broth (soybean), salt), mayonnaise (soybean oil, vinegar, egg, water, salt, egg yolk, sugar, calcium disodium edta (to protect flavor), dried garlic, dried onion, natural flavor), celery, bread crumb (enriched wheat flour, yeast, sugar, salt, soybean oil), wheat bread, pullman (enriched bleached flour (bleached wheat flour, malted barley flour, niacin, reduced iron, ascorbic acid aded as a dough conditioner, thiamine mononitrate, riboflavin, folic acid), water, cracked wheat, high fructose corn syrup, whole wheat flour, yeast, wheat gluten, rolled oat, partially hydrogenated cottonseed oil, less than 2% of each of the following: corn syrup, salt, wheat bran, oat bran, soy lecithin, caramel color, calcium propionate (preservative), azodicarbonamide, ascorbic acid added as a dough conditioner, carbamide, calcium peroxide, calcium phosphate)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2115,7 +2116,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ice cream (cream, milk, buttermilk, whey, sugar, corn syrup, strawberry, skim milk, 1% or less of natural flavor, carob bean gum, cellulose gum, carrageenan, mono and diglycerides, beet juice for color), . sugar cookie (enriched bleached wheat flour (wheat flour, niacin, reduced iron, thiamin mononitrate, riboflavin, folic acid), sugar, palm oil, water, invert sugar, potato starch, buttermilk, salt, egg, vanilla, baking powder (sodium bicarbonate, sodium aluminum sulfate, corn starch, calcium sulfate, monocalcium phosphate), baking soda)</t>
+          <t>ice cream (cream, milk, buttermilk, whey, sugar, corn syrup, strawberry, skim milk, 1% or less of natural flavor, carob bean gum, cellulose gum, carrageenan, mono and diglycerides, beet juice for color), sugar cookie (enriched bleached wheat flour (wheat flour, niacin, reduced iron, thiamin mononitrate, riboflavin, folic acid), sugar, palm oil, water, invert sugar, potato starch, buttermilk, salt, egg, vanilla, baking powder (sodium bicarbonate, sodium aluminum sulfate, corn starch, calcium sulfate, monocalcium phosphate), baking soda)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3556,14 +3557,16 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>water, hydrogenated palm oil, corn syrup, sugar, sorbitol, less than 2% of: fructose, cellulose gel, sodium caseinate (milk derivative), lactic acid, corn starch, sorbitan monostearate, soy lecithin, disodium phosphate, salt, cellulose gum, polysorbate 60, datem, mono and diglycerides, polysorbate 80, sodium alginate, natural and artificial flavors. propellant: nitrous oxide</t>
+          <t>water, hydrogenated palm oil, corn syrup, sugar, sorbitol, less than 2% of: fructose, cellulose gel, sodium caseinate (milk derivative), lactic acid, corn starch, sorbitan monostearate, soy lecithin, disodium phosphate, salt, cellulose gum, polysorbate 60, datem, mono and diglycerides, polysorbate 80, sodium alginate, natural and artificial flavor, propellant nitrous oxide</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
           <t>- a milk derivative → milk derivative (94%)
 - ellulose gum → cellulose gum (96%)
-- mono- and diglycerides → mono and diglycerides (98%)</t>
+- mono- and diglycerides → mono and diglycerides (98%)
+- natural and artificial flavors → natural and artificial flavor (singular)
+- propellant: nitrous oxide → propellant nitrous oxide (98%)</t>
         </is>
       </c>
     </row>
@@ -3578,14 +3581,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>pasteurized grade a nonfat milk, fruit blend (water, pineapple, mango, fructose, passion fruit juice, sugar, modified corn starch, pectin, guar gum, potassium sorbate added to maintain freshness, vitamin a acetate, citric acid, vitamin d, malic acid, sodium citrate), . contains 0.5% or less of: natural flavor, yogurt culture (l bulgaricus, s thermophilus), acesulfame potassium, sucralose</t>
+          <t>pasteurized grade a nonfat milk, fruit blend (water, pineapple, mango, fructose, passion fruit juice, sugar, modified corn starch, pectin, guar gum, potassium sorbate added to maintain freshness, vitamin a acetate, citric acid, vitamin d, malic acid, sodium citrate), 0.5% or less of: natural flavor, yogurt culture (l, bulgaricus, s, thermophilus), acesulfame potassium, sucralose</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>- yogurt cultures → yogurt culture (singular)
-- l. bulgaricus → l bulgaricus (96%)
-- s.thermophilus → s thermophilus (93%)</t>
+          <t>- yogurt cultures → yogurt culture (singular)</t>
         </is>
       </c>
     </row>
@@ -3600,16 +3601,15 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>fat free yogurt (cultured pasteurized grade a nonfat milk, kosher gelatin, lactic acid esters of mono and diglycerides, citric acid, malic acid, yogurt culture (l bulgaricus, s thermophilus), acesulfame potassium, natural flavor, sucralose), fruit blend (fructose, raspberry puree, water, modified corn starch, vegetable juice (for color), potassium sorbate added to maintain freshness, vitamin a acetate, vitamin d3), nitrogen. contain live and active culture</t>
+          <t>fat free yogurt (cultured pasteurized grade a nonfat milk, kosher gelatin, lactic acid esters of mono and diglycerides, citric acid, malic acid, yogurt culture (l, bulgaricus, s, thermophilus), acesulfame potassium, natural flavor, sucralose), fruit blend (fructose, raspberry puree, water, modified corn starch, vegetable juice (for color), potassium sorbate added to maintain freshness, vitamin a acetate, vitamin d3), nitrogen, live active culture</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
           <t>- lactic acid esters of mono and diglycerides → lactic acid ester of mono and diglycerides (singular)
 - yogurt cultures → yogurt culture (singular)
-- l. bulgaricus → l bulgaricus (96%)
-- s. thermophilus → s thermophilus (97%)
-- nitrogen. contains live and active cultures → nitrogen. contain live and active culture (singular)</t>
+- live and active cultures → live and active culture (singular)
+- live and active culture → live active culture (90%)</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>barbeque sauce: water, tomato paste, sugar, less than 2% of the following: salt, modified corn starch, spice, paprika, xanthan gum, onion and garlic powder, caramel color, spice extract, partially hydrogenated soybean oil, vinegar. pork and chicken rib shaped patties: pork, chicken, water, textured soy protein concentrate, less than 2% of the following: tomato powder, sugar, salt, sodium phosphate, vinegar powder (maltodextrin, modified food starch, vinegar solids), hydrolyzed soy protein, spice, onion powder, garlic powder, wheat flour, nonfat dry milk, natural hickory smoke flavor</t>
+          <t>barbeque sauce: water, tomato paste, sugar, less than 2% of the following: salt, modified corn starch, spice, paprika, xanthan gum, onion and garlic powder, caramel color, spice extract, partially hydrogenated soybean oil, vinegar, pork and chicken rib shaped patties: pork, chicken, water, textured soy protein concentrate, less than 2% of the following: tomato powder, sugar, salt, sodium phosphate, vinegar powder (maltodextrin, modified food starch, vinegar solids), hydrolyzed soy protein, spice, onion powder, garlic powder, wheat flour, nonfat dry milk, natural hickory smoke flavor</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -3713,13 +3713,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>fully cooked chicken crumbles: chicken, water, food starch, salt, natural flavoring. vegetables: water chestnut, onion, mushroom, green onion. stir fry sauce: water, soy sauce (water, wheat, soy bean, salt, lactic acid), oyster sauce (water, sugar, salt, oyster juice concentrate (oyster, water, salt), modified corn starch, alcohol, caramel color, fermented wheat protein, yeast extract, oyster extract), sesame oil, sugar, garlic puree (citric acid), ginger puree (ginger, water, citric acid), modified corn starch, caramel color, natural flavor. serving sauce: soy sauce (water, wheat, soybean, salt), sugar, rice vinegar, canola oil, cayenne pepper puree (cayenne pepper, salt, vinegar), sesame oil, sherry powder (maltodextrin, modified corn starch, sherry solids, corn syrup, malic acid, sorbic acid, sulfite, natural flavor), red chili pepper, xanthan gum, garlic powder, ginger powder</t>
+          <t>fully cooked chicken crumbles: chicken, water, food starch, salt, natural flavoring, vegetables: water chestnut, onion, mushroom, green onion, stir fry sauce: water, soy sauce (water, wheat, soy bean, salt, lactic acid), oyster sauce (water, sugar, salt, oyster juice concentrate (oyster, water, salt), modified corn starch, alcohol, caramel color, fermented wheat protein, yeast extract, oyster extract), sesame oil, sugar, garlic puree (citric acid), ginger puree (ginger, water, citric acid), modified corn starch, caramel color, natural flavor, serving sauce: soy sauce (water, wheat, soybean, salt), sugar, rice vinegar, canola oil, cayenne pepper puree (cayenne pepper, salt, vinegar), sesame oil, sherry powder (maltodextrin, modified corn starch, sherry solids, corn syrup, malic acid, sorbic acid, sulfite, natural flavor), red chili pepper, xanthan gum, garlic powder, ginger powder</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>- natural flavoring. vegetables: water chestnuts → natural flavoring. vegetables: water chestnut (singular)
-- natural flavoring. vegetables: water chestnut → flavoring. vegetables: water chestnut (64%)
+          <t>- vegetables: water chestnuts → vegetables: water chestnut (singular)
 - onions → onion (singular)
 - mushrooms → mushroom (singular)
 - soy beans → soy bean (singular)
@@ -4666,7 +4665,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, corn syrup, dextrose, leavening (baking soda, sodium acid pyrophosphate), . contains 2% or less of each of the following: beef tallow, salt, modified wheat starch, potassium chloride, artificial flavor, white corn flour, vegetable oil (soybean and/or cottonseed oil), potassium sorbate and tbhq and citric acid (preservative), soy flour</t>
+          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, corn syrup, dextrose, leavening (baking soda, sodium acid pyrophosphate), 2% or less of each of the following: beef tallow, salt, modified wheat starch, potassium chloride, artificial flavor, white corn flour, vegetable oil (soybean and/or cottonseed oil), potassium sorbate and tbhq and citric acid (preservative), soy flour</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -4709,7 +4708,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, vegetable oil (palm, soybean and/or cottonseed oil), sugar, leavening (baking soda, sodium acid pyrophosphate, sodium aluminum phosphate, aluminum sulfate), dextrose. contains 2% or less of each of the following: potassium chloride, salt, wheat gluten, sodium stearoyl lactylate, xanthan gum, propylene glycol alginate, artificial flavor, sodium alginate, potassium sorbate and tbhq (preservative), colored with (yellow 5, caramel color, yellow 6), soy flour</t>
+          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, vegetable oil (palm, soybean and/or cottonseed oil), sugar, leavening (baking soda, sodium acid pyrophosphate, sodium aluminum phosphate, aluminum sulfate), dextrose, 2% or less of each of the following: potassium chloride, salt, wheat gluten, sodium stearoyl lactylate, xanthan gum, propylene glycol alginate, artificial flavor, sodium alginate, potassium sorbate and tbhq (preservative), colored with (yellow 5, caramel color, yellow 6), soy flour</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -4731,7 +4730,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), wheat starch, lard and hydrogenated lard with bht added to protect flavor, water, sugar. contains 2% or less of each of the following: salt, xanthan gum, colored with (yellow 5, red 40), citric acid and sodium propionate and potassium sorbate added to retard spoilage, soy flour</t>
+          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), wheat starch, lard and hydrogenated lard with bht added to protect flavor, water, sugar, 2% or less of each of the following: salt, xanthan gum, colored with (yellow 5, red 40), citric acid and sodium propionate and potassium sorbate added to retard spoilage, soy flour</t>
         </is>
       </c>
       <c r="D215" t="inlineStr"/>
@@ -4769,7 +4768,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, water, vegetable oil (palm, soybean and/or cottonseed oil), . contains 2% or less of each of the following: leavening (baking soda, sodium acid pyrophosphate, sodium aluminum phosphate), corn syrup, cinnamon, egg, salt, corn starch, modified wheat starch, mono and diglycerides, natural and artificial flavor, maltodextrin, gum (xanthan, guar, carob bean), polysorbate 60, sorbic acid citric acid (preservative), colored with (yellow 5, yellow 6), soy flour</t>
+          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), sugar, water, vegetable oil (palm, soybean and/or cottonseed oil), 2% or less of each of the following: leavening (baking soda, sodium acid pyrophosphate, sodium aluminum phosphate), corn syrup, cinnamon, egg, salt, corn starch, modified wheat starch, mono and diglycerides, natural and artificial flavor, maltodextrin, gum (xanthan, guar, carob bean), polysorbate 60, sorbic acid citric acid (preservative), colored with (yellow 5, yellow 6), soy flour</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -4794,7 +4793,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, sugar, vegetable oil (palm, soybean and/or cottonseed oils), leavening (sodium acid pyrophosphate, baking soda, sodium aluminum (phosphate), . contains 2% or less of each of the following: corn syrup, dextrose, corn starch, cinnamon, salt, potassium chloride, wheat gluten, natural and artificial flavors, gums (xanthan, guar, carob bean), sodium stearoyl lactylate, polysorbate 60, autolyzed yeast, yeast, mono- and diglycerides, potassium sorbate and sorbic acid and citric acid (preservatives), colored with (yellow 5, yellow 6, caramel color), soy flour</t>
+          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, sugar, vegetable oil (palm, soybean and/or cottonseed oils), leavening (sodium acid pyrophosphate, baking soda, sodium aluminum (phosphate), 2% or less of each of the following: corn syrup, dextrose, corn starch, cinnamon, salt, potassium chloride, wheat gluten, natural and artificial flavors, gums (xanthan, guar, carob bean), sodium stearoyl lactylate, polysorbate 60, autolyzed yeast, yeast, mono- and diglycerides, potassium sorbate and sorbic acid and citric acid (preservatives), colored with (yellow 5, yellow 6, caramel color), soy flour</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -4814,7 +4813,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, vegetable oil (palm, soybean and/or cottonseed oil), buttermilk, dextrose, leavening (baking soda, sodium acid pyrophosphate, sodium aluminum phosphate, aluminum sulfate), . contains 2% or less of each of the following: sugar, modified wheat starch, salt, potassium chloride, xanthan gum, natural and artificial flavor, potassium sorbate (preservative), soy flour</t>
+          <t>enriched bleached flour (wheat flour, niacin, iron, thiamin mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, vegetable oil (palm, soybean and/or cottonseed oil), buttermilk, dextrose, leavening (baking soda, sodium acid pyrophosphate, sodium aluminum phosphate, aluminum sulfate), 2% or less of each of the following: sugar, modified wheat starch, salt, potassium chloride, xanthan gum, natural and artificial flavor, potassium sorbate (preservative), soy flour</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5180,7 +5179,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -5200,10 +5199,14 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzymes. potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr"/>
+          <t>pasteurized milk, cheese culture, salt, enzyme, potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>- enzymes → enzyme (singular)</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -5216,7 +5219,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>monterey jack cheese (pasteurized milk, cheese culture, salt, enzyme), cheddar cheese (pasteurized milk, cheese culture, salt, enzyme, annatto (color)), asadero cheese (pasteurized milk, cheese culture, salt, enzyme), quesadilla cheese (pasteurized milk, cheese culture, salt, enzyme), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>monterey jack cheese (pasteurized milk, cheese culture, salt, enzyme), cheddar cheese (pasteurized milk, cheese culture, salt, enzyme, annatto (color)), asadero cheese (pasteurized milk, cheese culture, salt, enzyme), quesadilla cheese (pasteurized milk, cheese culture, salt, enzyme), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -5224,8 +5227,7 @@
           <t>- enzymes → enzyme (singular)
 - enzymes → enzyme (singular)
 - enzymes → enzyme (singular)
-- enzymes → enzyme (singular)
-- . potato starch → potato starch (93%)</t>
+- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -5240,7 +5242,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -5260,13 +5262,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>- enzymes → enzyme (singular)
-- . potato starch → potato starch (93%)</t>
+          <t>- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -5302,7 +5303,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>low moisture part skim mozzarella cheese (pasteurized part skim milk, cheese culture, salt, enzyme), cheddar cheese (pasteurized milk, cheese culture, salt, enzyme, annatto (color)), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>low moisture part skim mozzarella cheese (pasteurized part skim milk, cheese culture, salt, enzyme), cheddar cheese (pasteurized milk, cheese culture, salt, enzyme, annatto (color)), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -5310,8 +5311,7 @@
           <t>- low-moisture part-skim mozzarella cheese → low moisture part skim mozzarella cheese (95%)
 - pasteurized part-skim milk → pasteurized part skim milk (96%)
 - enzymes → enzyme (singular)
-- enzymes → enzyme (singular)
-- . potato starch → potato starch (93%)</t>
+- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -5429,10 +5429,14 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzymes. potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr"/>
+          <t>pasteurized milk, cheese culture, salt, enzyme, potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>- enzymes → enzyme (singular)</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -5445,7 +5449,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzymes annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>pasteurized milk, cheese culture, salt, enzymes annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D250" t="inlineStr"/>
@@ -5461,12 +5465,13 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>pasteurized part skim milk, cheese culture, salt, enzymes. potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>pasteurized part skim milk, cheese culture, salt, enzyme, potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>- pasteurized part-skim milk → pasteurized part skim milk (96%)</t>
+          <t>- pasteurized part-skim milk → pasteurized part skim milk (96%)
+- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -5481,7 +5486,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -5501,12 +5506,13 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>pasteurized part skim milk, cheese culture, salt, enzymes. potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>pasteurized part skim milk, cheese culture, salt, enzyme, potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>- pasteurized part-skim milk → pasteurized part skim milk (96%)</t>
+          <t>- pasteurized part-skim milk → pasteurized part skim milk (96%)
+- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -5542,12 +5548,13 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>pasteurized part skim milk, cheese culture, salt, enzymes. potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>pasteurized part skim milk, cheese culture, salt, enzyme, potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>- pasteurized part-skim milk → pasteurized part skim milk (96%)</t>
+          <t>- pasteurized part-skim milk → pasteurized part skim milk (96%)
+- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -5567,8 +5574,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>- salt enzymes → salt enzyme (singular)
-- . potato starch → potato starch (93%)</t>
+          <t>- salt enzymes → salt enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -5583,14 +5589,13 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>reduced fat cheddar cheese (pasteurized part skim milk, cheese culture, salt, enzyme, annatto (vegetable color), vitamin a palmitate), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>reduced fat cheddar cheese (pasteurized part skim milk, cheese culture, salt, enzyme, annatto (vegetable color), vitamin a palmitate), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
           <t>- pasteurized part-skim milk → pasteurized part skim milk (96%)
-- enzymes → enzyme (singular)
-- . potato starch → potato starch (93%)</t>
+- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -5605,7 +5610,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>reduced fat monterey jack cheese (pasteurized part skim milk, cheese culture, salt, enzyme, vitamin a palmitate), reduced fat cheddar cheese (pasteurized part skim milk, cheese culture, salt, enzyme, annatto (color), vitamin a palmitate), reduced fat asadero cheese (pasteurized part skim milk, cheese culture, salt, enzyme), reduced fat quesadilla cheese (pasteurized part skim milk, cheese culture, salt, enzyme), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>reduced fat monterey jack cheese (pasteurized part skim milk, cheese culture, salt, enzyme, vitamin a palmitate), reduced fat cheddar cheese (pasteurized part skim milk, cheese culture, salt, enzyme, annatto (color), vitamin a palmitate), reduced fat asadero cheese (pasteurized part skim milk, cheese culture, salt, enzyme), reduced fat quesadilla cheese (pasteurized part skim milk, cheese culture, salt, enzyme), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -5617,8 +5622,7 @@
 - pasteurized part-skim milk → pasteurized part skim milk (96%)
 - enzymes → enzyme (singular)
 - pasteurized part-skim milk → pasteurized part skim milk (96%)
-- enzymes → enzyme (singular)
-- . potato starch → potato starch (93%)</t>
+- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -5633,13 +5637,12 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>- enzymes → enzyme (singular)
-- . potato starch → potato starch (93%)</t>
+          <t>- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -5654,14 +5657,13 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>sharp cheddar cheese (pasteurized milk, cheese culture, salt, enzyme), mild cheddar cheese (pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color)), potato starch, corn starch and calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>sharp cheddar cheese (pasteurized milk, cheese culture, salt, enzyme), mild cheddar cheese (pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color)), potato starch, corn starch and calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
           <t>- enzymes → enzyme (singular)
-- enzymes → enzyme (singular)
-- . potato starch → potato starch (93%)</t>
+- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -5676,13 +5678,12 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>pasteurized milk, cheese culture, salt, enzyme, annatto (vegetable color), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>- enzymes → enzyme (singular)
-- . potato starch → potato starch (93%)</t>
+          <t>- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -5697,7 +5698,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>monterey jack cheese (pasteurized milk, cheese culture, salt, enzyme), cheddar cheese (pasteurized milk, cheese culture, salt, enzyme, annatto (color)), asadero cheese (pasteurized milk, cheese culture, salt, enzyme), queso quesadilla cheese (pasteurized milk, cheese culture salt, enzyme), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>monterey jack cheese (pasteurized milk, cheese culture, salt, enzyme), cheddar cheese (pasteurized milk, cheese culture, salt, enzyme, annatto (color)), asadero cheese (pasteurized milk, cheese culture, salt, enzyme), queso quesadilla cheese (pasteurized milk, cheese culture salt, enzyme), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -5706,8 +5707,7 @@
 - enzymes → enzyme (singular)
 - enzymes → enzyme (singular)
 - enzymes → enzyme (singular)
-- enzymes → enzyme (singular)
-- . potato starch → potato starch (93%)</t>
+- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>monterey jack cheese (pasteurized milk, cheese culture, salt, enzymes), cheddar cheese (pasteurized milk, cheese culture, salt, enzymes, annatto (color)), asadero cheese (pasteurized), milk, cheese culture, salt, enzymes), queso quesadilla cheese (pasteurized), milk, cheese culture, salt, enzymes), potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>monterey jack cheese (pasteurized milk, cheese culture, salt, enzymes), cheddar cheese (pasteurized milk, cheese culture, salt, enzymes, annatto (color)), asadero cheese (pasteurized), milk, cheese culture, salt, enzymes), queso quesadilla cheese (pasteurized), milk, cheese culture, salt, enzymes), potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzyme, potato starch, corn starch, calcium sulfate added to prevent caking. natamycin (a natural mold inhibitor)</t>
+          <t>pasteurized milk, cheese culture, salt, enzyme, potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -6148,10 +6148,14 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzymes. potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr"/>
+          <t>pasteurized milk, cheese culture, salt, enzyme, potato starch, corn starch, calcium sulfate added to prevent caking, natamycin (a natural mold inhibitor)</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>- enzymes → enzyme (singular)</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -6206,7 +6210,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>pasteurized milk, cheese culture, salt, enzyme, vitamin d3. vitamin a palmitate</t>
+          <t>pasteurized milk, cheese culture, salt, enzyme, vitamin d3, vitamin a palmitate</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -6497,8 +6501,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>- enzymes → enzyme (singular)
-- . natamycin → natamycin (90%)</t>
+          <t>- enzymes → enzyme (singular)</t>
         </is>
       </c>
     </row>
@@ -6892,8 +6895,7 @@
           <t>- enzymes → enzyme (singular)
 - enzymes → enzyme (singular)
 - spices → spice (singular)
-- silicone dioxide → silicon dioxide (97%)
-- . potato starch → potato starch (93%)</t>
+- silicone dioxide → silicon dioxide (97%)</t>
         </is>
       </c>
     </row>
@@ -7183,15 +7185,13 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk and nonfat milk solids. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei</t>
+          <t>cultured pasteurized grade a nonfat milk and nonfat milk solid, active yogurt culture with l, bulgaricus, s, thermophilus, bifidus, l, acidophilus, l, casei</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>- cultured pasteurized grade a nonfat milk and nonfat milk solids. contains active yogurt cultures with l. bulgaricus → cultured pasteurized grade a nonfat milk and nonfat milk solids. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei → l casei (93%)</t>
+          <t>- cultured pasteurized grade a nonfat milk and nonfat milk solids → cultured pasteurized grade a nonfat milk and nonfat milk solid (singular)
+- active yogurt cultures with l → active yogurt culture with l (singular)</t>
         </is>
       </c>
     </row>
@@ -7206,15 +7206,13 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk and nonfat milk solids. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei</t>
+          <t>cultured pasteurized grade a lowfat milk and nonfat milk solid, active yogurt culture with l, bulgaricus, s, thermophilus, bifidus, l, acidophilus, l, casei</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>- cultured pasteurized grade a lowfat milk and nonfat milk solids. contains active yogurt cultures with l. bulgaricus → cultured pasteurized grade a lowfat milk and nonfat milk solids. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei → l casei (93%)</t>
+          <t>- cultured pasteurized grade a lowfat milk and nonfat milk solids → cultured pasteurized grade a lowfat milk and nonfat milk solid (singular)
+- active yogurt cultures with l → active yogurt culture with l (singular)</t>
         </is>
       </c>
     </row>
@@ -7229,17 +7227,15 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, sugar, nonfat milk solids, vanilla. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a nonfat milk, sugar, nonfat milk solids, vanilla, active yogurt culture with l, bulgaricus, s, thermophilus, bifidus, l, acidophilus, l, l casei culture</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
           <t>- nonfat milk solids → nonfat milk solid (singular)
-- vanilla. contains active yogurt cultures with l. bulgaricus → vanilla. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei cultures → l. casei culture (singular)
-- l. casei culture → l casei culture (97%)</t>
+- active yogurt cultures with l → active yogurt culture with l (singular)
+- casei cultures → casei culture (singular)
+- casei culture → l casei culture (93%)</t>
         </is>
       </c>
     </row>
@@ -7254,17 +7250,15 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, nonfat milk solids, vanilla. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, nonfat milk solids, vanilla, active yogurt culture with l, bulgaricus, s, thermophilus, bifidus, l, acidophilus, l, l casei culture</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
           <t>- nonfat milk solids → nonfat milk solid (singular)
-- vanilla. contains active yogurt cultures with l. bulgaricus → vanilla. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei cultures → l. casei culture (singular)
-- l. casei culture → l casei culture (97%)</t>
+- active yogurt cultures with l → active yogurt culture with l (singular)
+- casei cultures → casei culture (singular)
+- casei culture → l casei culture (93%)</t>
         </is>
       </c>
     </row>
@@ -7279,7 +7273,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, nonfat milk solids, modified corn starch, strawberry puree, fructose, kosher gelatin, natural flavor, potassium sorbate (to maintain freshness), citric acid, red 40, vitamin a palmitate, vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, nonfat milk solids, modified corn starch, strawberry puree, fructose, kosher gelatin, natural flavor, potassium sorbate (to maintain freshness), citric acid, red 40, vitamin a palmitate, vitamin d3, active yogurt culture with l, bulgaricus, s, thermophilus, bifidobacterium bb 12, l, acidophilus, l, l casei culture</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -7287,12 +7281,10 @@
           <t>- nonfat milk solids → nonfat milk solid (singular)
 - modified cornstarch → modified corn starch (97%)
 - natural flavors → natural flavor (singular)
-- vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
+- active yogurt cultures with l → active yogurt culture with l (singular)
 - bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei cultures → l. casei culture (singular)
-- l. casei culture → l casei culture (97%)</t>
+- casei cultures → casei culture (singular)
+- casei culture → l casei culture (93%)</t>
         </is>
       </c>
     </row>
@@ -7307,7 +7299,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, nonfat milk solids, modified corn starch, fructose, kosher gelatin, blueberry juice concentrate, natural flavor, fruit and vegetable juice concentrate for color (blueberry, purple carrot, black carrot), elderberry juice concentrate, citric acid, potassium sorbate (to maintain freshness), vitamin a palmitate and vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, nonfat milk solids, modified corn starch, fructose, kosher gelatin, blueberry juice concentrate, natural flavor, fruit and vegetable juice concentrate for color (blueberry, purple carrot, black carrot), elderberry juice concentrate, citric acid, potassium sorbate (to maintain freshness), vitamin a palmitate and vitamin d3, active yogurt culture with l, bulgaricus, s, thermophilus, bifidobacterium bb 12, l, acidophilus, l, l casei culture</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -7315,12 +7307,10 @@
           <t>- nonfat milk solids → nonfat milk solid (singular)
 - modified cornstarch → modified corn starch (97%)
 - natural flavors → natural flavor (singular)
-- vitamin a palmitate and vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin a palmitate and vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
+- active yogurt cultures with l → active yogurt culture with l (singular)
 - bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei cultures → l. casei culture (singular)
-- l. casei culture → l casei culture (97%)</t>
+- casei cultures → casei culture (singular)
+- casei culture → l casei culture (93%)</t>
         </is>
       </c>
     </row>
@@ -7335,17 +7325,14 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, sugar, strawberry, pectin, carob bean gum, natural flavor, citric acid, vegetable juice (for color), . contain live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
+          <t>cultured pasteurized grade a nonfat milk, sugar, strawberry, pectin, carob bean gum, natural flavor, citric acid, vegetable juice (for color), live active culture (s, thermophilus, l, bulgaricus, l, acidophilus, bifidus, l, casei)</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
           <t>- strawberries → strawberry (singular)
-- . contains live and active cultures → . contain live and active culture (singular)
-- s. thermophilus → s thermophilus (97%)
-- l. bulgaricus → l bulgaricus (96%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei → l casei (93%)</t>
+- live and active cultures → live and active culture (singular)
+- live and active culture → live active culture (90%)</t>
         </is>
       </c>
     </row>
@@ -7360,17 +7347,14 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, sugar, peach, natural flavor, carob bean gum, pectin, lemon juice concentrate. contain live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
+          <t>cultured pasteurized grade a nonfat milk, sugar, peach, natural flavor, carob bean gum, pectin, lemon juice concentrate, live active culture (s, thermophilus, l, bulgaricus, l, acidophilus, bifidus, l, casei)</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
           <t>- peaches → peach (singular)
-- lemon juice concentrate. contains live and active cultures → lemon juice concentrate. contain live and active culture (singular)
-- s. thermophilus → s thermophilus (97%)
-- l. bulgaricus → l bulgaricus (96%)
-- l.acidophilus → l acidophilus (92%)
-- l. casei → l casei (93%)</t>
+- live and active cultures → live and active culture (singular)
+- live and active culture → live active culture (90%)</t>
         </is>
       </c>
     </row>
@@ -7385,16 +7369,15 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, sugar, blueberry, corn starch, pectin, vegetable juice (for color), natural flavor, carob bean gum. contain live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
+          <t>cultured pasteurized grade a nonfat milk, sugar, blueberry, corn starch, pectin, vegetable juice (for color), natural flavor, carob bean gum, live active culture (s, thermophilus, l, bulgaricus, l acidophilus, bifidus, l casei)</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
           <t>- blueberries → blueberry (singular)
 - natural flavors → natural flavor (singular)
-- carob bean gum. contains live and active cultures → carob bean gum. contain live and active culture (singular)
-- s. thermophilus → s thermophilus (97%)
-- l. bulgaricus → l bulgaricus (96%)</t>
+- live and active cultures → live and active culture (singular)
+- live and active culture → live active culture (90%)</t>
         </is>
       </c>
     </row>
@@ -7409,18 +7392,15 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, sugar, raspberry, pectin, natural flavor, vegetable juice (for color), carob bean gum, raspberry seed, citric acid. contain live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
+          <t>cultured pasteurized grade a nonfat milk, sugar, raspberry, pectin, natural flavor, vegetable juice (for color), carob bean gum, raspberry seed, citric acid, live active culture (s, thermophilus, l, bulgaricus, l, acidophilus, bifidus, l, casei)</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
           <t>- raspberries → raspberry (singular)
 - raspberry seeds → raspberry seed (singular)
-- citric acid. contains live and active cultures → citric acid. contain live and active culture (singular)
-- s.thermophilus → s thermophilus (93%)
-- l. bulgaricus → l bulgaricus (96%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei → l casei (93%)</t>
+- live and active cultures → live and active culture (singular)
+- live and active culture → live active culture (90%)</t>
         </is>
       </c>
     </row>
@@ -7435,16 +7415,14 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, sugar, fructose, corn starch, locust bean gum, natural flavor, malic acid, vanilla extract. contain live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
+          <t>cultured pasteurized grade a nonfat milk, sugar, fructose, corn starch, locust bean gum, natural flavor, malic acid, vanilla extract, live active culture (s, thermophilus, l bulgaricus, l, acidophilus, bifidus, l, casei)</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
           <t>- cornstarch → corn starch (95%)
-- vanilla extract. contains live and active cultures → vanilla extract. contain live and active culture (singular)
-- s. thermophilus → s thermophilus (97%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei → l casei (93%)</t>
+- live and active cultures → live and active culture (singular)
+- live and active culture → live active culture (90%)</t>
         </is>
       </c>
     </row>
@@ -7459,16 +7437,14 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, sugar, cherry, cherry juice concentrate, pectin, natural flavor, carob bean gum, calcium chloride, citric acid. contain live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
+          <t>cultured pasteurized grade a nonfat milk, sugar, cherry, cherry juice concentrate, pectin, natural flavor, carob bean gum, calcium chloride, citric acid, live active culture (s, thermophilus, l bulgaricus, l, acidophilus, bifidus, l, casei)</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
           <t>- cherries → cherry (singular)
-- citric acid. contains live and active cultures → citric acid. contain live and active culture (singular)
-- s. thermophilus → s thermophilus (97%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei → l casei (93%)</t>
+- live and active cultures → live and active culture (singular)
+- live and active culture → live active culture (90%)</t>
         </is>
       </c>
     </row>
@@ -7483,16 +7459,13 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk. contain live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
+          <t>cultured pasteurized grade a nonfat milk, live active culture (s, thermophilus, l, bulgaricus, l, acidophilus, bifidus, l, casei)</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>- cultured pasteurized grade a nonfat milk. contains live and active cultures → cultured pasteurized grade a nonfat milk. contain live and active culture (singular)
-- s. thermophilus → s thermophilus (97%)
-- l. bulgaricus → l bulgaricus (96%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei → l casei (93%)</t>
+          <t>- live and active cultures → live and active culture (singular)
+- live and active culture → live active culture (90%)</t>
         </is>
       </c>
     </row>
@@ -7507,17 +7480,14 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, sugar, fructose, corn starch, locust bean gum, natural flavor, malic acid, vanilla extract. contain live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
+          <t>cultured pasteurized grade a nonfat milk, sugar, fructose, corn starch, locust bean gum, natural flavor, malic acid, vanilla extract, live active culture (s, thermophilus, l, bulgaricus, l, acidophilus, bifidus, l, casei)</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
           <t>- cornstarch → corn starch (95%)
-- vanilla extract. contains live and active cultures → vanilla extract. contain live and active culture (singular)
-- s. thermophilus → s thermophilus (97%)
-- l. bulgaricus → l bulgaricus (96%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei → l casei (93%)</t>
+- live and active cultures → live and active culture (singular)
+- live and active culture → live active culture (90%)</t>
         </is>
       </c>
     </row>
@@ -7532,16 +7502,13 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, sugar, pineapple juice concentrate, pectin, natural flavor, carob bean gum, turmeric (for color), . contain live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
+          <t>cultured pasteurized grade a nonfat milk, sugar, pineapple juice concentrate, pectin, natural flavor, carob bean gum, turmeric (for color), live active culture (s, thermophilus, l, bulgaricus, l, acidophilus, bifidus, l, casei)</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>- . contains live and active cultures → . contain live and active culture (singular)
-- s. thermophilus → s thermophilus (97%)
-- l. bulgaricus → l bulgaricus (96%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei → l casei (93%)</t>
+          <t>- live and active cultures → live and active culture (singular)
+- live and active culture → live active culture (90%)</t>
         </is>
       </c>
     </row>
@@ -7556,17 +7523,15 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, sugar, strawberry, banana puree, corn starch, pectin, vegetable juice (for color), natural flavor, lemon juice concentrate turmeric - (for color), . contain live and active culture (s thermophilus, l bulgaricus, l acidophilus, bifidus, l casei)</t>
+          <t>cultured pasteurized grade a nonfat milk, sugar, strawberry, banana puree, corn starch, pectin, vegetable juice (for color), natural flavor, lemon juice concentrate turmeric - (for color), live active culture (s, thermophilus, l bulgaricus, l, acidophilus, bifidus, l, casei)</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
           <t>- strawberries → strawberry (singular)
 - cornstarch → corn starch (95%)
-- . contains live and active cultures → . contain live and active culture (singular)
-- s. thermophilus → s thermophilus (97%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei → l casei (93%)</t>
+- live and active cultures → live and active culture (singular)
+- live and active culture → live active culture (90%)</t>
         </is>
       </c>
     </row>
@@ -7581,7 +7546,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a milk, sugar, raspberry puree, modified corn starch, nonfat milk solids, kosher gelatin, natural flavor, concentrated fruit and vegetable juice (color), pectin, sodium citrate, citric acid, vitamin a palmitate, vitamin d3. contain active yogurt with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus and l. casei culture</t>
+          <t>cultured pasteurized grade a milk, sugar, raspberry puree, modified corn starch, nonfat milk solids, kosher gelatin, natural flavor, concentrated fruit and vegetable juice (color), pectin, sodium citrate, citric acid, vitamin a palmitate, vitamin d3, active yogurt with l, bulgaricus, s, thermophilus, bifidobacterium bb 12, l acidophilus and l, l casei culture</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -7589,10 +7554,9 @@
           <t>- modified cornstarch → modified corn starch (97%)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- vitamin d3. contains active yogurt with l. bulgaricus → vitamin d3. contain active yogurt with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
 - bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
-- l acidophilus and l. casei cultures → l acidophilus and l. casei culture (singular)</t>
+- casei cultures → casei culture (singular)
+- casei culture → l casei culture (93%)</t>
         </is>
       </c>
     </row>
@@ -7607,7 +7571,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a milk, sugar, modified corn starch, blueberry puree, nonfat milk solids, kosher gelatin, natural flavor, concentrated fruit and vegetable juice (color), pectin, citric acid, vitamin a palmitate, vitamin d3. contain active yogurt with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l. acidophilus and l. casei culture</t>
+          <t>cultured pasteurized grade a milk, sugar, modified corn starch, blueberry puree, nonfat milk solids, kosher gelatin, natural flavor, concentrated fruit and vegetable juice (color), pectin, citric acid, vitamin a palmitate, vitamin d3, active yogurt with l, bulgaricus, s, thermophilus, bifidobacterium bb 12, l, acidophilus and l, l casei culture</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -7615,10 +7579,9 @@
           <t>- modified cornstarch → modified corn starch (97%)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- vitamin d3. contains active yogurt with l. bulgaricus → vitamin d3. contain active yogurt with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
 - bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
-- l. acidophilus and l. casei cultures → l. acidophilus and l. casei culture (singular)</t>
+- casei cultures → casei culture (singular)
+- casei culture → l casei culture (93%)</t>
         </is>
       </c>
     </row>
@@ -7633,7 +7596,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a milk, sugar, modified corn starch, nonfat milk solids, kosher gelatin, natural flavor, pectin, citric acid, vitamin a palmitate, vitamin d3. contain active yogurt with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l. acidophilus and l. casei culture</t>
+          <t>cultured pasteurized grade a milk, sugar, modified corn starch, nonfat milk solids, kosher gelatin, natural flavor, pectin, citric acid, vitamin a palmitate, vitamin d3, active yogurt with l, bulgaricus, s, thermophilus, bifidobacterium bb 12, l, acidophilus and l, l casei culture</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -7641,10 +7604,9 @@
           <t>- modified cornstarch → modified corn starch (97%)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- vitamin d3. contains active yogurt with l. bulgaricus → vitamin d3. contain active yogurt with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
 - bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
-- l. acidophilus and l. casei cultures → l. acidophilus and l. casei culture (singular)</t>
+- casei cultures → casei culture (singular)
+- casei culture → l casei culture (93%)</t>
         </is>
       </c>
     </row>
@@ -7659,7 +7621,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, strawberry, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness), . contain active yogurt culture with l. bulgaricus s. thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, strawberry, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness), active yogurt culture with l, bulgaricus, thermophilus, bifidus, l, acidophilus, l, l casei culture</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -7667,10 +7629,10 @@
           <t>- strawberries → strawberry (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- . contains active yogurt cultures with l. bulgaricus s. thermophilus → . contain active yogurt culture with l. bulgaricus s. thermophilus (singular)
-- l. acidophilus → l acidophilus (96%)
-- l. casei cultures → l. casei culture (singular)
-- l. casei culture → l casei culture (97%)</t>
+- active yogurt cultures with l → active yogurt culture with l (singular)
+- bulgaricus s → bulgaricus (91%)
+- casei cultures → casei culture (singular)
+- casei culture → l casei culture (93%)</t>
         </is>
       </c>
     </row>
@@ -7685,7 +7647,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, red raspberry, nonfat milk solids, natural flavor, pectin, citric acid, potassium sorbate (to maintain freshness), . contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, red raspberry, nonfat milk solids, natural flavor, pectin, citric acid, potassium sorbate (to maintain freshness), active yogurt culture with l, bulgaricus, s, thermophilus, bifidus, l, acidophilus, l, l casei culture</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -7693,11 +7655,9 @@
           <t>- red raspberries → red raspberry (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- . contains active yogurt cultures with l. bulgaricus → . contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei cultures → l. casei culture (singular)
-- l. casei culture → l casei culture (97%)</t>
+- active yogurt cultures with l → active yogurt culture with l (singular)
+- casei cultures → casei culture (singular)
+- casei culture → l casei culture (93%)</t>
         </is>
       </c>
     </row>
@@ -7712,7 +7672,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, strawberry, blueberry, blackberry, red raspberry, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness), . contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, strawberry, blueberry, blackberry, red raspberry, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness), active yogurt culture with l, bulgaricus, s, thermophilus, bifidus, l, acidophilus, l, l casei culture</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -7723,11 +7683,9 @@
 - red raspberries → red raspberry (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- . contains active yogurt cultures with l. bulgaricus → . contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei cultures → l. casei culture (singular)
-- l. casei culture → l casei culture (97%)</t>
+- active yogurt cultures with l → active yogurt culture with l (singular)
+- casei cultures → casei culture (singular)
+- casei culture → l casei culture (93%)</t>
         </is>
       </c>
     </row>
@@ -7742,7 +7700,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, peach, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness), . contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, peach, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness), active yogurt culture with l, bulgaricus, s, thermophilus, bifidus, l, acidophilus, l, l casei culture</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -7750,11 +7708,9 @@
           <t>- peaches → peach (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- . contains active yogurt cultures with l. bulgaricus → . contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei cultures → l. casei culture (singular)
-- l. casei culture → l casei culture (97%)</t>
+- active yogurt cultures with l → active yogurt culture with l (singular)
+- casei cultures → casei culture (singular)
+- casei culture → l casei culture (93%)</t>
         </is>
       </c>
     </row>
@@ -7769,7 +7725,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, black sweet cherry, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness), . contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, black sweet cherry, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness), active yogurt culture with l, bulgaricus, s, thermophilus, bifidus, l, acidophilus, l, l casei culture</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -7777,11 +7733,9 @@
           <t>- black sweet cherries → black sweet cherry (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- . contains active yogurt cultures with l. bulgaricus → . contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei cultures → l. casei culture (singular)
-- l. casei culture → l casei culture (97%)</t>
+- active yogurt cultures with l → active yogurt culture with l (singular)
+- casei cultures → casei culture (singular)
+- casei culture → l casei culture (93%)</t>
         </is>
       </c>
     </row>
@@ -7796,7 +7750,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, blueberry, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness), . contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, blueberry, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness), active yogurt culture with l, bulgaricus, s, thermophilus, bifidus, l, acidophilus, l, l casei culture</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -7804,11 +7758,9 @@
           <t>- blueberries → blueberry (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- . contains active yogurt cultures with l. bulgaricus → . contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei cultures → l. casei culture (singular)
-- l. casei culture → l casei culture (97%)</t>
+- active yogurt cultures with l → active yogurt culture with l (singular)
+- casei cultures → casei culture (singular)
+- casei culture → l casei culture (93%)</t>
         </is>
       </c>
     </row>
@@ -7823,7 +7775,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, fructose, modified corn starch, kosher gelatin, natural flavor, nonfat milk solids, citric acid, potassium sorbate (to maintain freshness), sucralose, acesulfame potassium, turmeric (color), annatto (color), caramel color, vitamin a palmitate, vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei</t>
+          <t>cultured pasteurized grade a nonfat milk, fructose, modified corn starch, kosher gelatin, natural flavor, nonfat milk solids, citric acid, potassium sorbate (to maintain freshness), sucralose, acesulfame potassium, turmeric (color), annatto (color), caramel color, vitamin a palmitate, vitamin d3, active yogurt culture with l, bulgaricus, s, thermophilus, bifidobacterium bb 12, l, acidophilus, l, casei</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -7831,11 +7783,8 @@
           <t>- modified cornstarch → modified corn starch (97%)
 - natural flavors → natural flavor (singular)
 - nonfat milk solids → nonfat milk solid (singular)
-- vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
-- bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei → l casei (93%)</t>
+- active yogurt cultures with l → active yogurt culture with l (singular)
+- bifidobacterium bb-12 → bifidobacterium bb 12 (95%)</t>
         </is>
       </c>
     </row>
@@ -7850,7 +7799,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, fructose, modified corn starch, blueberry, kosher gelatin, concentrated blueberry puree, nonfat milk solids, natural flavor, concentrated fruit &amp; vegetable juice (color), malic acid, potassium sorbate (to maintain freshness), acesulfame potassium, sucralose, vitamin a palmitate, vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei</t>
+          <t>cultured pasteurized grade a nonfat milk, fructose, modified corn starch, blueberry, kosher gelatin, concentrated blueberry puree, nonfat milk solids, natural flavor, concentrated fruit &amp; vegetable juice (color), malic acid, potassium sorbate (to maintain freshness), acesulfame potassium, sucralose, vitamin a palmitate, vitamin d3, active yogurt culture with l, bulgaricus, s, thermophilus, bifidobacterium bb 12, l, acidophilus, l, casei</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -7859,11 +7808,8 @@
 - blueberries → blueberry (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
-- bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei → l casei (93%)</t>
+- active yogurt cultures with l → active yogurt culture with l (singular)
+- bifidobacterium bb-12 → bifidobacterium bb 12 (95%)</t>
         </is>
       </c>
     </row>
@@ -7878,7 +7824,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, peach, fructose, modified corn starch, kosher gelatin, citric acid, nonfat milk solids, natural flavor, potassium sorbate (to maintain freshness), acesulfame potassium, sucralose, annatto, concentrated black carrot juice (color), vitamin a palmitate, vitamin d3, active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei</t>
+          <t>cultured pasteurized grade a nonfat milk, peach, fructose, modified corn starch, kosher gelatin, citric acid, nonfat milk solids, natural flavor, potassium sorbate (to maintain freshness), acesulfame potassium, sucralose, annatto, concentrated black carrot juice (color), vitamin a palmitate, vitamin d3, active yogurt culture with l, bulgaricus, s, thermophilus, bifidobacterium bb 12, l, acidophilus, l casei</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -7887,10 +7833,8 @@
 - modified cornstarch → modified corn starch (97%)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- active yogurt cultures with l. bulgaricus → active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
-- bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
-- l. acidophilus → l acidophilus (96%)</t>
+- active yogurt cultures with l → active yogurt culture with l (singular)
+- bifidobacterium bb-12 → bifidobacterium bb 12 (95%)</t>
         </is>
       </c>
     </row>
@@ -7905,7 +7849,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, raspberry, fructose, modified corn starch, kosher gelatin, natural flavor, nonfat milk solids, concentrated fruit and vegetable juice (color), potassium sorbate (to maintain freshness), acesulfame potassium, sucralose, vitamin a palmitate, vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a nonfat milk, raspberry, fructose, modified corn starch, kosher gelatin, natural flavor, nonfat milk solids, concentrated fruit and vegetable juice (color), potassium sorbate (to maintain freshness), acesulfame potassium, sucralose, vitamin a palmitate, vitamin d3, active yogurt culture with l, bulgaricus, s, thermophilus, bifidobacterium bb 12, l, acidophilus, l, l casei culture</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -7914,12 +7858,10 @@
 - modified cornstarch → modified corn starch (97%)
 - natural flavors → natural flavor (singular)
 - nonfat milk solids → nonfat milk solid (singular)
-- vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
+- active yogurt cultures with l → active yogurt culture with l (singular)
 - bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei cultures → l. casei culture (singular)
-- l. casei culture → l casei culture (97%)</t>
+- casei cultures → casei culture (singular)
+- casei culture → l casei culture (93%)</t>
         </is>
       </c>
     </row>
@@ -7934,7 +7876,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, strawberry, fructose, modified corn starch, kosher gelatin, nonfat milk solids, natural flavor, concentrated vegetable juice (color), malic acid, sucralose, acesulfame potassium, potassium sorbate (to maintain freshness), vitamin a palmitate, vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a nonfat milk, strawberry, fructose, modified corn starch, kosher gelatin, nonfat milk solids, natural flavor, concentrated vegetable juice (color), malic acid, sucralose, acesulfame potassium, potassium sorbate (to maintain freshness), vitamin a palmitate, vitamin d3, active yogurt culture with l, bulgaricus, s, thermophilus, bifidobacterium bb 12, l, acidophilus, l, l casei culture</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -7944,12 +7886,10 @@
 - nonfat milk solics → nonfat milk solic (singular)
 - nonfat milk solic → nonfat milk solids (91%)
 - natural flavors → natural flavor (singular)
-- vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
+- active yogurt cultures with l → active yogurt culture with l (singular)
 - bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei cultures → l. casei culture (singular)
-- l. casei culture → l casei culture (97%)</t>
+- casei cultures → casei culture (singular)
+- casei culture → l casei culture (93%)</t>
         </is>
       </c>
     </row>
@@ -7964,7 +7904,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, strawberry, fructose, modified corn starch, banana, kosher gelatin, natural flavor, nonfat milk solids, citric acid, tricalcium phosphate, acesulfame potassium, vegetable juice and beta carotene (color), sucralose, potassium sorbate (to maintain freshness), sodium benzoate (to maintain freshness), vitamin a palmitate, vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a nonfat milk, strawberry, fructose, modified corn starch, banana, kosher gelatin, natural flavor, nonfat milk solids, citric acid, tricalcium phosphate, acesulfame potassium, vegetable juice and beta carotene (color), sucralose, potassium sorbate (to maintain freshness), sodium benzoate (to maintain freshness), vitamin a palmitate, vitamin d3, active yogurt culture with l, bulgaricus, s, thermophilus, bifidobacterium bb 12, l, acidophilus, l, l casei culture</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -7974,12 +7914,10 @@
 - bananas → banana (singular)
 - natural flavors → natural flavor (singular)
 - nonfat milk solids → nonfat milk solid (singular)
-- vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
+- active yogurt cultures with l → active yogurt culture with l (singular)
 - bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei cultures → l. casei culture (singular)
-- l. casei culture → l casei culture (97%)</t>
+- casei cultures → casei culture (singular)
+- casei culture → l casei culture (93%)</t>
         </is>
       </c>
     </row>
@@ -7994,7 +7932,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, sugar, modified corn starch, fructose, kosher gelatin, natural flavor, nonfat milk solids, tricalcium phosphate, citric acid, sucralose, potassium sorbate (to maintain freshness), acesulfame potassium, annatto (color), sodium citrate, turmeric (color), vitamin a palmitate, and vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, and l casei</t>
+          <t>cultured pasteurized grade a nonfat milk, sugar, modified corn starch, fructose, kosher gelatin, natural flavor, nonfat milk solids, tricalcium phosphate, citric acid, sucralose, potassium sorbate (to maintain freshness), acesulfame potassium, annatto (color), sodium citrate, turmeric (color), vitamin a palmitate, and vitamin d3, active yogurt culture with l, bulgaricus, s, thermophilus, bifidus, l, acidophilus, and l, casei</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -8002,11 +7940,7 @@
           <t>- modified cornstarch → modified corn starch (97%)
 - natural flavors → natural flavor (singular)
 - nonfat milk solids → nonfat milk solid (singular)
-- and vitamin d3. contains active yogurt cultures with l. bulgaricus → and vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
-- and vitamin d3. contain active yogurt culture with l. bulgaricus → vitamin d3. contain active yogurt culture with l. bulgaricus (58%)
-- s. thermophilus → s thermophilus (97%)
-- l. acidophilus → l acidophilus (96%)
-- and l. casei → l casei (93%)</t>
+- active yogurt cultures with l → active yogurt culture with l (singular)</t>
         </is>
       </c>
     </row>
@@ -8021,7 +7955,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, blueberry, corn syrup, modified corn starch, kosher gelatin, natural flavor, potassium sorbate (to maintain freshness), citric acid, red 40, blue 1. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, blueberry, corn syrup, modified corn starch, kosher gelatin, natural flavor, potassium sorbate (to maintain freshness), citric acid, red 40, blue 1, active yogurt culture with l, bulgaricus, s, thermophilus, bifidus, l, acidophilus, l, l casei culture</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -8029,11 +7963,9 @@
           <t>- blueberries → blueberry (singular)
 - modified cornstarch → modified corn starch (97%)
 - natural flavors → natural flavor (singular)
-- blue 1. contains active yogurt cultures with l. bulgaricus → blue 1. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei cultures → l. casei culture (singular)
-- l. casei culture → l casei culture (97%)</t>
+- active yogurt cultures with l → active yogurt culture with l (singular)
+- casei cultures → casei culture (singular)
+- casei culture → l casei culture (93%)</t>
         </is>
       </c>
     </row>
@@ -8048,7 +7980,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, black cherry, corn syrup, modified corn starch, kosher gelatin, natural flavor, potassium sorbate (to maintain freshness), citric acid, red 40, blue 1. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, black cherry, corn syrup, modified corn starch, kosher gelatin, natural flavor, potassium sorbate (to maintain freshness), citric acid, red 40, blue 1, active yogurt culture with l, bulgaricus, s, thermophilus, bifidus, l, acidophilus, l, l casei culture</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -8056,11 +7988,9 @@
           <t>- black cherries → black cherry (singular)
 - modified cornstarch → modified corn starch (97%)
 - natural flavors → natural flavor (singular)
-- blue 1. contains active yogurt cultures with l. bulgaricus → blue 1. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei cultures → l. casei culture (singular)
-- l. casei culture → l casei culture (97%)</t>
+- active yogurt cultures with l → active yogurt culture with l (singular)
+- casei cultures → casei culture (singular)
+- casei culture → l casei culture (93%)</t>
         </is>
       </c>
     </row>
@@ -8075,7 +8005,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, raspberry, corn syrup, modified corn starch, kosher gelatin, natural flavor, potassium sorbate (to maintain freshness), red 40 and blue 1. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, raspberry, corn syrup, modified corn starch, kosher gelatin, natural flavor, potassium sorbate (to maintain freshness), red 40 and blue 1, active yogurt culture with l, bulgaricus, s, thermophilus, bifidus, l, acidophilus, l, l casei culture</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -8083,11 +8013,9 @@
           <t>- raspberries → raspberry (singular)
 - modified cornstarch → modified corn starch (97%)
 - natural flavors → natural flavor (singular)
-- red 40 and blue 1. contains active yogurt cultures with l. bulgaricus → red 40 and blue 1. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei cultures → l. casei culture (singular)
-- l. casei culture → l casei culture (97%)</t>
+- active yogurt cultures with l → active yogurt culture with l (singular)
+- casei cultures → casei culture (singular)
+- casei culture → l casei culture (93%)</t>
         </is>
       </c>
     </row>
@@ -8102,7 +8030,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, strawberry, corn syrup, banana puree concentrate, modified corn starch, kosher gelatin, natural flavor, citric acid, potassium sorbate (to maintain freshness), red 40. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, strawberry, corn syrup, banana puree concentrate, modified corn starch, kosher gelatin, natural flavor, citric acid, potassium sorbate (to maintain freshness), red 40, active yogurt culture with l, bulgaricus, s, thermophilus, bifidus, l, acidophilus, l, l casei culture</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -8110,11 +8038,9 @@
           <t>- strawberries → strawberry (singular)
 - modified cornstarch → modified corn starch (97%)
 - natural flavors → natural flavor (singular)
-- red 40. contains active yogurt cultures with l. bulgaricus → red 40. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei cultures → l. casei culture (singular)
-- l. casei culture → l casei culture (97%)</t>
+- active yogurt cultures with l → active yogurt culture with l (singular)
+- casei cultures → casei culture (singular)
+- casei culture → l casei culture (93%)</t>
         </is>
       </c>
     </row>
@@ -8129,7 +8055,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, strawberry, corn syrup, modified corn starch, kosher gelatin, natural flavor, citric acid, potassium sorbate (to maintain freshness), red 40. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, strawberry, corn syrup, modified corn starch, kosher gelatin, natural flavor, citric acid, potassium sorbate (to maintain freshness), red 40, active yogurt culture with l, bulgaricus, s, thermophilus, bifidus, l, acidophilus, l, l casei culture</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -8137,11 +8063,9 @@
           <t>- strawberries → strawberry (singular)
 - modified cornstarch → modified corn starch (97%)
 - natural flavors → natural flavor (singular)
-- red 40. contains active yogurt cultures with l. bulgaricus → red 40. contain active yogurt culture with l. bulgaricus (singular)
-- s.thermophilus → s thermophilus (93%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei cultures → l. casei culture (singular)
-- l. casei culture → l casei culture (97%)</t>
+- active yogurt cultures with l → active yogurt culture with l (singular)
+- casei cultures → casei culture (singular)
+- casei culture → l casei culture (93%)</t>
         </is>
       </c>
     </row>
@@ -8156,13 +8080,13 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk sugar, oranges modified cornstarch, natural flavors annatto (for color), citric acid. contain live and active culture (l acidophilus, bifidus and l. casei)</t>
+          <t>cultured pasteurized grade a nonfat milk sugar, oranges modified cornstarch, natural flavors annatto (for color), citric acid, live active culture (l, acidophilus, bifidus and l, casei)</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>- citric acid. contains live and active cultures → citric acid. contain live and active culture (singular)
-- l. acidophilus → l acidophilus (96%)</t>
+          <t>- live and active cultures → live and active culture (singular)
+- live and active culture → live active culture (90%)</t>
         </is>
       </c>
     </row>
@@ -8177,7 +8101,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, apple, fructose, modified corn starch, kosher gelatin, nonfat milk solids, natural flavor, cinnamon, citric acid, sodium citrate, acesulfame potassium, potassium sorbate (to maintain freshness), sucralose, vitamin a palmitate, vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei</t>
+          <t>cultured pasteurized grade a nonfat milk, apple, fructose, modified corn starch, kosher gelatin, nonfat milk solids, natural flavor, cinnamon, citric acid, sodium citrate, acesulfame potassium, potassium sorbate (to maintain freshness), sucralose, vitamin a palmitate, vitamin d3, active yogurt culture with l, bulgaricus, s, thermophilus, bifidobacterium bb 12, l, acidophilus, l, casei</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -8186,11 +8110,8 @@
 - modified cornstarch → modified corn starch (97%)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
-- bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
-- l. acidophilus → l acidophilus (96%)
-- l.casei → l casei (86%)</t>
+- active yogurt cultures with l → active yogurt culture with l (singular)
+- bifidobacterium bb-12 → bifidobacterium bb 12 (95%)</t>
         </is>
       </c>
     </row>
@@ -8205,7 +8126,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, sugar, fructose, modified corn starch, kosher gelatin, nonfat milk solids, natural flavor, citric acid, tricalcium phosphate, potassium sorbate (to maintain freshness), sodium citrate, sodium benzoate (to maintain freshness), caramel color, sucralose, acesulfame potassium, turmeric (color), vitamin a palmitate, vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei</t>
+          <t>cultured pasteurized grade a nonfat milk, sugar, fructose, modified corn starch, kosher gelatin, nonfat milk solids, natural flavor, citric acid, tricalcium phosphate, potassium sorbate (to maintain freshness), sodium citrate, sodium benzoate (to maintain freshness), caramel color, sucralose, acesulfame potassium, turmeric (color), vitamin a palmitate, vitamin d3, active yogurt culture with l, bulgaricus, s, thermophilus, bifidobacterium bb 12, l, acidophilus, l casei</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -8214,10 +8135,8 @@
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
 - tumeric → turmeric (93%)
-- vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
-- bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
-- l. acidophilus → l acidophilus (96%)</t>
+- active yogurt cultures with l → active yogurt culture with l (singular)
+- bifidobacterium bb-12 → bifidobacterium bb 12 (95%)</t>
         </is>
       </c>
     </row>
@@ -8232,7 +8151,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, strawberry, banana, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness), . contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, strawberry, banana, nonfat milk solids, pectin, natural flavor, citric acid, potassium sorbate (to maintain freshness), active yogurt culture with l, bulgaricus, s, thermophilus, bifidus, l, acidophilus, l, l casei culture</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -8241,11 +8160,9 @@
 - bananas → banana (singular)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- . contains active yogurt cultures with l. bulgaricus → . contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei cultures → l. casei culture (singular)
-- l. casei culture → l casei culture (97%)</t>
+- active yogurt cultures with l → active yogurt culture with l (singular)
+- casei cultures → casei culture (singular)
+- casei culture → l casei culture (93%)</t>
         </is>
       </c>
     </row>
@@ -8260,16 +8177,15 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk and nonfat milk solids. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk and nonfat milk solid, active yogurt culture with l, bulgaricus, s, thermophilus, bifidus, l, acidophilus, l, l casei culture</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>- cultured pasteurized grade a lowfat milk and nonfat milk solids. contains active yogurt cultures with l. bulgaricus → cultured pasteurized grade a lowfat milk and nonfat milk solids. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei cultures → l. casei culture (singular)
-- l. casei culture → l casei culture (97%)</t>
+          <t>- cultured pasteurized grade a lowfat milk and nonfat milk solids → cultured pasteurized grade a lowfat milk and nonfat milk solid (singular)
+- active yogurt cultures with l → active yogurt culture with l (singular)
+- casei cultures → casei culture (singular)
+- casei culture → l casei culture (93%)</t>
         </is>
       </c>
     </row>
@@ -8284,7 +8200,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a nonfat milk, fructose, modified corn starch, kosher gelatin, nonfat milk solids, natural flavor, citric acid, potassium sorbate (to maintain freshness), acesulfame potassium, sucralose, turmeric (color), caramel color, vitamin a palmitate, vitamin d3. contain active yogurt culture with l. bulgaricus, s thermophilus, bifidobacterium bb 12, l acidophilus, l casei</t>
+          <t>cultured pasteurized grade a nonfat milk, fructose, modified corn starch, kosher gelatin, nonfat milk solids, natural flavor, citric acid, potassium sorbate (to maintain freshness), acesulfame potassium, sucralose, turmeric (color), caramel color, vitamin a palmitate, vitamin d3, active yogurt culture with l, bulgaricus, s, thermophilus, bifidobacterium bb 12, l, acidophilus, l, casei</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -8292,11 +8208,8 @@
           <t>- modified cornstarch → modified corn starch (97%)
 - nonfat milk solids → nonfat milk solid (singular)
 - natural flavors → natural flavor (singular)
-- vitamin d3. contains active yogurt cultures with l. bulgaricus → vitamin d3. contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
-- bifidobacterium bb-12 → bifidobacterium bb 12 (95%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei → l casei (93%)</t>
+- active yogurt cultures with l → active yogurt culture with l (singular)
+- bifidobacterium bb-12 → bifidobacterium bb 12 (95%)</t>
         </is>
       </c>
     </row>
@@ -8311,18 +8224,16 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a lowfat milk, sugar, corn syrup, modified corn starch, kosher gelatin, natural flavor, citric acid, sodium citrate, potassium sorbate (to maintain freshness), annatto (color), . contain active yogurt culture with l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei culture</t>
+          <t>cultured pasteurized grade a lowfat milk, sugar, corn syrup, modified corn starch, kosher gelatin, natural flavor, citric acid, sodium citrate, potassium sorbate (to maintain freshness), annatto (color), active yogurt culture with l, bulgaricus, s, thermophilus, bifidus, l, acidophilus, l, l casei culture</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
           <t>- modified cornstarch → modified corn starch (97%)
 - natural flavors → natural flavor (singular)
-- . contains active yogurt cultures with l. bulgaricus → . contain active yogurt culture with l. bulgaricus (singular)
-- s. thermophilus → s thermophilus (97%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei cultures → l. casei culture (singular)
-- l. casei culture → l casei culture (97%)</t>
+- active yogurt cultures with l → active yogurt culture with l (singular)
+- casei cultures → casei culture (singular)
+- casei culture → l casei culture (93%)</t>
         </is>
       </c>
     </row>
@@ -8401,14 +8312,12 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>cultured pasteurized grade a milk, nonfat milk solids. contains active yogurt cultures including l. bulgaricus, s thermophilus, bifidus, l acidophilus, l casei</t>
+          <t>cultured pasteurized grade a milk, nonfat milk solids, active yogurt cultures including l, bulgaricus, s, thermophilus, bifidus, l, acidophilus, l, casei</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>- s. thermophilus → s thermophilus (97%)
-- l. acidophilus → l acidophilus (96%)
-- l. casei → l casei (93%)</t>
+          <t>- nonfat milk solids → nonfat milk solid (singular)</t>
         </is>
       </c>
     </row>
@@ -9823,12 +9732,13 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>ice cream ingredients: milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan. topping ingredients: coating (coconut oil, sugar, cocoa and cocoa processed with alkali, chocolate liquor, partially hydrogenated soybean oil, soy lecithin, salt, vanillin), peanuts. cone ingredients: bleached wheat flour, sugar, molasses, vegetable shortening (palm, cottonseed, partially hydrogenated soybean oil), soy lecithin, salt, caramel color, artificial flavor</t>
+          <t>ice cream ingredients: milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan, topping ingredients: coating (coconut oil, sugar, cocoa and cocoa processed with alkali, chocolate liquor, partially hydrogenated soybean oil, soy lecithin, salt, vanillin), peanut, cone ingredients: bleached wheat flour, sugar, molasses, vegetable shortening (palm, cottonseed, partially hydrogenated soybean oil), soy lecithin, salt, caramel color, artificial flavor</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
           <t>- mono-and diglycerides → mono and diglycerides (95%)
+- peanuts → peanut (singular)
 - and/or partially hydrogenated soybean oil → partially hydrogenated soybean oil (91%)</t>
         </is>
       </c>
@@ -9844,7 +9754,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>ice cream ingredients: milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan. coating ingredients: coconut oil, sugar, cocoa and cocoa processed with alkali, chocolate liquor, partially hydrogenated soybean oil, soy lecithin, salt, vanilla</t>
+          <t>ice cream ingredients: milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan, coating ingredients: coconut oil, sugar, cocoa and cocoa processed with alkali, chocolate liquor, partially hydrogenated soybean oil, soy lecithin, salt, vanilla</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -9864,7 +9774,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>ice cream ingredients: milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan. sherbet ingredients: water, corn syrup, high fructose corn syrup, sugar, whey, milkfat, orange puree (concentrated orange juice, orange pulp, orange oil, natural flavor), citric acid, guar gum, mono and diglycerides, xanthan gum, polysorbate 80, locust bean gum, carrageenan, annatto, artificial color (red 40, yellow 5, yellow 6)</t>
+          <t>ice cream ingredients: milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan, sherbet ingredients: water, corn syrup, high fructose corn syrup, sugar, whey, milkfat, orange puree (concentrated orange juice, orange pulp, orange oil, natural flavor), citric acid, guar gum, mono and diglycerides, xanthan gum, polysorbate 80, locust bean gum, carrageenan, annatto, artificial color (red 40, yellow 5, yellow 6)</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -9906,7 +9816,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>ice cream ingredients: milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, artificial flavor, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, locust bean gum, carrageenan. wafers ingredients: bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose corn syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
+          <t>ice cream ingredients: milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, artificial flavor, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, locust bean gum, carrageenan, wafers ingredients: bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose corn syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -9927,7 +9837,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>ice cream ingredients: milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, artificial flavor, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, locust bean gum, carrageenan. wafer ingredients: bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose corn syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
+          <t>ice cream ingredients: milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, artificial flavor, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, locust bean gum, carrageenan, wafer ingredients: bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose corn syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -9948,7 +9858,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>ice cream ingredients: milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan. wafer ingredients: bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose corn syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
+          <t>ice cream ingredients: milkfat and nonfat milk, high fructose corn syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan, wafer ingredients: bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose corn syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -10011,7 +9921,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>ice cream ingredients: milkfat and nonfat milk, chocolate chip (sugar, chocolate liquor, cocoa butter, soy lecithin, salt, vanilla), high fructose corn syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, natural flavor, locust bean gum, carrageenan, artificial color (yellow 5, blue 1), . wafers ingredients: bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose corn syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
+          <t>ice cream ingredients: milkfat and nonfat milk, chocolate chip (sugar, chocolate liquor, cocoa butter, soy lecithin, salt, vanilla), high fructose corn syrup, corn syrup, buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, natural flavor, locust bean gum, carrageenan, artificial color (yellow 5, blue 1), wafers ingredients: bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose corn syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -10035,7 +9945,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>ice cream ingredients: milkfat and nonfat milk, high fructose corn syrup, corn syrup, cookie crunch (bleached wheat flour, sugar, caramel color, palm oil, cocoa, baking soda, salt, soy lecithin), buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan. wafers ingredients: bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose, corn syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
+          <t>ice cream ingredients: milkfat and nonfat milk, high fructose corn syrup, corn syrup, cookie crunch (bleached wheat flour, sugar, caramel color, palm oil, cocoa, baking soda, salt, soy lecithin), buttermilk, sugar, whey, mono and diglycerides, guar gum, xanthan gum, polysorbate 80, artificial flavor, locust bean gum, carrageenan, wafers ingredients: bleached wheat flour, sugar, caramel color, dextrose, palm oil, corn flour, cocoa, high fructose, corn syrup, corn syrup, modified corn starch, baking soda, salt, mono and diglycerides, soy lecithin</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -10077,7 +9987,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>ice cream ingredients: milkfat and nonfat milk, sugar, fudge variegate (powdered sugar (sugar, corn starch), vegetable oil (peanut and/or cottonseed oil, and/or palm oil), cocoa processed with alkali, whey, salt, soy lecithin, natural flavor), chocolate flake (powdered sugar, coconut oil, partially hydrogenated coconut oil, cocoa processed with alkali, chocolate liquor, whey, soy lecithin, salt, natural flavor), corn syrup, cocoa processed with alkali, whey, mono and diglycerides, guar gum, locust bean gum, calcium sulfate, polysorbate 80, carrageenan. coating ingredients: coconut oil, sugar, chocolate liquor, cocoa processed with alkali soybean oil, whey, partially hydrogenated coconut oil, cocoa soy lecithin, salt, natural flavor</t>
+          <t>ice cream ingredients: milkfat and nonfat milk, sugar, fudge variegate (powdered sugar (sugar, corn starch), vegetable oil (peanut and/or cottonseed oil, and/or palm oil), cocoa processed with alkali, whey, salt, soy lecithin, natural flavor), chocolate flake (powdered sugar, coconut oil, partially hydrogenated coconut oil, cocoa processed with alkali, chocolate liquor, whey, soy lecithin, salt, natural flavor), corn syrup, cocoa processed with alkali, whey, mono and diglycerides, guar gum, locust bean gum, calcium sulfate, polysorbate 80, carrageenan, coating ingredients: coconut oil, sugar, chocolate liquor, cocoa processed with alkali soybean oil, whey, partially hydrogenated coconut oil, cocoa soy lecithin, salt, natural flavor</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -10098,12 +10008,13 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>ice cream: milkfat and nonfat milk, sugar, corn syrup, whey, natural and artificial flavor, mono and diglycerides, guar gum, locust bean gum, calcium sulfate, polysorbate 80, carrageenan. coating: coconut oil, sugar, whole milk powder, chocolate liquor, soybean oil, chocolate liquor processed with alkali, partially hydrogenated coconut oil, cocoa, soy lecithin, natural and artificial flavors. caramel variegate: high fructose corn syrup, water, sweetened condensed skim milk (condensed skim milk, sugar), butter, modified food starch (waxy maize), salt, artificial flavor, potassium sorbate (preservative), disodium phosphate, carrageenan. milk chocolate flake: powdered sugar, partially hydrogenated coconut oil, coconut oil, whole milk powder, nonfat dry milk, chocolate liquor processed with alkali, cocoa, whey, soy lecithin, salt, natural and artificial flavor</t>
+          <t>ice cream: milkfat and nonfat milk, sugar, corn syrup, whey, natural and artificial flavor, mono and diglycerides, guar gum, locust bean gum, calcium sulfate, polysorbate 80, carrageenan, coating: coconut oil, sugar, whole milk powder, chocolate liquor, soybean oil, chocolate liquor processed with alkali, partially hydrogenated coconut oil, cocoa, soy lecithin, natural and artificial flavor, caramel variegate: high fructose corn syrup, water, sweetened condensed skim milk (condensed skim milk, sugar), butter, modified food starch (waxy maize), salt, artificial flavor, potassium sorbate (preservative), disodium phosphate, carrageenan, milk chocolate flake: powdered sugar, partially hydrogenated coconut oil, coconut oil, whole milk powder, nonfat dry milk, chocolate liquor processed with alkali, cocoa, whey, soy lecithin, salt, natural and artificial flavor</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
           <t>- mono- and diglycerides → mono and diglycerides (98%)
+- natural and artificial flavors → natural and artificial flavor (singular)
 - natural and artificial flavors → natural and artificial flavor (singular)</t>
         </is>
       </c>
@@ -10119,7 +10030,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>butternut squash, ricotta cheese (pasteurized milk, whey, cream, vinegar, salt, stabilizer (guar gum, locust bean gum, xanthan gum)), mozzarella cheese (pasteurized cows milk, cheese culture, salt, enzyme), breadcrumb (wheat flour, sugar, yeast, salt), parmesan cheese (pasteurized cows milk, cheese culture, salt, enzyme), honey, egg, canola oil, salt, parsley, black pepper, nutmeg, cinnamon, annatto oil. pasta: wheat flour, water, egg, beta carotene, annatto oil</t>
+          <t>butternut squash, ricotta cheese (pasteurized milk, whey, cream, vinegar, salt, stabilizer (guar gum, locust bean gum, xanthan gum)), mozzarella cheese (pasteurized cows milk, cheese culture, salt, enzyme), breadcrumb (wheat flour, sugar, yeast, salt), parmesan cheese (pasteurized cows milk, cheese culture, salt, enzyme), honey, egg, canola oil, salt, parsley, black pepper, nutmeg, cinnamon, annatto oil, pasta: wheat flour, water, egg, beta carotene, annatto oil</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -10175,7 +10086,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>ricotta cheese (pasteurized milk, whey, cream, vinegar, salt, stabilizer (guar gum, locust bean gum, xanthan gum)), cheese blend (parmesan cheese, asiago cheese, romano cheese, fontina cheese (pasteurized cows milk, cheese culture, salt, enzyme)), milk, mozzarella cheese (pasteurized cows milk, cheese culture, salt, enzyme), parmesan flavor (parmesan cheese (milk, culture, salt, enzyme), salt, yeast extract, unsalted butter, corn oil, olive oil, creme powder, sugar, natural flavoring), egg, parsley, nutmeg, black pepper. pasta: wheat flour, water, egg, beta carotene</t>
+          <t>ricotta cheese (pasteurized milk, whey, cream, vinegar, salt, stabilizer (guar gum, locust bean gum, xanthan gum)), cheese blend (parmesan cheese, asiago cheese, romano cheese, fontina cheese (pasteurized cows milk, cheese culture, salt, enzyme)), milk, mozzarella cheese (pasteurized cows milk, cheese culture, salt, enzyme), parmesan flavor (parmesan cheese (milk, culture, salt, enzyme), salt, yeast extract, unsalted butter, corn oil, olive oil, creme powder, sugar, natural flavoring), egg, parsley, nutmeg, black pepper, pasta: wheat flour, water, egg, beta carotene</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -10201,7 +10112,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>asiago cheese (pasteurized cows milk, cheese culture, salt, enzyme), ricotta cheese (whey, protein, salt, vinegar), mozzarella cheese (pasteurized whole milk, culture, salt, enzyme), breadcrumb (wheat flour), parmesan cheese (pasteurized cows milk, cheese culture, salt, enzyme), romano cheese (pasteurized cows milk, cheese culture, salt, enzyme), parmesan flavor (parmesan cheese (pasteurized milk, culture, salt, enzyme), salt, yeast extract, unsalted butter, corn oil, olive oil, cream powder, sugar, natural flavoring), canola oil, parsley, salt, black pepper. pasta: wheat flour, water, egg, tomato paste, spinach powder, annatto oil, beta carotene</t>
+          <t>asiago cheese (pasteurized cows milk, cheese culture, salt, enzyme), ricotta cheese (whey, protein, salt, vinegar), mozzarella cheese (pasteurized whole milk, culture, salt, enzyme), breadcrumb (wheat flour), parmesan cheese (pasteurized cows milk, cheese culture, salt, enzyme), romano cheese (pasteurized cows milk, cheese culture, salt, enzyme), parmesan flavor (parmesan cheese (pasteurized milk, culture, salt, enzyme), salt, yeast extract, unsalted butter, corn oil, olive oil, cream powder, sugar, natural flavoring), canola oil, parsley, salt, black pepper, pasta: wheat flour, water, egg, tomato paste, spinach powder, annatto oil, beta carotene</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -10232,7 +10143,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>portabella mushroom, ricotta cheese (pasteurized milk, whey, cream, vinegar, salt stabilizer (guar gum, locust bean gum, xanthan gum)), fontina cheese (pasteurized cows milk, cheese culture, salt, enzyme), white cheddar cheese (pasteurized milk, culture, salt, enzyme), breadcrumb (wheat flour, sugar, yeast, salt), mushroom flavor (cooked mushroom, potato flour, dry whey, yeast extract, unsalted butter (flavoring), salt, onion powder), butter (cream, natural flavoring), mozzarella cheese (pasteurized cows milk, cheese culture, salt, enzyme), egg, parmesan flavor (parmesan cheese (milk, culture, salt, enzyme), salt, yeast extract, unsalted butter, corn oil, olive oil, cream powder, sugar, natural flavoring), garlic, red wine, parsley, salt, black pepper. pasta: wheat flour, water, egg, caramel</t>
+          <t>portabella mushroom, ricotta cheese (pasteurized milk, whey, cream, vinegar, salt stabilizer (guar gum, locust bean gum, xanthan gum)), fontina cheese (pasteurized cows milk, cheese culture, salt, enzyme), white cheddar cheese (pasteurized milk, culture, salt, enzyme), breadcrumb (wheat flour, sugar, yeast, salt), mushroom flavor (cooked mushroom, potato flour, dry whey, yeast extract, unsalted butter (flavoring), salt, onion powder), butter (cream, natural flavoring), mozzarella cheese (pasteurized cows milk, cheese culture, salt, enzyme), egg, parmesan flavor (parmesan cheese (milk, culture, salt, enzyme), salt, yeast extract, unsalted butter, corn oil, olive oil, cream powder, sugar, natural flavoring), garlic, red wine, parsley, salt, black pepper, pasta: wheat flour, water, egg, caramel</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -10262,7 +10173,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>ricotta cheese (pasteurized milk, whey, cream, vinegar, salt, stabilizer (guar gum, locust bean gum, xanthan gum)), goat cheese (pasteurized goat milk, vegetable rennet, cheese culture, salt), white cheddar cheese (pasteurized milk, culture, salt, enzyme), tomato, mozzarella cheese (pasteurized cows milk, cheese culture, salt, enzyme), egg, breadcrumb (wheat flour, sugar, yeast, sea salt), parsley, garlic, salt, black pepper, water. pasta: wheat flour, water, egg, beta carotene</t>
+          <t>ricotta cheese (pasteurized milk, whey, cream, vinegar, salt, stabilizer (guar gum, locust bean gum, xanthan gum)), goat cheese (pasteurized goat milk, vegetable rennet, cheese culture, salt), white cheddar cheese (pasteurized milk, culture, salt, enzyme), tomato, mozzarella cheese (pasteurized cows milk, cheese culture, salt, enzyme), egg, breadcrumb (wheat flour, sugar, yeast, sea salt), parsley, garlic, salt, black pepper, water, pasta: wheat flour, water, egg, beta carotene</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -10445,7 +10356,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>wrapper: enriched, malted wheat flour (flour, malted barley flour, niacin, ferrous sulfate, thiamine mononitrate, riboflavin, folic acid), water, 2% or less of: salt, sugar, soybean oil, sweet whey. filling: sauce (water, tomato paste, seasoning blend (corn starch modified, salt, sugar, 2% or less of: xanthan gum, spice, soybean oil, dehydrated garlic, dehydrated onion, paprika, citric acid, beet powder (color), guar gum, soy flour, parmesan cheese (cultured part skim milk, salt, enzyme))), restricted melt cheese blend (mozzarella cheese (pasteurized milk, cheese culture, salt, enzyme), imitation cheese (water, palm shortening, modified food starch, whey powder, sodium aluminum phosphate, salt, gum blend (xanthan gum, locust bean gum, guar gum), citric acid, sorbic acid, disodium phosphate, sodium citrate, anti caking blend (corn starch, calcium sulfate))), textured soy flour, 2% or less of: methylcellulose. fried in vegetable oil</t>
+          <t>wrapper: enriched, malted wheat flour (flour, malted barley flour, niacin, ferrous sulfate, thiamine mononitrate, riboflavin, folic acid), water, 2% or less of: salt, sugar, soybean oil, sweet whey, : sauce (water, tomato paste, seasoning blend (corn starch modified, salt, sugar, 2% or less of: xanthan gum, spice, soybean oil, dehydrated garlic, dehydrated onion, paprika, citric acid, beet powder (color), guar gum, soy flour, parmesan cheese (cultured part skim milk, salt, enzyme))), restricted melt cheese blend (mozzarella cheese (pasteurized milk, cheese culture, salt, enzyme), imitation cheese (water, palm shortening, modified food starch, whey powder, sodium aluminum phosphate, salt, gum blend (xanthan gum, locust bean gum, guar gum), citric acid, sorbic acid, disodium phosphate, sodium citrate, anti caking blend (corn starch, calcium sulfate))), textured soy flour, 2% or less of: methylcellulose, fried in vegetable oil</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -10471,7 +10382,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>wrapper: enriched, malted wheat flour (flour, malted barley flour, niacin, ferrous sulfate, thiamine mononitrate, riboflavin, folic acid), water, 2% or less of: salt, sugar, soybean oil, sweet whey. filling: sauce (water, tomato paste, seasoning blend (cornstarch-modified, salt, sugar, 2% or less of: xanthan gum, spices, soybean oil, dehydrated garlic, dehydrated onion, paprika, citric acid, beet powder (color), guar gum, soy flour, parmesan cheese (cultured part skim milk, salt, enzymes)), cooked pork &amp; chicken pizza topping (sausage made with (pork, mechanically separated chicken, water, seasoning (spices, corn syrup solids, salt, dry garlic, chili pepper, caramel color), caramel color, water, textured vegetable protein (soy protein concentrate, caramel color))), pepperoni (pork, beef, salt, 2% or less of: lactic acid starter culture, oleoresin of paprika, sodium nitrite, bha, bht, citric acid. may also contain 2% or less of: spices, spice extractives, dextrose, sugar, flavorings, sodium ascorbate, water, garlic powder), restricted melt cheese blend (mozzarella cheese (pasteurized milk, cheese cultures, salt, enzymes), imitation cheese (water, palm shortening, modified food starch, whey powder, sodium aluminum phosphate, salt, gum blend (xanthan gum, locust bean gum, guar gum), citric acid, sorbic acid, disodium phosphate, sodium citrate, anti-caking blend (corn starch, calcium sulfate))), 2% or less of: textured soy flour, methylcellulose. fried in vegetable oil</t>
+          <t>wrapper: enriched, malted wheat flour (flour, malted barley flour, niacin, ferrous sulfate, thiamine mononitrate, riboflavin, folic acid), water, 2% or less of: salt, sugar, soybean oil, sweet whey, : sauce (water, tomato paste, seasoning blend (cornstarch-modified, salt, sugar, 2% or less of: xanthan gum, spices, soybean oil, dehydrated garlic, dehydrated onion, paprika, citric acid, beet powder (color), guar gum, soy flour, parmesan cheese (cultured part skim milk, salt, enzymes)), cooked pork &amp; chicken pizza topping (sausage made with (pork, mechanically separated chicken, water, seasoning (spices, corn syrup solids, salt, dry garlic, chili pepper, caramel color), caramel color, water, textured vegetable protein (soy protein concentrate, caramel color))), pepperoni (pork, beef, salt, 2% or less of: lactic acid starter culture, oleoresin of paprika, sodium nitrite, bha, bht, citric acid, may also contain 2% or less of: spices, spice extractives, dextrose, sugar, flavorings, sodium ascorbate, water, garlic powder), restricted melt cheese blend (mozzarella cheese (pasteurized milk, cheese cultures, salt, enzymes), imitation cheese (water, palm shortening, modified food starch, whey powder, sodium aluminum phosphate, salt, gum blend (xanthan gum, locust bean gum, guar gum), citric acid, sorbic acid, disodium phosphate, sodium citrate, anti-caking blend (corn starch, calcium sulfate))), 2% or less of: textured soy flour, methylcellulose, fried in vegetable oil</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -10491,7 +10402,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>bread: enriched wheat flour (flour, niacin, iron, thiamine mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, soybean oil, yeast, sugar, salt, calcium propionate (preservative), microbial enzyme, ascorbic acid. spread: water, soybean oil, dehydrated garlic, palm oil, whey powder, salt, modified corn starch, distilled vegetable monoglyceride, dehydrated parsley, modified tapioca starch, xanthan gum citric acid, natural and artificial flavor, beta carotene (color), . cheese: mozzarella, provolone and parmesan cheese (pasteurized milk, bacterial culture, salt, enzyme, natural smoke flavor), potato starch and powdered cellulose (to prevent caking)</t>
+          <t>bread: enriched wheat flour (flour, niacin, iron, thiamine mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, soybean oil, yeast, sugar, salt, calcium propionate (preservative), microbial enzyme, ascorbic acid, spread: water, soybean oil, dehydrated garlic, palm oil, whey powder, salt, modified corn starch, distilled vegetable monoglyceride, dehydrated parsley, modified tapioca starch, xanthan gum citric acid, natural and artificial flavor, beta carotene (color), cheese: mozzarella, provolone and parmesan cheese (pasteurized milk, bacterial culture, salt, enzyme, natural smoke flavor), potato starch and powdered cellulose (to prevent caking)</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -10512,10 +10423,14 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>bread: enriched wheat flour (flour, niacin, reduced iron, thiamine mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, soybean oil, sugar, yeast, salt, fermented wheat flour, calcium propionate (preservative), ascorbic acid, microbial enzymes. spread: water, soybean oil, dehydrated garlic, palm oil, whey powder, salt, modified corn starch, vegetable monoglyceride, dehydrated parsley, modified tapioca starch, xanthan gum, citric acid, natural and artificial flavor, beta carotene (color)</t>
-        </is>
-      </c>
-      <c r="D486" t="inlineStr"/>
+          <t>bread: enriched wheat flour (flour, niacin, reduced iron, thiamine mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid), water, soybean oil, sugar, yeast, salt, fermented wheat flour, calcium propionate (preservative), ascorbic acid, microbial enzyme, spread: water, soybean oil, dehydrated garlic, palm oil, whey powder, salt, modified corn starch, vegetable monoglyceride, dehydrated parsley, modified tapioca starch, xanthan gum, citric acid, natural and artificial flavor, beta carotene (color)</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>- microbial enzymes → microbial enzyme (singular)</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -10528,7 +10443,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>bread: enriched wheat flour (flour, niacin, iron, thiamine mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid, water, yeast, sugar, soybean oil, salt, whey powder, mono and diglycerides, citric acid, yeast, calcium propionate (preservative), microbial enzymes, ascorbic acid. spread: soybean oil, water, parmesan cheese (pasteurized milk, salt, bacterial, culture, lipase, calcium chloride, mocrobial enzyme, corn starch and/or cellulose (as an anticaking agent)), dehydrated garlic, palm oil, whey powder, salt, modified corn starch, distilled vegetable monoglyceride, natural and artificial flavors, dehydrated parsley, citric acid, modified tapioca starch, xanthan gum, beta carotene (color)</t>
+          <t>bread: enriched wheat flour (flour, niacin, iron, thiamine mononitrate (vitamin b1), riboflavin (vitamin b2), folic acid, water, yeast, sugar, soybean oil, salt, whey powder, mono and diglycerides, citric acid, yeast, calcium propionate (preservative), microbial enzymes, ascorbic acid, spread: soybean oil, water, parmesan cheese (pasteurized milk, salt, bacterial, culture, lipase, calcium chloride, mocrobial enzyme, corn starch and/or cellulose (as an anticaking agent)), dehydrated garlic, palm oil, whey powder, salt, modified corn starch, distilled vegetable monoglyceride, natural and artificial flavors, dehydrated parsley, citric acid, modified tapioca starch, xanthan gum, beta carotene (color)</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -10730,7 +10645,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>enriched wheat flour (wheat flour, niacin, iron, thiamin mononitrate, riboflavin, folic acid), lard and hydrogenated lard with bha and bht added to protect flavor, water, sugar. contains 2% or less of: salt, baking soda, sodium metabisulfite (preservative), yellow 5, yellow 6</t>
+          <t>enriched wheat flour (wheat flour, niacin, iron, thiamin mononitrate, riboflavin, folic acid), lard and hydrogenated lard with bha and bht added to protect flavor, water, sugar, 2% or less of: salt, baking soda, sodium metabisulfite (preservative), yellow 5, yellow 6</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
